--- a/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
+++ b/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\4月末\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\5月末\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E98FD51-7983-46FE-AD7A-C2C7E6B4E0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197CC76-4FD4-4ED7-A4B7-A1C004F20B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="４月" sheetId="1" r:id="rId1"/>
+    <sheet name="５月" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="353">
   <si>
     <t>№</t>
   </si>
@@ -631,6 +632,507 @@
   </si>
   <si>
     <t>熊本県合志市豊岡2000番地1158</t>
+  </si>
+  <si>
+    <t>申請日</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>許可日</t>
+    <rPh sb="0" eb="2">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初許可日</t>
+    <rPh sb="0" eb="1">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガッチャーミ</t>
+  </si>
+  <si>
+    <t>熊本市中央区国府1丁目23-12</t>
+  </si>
+  <si>
+    <t>西村　隆一郎</t>
+  </si>
+  <si>
+    <t>狐月</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目1-22TM12ﾋﾞﾙ1F-A</t>
+  </si>
+  <si>
+    <t>327-8551</t>
+  </si>
+  <si>
+    <t>㈱ＭＡＤ</t>
+  </si>
+  <si>
+    <t>松本　悠佑</t>
+  </si>
+  <si>
+    <t>熊本市東区広木町11番10号</t>
+  </si>
+  <si>
+    <t>Ｈａｓｈ</t>
+  </si>
+  <si>
+    <t>熊本市中央区白山2丁目1-4</t>
+  </si>
+  <si>
+    <t>(同)ＰＳＤＣ</t>
+  </si>
+  <si>
+    <t>岩佐　弘子</t>
+  </si>
+  <si>
+    <t>おむすび</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺南5丁目3-15</t>
+  </si>
+  <si>
+    <t>宮田　直美</t>
+  </si>
+  <si>
+    <t>Shisha Cafe&amp;Bar SIN 熊本店</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目8-26下通Presentビル 5F</t>
+  </si>
+  <si>
+    <t>㈱ＳＩＮ</t>
+  </si>
+  <si>
+    <t>稲葉祐輝</t>
+  </si>
+  <si>
+    <t>東京都渋谷区広尾5丁目1-43広尾ZERO501</t>
+  </si>
+  <si>
+    <t>月のうさぎ堂</t>
+  </si>
+  <si>
+    <t>熊本市中央区細工町3丁目1</t>
+  </si>
+  <si>
+    <t>322-0820</t>
+  </si>
+  <si>
+    <t>㈱うさぎ農園</t>
+  </si>
+  <si>
+    <t>月野　亜衣</t>
+  </si>
+  <si>
+    <t>熊本県合志市野々島1295</t>
+  </si>
+  <si>
+    <t>中華酒菜　櫻花</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町5-40長安寺ｲｰｽﾄﾝﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>櫻井　亮太</t>
+  </si>
+  <si>
+    <t>菓子屋クーク</t>
+  </si>
+  <si>
+    <t>熊本市東区小峯2丁目5-10</t>
+  </si>
+  <si>
+    <t>㈱トーレストジャパン</t>
+  </si>
+  <si>
+    <t>花田　充秋</t>
+  </si>
+  <si>
+    <t>熊本県菊池郡大津町平川140</t>
+  </si>
+  <si>
+    <t>ｐｒｉｖａｔｅ　ｌｏｕｎｇｅ　Ｍ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町10-10ﾌﾟﾚｼﾞｬｰｽﾞﾋﾞﾙ4F-B</t>
+  </si>
+  <si>
+    <t>中原　悠里</t>
+  </si>
+  <si>
+    <t>スナック　翔子</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-13米納会館ﾋﾞﾙ1F-1</t>
+  </si>
+  <si>
+    <t>甲斐　亜規子</t>
+  </si>
+  <si>
+    <t>銀だこハイボール酒場　三年坂店</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町5-9ｻﾝｾﾘﾃ下川ﾋﾞﾙ1F2F</t>
+  </si>
+  <si>
+    <t>278-8881</t>
+  </si>
+  <si>
+    <t>㈱デリバリー九州</t>
+  </si>
+  <si>
+    <t>西川　重博</t>
+  </si>
+  <si>
+    <t>熊本市南区江越二丁目15番30号</t>
+  </si>
+  <si>
+    <t>スナック　愛</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13番13号米納会館ﾋﾞﾙ地下1階1号室</t>
+  </si>
+  <si>
+    <t>張　蕊</t>
+  </si>
+  <si>
+    <t>熊本元祖煮干しラーメン　龍宮本家</t>
+  </si>
+  <si>
+    <t>熊本市中央区中央街1-30ﾊｯﾋﾟｰﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>？江　龍太郎</t>
+  </si>
+  <si>
+    <t>申請者氏名：？は「魚」＋「青」</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　メリア</t>
+  </si>
+  <si>
+    <t>熊本市東区小峯2丁目5-8ｺｰﾎﾟ嶋本102</t>
+  </si>
+  <si>
+    <t>野田　汐音</t>
+  </si>
+  <si>
+    <t>和心処　そのだ</t>
+  </si>
+  <si>
+    <t>熊本市南区出仲間1丁目4-1西ﾋﾞﾙ101</t>
+  </si>
+  <si>
+    <t>園田　修一</t>
+  </si>
+  <si>
+    <t>圭ちゃんラーメン</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町2-15河野ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>(同)横手冷凍</t>
+  </si>
+  <si>
+    <t>小田　圭太郎</t>
+  </si>
+  <si>
+    <t>熊本市西区横手4丁目21-59</t>
+  </si>
+  <si>
+    <t>Ｄａｒｔｓ　Ｂａｒ　＆Ｊ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-13米納会館ﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>福永　淳一</t>
+  </si>
+  <si>
+    <t>Ｓａｍｕｒａｉ　Ｈｅａｒｔ</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町2-23ﾄﾏﾄﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>府内　宥弥</t>
+  </si>
+  <si>
+    <t>辛島厨房</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街7-25東急ﾎﾃﾙB1</t>
+  </si>
+  <si>
+    <t>(同)クリモト商会</t>
+  </si>
+  <si>
+    <t>栗本　玉棟</t>
+  </si>
+  <si>
+    <t>熊本市中央区本山1丁目1番2-12号県営本山団地</t>
+  </si>
+  <si>
+    <t>イチニコ食堂　ゆめマート大江店</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江3丁目2-40</t>
+  </si>
+  <si>
+    <t>288-3334</t>
+  </si>
+  <si>
+    <t>フラッグス㈱</t>
+  </si>
+  <si>
+    <t>松江　慎太郎</t>
+  </si>
+  <si>
+    <t>熊本市中央区南熊本三丁目14番3号</t>
+  </si>
+  <si>
+    <t>すし清</t>
+  </si>
+  <si>
+    <t>熊本市北区清水新地5丁目10-23</t>
+  </si>
+  <si>
+    <t>宮本　明</t>
+  </si>
+  <si>
+    <t>Ｔｉｎｋ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-9第2蘇州ﾋﾞﾙ6F-B</t>
+  </si>
+  <si>
+    <t>274-8070</t>
+  </si>
+  <si>
+    <t>ＮｏＺ㈱</t>
+  </si>
+  <si>
+    <t>北里　由之</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-3</t>
+  </si>
+  <si>
+    <t>淀川食品株式会社　もみの木園事業所</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺東5丁目6-123</t>
+  </si>
+  <si>
+    <t>淀川食品㈱</t>
+  </si>
+  <si>
+    <t>田村隆</t>
+  </si>
+  <si>
+    <t>大阪府大阪市淀川区三津屋中一丁目1番2号</t>
+  </si>
+  <si>
+    <t>ちょっぽう</t>
+  </si>
+  <si>
+    <t>熊本市南区野口1丁目11-6</t>
+  </si>
+  <si>
+    <t>緒方　大雅</t>
+  </si>
+  <si>
+    <t>㈱ヒライ　麻生田店</t>
+  </si>
+  <si>
+    <t>熊本市北区麻生田4丁目2-56</t>
+  </si>
+  <si>
+    <t>338-6811</t>
+  </si>
+  <si>
+    <t>マグロノドン</t>
+  </si>
+  <si>
+    <t>熊本市西区出町7-10</t>
+  </si>
+  <si>
+    <t>塩﨑　真琴</t>
+  </si>
+  <si>
+    <t>淀川食品株式会社　小春ケアパークそよ風事業所</t>
+  </si>
+  <si>
+    <t>熊本市南区島町2丁目18-36</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　Ｒｉｚｅｒｏ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目9-8銀座ﾋﾞﾙ5F</t>
+  </si>
+  <si>
+    <t>上塚　涼太</t>
+  </si>
+  <si>
+    <t>麺屋とらい</t>
+  </si>
+  <si>
+    <t>熊本市西区上熊本3丁目3-5</t>
+  </si>
+  <si>
+    <t>太田　桂右</t>
+  </si>
+  <si>
+    <t>小平商店</t>
+  </si>
+  <si>
+    <t>熊本市東区小山6丁目2-33</t>
+  </si>
+  <si>
+    <t>小平　芳人</t>
+  </si>
+  <si>
+    <t>星の箱舟</t>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町5-4ﾄﾞﾙﾊｳｽﾋﾞﾙ2F-A</t>
+  </si>
+  <si>
+    <t>㈱アークフロンティア</t>
+  </si>
+  <si>
+    <t>南　翔平</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山一丁目31番20号賢勝ﾋﾞﾙ201</t>
+  </si>
+  <si>
+    <t>ＳＧ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-7ｱｰﾊﾞﾝ銀座ﾋﾞﾙ501</t>
+  </si>
+  <si>
+    <t>園田　崇尋</t>
+  </si>
+  <si>
+    <t>ＪＵＮＣＴＩＯＮ　Ｃｏｆｆｅｅ　Ｒｏａｓｔｅｒ</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江1丁目11-27関本ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>田﨑　慶貴</t>
+  </si>
+  <si>
+    <t>福来亭</t>
+  </si>
+  <si>
+    <t>熊本市中央区白山3丁目2-21-1F</t>
+  </si>
+  <si>
+    <t>黄貞　剛</t>
+  </si>
+  <si>
+    <t>ｅｖｅ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-3ｱﾙﾀﾋﾞﾙ5F-E</t>
+  </si>
+  <si>
+    <t>松永　大輝</t>
+  </si>
+  <si>
+    <t>ＣＨＡＢＯ‐ＺＵ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-2ｱﾙﾀﾋﾞﾙ3F-A</t>
+  </si>
+  <si>
+    <t>森田　康敬</t>
+  </si>
+  <si>
+    <t>九州素材　和食　個室　八州熊本下通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町1-6桑本ﾋﾞﾙB1</t>
+  </si>
+  <si>
+    <t>327-9380</t>
+  </si>
+  <si>
+    <t>㈱Ｂｅ　ｂｌｏｏｍ</t>
+  </si>
+  <si>
+    <t>物袋　栄一</t>
+  </si>
+  <si>
+    <t>福岡県福岡市中央区舞鶴一丁目4番31号-2F</t>
+  </si>
+  <si>
+    <t>Ｂｅｎ×Ｂｅｎ　＆　Ｄａｎ×Ｄａｎ</t>
+  </si>
+  <si>
+    <t>熊本市北区高平2丁目25-16</t>
+  </si>
+  <si>
+    <t>㈱Ｊｉｎ×Ｊｉｎ</t>
+  </si>
+  <si>
+    <t>山口　拓人</t>
+  </si>
+  <si>
+    <t>熊本県合志市御代志1873番地28</t>
+  </si>
+  <si>
+    <t>水前寺ダイニング　はちの台所</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺1丁目31-11ｱｸﾃｨﾌﾞ86 1-B</t>
+  </si>
+  <si>
+    <t>榊原　武士</t>
+  </si>
+  <si>
+    <t>熊本競輪　選手宿舎</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺4丁目33-42</t>
+  </si>
+  <si>
+    <t>㈱スポフィット</t>
+  </si>
+  <si>
+    <t>井上　勝史</t>
+  </si>
+  <si>
+    <t>愛媛県松山市西垣生町914番地10</t>
+  </si>
+  <si>
+    <t>熊本市中央区白山二丁目1-4</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -2845,4 +3347,1558 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D59B40A-5363-44C7-8B2D-0DC3F64081CF}">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="9" max="13" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45404</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45413</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45413</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45413</v>
+      </c>
+      <c r="M2" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45413</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45413</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45413</v>
+      </c>
+      <c r="M3" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45414</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45414</v>
+      </c>
+      <c r="L4" s="1">
+        <v>45414</v>
+      </c>
+      <c r="M4" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J5" s="1">
+        <v>45414</v>
+      </c>
+      <c r="K5" s="1">
+        <v>45414</v>
+      </c>
+      <c r="L5" s="1">
+        <v>45414</v>
+      </c>
+      <c r="M5" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45414</v>
+      </c>
+      <c r="K6" s="1">
+        <v>45414</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45414</v>
+      </c>
+      <c r="M6" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45404</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45419</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45419</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45419</v>
+      </c>
+      <c r="M7" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J8" s="1">
+        <v>45419</v>
+      </c>
+      <c r="K8" s="1">
+        <v>45419</v>
+      </c>
+      <c r="L8" s="1">
+        <v>45419</v>
+      </c>
+      <c r="M8" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45413</v>
+      </c>
+      <c r="J9" s="1">
+        <v>45419</v>
+      </c>
+      <c r="K9" s="1">
+        <v>45419</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45419</v>
+      </c>
+      <c r="M9" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45413</v>
+      </c>
+      <c r="J10" s="1">
+        <v>45419</v>
+      </c>
+      <c r="K10" s="1">
+        <v>45419</v>
+      </c>
+      <c r="L10" s="1">
+        <v>45419</v>
+      </c>
+      <c r="M10" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J11" s="1">
+        <v>45420</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45420</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45420</v>
+      </c>
+      <c r="M11" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45419</v>
+      </c>
+      <c r="J12" s="1">
+        <v>45421</v>
+      </c>
+      <c r="K12" s="1">
+        <v>45421</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45421</v>
+      </c>
+      <c r="M12" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45413</v>
+      </c>
+      <c r="J13" s="1">
+        <v>45425</v>
+      </c>
+      <c r="K13" s="1">
+        <v>45425</v>
+      </c>
+      <c r="L13" s="1">
+        <v>45425</v>
+      </c>
+      <c r="M13" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45390</v>
+      </c>
+      <c r="J14" s="1">
+        <v>45427</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45427</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45427</v>
+      </c>
+      <c r="M14" s="1">
+        <v>47634</v>
+      </c>
+      <c r="N14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45419</v>
+      </c>
+      <c r="J15" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K15" s="1">
+        <v>45428</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45428</v>
+      </c>
+      <c r="M15" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45425</v>
+      </c>
+      <c r="J16" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K16" s="1">
+        <v>45428</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45428</v>
+      </c>
+      <c r="M16" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" t="s">
+        <v>260</v>
+      </c>
+      <c r="H17" t="s">
+        <v>261</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45425</v>
+      </c>
+      <c r="J17" s="1">
+        <v>45429</v>
+      </c>
+      <c r="K17" s="1">
+        <v>45429</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45429</v>
+      </c>
+      <c r="M17" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45426</v>
+      </c>
+      <c r="J18" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K18" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45432</v>
+      </c>
+      <c r="M18" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K19" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45432</v>
+      </c>
+      <c r="M19" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45420</v>
+      </c>
+      <c r="J20" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K20" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L20" s="1">
+        <v>45433</v>
+      </c>
+      <c r="M20" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" t="s">
+        <v>275</v>
+      </c>
+      <c r="F21" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" t="s">
+        <v>277</v>
+      </c>
+      <c r="H21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I21" s="1">
+        <v>45421</v>
+      </c>
+      <c r="J21" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45433</v>
+      </c>
+      <c r="M21" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" t="s">
+        <v>281</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1">
+        <v>45426</v>
+      </c>
+      <c r="J22" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K22" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45433</v>
+      </c>
+      <c r="M22" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" t="s">
+        <v>285</v>
+      </c>
+      <c r="G23" t="s">
+        <v>286</v>
+      </c>
+      <c r="H23" t="s">
+        <v>287</v>
+      </c>
+      <c r="I23" s="1">
+        <v>45428</v>
+      </c>
+      <c r="J23" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K23" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L23" s="1">
+        <v>45433</v>
+      </c>
+      <c r="M23" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I24" s="1">
+        <v>45427</v>
+      </c>
+      <c r="J24" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K24" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L24" s="1">
+        <v>45433</v>
+      </c>
+      <c r="M24" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D25" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" t="s">
+        <v>295</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="1">
+        <v>45358</v>
+      </c>
+      <c r="J25" s="1">
+        <v>45434</v>
+      </c>
+      <c r="K25" s="1">
+        <v>45434</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45434</v>
+      </c>
+      <c r="M25" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D26" t="s">
+        <v>297</v>
+      </c>
+      <c r="E26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45391</v>
+      </c>
+      <c r="J26" s="1">
+        <v>45434</v>
+      </c>
+      <c r="K26" s="1">
+        <v>45434</v>
+      </c>
+      <c r="L26" s="1">
+        <v>45434</v>
+      </c>
+      <c r="M26" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="1">
+        <v>45428</v>
+      </c>
+      <c r="J27" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K27" s="1">
+        <v>45435</v>
+      </c>
+      <c r="L27" s="1">
+        <v>45435</v>
+      </c>
+      <c r="M27" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>290</v>
+      </c>
+      <c r="G28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H28" t="s">
+        <v>292</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45427</v>
+      </c>
+      <c r="J28" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K28" s="1">
+        <v>45435</v>
+      </c>
+      <c r="L28" s="1">
+        <v>45435</v>
+      </c>
+      <c r="M28" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="1">
+        <v>45414</v>
+      </c>
+      <c r="J29" s="1">
+        <v>45436</v>
+      </c>
+      <c r="K29" s="1">
+        <v>45436</v>
+      </c>
+      <c r="L29" s="1">
+        <v>45436</v>
+      </c>
+      <c r="M29" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" t="s">
+        <v>308</v>
+      </c>
+      <c r="F30" t="s">
+        <v>309</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1">
+        <v>45419</v>
+      </c>
+      <c r="J30" s="1">
+        <v>45436</v>
+      </c>
+      <c r="K30" s="1">
+        <v>45436</v>
+      </c>
+      <c r="L30" s="1">
+        <v>45436</v>
+      </c>
+      <c r="M30" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D31" t="s">
+        <v>311</v>
+      </c>
+      <c r="F31" t="s">
+        <v>312</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="1">
+        <v>45420</v>
+      </c>
+      <c r="J31" s="1">
+        <v>45439</v>
+      </c>
+      <c r="K31" s="1">
+        <v>45439</v>
+      </c>
+      <c r="L31" s="1">
+        <v>45439</v>
+      </c>
+      <c r="M31" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32" t="s">
+        <v>314</v>
+      </c>
+      <c r="F32" t="s">
+        <v>315</v>
+      </c>
+      <c r="G32" t="s">
+        <v>316</v>
+      </c>
+      <c r="H32" t="s">
+        <v>317</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45435</v>
+      </c>
+      <c r="J32" s="1">
+        <v>45439</v>
+      </c>
+      <c r="K32" s="1">
+        <v>45439</v>
+      </c>
+      <c r="L32" s="1">
+        <v>45439</v>
+      </c>
+      <c r="M32" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" t="s">
+        <v>319</v>
+      </c>
+      <c r="F33" t="s">
+        <v>320</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1">
+        <v>45435</v>
+      </c>
+      <c r="J33" s="1">
+        <v>45439</v>
+      </c>
+      <c r="K33" s="1">
+        <v>45439</v>
+      </c>
+      <c r="L33" s="1">
+        <v>45439</v>
+      </c>
+      <c r="M33" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>321</v>
+      </c>
+      <c r="D34" t="s">
+        <v>322</v>
+      </c>
+      <c r="F34" t="s">
+        <v>323</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J34" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K34" s="1">
+        <v>45440</v>
+      </c>
+      <c r="L34" s="1">
+        <v>45440</v>
+      </c>
+      <c r="M34" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D35" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1">
+        <v>45434</v>
+      </c>
+      <c r="J35" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K35" s="1">
+        <v>45440</v>
+      </c>
+      <c r="L35" s="1">
+        <v>45440</v>
+      </c>
+      <c r="M35" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" t="s">
+        <v>328</v>
+      </c>
+      <c r="F36" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="1">
+        <v>45433</v>
+      </c>
+      <c r="J36" s="1">
+        <v>45441</v>
+      </c>
+      <c r="K36" s="1">
+        <v>45441</v>
+      </c>
+      <c r="L36" s="1">
+        <v>45441</v>
+      </c>
+      <c r="M36" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>330</v>
+      </c>
+      <c r="D37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1">
+        <v>45436</v>
+      </c>
+      <c r="J37" s="1">
+        <v>45441</v>
+      </c>
+      <c r="K37" s="1">
+        <v>45441</v>
+      </c>
+      <c r="L37" s="1">
+        <v>45441</v>
+      </c>
+      <c r="M37" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>333</v>
+      </c>
+      <c r="D38" t="s">
+        <v>334</v>
+      </c>
+      <c r="E38" t="s">
+        <v>335</v>
+      </c>
+      <c r="F38" t="s">
+        <v>336</v>
+      </c>
+      <c r="G38" t="s">
+        <v>337</v>
+      </c>
+      <c r="H38" t="s">
+        <v>338</v>
+      </c>
+      <c r="I38" s="1">
+        <v>45439</v>
+      </c>
+      <c r="J38" s="1">
+        <v>45442</v>
+      </c>
+      <c r="K38" s="1">
+        <v>45442</v>
+      </c>
+      <c r="L38" s="1">
+        <v>45442</v>
+      </c>
+      <c r="M38" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>339</v>
+      </c>
+      <c r="D39" t="s">
+        <v>340</v>
+      </c>
+      <c r="F39" t="s">
+        <v>341</v>
+      </c>
+      <c r="G39" t="s">
+        <v>342</v>
+      </c>
+      <c r="H39" t="s">
+        <v>343</v>
+      </c>
+      <c r="I39" s="1">
+        <v>45427</v>
+      </c>
+      <c r="J39" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K39" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L39" s="1">
+        <v>45443</v>
+      </c>
+      <c r="M39" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>347</v>
+      </c>
+      <c r="D40" t="s">
+        <v>348</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>349</v>
+      </c>
+      <c r="G40" t="s">
+        <v>350</v>
+      </c>
+      <c r="H40" t="s">
+        <v>351</v>
+      </c>
+      <c r="I40" s="1">
+        <v>45433</v>
+      </c>
+      <c r="J40" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K40" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L40" s="1">
+        <v>45443</v>
+      </c>
+      <c r="M40" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>344</v>
+      </c>
+      <c r="D41" t="s">
+        <v>345</v>
+      </c>
+      <c r="F41" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J41" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K41" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L41" s="1">
+        <v>45443</v>
+      </c>
+      <c r="M41" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
+++ b/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\5月末\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\６月末\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197CC76-4FD4-4ED7-A4B7-A1C004F20B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC08879B-4345-42F7-A193-B60346E03820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="４月" sheetId="1" r:id="rId1"/>
     <sheet name="５月" sheetId="5" r:id="rId2"/>
+    <sheet name="6月" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1087">
   <si>
     <t>№</t>
   </si>
@@ -1134,6 +1135,2224 @@
   <si>
     <t>熊本市中央区白山二丁目1-4</t>
   </si>
+  <si>
+    <t>ラーメン龍の家　ワンダーシティ店</t>
+  </si>
+  <si>
+    <t>熊本市中央区九品寺6丁目9-40</t>
+  </si>
+  <si>
+    <t>366-9933</t>
+  </si>
+  <si>
+    <t>㈱アペックスコーポレーション</t>
+  </si>
+  <si>
+    <t>梶原　龍太</t>
+  </si>
+  <si>
+    <t>福岡県久留米市小頭町136番地1</t>
+  </si>
+  <si>
+    <t>Ｓ－ｐｅｌａ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-7ｱｰﾊﾞﾝｷﾞﾝｻﾞﾋﾞﾙ8F-2</t>
+  </si>
+  <si>
+    <t>岡本　エスペランザ</t>
+  </si>
+  <si>
+    <t>エルミタージュ</t>
+  </si>
+  <si>
+    <t>熊本市南区城南町東阿高1137-28</t>
+  </si>
+  <si>
+    <t>佐美三　健一</t>
+  </si>
+  <si>
+    <t>天草ＨＥＲＯ鮨　牛深丸</t>
+  </si>
+  <si>
+    <t>熊本市西区春日3丁目15-30</t>
+  </si>
+  <si>
+    <t>276-8005</t>
+  </si>
+  <si>
+    <t>㈱ＨＥＲＯ’Ｓ</t>
+  </si>
+  <si>
+    <t>三瀬　広海</t>
+  </si>
+  <si>
+    <t>熊本市西区春日四丁目7番16号</t>
+  </si>
+  <si>
+    <t>ｒａｆｆｉｎｅ　ラフィーネ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-29喜三遊ﾋﾞﾙ5F-A</t>
+  </si>
+  <si>
+    <t>佐々木　鈴</t>
+  </si>
+  <si>
+    <t>セブン-イレブン熊本上水前寺２丁目店</t>
+  </si>
+  <si>
+    <t>熊本市中央区上水前寺2丁目1-48</t>
+  </si>
+  <si>
+    <t>小藤田　繁</t>
+  </si>
+  <si>
+    <t>吉野家熊本駅店</t>
+  </si>
+  <si>
+    <t>熊本市西区春日3丁目15-30肥後よかもん市場</t>
+  </si>
+  <si>
+    <t>288-4880</t>
+  </si>
+  <si>
+    <t>ＪＲ九州フードサービス㈱</t>
+  </si>
+  <si>
+    <t>福澤　広行</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区博多駅東1丁目10-7JR九州博多駅東ﾋﾞﾙ</t>
+  </si>
+  <si>
+    <t>屋号：吉は土の下に口</t>
+    <rPh sb="0" eb="2">
+      <t>ヤゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熊本市北区龍田陳内3丁目11</t>
+  </si>
+  <si>
+    <t>348-7501</t>
+  </si>
+  <si>
+    <t>㈱ウエスト</t>
+  </si>
+  <si>
+    <t>若山　和夫</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区三筑1丁目5-8</t>
+  </si>
+  <si>
+    <t>喫茶カウチ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新町1丁目10-39</t>
+  </si>
+  <si>
+    <t>右田　亮子</t>
+  </si>
+  <si>
+    <t>はなの舞　北熊本駐屯地店</t>
+  </si>
+  <si>
+    <t>熊本市北区八景水谷2丁目17-1</t>
+  </si>
+  <si>
+    <t>344-9276</t>
+  </si>
+  <si>
+    <t>チムニー㈱</t>
+  </si>
+  <si>
+    <t>茨田　篤司</t>
+  </si>
+  <si>
+    <t>東京都墨田区亀沢一丁目1番15号</t>
+  </si>
+  <si>
+    <t>ユルリト</t>
+  </si>
+  <si>
+    <t>熊本市中央区渡鹿6丁目7-46Rent昌1F</t>
+  </si>
+  <si>
+    <t>森内　真希</t>
+  </si>
+  <si>
+    <t>ほわっと</t>
+  </si>
+  <si>
+    <t>熊本市中央区河原町2</t>
+  </si>
+  <si>
+    <t>荒木　敏代</t>
+  </si>
+  <si>
+    <t>宿り木</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-7GMﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>太田　澄子</t>
+  </si>
+  <si>
+    <t>竹はら</t>
+  </si>
+  <si>
+    <t>熊本市中央区九品寺3丁目15-54戸川ｺｰﾎﾟ1FB</t>
+  </si>
+  <si>
+    <t>竹原　洋</t>
+  </si>
+  <si>
+    <t>株式会社イーティーズ</t>
+  </si>
+  <si>
+    <t>熊本市中央区萩原町4-31</t>
+  </si>
+  <si>
+    <t>378-7811</t>
+  </si>
+  <si>
+    <t>㈱イーティーズ</t>
+  </si>
+  <si>
+    <t>原田　航太</t>
+  </si>
+  <si>
+    <t>福岡県糟屋郡新宮町下府二丁目12番24号</t>
+  </si>
+  <si>
+    <t>天外天</t>
+  </si>
+  <si>
+    <t>342-6856</t>
+  </si>
+  <si>
+    <t>小田圭太郎商店㈱</t>
+  </si>
+  <si>
+    <t>熊本市西区横手四丁目21番59号</t>
+  </si>
+  <si>
+    <t>杉養蜂園　熊本駅肥後よかモン市場店</t>
+  </si>
+  <si>
+    <t>355-8238</t>
+  </si>
+  <si>
+    <t>㈱杉養蜂園</t>
+  </si>
+  <si>
+    <t>米田　弘一</t>
+  </si>
+  <si>
+    <t>熊本市北区貢町571-15</t>
+  </si>
+  <si>
+    <t>とろろ飯　稲穂</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-5境ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>352-1891</t>
+  </si>
+  <si>
+    <t>㈱仁</t>
+  </si>
+  <si>
+    <t>今山　広治</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-12</t>
+  </si>
+  <si>
+    <t>寿し処　稲穂</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-12熊交観光ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>326-5225</t>
+  </si>
+  <si>
+    <t>㈱うしじま酒店　ＪＲ熊本駅店</t>
+  </si>
+  <si>
+    <t>288-3934</t>
+  </si>
+  <si>
+    <t>㈱うしじま酒店</t>
+  </si>
+  <si>
+    <t>牛嶋　崇</t>
+  </si>
+  <si>
+    <t>熊本市南区近見9丁目9-85</t>
+  </si>
+  <si>
+    <t>ファミリーマート熊本秋津新町店</t>
+  </si>
+  <si>
+    <t>熊本市東区秋津新町2-14</t>
+  </si>
+  <si>
+    <t>高島　陽一</t>
+  </si>
+  <si>
+    <t>十割そば太郎</t>
+  </si>
+  <si>
+    <t>熊本市東区戸島西1丁目29-15</t>
+  </si>
+  <si>
+    <t>戸田　智文</t>
+  </si>
+  <si>
+    <t>ピザーラ　ビバパエリア　熊本南店</t>
+  </si>
+  <si>
+    <t>熊本市南区江越2丁目9-3ｸﾞﾚｰｽ江越102</t>
+  </si>
+  <si>
+    <t>378-4800</t>
+  </si>
+  <si>
+    <t>㈱フォーシーズ</t>
+  </si>
+  <si>
+    <t>浅野　秀則</t>
+  </si>
+  <si>
+    <t>東京都港区南青山5丁目12-4</t>
+  </si>
+  <si>
+    <t>はなの舞　健軍駐屯地店</t>
+  </si>
+  <si>
+    <t>熊本市東区東町1丁目1-1</t>
+  </si>
+  <si>
+    <t>365-1348</t>
+  </si>
+  <si>
+    <t>ゴー・スロー</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山4丁目23-45</t>
+  </si>
+  <si>
+    <t>381-1230</t>
+  </si>
+  <si>
+    <t>社会福祉法人　やまびこ福祉会</t>
+  </si>
+  <si>
+    <t>積　豪英</t>
+  </si>
+  <si>
+    <t>熊本市中央区新大江1丁目12-15</t>
+  </si>
+  <si>
+    <t>中華旬菜　燕燕</t>
+  </si>
+  <si>
+    <t>熊本市中央区練兵町54-4松崎ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>馬場　貴志</t>
+  </si>
+  <si>
+    <t>とんかつ　濵かつ　熊本新空港通り店</t>
+  </si>
+  <si>
+    <t>熊本市東区佐土原2丁目4-200</t>
+  </si>
+  <si>
+    <t>369-8355</t>
+  </si>
+  <si>
+    <t>浜勝㈱</t>
+  </si>
+  <si>
+    <t>川内　辰雄</t>
+  </si>
+  <si>
+    <t>長崎県長崎市鍛冶屋町6番50号</t>
+  </si>
+  <si>
+    <t>焼肉　桐斗</t>
+  </si>
+  <si>
+    <t>熊本市南区馬渡1丁目9-12</t>
+  </si>
+  <si>
+    <t>岩永　新</t>
+  </si>
+  <si>
+    <t>クラブアトリエ熊本</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街9-1ﾊﾛｰﾚﾃﾞｨﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>351-8832</t>
+  </si>
+  <si>
+    <t>㈱Ｒａｆｆｉｎｅ</t>
+  </si>
+  <si>
+    <t>山口　孝太朗</t>
+  </si>
+  <si>
+    <t>ニュー魚かし</t>
+  </si>
+  <si>
+    <t>熊本市東区新南部3丁目10-52</t>
+  </si>
+  <si>
+    <t>382-0947</t>
+  </si>
+  <si>
+    <t>㈲ニューいわもと</t>
+  </si>
+  <si>
+    <t>岩本　厚</t>
+  </si>
+  <si>
+    <t>熊本市東区新南部3丁目10-53</t>
+  </si>
+  <si>
+    <t>ふぐ乃小川</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺公園24-2</t>
+  </si>
+  <si>
+    <t>387-1129</t>
+  </si>
+  <si>
+    <t>㈲ふぐ乃おがわ</t>
+  </si>
+  <si>
+    <t>小川　直子</t>
+  </si>
+  <si>
+    <t>ダイニング清藤</t>
+  </si>
+  <si>
+    <t>熊本市北区小糸山町689-1</t>
+  </si>
+  <si>
+    <t>清藤　等</t>
+  </si>
+  <si>
+    <t>カラオケＣＬＵＢＤＡＭ熊本清水店</t>
+  </si>
+  <si>
+    <t>熊本市北区清水本町18-2</t>
+  </si>
+  <si>
+    <t>245-6334</t>
+  </si>
+  <si>
+    <t>㈲創フォーラム</t>
+  </si>
+  <si>
+    <t>内田　貴大</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉5丁目12-26</t>
+  </si>
+  <si>
+    <t>セブンイレブン熊本坪井２丁目店</t>
+  </si>
+  <si>
+    <t>熊本市中央区坪井2丁目10-1</t>
+  </si>
+  <si>
+    <t>342-0071</t>
+  </si>
+  <si>
+    <t>㈱セブン－イレブン・ジャパン</t>
+  </si>
+  <si>
+    <t>永松　文彦</t>
+  </si>
+  <si>
+    <t>東京都千代田区二番町8番地8</t>
+  </si>
+  <si>
+    <t>ＭＫレストラン　近見店</t>
+  </si>
+  <si>
+    <t>熊本市南区近見9丁目3-1</t>
+  </si>
+  <si>
+    <t>312-8030</t>
+  </si>
+  <si>
+    <t>㈱プレナス</t>
+  </si>
+  <si>
+    <t>塩井　辰男</t>
+  </si>
+  <si>
+    <t>福岡市博多区上牟田一丁目19番21号</t>
+  </si>
+  <si>
+    <t>ヒライ　よかもん市場店</t>
+  </si>
+  <si>
+    <t>312-2356</t>
+  </si>
+  <si>
+    <t>お弁当のヒライ　八反田店</t>
+  </si>
+  <si>
+    <t>熊本市東区西原2丁目11-83</t>
+  </si>
+  <si>
+    <t>273-8704</t>
+  </si>
+  <si>
+    <t>ヒライＪｒ．スーパーキッド楠店</t>
+  </si>
+  <si>
+    <t>熊本市北区楠7丁目8-10</t>
+  </si>
+  <si>
+    <t>288-0422</t>
+  </si>
+  <si>
+    <t>ヒライ　北部店</t>
+  </si>
+  <si>
+    <t>熊本市北区下硯川町478-1</t>
+  </si>
+  <si>
+    <t>245-2961</t>
+  </si>
+  <si>
+    <t>ヒライ　江津店</t>
+  </si>
+  <si>
+    <t>熊本市東区江津2丁目37-25</t>
+  </si>
+  <si>
+    <t>362-2285</t>
+  </si>
+  <si>
+    <t>おべんとうのヒライ　マルショク子飼店</t>
+  </si>
+  <si>
+    <t>熊本市中央区西子飼町8-26</t>
+  </si>
+  <si>
+    <t>344-4763</t>
+  </si>
+  <si>
+    <t>座敷　僚華</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-30ﾓﾆｶﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>311-1640</t>
+  </si>
+  <si>
+    <t>㈲ＲＡＣコーポレーション</t>
+  </si>
+  <si>
+    <t>山代　眞貴</t>
+  </si>
+  <si>
+    <t>熊本市中央区新町1丁目2-3-701</t>
+  </si>
+  <si>
+    <t>県立劇場レストラン七彩</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江2丁目7-1熊本県立劇場</t>
+  </si>
+  <si>
+    <t>373-7060</t>
+  </si>
+  <si>
+    <t>㈲七彩</t>
+  </si>
+  <si>
+    <t>坂井　俊之</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町4-10ﾄﾗﾔﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>かじゅある日本料理　はるか</t>
+  </si>
+  <si>
+    <t>熊本市中央区山崎町24北野ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>後藤　悠</t>
+  </si>
+  <si>
+    <t>ジョイフルあつ子</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-32三駒ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>池田　美都子</t>
+  </si>
+  <si>
+    <t>ファミリーマート熊本九品寺一丁目店</t>
+  </si>
+  <si>
+    <t>熊本市中央区九品寺1丁目7-23</t>
+  </si>
+  <si>
+    <t>田上　隆継</t>
+  </si>
+  <si>
+    <t>デイリーヤマザキ熊本砂原店</t>
+  </si>
+  <si>
+    <t>熊本市南区砂原町281-1</t>
+  </si>
+  <si>
+    <t>兼尾　敏行</t>
+  </si>
+  <si>
+    <t>おるげんと駕町通り店</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目6-13森坂ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>351-8208</t>
+  </si>
+  <si>
+    <t>㈲ａｌｌ-ｇｅｔ</t>
+  </si>
+  <si>
+    <t>友口　義美</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-2</t>
+  </si>
+  <si>
+    <t>セブン-イレブン熊本富合釈迦堂店</t>
+  </si>
+  <si>
+    <t>熊本市南区富合町釈迦堂640-1</t>
+  </si>
+  <si>
+    <t>改原　聖貴</t>
+  </si>
+  <si>
+    <t>ＲＩＣＯ</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町6-3TM11ﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>吉永　和人</t>
+  </si>
+  <si>
+    <t>郷土・海鮮・肥後の陣屋</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目5-20ｴﾋﾞｽﾋﾞﾙ</t>
+  </si>
+  <si>
+    <t>211-1414</t>
+  </si>
+  <si>
+    <t>恵比寿物産㈱</t>
+  </si>
+  <si>
+    <t>谷口　征也</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目5-20</t>
+  </si>
+  <si>
+    <t>中国料理　龍門</t>
+  </si>
+  <si>
+    <t>熊本市東区榎町7-6</t>
+  </si>
+  <si>
+    <t>京塚　友男</t>
+  </si>
+  <si>
+    <t>水前寺食堂</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺公園12-43</t>
+  </si>
+  <si>
+    <t>383-5539</t>
+  </si>
+  <si>
+    <t>㈱エフシーワン</t>
+  </si>
+  <si>
+    <t>高好　章二</t>
+  </si>
+  <si>
+    <t>大阪府大阪市住之江区平林北2丁目7-81阪南産業2F</t>
+  </si>
+  <si>
+    <t>路家</t>
+  </si>
+  <si>
+    <t>熊本市東区健軍3丁目1-55-102</t>
+  </si>
+  <si>
+    <t>永野　勇太</t>
+  </si>
+  <si>
+    <t>ひがしのおべんとう</t>
+  </si>
+  <si>
+    <t>熊本市中央区上水前寺1丁目10-28</t>
+  </si>
+  <si>
+    <t>東　憲太朗</t>
+  </si>
+  <si>
+    <t>ほっともっと飛田バイパス店</t>
+  </si>
+  <si>
+    <t>熊本市北区飛田4丁目10-1</t>
+  </si>
+  <si>
+    <t>346-1421</t>
+  </si>
+  <si>
+    <t>㈲エーエムケイ</t>
+  </si>
+  <si>
+    <t>木村　圭祐</t>
+  </si>
+  <si>
+    <t>熊本市北区楡木二丁目11番89号中村第1ｱﾊﾟｰﾄ101号</t>
+  </si>
+  <si>
+    <t>ほっともっと植木店</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町植木西1丁目14-1</t>
+  </si>
+  <si>
+    <t>273-0790</t>
+  </si>
+  <si>
+    <t>熊本市北区楡木2丁目11-89中村第1ｱﾊﾟｰﾄ101号</t>
+  </si>
+  <si>
+    <t>パブなかはら</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-21ﾛﾌﾃｨ西銀座館4F</t>
+  </si>
+  <si>
+    <t>中原　司人</t>
+  </si>
+  <si>
+    <t>ＢＡＲ　ＳＡＮＴＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-28東会館1F</t>
+  </si>
+  <si>
+    <t>藤木　敏之</t>
+  </si>
+  <si>
+    <t>カリメロ</t>
+  </si>
+  <si>
+    <t>熊本市北区楠2丁目1-46</t>
+  </si>
+  <si>
+    <t>今村　貴紀</t>
+  </si>
+  <si>
+    <t>熊本たこやき丸　桜木店</t>
+  </si>
+  <si>
+    <t>熊本市東区桜木5丁目8-18</t>
+  </si>
+  <si>
+    <t>松浦　千代恵</t>
+  </si>
+  <si>
+    <t>そわれ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-12ｳﾞｨｱｷﾑﾗﾋﾞﾙ3F-C</t>
+  </si>
+  <si>
+    <t>大田黒　巧巳</t>
+  </si>
+  <si>
+    <t>中華料理　美膳</t>
+  </si>
+  <si>
+    <t>熊本市中央区段山本町6-35</t>
+  </si>
+  <si>
+    <t>吉岡　孝二</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシオカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>申請者氏名：吉は土の下に口</t>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＳＢＣ　ＪＲ熊本店</t>
+  </si>
+  <si>
+    <t>354-7223</t>
+  </si>
+  <si>
+    <t>ＪＲ九州ファーストフーズ㈱</t>
+  </si>
+  <si>
+    <t>香川　美津子</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区博多駅東一丁目10番7号</t>
+  </si>
+  <si>
+    <t>モスバーガーＪＲ熊本店</t>
+  </si>
+  <si>
+    <t>359-0976</t>
+  </si>
+  <si>
+    <t>ミスタードーナツ　ＪＲ熊本店</t>
+  </si>
+  <si>
+    <t>359-1172</t>
+  </si>
+  <si>
+    <t>焼肉館彩炉　画図店</t>
+  </si>
+  <si>
+    <t>熊本市東区画図町重富438-6</t>
+  </si>
+  <si>
+    <t>378-2888</t>
+  </si>
+  <si>
+    <t>㈱雄和</t>
+  </si>
+  <si>
+    <t>和田　雄司</t>
+  </si>
+  <si>
+    <t>熊本市中央区八王寺町4-5</t>
+  </si>
+  <si>
+    <t>ファミリーマート熊本駅白川口店</t>
+  </si>
+  <si>
+    <t>312-2501</t>
+  </si>
+  <si>
+    <t>ＪＲ九州リテール㈱</t>
+  </si>
+  <si>
+    <t>本郷　譲</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区博多駅東1丁目1-14</t>
+  </si>
+  <si>
+    <t>阿蘇の逸品</t>
+  </si>
+  <si>
+    <t>312-1611</t>
+  </si>
+  <si>
+    <t>㈱阿蘇ナチュラル・ジェイファーム</t>
+  </si>
+  <si>
+    <t>森　光臣</t>
+  </si>
+  <si>
+    <t>熊本市西区池田1丁目11-30</t>
+  </si>
+  <si>
+    <t>やきとり大吉　武蔵ヶ丘店</t>
+  </si>
+  <si>
+    <t>熊本市北区武蔵ケ丘5丁目13-14</t>
+  </si>
+  <si>
+    <t>田中　勝</t>
+  </si>
+  <si>
+    <t>鮮ど市場　飛田店</t>
+  </si>
+  <si>
+    <t>熊本市北区飛田4丁目9-125</t>
+  </si>
+  <si>
+    <t>346-6620</t>
+  </si>
+  <si>
+    <t>㈱鮮ど市場</t>
+  </si>
+  <si>
+    <t>田中　敏弘</t>
+  </si>
+  <si>
+    <t>熊本市東区尾ノ上2丁目22番15号</t>
+  </si>
+  <si>
+    <t>セブン-イレブン熊本長嶺西１丁目店</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺西1丁目13-3</t>
+  </si>
+  <si>
+    <t>387-8910</t>
+  </si>
+  <si>
+    <t>㈱ティーアンドシー</t>
+  </si>
+  <si>
+    <t>中島　照吉</t>
+  </si>
+  <si>
+    <t>串ダイニング　笑家</t>
+  </si>
+  <si>
+    <t>熊本市北区四方寄町506-1</t>
+  </si>
+  <si>
+    <t>328-8703</t>
+  </si>
+  <si>
+    <t>㈲竜太</t>
+  </si>
+  <si>
+    <t>林　由香里</t>
+  </si>
+  <si>
+    <t>ラーメン一龍</t>
+  </si>
+  <si>
+    <t>熊本市東区新生2丁目22-1</t>
+  </si>
+  <si>
+    <t>梶原　幸哲</t>
+  </si>
+  <si>
+    <t>淀川食品株式会社　平田機工東工場事業所</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町岩野4-5</t>
+  </si>
+  <si>
+    <t>272-2298</t>
+  </si>
+  <si>
+    <t>田村　隆</t>
+  </si>
+  <si>
+    <t>ＥＬＥＮＡ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目1-22TM12ﾋﾞﾙ8F</t>
+  </si>
+  <si>
+    <t>223-5886</t>
+  </si>
+  <si>
+    <t>㈱ＦＬＰ</t>
+  </si>
+  <si>
+    <t>久保田　裕介</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山7丁目1-97</t>
+  </si>
+  <si>
+    <t>213-1170</t>
+  </si>
+  <si>
+    <t>㈱マルキョウ</t>
+  </si>
+  <si>
+    <t>斉田　敏夫</t>
+  </si>
+  <si>
+    <t>福岡県大野城市山田5丁目3-1</t>
+  </si>
+  <si>
+    <t>ベーカリー　さくら</t>
+  </si>
+  <si>
+    <t>熊本市東区小山町1990-2</t>
+  </si>
+  <si>
+    <t>285-4921</t>
+  </si>
+  <si>
+    <t>社会福祉法人　桜木会</t>
+  </si>
+  <si>
+    <t>門川　賴俊</t>
+  </si>
+  <si>
+    <t>熊本市東区小山4丁目9-88</t>
+  </si>
+  <si>
+    <t>熊本きぼう福祉センター</t>
+  </si>
+  <si>
+    <t>熊本市南区南高江7丁目8-77-1F</t>
+  </si>
+  <si>
+    <t>358-4054</t>
+  </si>
+  <si>
+    <t>飯塚　幸二</t>
+  </si>
+  <si>
+    <t>熊本市南区南高江7丁目8-77</t>
+  </si>
+  <si>
+    <t>あや鶏　下通り店</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町6-4-2ﾙﾅﾌｧｰｽﾄﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>354-1611</t>
+  </si>
+  <si>
+    <t>福岡県福岡市中央区舞鶴1丁目4-31-2F</t>
+  </si>
+  <si>
+    <t>お茶の泉園</t>
+  </si>
+  <si>
+    <t>245-7076</t>
+  </si>
+  <si>
+    <t>㈲お茶の泉園</t>
+  </si>
+  <si>
+    <t>谷口　清和</t>
+  </si>
+  <si>
+    <t>熊本県八代市泉町栗木4986</t>
+  </si>
+  <si>
+    <t>大戸屋ごはん処ゆめタウンはません店</t>
+  </si>
+  <si>
+    <t>熊本市南区田井島1丁目2-1ゆめﾀｳﾝはません別館1F</t>
+  </si>
+  <si>
+    <t>370-6608</t>
+  </si>
+  <si>
+    <t>㈱楽</t>
+  </si>
+  <si>
+    <t>山本　明子</t>
+  </si>
+  <si>
+    <t>島根県松江市黒田町442番地1</t>
+  </si>
+  <si>
+    <t>むすんでひらいてＨＩヒロセ渡鹿店</t>
+  </si>
+  <si>
+    <t>熊本市中央区渡鹿1丁目18-1</t>
+  </si>
+  <si>
+    <t>372-3243</t>
+  </si>
+  <si>
+    <t>㈱むすんでひらいて</t>
+  </si>
+  <si>
+    <t>原田　将太</t>
+  </si>
+  <si>
+    <t>むすんでひらいてＨＩヒロセ飛田店</t>
+  </si>
+  <si>
+    <t>熊本市北区飛田3丁目8-45</t>
+  </si>
+  <si>
+    <t>345-7388</t>
+  </si>
+  <si>
+    <t>銀座天一　熊本店</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町6-1鶴屋百貨店7F</t>
+  </si>
+  <si>
+    <t>322-2304</t>
+  </si>
+  <si>
+    <t>㈱天一</t>
+  </si>
+  <si>
+    <t>矢吹　友一</t>
+  </si>
+  <si>
+    <t>東京都中央区銀座6丁目7番15号</t>
+  </si>
+  <si>
+    <t>熊本ワイン酒場</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町11-5小山ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>小山　正人</t>
+  </si>
+  <si>
+    <t>マリーゴールド</t>
+  </si>
+  <si>
+    <t>熊本市東区佐土原2丁目5-135</t>
+  </si>
+  <si>
+    <t>360-3331</t>
+  </si>
+  <si>
+    <t>㈱マリーゴールドホールディングス</t>
+  </si>
+  <si>
+    <t>山崎　崇</t>
+  </si>
+  <si>
+    <t>熊本市東区秋津新町1-34</t>
+  </si>
+  <si>
+    <t>マリーゴールド　シンシア</t>
+  </si>
+  <si>
+    <t>ＲｅＳＰｅｃｔ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目1-29HAPPY-1ﾋﾞﾙ2F-2B</t>
+  </si>
+  <si>
+    <t>月田　亮</t>
+  </si>
+  <si>
+    <t>馳走屋　明日家</t>
+  </si>
+  <si>
+    <t>熊本市北区武蔵ヶ丘4丁目16-24霧島第一ﾋﾞﾙ102</t>
+  </si>
+  <si>
+    <t>岩﨑　幸子</t>
+  </si>
+  <si>
+    <t>グリーンコープ長嶺店</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺南3丁目2-12</t>
+  </si>
+  <si>
+    <t>385-8800</t>
+  </si>
+  <si>
+    <t>グリーンコープ生活協同組合くまもと</t>
+  </si>
+  <si>
+    <t>上村　猛</t>
+  </si>
+  <si>
+    <t>熊本市西区新土河原2丁目1-1</t>
+  </si>
+  <si>
+    <t>熊本県福祉総合相談所内食堂</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺南2丁目3-3</t>
+  </si>
+  <si>
+    <t>九州綜合サービス㈱</t>
+  </si>
+  <si>
+    <t>尾池　千佳子</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江6丁目24番19号</t>
+  </si>
+  <si>
+    <t>熊本市こどもセンター</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江5丁目1-50</t>
+  </si>
+  <si>
+    <t>鮪匠とろや</t>
+  </si>
+  <si>
+    <t>熊本市南区富合町古閑959-1</t>
+  </si>
+  <si>
+    <t>㈱佐藤商店</t>
+  </si>
+  <si>
+    <t>佐藤　真二</t>
+  </si>
+  <si>
+    <t>熊本市南区富合町清藤491-14</t>
+  </si>
+  <si>
+    <t>居酒屋　馬華</t>
+  </si>
+  <si>
+    <t>熊本市北区清水亀井町59-1</t>
+  </si>
+  <si>
+    <t>内野　悟</t>
+  </si>
+  <si>
+    <t>お好み焼　あたりや</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺3丁目30-27ﾌｪﾘｰﾁｪ水前寺1F</t>
+  </si>
+  <si>
+    <t>382-6611</t>
+  </si>
+  <si>
+    <t>㈲Ｙ．Ｓ．Ｍ企画</t>
+  </si>
+  <si>
+    <t>榊　省吾</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺3丁目30-27</t>
+  </si>
+  <si>
+    <t>魚良</t>
+  </si>
+  <si>
+    <t>熊本市西区田崎町380-63</t>
+  </si>
+  <si>
+    <t>352-5262</t>
+  </si>
+  <si>
+    <t>㈱丸将</t>
+  </si>
+  <si>
+    <t>猪本　恭三</t>
+  </si>
+  <si>
+    <t>熊本市西区八島町745-6</t>
+  </si>
+  <si>
+    <t>立ち呑み　タマヤ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街6-19玉屋通り</t>
+  </si>
+  <si>
+    <t>西村　仁</t>
+  </si>
+  <si>
+    <t>ソウル</t>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町5-18</t>
+  </si>
+  <si>
+    <t>竹井　英子</t>
+  </si>
+  <si>
+    <t>アバウティ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-14塘田企画第1ﾋﾞﾙ5F</t>
+  </si>
+  <si>
+    <t>園田　泰祐</t>
+  </si>
+  <si>
+    <t>らぴすらずり</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目1-22TM12ﾋﾞﾙ5F-D</t>
+  </si>
+  <si>
+    <t>久田　賢典</t>
+  </si>
+  <si>
+    <t>障害者支援施設　ゆめの里</t>
+  </si>
+  <si>
+    <t>熊本市西区河内町野出3-1</t>
+  </si>
+  <si>
+    <t>277-3055</t>
+  </si>
+  <si>
+    <t>㈱南九州ニチダン</t>
+  </si>
+  <si>
+    <t>小笠原　力一</t>
+  </si>
+  <si>
+    <t>熊本市西区城山下代二丁目7番11号</t>
+  </si>
+  <si>
+    <t>焼肉食堂くたみや薄場店</t>
+  </si>
+  <si>
+    <t>熊本市南区薄場3丁目4-25</t>
+  </si>
+  <si>
+    <t>㈱来民屋</t>
+  </si>
+  <si>
+    <t>森山　正規</t>
+  </si>
+  <si>
+    <t>熊本県八代市通町6-53</t>
+  </si>
+  <si>
+    <t>じじや　北部店</t>
+  </si>
+  <si>
+    <t>熊本市北区四方寄町515-1</t>
+  </si>
+  <si>
+    <t>273-7678</t>
+  </si>
+  <si>
+    <t>㈱坂本</t>
+  </si>
+  <si>
+    <t>坂本　義久</t>
+  </si>
+  <si>
+    <t>熊本市中央区本山町211-3</t>
+  </si>
+  <si>
+    <t>センターリバーＪｒ</t>
+  </si>
+  <si>
+    <t>278-7050</t>
+  </si>
+  <si>
+    <t>㈱センターリバー</t>
+  </si>
+  <si>
+    <t>中川　秋夫</t>
+  </si>
+  <si>
+    <t>熊本市中央区八王寺町34-16</t>
+  </si>
+  <si>
+    <t>つけ麺　魚雷　坪井本店</t>
+  </si>
+  <si>
+    <t>熊本市中央区坪井2丁目3-37金田ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>344-0611</t>
+  </si>
+  <si>
+    <t>松永　佑佳</t>
+  </si>
+  <si>
+    <t>熊本市中央区坪井2丁目3-37金田ﾋﾞﾙ1階</t>
+  </si>
+  <si>
+    <t>ＢＡＲ　ＨＯＭＥ</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目13-1BR-1-2F-2</t>
+  </si>
+  <si>
+    <t>青木　亜利沙</t>
+  </si>
+  <si>
+    <t>とうふ処安喜フードパル店</t>
+  </si>
+  <si>
+    <t>熊本市北区和泉町189-24</t>
+  </si>
+  <si>
+    <t>245-5416</t>
+  </si>
+  <si>
+    <t>㈱内田安喜商店</t>
+  </si>
+  <si>
+    <t>後藤　博重</t>
+  </si>
+  <si>
+    <t>熊本県上益城郡益城町小池837-1</t>
+  </si>
+  <si>
+    <t>熊本ラーメン　赤のれん</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街8-1坂田ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>322-9662</t>
+  </si>
+  <si>
+    <t>㈲赤のれん</t>
+  </si>
+  <si>
+    <t>松田　康宏</t>
+  </si>
+  <si>
+    <t>熊本市中央区九品寺4丁目8-26</t>
+  </si>
+  <si>
+    <t>ＭＥＭＢＥＲ’Ｓ　ＢＡＲ　いわもと</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町5-20安政ﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>㈱いわもと</t>
+  </si>
+  <si>
+    <t>岩本　好史</t>
+  </si>
+  <si>
+    <t>熊本県菊池郡大津町平川285</t>
+  </si>
+  <si>
+    <t>セブン-イレブン熊本四方寄町店</t>
+  </si>
+  <si>
+    <t>熊本市北区四方寄町1596-10</t>
+  </si>
+  <si>
+    <t>長野　光</t>
+  </si>
+  <si>
+    <t>吉祥庵</t>
+  </si>
+  <si>
+    <t>熊本市西区春日3丁目15-30肥後よかモン市場内</t>
+  </si>
+  <si>
+    <t>356-3423</t>
+  </si>
+  <si>
+    <t>㈱ニシコーフードサービス</t>
+  </si>
+  <si>
+    <t>甲木　雄平</t>
+  </si>
+  <si>
+    <t>福岡県八女市立野127番地の2</t>
+  </si>
+  <si>
+    <t>うまか屋</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-18ｼｬﾝｾ品川2F</t>
+  </si>
+  <si>
+    <t>鈴木田　公亮</t>
+  </si>
+  <si>
+    <t>珈琲屋和蘭館</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町5-6村上屋ﾋﾞﾙ1F-A</t>
+  </si>
+  <si>
+    <t>末次　義久</t>
+  </si>
+  <si>
+    <t>酒蔵ａｎｔ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-1城見ﾋﾞﾙB1</t>
+  </si>
+  <si>
+    <t>守田　薫</t>
+  </si>
+  <si>
+    <t>焼肉厳選　孫三郎</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-5ｺﾏﾄﾞﾘﾋﾞﾙ5F</t>
+  </si>
+  <si>
+    <t>353-0536</t>
+  </si>
+  <si>
+    <t>㈱桜蔵</t>
+  </si>
+  <si>
+    <t>吉住　剛人</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街1-36</t>
+  </si>
+  <si>
+    <t>ＧＡＲＢＯ　</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-21ﾛﾌﾃｨ西銀座会館6F-A</t>
+  </si>
+  <si>
+    <t>坂田　理子</t>
+  </si>
+  <si>
+    <t>味盛食堂</t>
+  </si>
+  <si>
+    <t>熊本市西区横手3丁目5-15</t>
+  </si>
+  <si>
+    <t>長屋　博</t>
+  </si>
+  <si>
+    <t>おばちゃんの店</t>
+  </si>
+  <si>
+    <t>熊本市中央区島崎1丁目22-22</t>
+  </si>
+  <si>
+    <t>松本　はや子</t>
+  </si>
+  <si>
+    <t>朱月堂</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-26第1銀杏ﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>小山田　佳子</t>
+  </si>
+  <si>
+    <t>峰寿司仕出しセンター</t>
+  </si>
+  <si>
+    <t>熊本市東区昭和町2-21</t>
+  </si>
+  <si>
+    <t>360-8050</t>
+  </si>
+  <si>
+    <t>㈱峰寿司</t>
+  </si>
+  <si>
+    <t>宮﨑　智章</t>
+  </si>
+  <si>
+    <t>熊本市東区昭和町8-22</t>
+  </si>
+  <si>
+    <t>コア２１健軍店ビーンズカフェ</t>
+  </si>
+  <si>
+    <t>熊本市東区健軍3丁目44-22</t>
+  </si>
+  <si>
+    <t>380-1211</t>
+  </si>
+  <si>
+    <t>㈱サンコー</t>
+  </si>
+  <si>
+    <t>永田　守</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区博多駅南5丁目14-18</t>
+  </si>
+  <si>
+    <t>ＪＵＤＡＮ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-22ﾋﾟｭｱ西銀座ﾋﾞﾙ5F</t>
+  </si>
+  <si>
+    <t>小林　ひかり</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　４５</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目2-13ｱｷﾀﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>菅　久美子</t>
+  </si>
+  <si>
+    <t>学園大付属高校　大志寮</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江2丁目14-27</t>
+  </si>
+  <si>
+    <t>㈱東臣</t>
+  </si>
+  <si>
+    <t>東　耕市</t>
+  </si>
+  <si>
+    <t>熊本県菊池郡大津町杉水字一の迫3021番地1</t>
+  </si>
+  <si>
+    <t>東臣みゆき寮</t>
+  </si>
+  <si>
+    <t>熊本市南区幸田1丁目4-1</t>
+  </si>
+  <si>
+    <t>炭火串焼・おでん　それ恕か</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-20水田会館ﾋﾞﾙ2F-3</t>
+  </si>
+  <si>
+    <t>石井　英俊</t>
+  </si>
+  <si>
+    <t>和・ＧＡＮＳＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町1-17-2F</t>
+  </si>
+  <si>
+    <t>西尾　勝彦</t>
+  </si>
+  <si>
+    <t>ａｒｋ</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町6-3TM11ﾋﾞﾙ9F-C</t>
+  </si>
+  <si>
+    <t>齋藤　聖弘</t>
+  </si>
+  <si>
+    <t>ファミリーマート熊本花園５丁目店</t>
+  </si>
+  <si>
+    <t>熊本市西区花園5丁目7-17</t>
+  </si>
+  <si>
+    <t>菊山　雄次</t>
+  </si>
+  <si>
+    <t>アシェット　ドゥ　木村</t>
+  </si>
+  <si>
+    <t>熊本市中央区桜町2-23</t>
+  </si>
+  <si>
+    <t>木村　謙佑</t>
+  </si>
+  <si>
+    <t>ｊｕａｎ　ｊｕａｎ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町10-33第2丸ﾋﾞﾙ8F-A</t>
+  </si>
+  <si>
+    <t>津川　めぐみ</t>
+  </si>
+  <si>
+    <t>ローソン熊本長嶺西三丁目店</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺西3丁目4-1</t>
+  </si>
+  <si>
+    <t>田上　大樹</t>
+  </si>
+  <si>
+    <t>ＢＬＵＥ　ＢＥＡＮＳ</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目42-16</t>
+  </si>
+  <si>
+    <t>本田　敬三</t>
+  </si>
+  <si>
+    <t>株式会社西友　サニー水前寺店　若菜</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺1丁目17-29</t>
+  </si>
+  <si>
+    <t>大久保恒夫</t>
+  </si>
+  <si>
+    <t>東京都武蔵野市吉祥寺本町1丁目12番10号</t>
+  </si>
+  <si>
+    <t>やよい軒　下通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目1‐30緒方ビル1F</t>
+  </si>
+  <si>
+    <t>塩井辰男</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区上牟田一丁目19番21号</t>
+  </si>
+  <si>
+    <t>おだ商店</t>
+  </si>
+  <si>
+    <t>小田英雄</t>
+  </si>
+  <si>
+    <t>熊本県宇城市松橋町古保山1297番地1</t>
+  </si>
+  <si>
+    <t>レンガ亭</t>
+  </si>
+  <si>
+    <t>熊本市中央区上林町1-31-1F</t>
+  </si>
+  <si>
+    <t>355-3818</t>
+  </si>
+  <si>
+    <t>㈲ヨシモト</t>
+  </si>
+  <si>
+    <t>吉本　義秋</t>
+  </si>
+  <si>
+    <t>濃厚鶏白湯　いわお</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目1-29HAPPY-1ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>田山　巌</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通一丁目10番6号ｱｰﾊﾞﾝ21ﾋﾞﾙ10F</t>
+  </si>
+  <si>
+    <t>ローソン熊本本山町店</t>
+  </si>
+  <si>
+    <t>熊本市中央区本山町131</t>
+  </si>
+  <si>
+    <t>村﨑　隆史</t>
+  </si>
+  <si>
+    <t>Ｋａｒａｏｋｅ　Ｂａｒ　ｈａｌｕ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町12-5Amazing8ﾋﾞﾙB1</t>
+  </si>
+  <si>
+    <t>布施　久美</t>
+  </si>
+  <si>
+    <t>ゆうき２</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目3-14松本ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>大森　忠</t>
+  </si>
+  <si>
+    <t>セブン-イレブン熊本秋津２丁目店</t>
+  </si>
+  <si>
+    <t>熊本市東区秋津2丁目1-64</t>
+  </si>
+  <si>
+    <t>毛利　祐樹</t>
+  </si>
+  <si>
+    <t>Ｃｏｖｏｃａｆｅ</t>
+  </si>
+  <si>
+    <t>熊本市北区八景水谷1丁目24-16</t>
+  </si>
+  <si>
+    <t>㈱ダイケン</t>
+  </si>
+  <si>
+    <t>松茂　信吾</t>
+  </si>
+  <si>
+    <t>熊本県合志市須屋2190番地1</t>
+  </si>
+  <si>
+    <t>介仙</t>
+  </si>
+  <si>
+    <t>熊本市中央区国府3丁目11-20奥山ﾊｲﾂ1F</t>
+  </si>
+  <si>
+    <t>千場　敬介</t>
+  </si>
+  <si>
+    <t>生パスタ研究所イルフォルノドーロ</t>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町5-18ｻｳｽﾌｧｲﾌﾞｾｶﾝﾄﾞﾋﾞﾙ1F-D</t>
+  </si>
+  <si>
+    <t>㈱フォルナ・ヴェスタ</t>
+  </si>
+  <si>
+    <t>熊本県菊池市大琳寺151番地1</t>
+  </si>
+  <si>
+    <t>ＢＡＲ　ＵＧＬＹ　ＢＥＴＴＹ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-8SOUWAﾋﾞﾙ5F-B</t>
+  </si>
+  <si>
+    <t>齊藤　将太</t>
+  </si>
+  <si>
+    <t>立田幼稚園給食室</t>
+  </si>
+  <si>
+    <t>熊本市北区龍田6丁目12-1</t>
+  </si>
+  <si>
+    <t>338-7320</t>
+  </si>
+  <si>
+    <t>㈱原</t>
+  </si>
+  <si>
+    <t>原　将司</t>
+  </si>
+  <si>
+    <t>福岡県柳川市三橋町中山304番地の3</t>
+  </si>
+  <si>
+    <t>Ｂａｕｍｋｕｃｈｅｎ</t>
+  </si>
+  <si>
+    <t>熊本市中央区坪井2丁目1-29-101</t>
+  </si>
+  <si>
+    <t>245-7599</t>
+  </si>
+  <si>
+    <t>宮村山業㈱</t>
+  </si>
+  <si>
+    <t>宮村　啓</t>
+  </si>
+  <si>
+    <t>熊本市中央区坪井2丁目1-13</t>
+  </si>
+  <si>
+    <t>ＵＭＡＴＯＮ</t>
+  </si>
+  <si>
+    <t>熊本市東区下南部3丁目11-150</t>
+  </si>
+  <si>
+    <t>237-6038</t>
+  </si>
+  <si>
+    <t>㈱バルコム</t>
+  </si>
+  <si>
+    <t>山坂　哲郎</t>
+  </si>
+  <si>
+    <t>広島県広島市安佐南区中筋三丁目8番10号</t>
+  </si>
+  <si>
+    <t>株式会社ウエダ不動産事ム所</t>
+  </si>
+  <si>
+    <t>熊本市中央区神水本町20-3</t>
+  </si>
+  <si>
+    <t>387-5001</t>
+  </si>
+  <si>
+    <t>㈱ウエダ不動産事ム所</t>
+  </si>
+  <si>
+    <t>上田　洋平</t>
+  </si>
+  <si>
+    <t>熊本市中央区神水本町20番3号</t>
+  </si>
+  <si>
+    <t>しゃんなれば</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目3-12BRⅡﾋﾞﾙ-2F-F</t>
+  </si>
+  <si>
+    <t>㈱平野総業</t>
+  </si>
+  <si>
+    <t>平野　勢実</t>
+  </si>
+  <si>
+    <t>熊本市東区小峯二丁目5番65号</t>
+  </si>
+  <si>
+    <t>ＲＥＹ２</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目3-14松本ﾋﾞﾙ1F右</t>
+  </si>
+  <si>
+    <t>ＲＥＹ</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目3-14松本ﾋﾞﾙ2F右</t>
+  </si>
+  <si>
+    <t>ハローミート　ハローデイさくらの森店</t>
+  </si>
+  <si>
+    <t>熊本市東区桜木6丁目6-1</t>
+  </si>
+  <si>
+    <t>360-8680</t>
+  </si>
+  <si>
+    <t>㈱ハローミート</t>
+  </si>
+  <si>
+    <t>加治　敬通</t>
+  </si>
+  <si>
+    <t>福岡県北九州市小倉南区徳力3丁目6番16号</t>
+  </si>
+  <si>
+    <t>かじや水産　ハローデイさくらの森店</t>
+  </si>
+  <si>
+    <t>㈱かじや水産</t>
+  </si>
+  <si>
+    <t>ＣＵＩＳＩＮＥ　ＴＥＲＲＯＩＲ　寿　ＨＩＳＡ</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江5丁目15-15</t>
+  </si>
+  <si>
+    <t>三池　寿誉</t>
+  </si>
+  <si>
+    <t>コルク</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町7-35和数奇ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>東山　直輝</t>
+  </si>
+  <si>
+    <t>ｙｏｎｎａｓｓｅ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-27TM5ﾋﾞﾙ2F-B</t>
+  </si>
+  <si>
+    <t>松本　直子</t>
+  </si>
+  <si>
+    <t>焼肉ブラザーズ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町10-4</t>
+  </si>
+  <si>
+    <t>223-5231</t>
+  </si>
+  <si>
+    <t>㈱食エンタープライズ</t>
+  </si>
+  <si>
+    <t>今井　拓朗</t>
+  </si>
+  <si>
+    <t>東京都港区新橋三丁目16番9号</t>
+  </si>
+  <si>
+    <t>食・酒　ぎん鱗</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町6-23長崎書店ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>353-5577</t>
+  </si>
+  <si>
+    <t>㈱和げん</t>
+  </si>
+  <si>
+    <t>田邉　法子</t>
+  </si>
+  <si>
+    <t>熊本市西区横手四丁目10番39号</t>
+  </si>
+  <si>
+    <t>松屋・松のや　熊本長嶺南店</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺南1丁目7-20</t>
+  </si>
+  <si>
+    <t>㈱松屋フーズ</t>
+  </si>
+  <si>
+    <t>瓦葺　一利</t>
+  </si>
+  <si>
+    <t>東京都武蔵野市中町一丁目14番5号</t>
+  </si>
+  <si>
+    <t>ほっかほっか亭　新地団地前店</t>
+  </si>
+  <si>
+    <t>熊本市北区清水新地6丁目8-1</t>
+  </si>
+  <si>
+    <t>327-9460</t>
+  </si>
+  <si>
+    <t>㈱ほっかほっか亭総本部</t>
+  </si>
+  <si>
+    <t>青木　達也</t>
+  </si>
+  <si>
+    <t>大阪府大阪市北区鶴野町3番10号</t>
+  </si>
+  <si>
+    <t>地域活動支援センターなでしこ</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町投刀塚295-2</t>
+  </si>
+  <si>
+    <t>272-7214</t>
+  </si>
+  <si>
+    <t>医療法人横田会</t>
+  </si>
+  <si>
+    <t>横田　周三</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町鐙田1025</t>
+  </si>
+  <si>
+    <t>うなぎ専門店　ふじ屋</t>
+  </si>
+  <si>
+    <t>熊本市東区東京塚町5-10</t>
+  </si>
+  <si>
+    <t>藤田　勇輝</t>
+  </si>
+  <si>
+    <t>ＮＯＭＩＮＯＢＡ　榮　ＨＡＮＡＲＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町12-8銀杏会館4F-404</t>
+  </si>
+  <si>
+    <t>岩本　栄一郎</t>
+  </si>
+  <si>
+    <t>他力本願</t>
+  </si>
+  <si>
+    <t>熊本市東区戸島本町10-11ﾗｲﾌ戸島101</t>
+  </si>
+  <si>
+    <t>山隈　志紀</t>
+  </si>
+  <si>
+    <t>ＭＥＭＢＥＲ′Ｓ　暁</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-3ALTAﾋﾞﾙ5F-B</t>
+  </si>
+  <si>
+    <t>吉岡　瑞生</t>
+  </si>
+  <si>
+    <t>ＳＷＥＥＴＳ　ＭＡＲＩＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町5-6村上屋ﾋﾞﾙ1F-C</t>
+  </si>
+  <si>
+    <t>中尾　貴俊</t>
+  </si>
+  <si>
+    <t>清水が丘学園</t>
+  </si>
+  <si>
+    <t>熊本市北区打越町38-1</t>
+  </si>
+  <si>
+    <t>344-7600</t>
+  </si>
+  <si>
+    <t>熊本県菊池郡大津町杉水字一ノ迫3021番地1</t>
+  </si>
+  <si>
+    <t>キューピット食堂熊本</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺東1丁目4-110</t>
+  </si>
+  <si>
+    <t>彩Ｄｉｎｉｎｇ㈱</t>
+  </si>
+  <si>
+    <t>堀池　洋介</t>
+  </si>
+  <si>
+    <t>千葉県鎌ケ谷市西道野辺3番22-210号</t>
+  </si>
+  <si>
+    <t>学校法人常盤学園　シェフパティシエ学院</t>
+  </si>
+  <si>
+    <t>熊本市中央区春竹町481</t>
+  </si>
+  <si>
+    <t>364-5203</t>
+  </si>
+  <si>
+    <t>学校法人常盤学園</t>
+  </si>
+  <si>
+    <t>吉岡　友章</t>
+  </si>
+  <si>
+    <t>熊本市中央区本荘町683番地2</t>
+  </si>
+  <si>
+    <t>炭焼　猿一</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-8SOUWAﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>247-6388</t>
+  </si>
+  <si>
+    <t>㈱Ｌｉｆ</t>
+  </si>
+  <si>
+    <t>山口　泰</t>
+  </si>
+  <si>
+    <t>大阪府大阪市淀川区十三本町三丁目7番46号</t>
+  </si>
+  <si>
+    <t>ダイセンセンターキッチン</t>
+  </si>
+  <si>
+    <t>ダイセンＨＤ㈱</t>
+  </si>
+  <si>
+    <t>池部　吉彦</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉一丁目36番19号山中ﾋﾞﾙ2階</t>
+  </si>
+  <si>
+    <t>屋号：「raffine　ラフィーネ」の「e」の上に点がつく。</t>
+  </si>
+  <si>
+    <t>㈱ウエスト立田の杜店　焼肉コーナー</t>
+  </si>
+  <si>
+    <t>株式会社マルキョウ帯山店(菜の華)</t>
+  </si>
+  <si>
+    <t>(一社)熊本県精神保健福祉会連合会</t>
+  </si>
+  <si>
+    <t>288-3881</t>
+  </si>
+  <si>
+    <t>(同)Ｔｈｒｉｖｅ</t>
+  </si>
+  <si>
+    <t>382-5138</t>
+  </si>
+  <si>
+    <t>㈱西友</t>
+  </si>
+  <si>
+    <t>211-3227</t>
+  </si>
+  <si>
+    <t>322-8484</t>
+  </si>
+  <si>
+    <t>㈱小田商店</t>
+  </si>
+  <si>
+    <t>(同)Ｒｏｕｇｈ</t>
+  </si>
+  <si>
+    <t>原田　将和</t>
+    <rPh sb="0" eb="1">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代表者氏名：原は点無</t>
+  </si>
+  <si>
+    <t>株式会社マルキョウ帯山店(鮮魚寿司)</t>
+  </si>
 </sst>
 </file>
 
@@ -1142,7 +3361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1164,6 +3383,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3353,7 +5579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D59B40A-5363-44C7-8B2D-0DC3F64081CF}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -4901,4 +7127,6805 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8267C43-6665-4B28-B1F4-B2AD2026FDB1}">
+  <dimension ref="A1:N176"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="9" max="13" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45385</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45397</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45397</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M2" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45390</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45420</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45420</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M3" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45391</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45399</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45399</v>
+      </c>
+      <c r="L4" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M4" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" t="s">
+        <v>370</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J5" s="1">
+        <v>45398</v>
+      </c>
+      <c r="K5" s="1">
+        <v>45398</v>
+      </c>
+      <c r="L5" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M5" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45394</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45405</v>
+      </c>
+      <c r="K6" s="1">
+        <v>45405</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M6" s="1">
+        <v>47634</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45398</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45401</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45401</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M7" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E8" t="s">
+        <v>379</v>
+      </c>
+      <c r="F8" t="s">
+        <v>380</v>
+      </c>
+      <c r="G8" t="s">
+        <v>381</v>
+      </c>
+      <c r="H8" t="s">
+        <v>382</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J8" s="1">
+        <v>45405</v>
+      </c>
+      <c r="K8" s="1">
+        <v>45405</v>
+      </c>
+      <c r="L8" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M8" s="1">
+        <v>47634</v>
+      </c>
+      <c r="N8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G9" t="s">
+        <v>387</v>
+      </c>
+      <c r="H9" t="s">
+        <v>388</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45399</v>
+      </c>
+      <c r="J9" s="1">
+        <v>45400</v>
+      </c>
+      <c r="K9" s="1">
+        <v>45400</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M9" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J10" s="1">
+        <v>45406</v>
+      </c>
+      <c r="K10" s="1">
+        <v>45406</v>
+      </c>
+      <c r="L10" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M10" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F11" t="s">
+        <v>395</v>
+      </c>
+      <c r="G11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H11" t="s">
+        <v>397</v>
+      </c>
+      <c r="I11" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J11" s="1">
+        <v>45405</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45405</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M11" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" t="s">
+        <v>400</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45401</v>
+      </c>
+      <c r="J12" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K12" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M12" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" t="s">
+        <v>402</v>
+      </c>
+      <c r="F13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45404</v>
+      </c>
+      <c r="J13" s="1">
+        <v>45407</v>
+      </c>
+      <c r="K13" s="1">
+        <v>45407</v>
+      </c>
+      <c r="L13" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M13" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45404</v>
+      </c>
+      <c r="J14" s="1">
+        <v>45407</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45407</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M14" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D15" t="s">
+        <v>408</v>
+      </c>
+      <c r="F15" t="s">
+        <v>409</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45404</v>
+      </c>
+      <c r="J15" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K15" s="1">
+        <v>45428</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M15" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E16" t="s">
+        <v>412</v>
+      </c>
+      <c r="F16" t="s">
+        <v>413</v>
+      </c>
+      <c r="G16" t="s">
+        <v>414</v>
+      </c>
+      <c r="H16" t="s">
+        <v>415</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J16" s="1">
+        <v>45420</v>
+      </c>
+      <c r="K16" s="1">
+        <v>45420</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M16" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" t="s">
+        <v>418</v>
+      </c>
+      <c r="G17" t="s">
+        <v>260</v>
+      </c>
+      <c r="H17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J17" s="1">
+        <v>45429</v>
+      </c>
+      <c r="K17" s="1">
+        <v>45429</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M17" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>420</v>
+      </c>
+      <c r="D18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E18" t="s">
+        <v>421</v>
+      </c>
+      <c r="F18" t="s">
+        <v>422</v>
+      </c>
+      <c r="G18" t="s">
+        <v>423</v>
+      </c>
+      <c r="H18" t="s">
+        <v>424</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J18" s="1">
+        <v>45429</v>
+      </c>
+      <c r="K18" s="1">
+        <v>45429</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M18" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>425</v>
+      </c>
+      <c r="D19" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" t="s">
+        <v>428</v>
+      </c>
+      <c r="G19" t="s">
+        <v>429</v>
+      </c>
+      <c r="H19" t="s">
+        <v>430</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45413</v>
+      </c>
+      <c r="K19" s="1">
+        <v>45413</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M19" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>431</v>
+      </c>
+      <c r="D20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E20" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" t="s">
+        <v>428</v>
+      </c>
+      <c r="G20" t="s">
+        <v>429</v>
+      </c>
+      <c r="H20" t="s">
+        <v>430</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J20" s="1">
+        <v>45413</v>
+      </c>
+      <c r="K20" s="1">
+        <v>45413</v>
+      </c>
+      <c r="L20" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M20" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" t="s">
+        <v>435</v>
+      </c>
+      <c r="F21" t="s">
+        <v>436</v>
+      </c>
+      <c r="G21" t="s">
+        <v>437</v>
+      </c>
+      <c r="H21" t="s">
+        <v>438</v>
+      </c>
+      <c r="I21" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J21" s="1">
+        <v>45421</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45421</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M21" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>439</v>
+      </c>
+      <c r="D22" t="s">
+        <v>440</v>
+      </c>
+      <c r="F22" t="s">
+        <v>441</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J22" s="1">
+        <v>45422</v>
+      </c>
+      <c r="K22" s="1">
+        <v>45422</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M22" s="1">
+        <v>47999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>442</v>
+      </c>
+      <c r="D23" t="s">
+        <v>443</v>
+      </c>
+      <c r="F23" t="s">
+        <v>444</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J23" s="1">
+        <v>45413</v>
+      </c>
+      <c r="K23" s="1">
+        <v>45413</v>
+      </c>
+      <c r="L23" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M23" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>445</v>
+      </c>
+      <c r="D24" t="s">
+        <v>446</v>
+      </c>
+      <c r="E24" t="s">
+        <v>447</v>
+      </c>
+      <c r="F24" t="s">
+        <v>448</v>
+      </c>
+      <c r="G24" t="s">
+        <v>449</v>
+      </c>
+      <c r="H24" t="s">
+        <v>450</v>
+      </c>
+      <c r="I24" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J24" s="1">
+        <v>45420</v>
+      </c>
+      <c r="K24" s="1">
+        <v>45420</v>
+      </c>
+      <c r="L24" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M24" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>451</v>
+      </c>
+      <c r="D25" t="s">
+        <v>452</v>
+      </c>
+      <c r="E25" t="s">
+        <v>453</v>
+      </c>
+      <c r="F25" t="s">
+        <v>395</v>
+      </c>
+      <c r="G25" t="s">
+        <v>396</v>
+      </c>
+      <c r="H25" t="s">
+        <v>397</v>
+      </c>
+      <c r="I25" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J25" s="1">
+        <v>45419</v>
+      </c>
+      <c r="K25" s="1">
+        <v>45419</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M25" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>454</v>
+      </c>
+      <c r="D26" t="s">
+        <v>455</v>
+      </c>
+      <c r="E26" t="s">
+        <v>456</v>
+      </c>
+      <c r="F26" t="s">
+        <v>457</v>
+      </c>
+      <c r="G26" t="s">
+        <v>458</v>
+      </c>
+      <c r="H26" t="s">
+        <v>459</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J26" s="1">
+        <v>45427</v>
+      </c>
+      <c r="K26" s="1">
+        <v>45427</v>
+      </c>
+      <c r="L26" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M26" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>460</v>
+      </c>
+      <c r="D27" t="s">
+        <v>461</v>
+      </c>
+      <c r="F27" t="s">
+        <v>462</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J27" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K27" s="1">
+        <v>45435</v>
+      </c>
+      <c r="L27" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M27" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>463</v>
+      </c>
+      <c r="D28" t="s">
+        <v>464</v>
+      </c>
+      <c r="E28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F28" t="s">
+        <v>466</v>
+      </c>
+      <c r="G28" t="s">
+        <v>467</v>
+      </c>
+      <c r="H28" t="s">
+        <v>468</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J28" s="1">
+        <v>45421</v>
+      </c>
+      <c r="K28" s="1">
+        <v>45421</v>
+      </c>
+      <c r="L28" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M28" s="1">
+        <v>47999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>469</v>
+      </c>
+      <c r="D29" t="s">
+        <v>470</v>
+      </c>
+      <c r="F29" t="s">
+        <v>471</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J29" s="1">
+        <v>45408</v>
+      </c>
+      <c r="K29" s="1">
+        <v>45408</v>
+      </c>
+      <c r="L29" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M29" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>472</v>
+      </c>
+      <c r="D30" t="s">
+        <v>473</v>
+      </c>
+      <c r="E30" t="s">
+        <v>474</v>
+      </c>
+      <c r="F30" t="s">
+        <v>475</v>
+      </c>
+      <c r="G30" t="s">
+        <v>476</v>
+      </c>
+      <c r="H30" t="s">
+        <v>473</v>
+      </c>
+      <c r="I30" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J30" s="1">
+        <v>45422</v>
+      </c>
+      <c r="K30" s="1">
+        <v>45422</v>
+      </c>
+      <c r="L30" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M30" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D31" t="s">
+        <v>478</v>
+      </c>
+      <c r="E31" t="s">
+        <v>479</v>
+      </c>
+      <c r="F31" t="s">
+        <v>480</v>
+      </c>
+      <c r="G31" t="s">
+        <v>481</v>
+      </c>
+      <c r="H31" t="s">
+        <v>482</v>
+      </c>
+      <c r="I31" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J31" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K31" s="1">
+        <v>45435</v>
+      </c>
+      <c r="L31" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M31" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>483</v>
+      </c>
+      <c r="D32" t="s">
+        <v>484</v>
+      </c>
+      <c r="E32" t="s">
+        <v>485</v>
+      </c>
+      <c r="F32" t="s">
+        <v>486</v>
+      </c>
+      <c r="G32" t="s">
+        <v>487</v>
+      </c>
+      <c r="H32" t="s">
+        <v>484</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45408</v>
+      </c>
+      <c r="J32" s="1">
+        <v>45420</v>
+      </c>
+      <c r="K32" s="1">
+        <v>45420</v>
+      </c>
+      <c r="L32" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M32" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>488</v>
+      </c>
+      <c r="D33" t="s">
+        <v>489</v>
+      </c>
+      <c r="F33" t="s">
+        <v>490</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1">
+        <v>45412</v>
+      </c>
+      <c r="J33" s="1">
+        <v>45420</v>
+      </c>
+      <c r="K33" s="1">
+        <v>45420</v>
+      </c>
+      <c r="L33" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M33" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>491</v>
+      </c>
+      <c r="D34" t="s">
+        <v>492</v>
+      </c>
+      <c r="E34" t="s">
+        <v>493</v>
+      </c>
+      <c r="F34" t="s">
+        <v>494</v>
+      </c>
+      <c r="G34" t="s">
+        <v>495</v>
+      </c>
+      <c r="H34" t="s">
+        <v>496</v>
+      </c>
+      <c r="I34" s="1">
+        <v>45412</v>
+      </c>
+      <c r="J34" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K34" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L34" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M34" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>497</v>
+      </c>
+      <c r="D35" t="s">
+        <v>498</v>
+      </c>
+      <c r="E35" t="s">
+        <v>499</v>
+      </c>
+      <c r="F35" t="s">
+        <v>500</v>
+      </c>
+      <c r="G35" t="s">
+        <v>501</v>
+      </c>
+      <c r="H35" t="s">
+        <v>502</v>
+      </c>
+      <c r="I35" s="1">
+        <v>45413</v>
+      </c>
+      <c r="J35" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K35" s="1">
+        <v>45428</v>
+      </c>
+      <c r="L35" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M35" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>503</v>
+      </c>
+      <c r="D36" t="s">
+        <v>504</v>
+      </c>
+      <c r="E36" t="s">
+        <v>505</v>
+      </c>
+      <c r="F36" t="s">
+        <v>506</v>
+      </c>
+      <c r="G36" t="s">
+        <v>507</v>
+      </c>
+      <c r="H36" t="s">
+        <v>508</v>
+      </c>
+      <c r="I36" s="1">
+        <v>45414</v>
+      </c>
+      <c r="J36" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K36" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L36" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M36" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>509</v>
+      </c>
+      <c r="D37" t="s">
+        <v>366</v>
+      </c>
+      <c r="E37" t="s">
+        <v>510</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="1">
+        <v>45414</v>
+      </c>
+      <c r="J37" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K37" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L37" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M37" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>511</v>
+      </c>
+      <c r="D38" t="s">
+        <v>512</v>
+      </c>
+      <c r="E38" t="s">
+        <v>513</v>
+      </c>
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="1">
+        <v>45414</v>
+      </c>
+      <c r="J38" s="1">
+        <v>45434</v>
+      </c>
+      <c r="K38" s="1">
+        <v>45434</v>
+      </c>
+      <c r="L38" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M38" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>514</v>
+      </c>
+      <c r="D39" t="s">
+        <v>515</v>
+      </c>
+      <c r="E39" t="s">
+        <v>516</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="1">
+        <v>45414</v>
+      </c>
+      <c r="J39" s="1">
+        <v>45434</v>
+      </c>
+      <c r="K39" s="1">
+        <v>45434</v>
+      </c>
+      <c r="L39" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M39" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>517</v>
+      </c>
+      <c r="D40" t="s">
+        <v>518</v>
+      </c>
+      <c r="E40" t="s">
+        <v>519</v>
+      </c>
+      <c r="F40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" s="1">
+        <v>45414</v>
+      </c>
+      <c r="J40" s="1">
+        <v>45414</v>
+      </c>
+      <c r="K40" s="1">
+        <v>45414</v>
+      </c>
+      <c r="L40" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M40" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>520</v>
+      </c>
+      <c r="D41" t="s">
+        <v>521</v>
+      </c>
+      <c r="E41" t="s">
+        <v>522</v>
+      </c>
+      <c r="F41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" t="s">
+        <v>113</v>
+      </c>
+      <c r="H41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="1">
+        <v>45414</v>
+      </c>
+      <c r="J41" s="1">
+        <v>45429</v>
+      </c>
+      <c r="K41" s="1">
+        <v>45429</v>
+      </c>
+      <c r="L41" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M41" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>523</v>
+      </c>
+      <c r="D42" t="s">
+        <v>524</v>
+      </c>
+      <c r="E42" t="s">
+        <v>525</v>
+      </c>
+      <c r="F42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="1">
+        <v>45414</v>
+      </c>
+      <c r="J42" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K42" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L42" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M42" s="1">
+        <v>47999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>526</v>
+      </c>
+      <c r="D43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E43" t="s">
+        <v>528</v>
+      </c>
+      <c r="F43" t="s">
+        <v>529</v>
+      </c>
+      <c r="G43" t="s">
+        <v>530</v>
+      </c>
+      <c r="H43" t="s">
+        <v>531</v>
+      </c>
+      <c r="I43" s="1">
+        <v>45419</v>
+      </c>
+      <c r="J43" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K43" s="1">
+        <v>45435</v>
+      </c>
+      <c r="L43" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M43" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>532</v>
+      </c>
+      <c r="D44" t="s">
+        <v>533</v>
+      </c>
+      <c r="E44" t="s">
+        <v>534</v>
+      </c>
+      <c r="F44" t="s">
+        <v>535</v>
+      </c>
+      <c r="G44" t="s">
+        <v>536</v>
+      </c>
+      <c r="H44" t="s">
+        <v>537</v>
+      </c>
+      <c r="I44" s="1">
+        <v>45419</v>
+      </c>
+      <c r="J44" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K44" s="1">
+        <v>45428</v>
+      </c>
+      <c r="L44" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M44" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>538</v>
+      </c>
+      <c r="D45" t="s">
+        <v>539</v>
+      </c>
+      <c r="F45" t="s">
+        <v>540</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="1">
+        <v>45419</v>
+      </c>
+      <c r="J45" s="1">
+        <v>45422</v>
+      </c>
+      <c r="K45" s="1">
+        <v>45422</v>
+      </c>
+      <c r="L45" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M45" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>541</v>
+      </c>
+      <c r="D46" t="s">
+        <v>542</v>
+      </c>
+      <c r="F46" t="s">
+        <v>543</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="1">
+        <v>45420</v>
+      </c>
+      <c r="J46" s="1">
+        <v>45420</v>
+      </c>
+      <c r="K46" s="1">
+        <v>45420</v>
+      </c>
+      <c r="L46" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M46" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>544</v>
+      </c>
+      <c r="D47" t="s">
+        <v>545</v>
+      </c>
+      <c r="F47" t="s">
+        <v>546</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="1">
+        <v>45420</v>
+      </c>
+      <c r="J47" s="1">
+        <v>45427</v>
+      </c>
+      <c r="K47" s="1">
+        <v>45427</v>
+      </c>
+      <c r="L47" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M47" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>547</v>
+      </c>
+      <c r="D48" t="s">
+        <v>548</v>
+      </c>
+      <c r="F48" t="s">
+        <v>549</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="1">
+        <v>45420</v>
+      </c>
+      <c r="J48" s="1">
+        <v>45422</v>
+      </c>
+      <c r="K48" s="1">
+        <v>45422</v>
+      </c>
+      <c r="L48" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M48" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>550</v>
+      </c>
+      <c r="D49" t="s">
+        <v>551</v>
+      </c>
+      <c r="E49" t="s">
+        <v>552</v>
+      </c>
+      <c r="F49" t="s">
+        <v>553</v>
+      </c>
+      <c r="G49" t="s">
+        <v>554</v>
+      </c>
+      <c r="H49" t="s">
+        <v>555</v>
+      </c>
+      <c r="I49" s="1">
+        <v>45420</v>
+      </c>
+      <c r="J49" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K49" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L49" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M49" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>556</v>
+      </c>
+      <c r="D50" t="s">
+        <v>557</v>
+      </c>
+      <c r="F50" t="s">
+        <v>558</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="1">
+        <v>45421</v>
+      </c>
+      <c r="J50" s="1">
+        <v>45429</v>
+      </c>
+      <c r="K50" s="1">
+        <v>45429</v>
+      </c>
+      <c r="L50" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M50" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>559</v>
+      </c>
+      <c r="D51" t="s">
+        <v>560</v>
+      </c>
+      <c r="F51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="1">
+        <v>45421</v>
+      </c>
+      <c r="J51" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K51" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L51" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M51" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>562</v>
+      </c>
+      <c r="D52" t="s">
+        <v>563</v>
+      </c>
+      <c r="E52" t="s">
+        <v>564</v>
+      </c>
+      <c r="F52" t="s">
+        <v>565</v>
+      </c>
+      <c r="G52" t="s">
+        <v>566</v>
+      </c>
+      <c r="H52" t="s">
+        <v>567</v>
+      </c>
+      <c r="I52" s="1">
+        <v>45421</v>
+      </c>
+      <c r="J52" s="1">
+        <v>45425</v>
+      </c>
+      <c r="K52" s="1">
+        <v>45425</v>
+      </c>
+      <c r="L52" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M52" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>568</v>
+      </c>
+      <c r="D53" t="s">
+        <v>569</v>
+      </c>
+      <c r="F53" t="s">
+        <v>570</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="1">
+        <v>45421</v>
+      </c>
+      <c r="J53" s="1">
+        <v>45422</v>
+      </c>
+      <c r="K53" s="1">
+        <v>45422</v>
+      </c>
+      <c r="L53" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M53" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>571</v>
+      </c>
+      <c r="D54" t="s">
+        <v>572</v>
+      </c>
+      <c r="E54" t="s">
+        <v>573</v>
+      </c>
+      <c r="F54" t="s">
+        <v>574</v>
+      </c>
+      <c r="G54" t="s">
+        <v>575</v>
+      </c>
+      <c r="H54" t="s">
+        <v>576</v>
+      </c>
+      <c r="I54" s="1">
+        <v>45421</v>
+      </c>
+      <c r="J54" s="1">
+        <v>45427</v>
+      </c>
+      <c r="K54" s="1">
+        <v>45427</v>
+      </c>
+      <c r="L54" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M54" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>577</v>
+      </c>
+      <c r="D55" t="s">
+        <v>578</v>
+      </c>
+      <c r="F55" t="s">
+        <v>579</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="1">
+        <v>45421</v>
+      </c>
+      <c r="J55" s="1">
+        <v>45427</v>
+      </c>
+      <c r="K55" s="1">
+        <v>45427</v>
+      </c>
+      <c r="L55" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M55" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>580</v>
+      </c>
+      <c r="D56" t="s">
+        <v>581</v>
+      </c>
+      <c r="F56" t="s">
+        <v>582</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="1">
+        <v>45422</v>
+      </c>
+      <c r="J56" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K56" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L56" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M56" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>583</v>
+      </c>
+      <c r="D57" t="s">
+        <v>584</v>
+      </c>
+      <c r="E57" t="s">
+        <v>585</v>
+      </c>
+      <c r="F57" t="s">
+        <v>586</v>
+      </c>
+      <c r="G57" t="s">
+        <v>587</v>
+      </c>
+      <c r="H57" t="s">
+        <v>588</v>
+      </c>
+      <c r="I57" s="1">
+        <v>45422</v>
+      </c>
+      <c r="J57" s="1">
+        <v>45426</v>
+      </c>
+      <c r="K57" s="1">
+        <v>45426</v>
+      </c>
+      <c r="L57" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M57" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>589</v>
+      </c>
+      <c r="D58" t="s">
+        <v>590</v>
+      </c>
+      <c r="E58" t="s">
+        <v>591</v>
+      </c>
+      <c r="F58" t="s">
+        <v>586</v>
+      </c>
+      <c r="G58" t="s">
+        <v>587</v>
+      </c>
+      <c r="H58" t="s">
+        <v>592</v>
+      </c>
+      <c r="I58" s="1">
+        <v>45422</v>
+      </c>
+      <c r="J58" s="1">
+        <v>45426</v>
+      </c>
+      <c r="K58" s="1">
+        <v>45426</v>
+      </c>
+      <c r="L58" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M58" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>593</v>
+      </c>
+      <c r="D59" t="s">
+        <v>594</v>
+      </c>
+      <c r="F59" t="s">
+        <v>595</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="1">
+        <v>45422</v>
+      </c>
+      <c r="J59" s="1">
+        <v>45429</v>
+      </c>
+      <c r="K59" s="1">
+        <v>45429</v>
+      </c>
+      <c r="L59" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M59" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>596</v>
+      </c>
+      <c r="D60" t="s">
+        <v>597</v>
+      </c>
+      <c r="F60" t="s">
+        <v>598</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="1">
+        <v>45425</v>
+      </c>
+      <c r="J60" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K60" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L60" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M60" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>599</v>
+      </c>
+      <c r="D61" t="s">
+        <v>600</v>
+      </c>
+      <c r="F61" t="s">
+        <v>601</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="1">
+        <v>45425</v>
+      </c>
+      <c r="J61" s="1">
+        <v>45441</v>
+      </c>
+      <c r="K61" s="1">
+        <v>45441</v>
+      </c>
+      <c r="L61" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M61" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>602</v>
+      </c>
+      <c r="D62" t="s">
+        <v>603</v>
+      </c>
+      <c r="F62" t="s">
+        <v>604</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="1">
+        <v>45425</v>
+      </c>
+      <c r="J62" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K62" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L62" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M62" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>605</v>
+      </c>
+      <c r="D63" t="s">
+        <v>606</v>
+      </c>
+      <c r="F63" t="s">
+        <v>607</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="1">
+        <v>45425</v>
+      </c>
+      <c r="J63" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K63" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L63" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M63" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>608</v>
+      </c>
+      <c r="D64" t="s">
+        <v>609</v>
+      </c>
+      <c r="F64" t="s">
+        <v>610</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="1">
+        <v>45426</v>
+      </c>
+      <c r="J64" s="1">
+        <v>45441</v>
+      </c>
+      <c r="K64" s="1">
+        <v>45441</v>
+      </c>
+      <c r="L64" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M64" s="1">
+        <v>47634</v>
+      </c>
+      <c r="N64" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>612</v>
+      </c>
+      <c r="D65" t="s">
+        <v>366</v>
+      </c>
+      <c r="E65" t="s">
+        <v>613</v>
+      </c>
+      <c r="F65" t="s">
+        <v>614</v>
+      </c>
+      <c r="G65" t="s">
+        <v>615</v>
+      </c>
+      <c r="H65" t="s">
+        <v>616</v>
+      </c>
+      <c r="I65" s="1">
+        <v>45426</v>
+      </c>
+      <c r="J65" s="1">
+        <v>45436</v>
+      </c>
+      <c r="K65" s="1">
+        <v>45436</v>
+      </c>
+      <c r="L65" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M65" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>617</v>
+      </c>
+      <c r="D66" t="s">
+        <v>366</v>
+      </c>
+      <c r="E66" t="s">
+        <v>618</v>
+      </c>
+      <c r="F66" t="s">
+        <v>614</v>
+      </c>
+      <c r="G66" t="s">
+        <v>615</v>
+      </c>
+      <c r="H66" t="s">
+        <v>616</v>
+      </c>
+      <c r="I66" s="1">
+        <v>45426</v>
+      </c>
+      <c r="J66" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K66" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L66" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M66" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>619</v>
+      </c>
+      <c r="D67" t="s">
+        <v>366</v>
+      </c>
+      <c r="E67" t="s">
+        <v>620</v>
+      </c>
+      <c r="F67" t="s">
+        <v>614</v>
+      </c>
+      <c r="G67" t="s">
+        <v>615</v>
+      </c>
+      <c r="H67" t="s">
+        <v>616</v>
+      </c>
+      <c r="I67" s="1">
+        <v>45426</v>
+      </c>
+      <c r="J67" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K67" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L67" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M67" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>621</v>
+      </c>
+      <c r="D68" t="s">
+        <v>622</v>
+      </c>
+      <c r="E68" t="s">
+        <v>623</v>
+      </c>
+      <c r="F68" t="s">
+        <v>624</v>
+      </c>
+      <c r="G68" t="s">
+        <v>625</v>
+      </c>
+      <c r="H68" t="s">
+        <v>626</v>
+      </c>
+      <c r="I68" s="1">
+        <v>45426</v>
+      </c>
+      <c r="J68" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K68" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L68" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M68" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>627</v>
+      </c>
+      <c r="D69" t="s">
+        <v>366</v>
+      </c>
+      <c r="E69" t="s">
+        <v>628</v>
+      </c>
+      <c r="F69" t="s">
+        <v>629</v>
+      </c>
+      <c r="G69" t="s">
+        <v>630</v>
+      </c>
+      <c r="H69" t="s">
+        <v>631</v>
+      </c>
+      <c r="I69" s="1">
+        <v>45426</v>
+      </c>
+      <c r="J69" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K69" s="1">
+        <v>45440</v>
+      </c>
+      <c r="L69" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M69" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>632</v>
+      </c>
+      <c r="D70" t="s">
+        <v>366</v>
+      </c>
+      <c r="E70" t="s">
+        <v>633</v>
+      </c>
+      <c r="F70" t="s">
+        <v>634</v>
+      </c>
+      <c r="G70" t="s">
+        <v>635</v>
+      </c>
+      <c r="H70" t="s">
+        <v>636</v>
+      </c>
+      <c r="I70" s="1">
+        <v>45426</v>
+      </c>
+      <c r="J70" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K70" s="1">
+        <v>45440</v>
+      </c>
+      <c r="L70" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M70" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>637</v>
+      </c>
+      <c r="D71" t="s">
+        <v>638</v>
+      </c>
+      <c r="F71" t="s">
+        <v>639</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="1">
+        <v>45426</v>
+      </c>
+      <c r="J71" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K71" s="1">
+        <v>45435</v>
+      </c>
+      <c r="L71" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M71" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>640</v>
+      </c>
+      <c r="D72" t="s">
+        <v>641</v>
+      </c>
+      <c r="E72" t="s">
+        <v>642</v>
+      </c>
+      <c r="F72" t="s">
+        <v>643</v>
+      </c>
+      <c r="G72" t="s">
+        <v>644</v>
+      </c>
+      <c r="H72" t="s">
+        <v>645</v>
+      </c>
+      <c r="I72" s="1">
+        <v>45427</v>
+      </c>
+      <c r="J72" s="1">
+        <v>45434</v>
+      </c>
+      <c r="K72" s="1">
+        <v>45434</v>
+      </c>
+      <c r="L72" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M72" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>646</v>
+      </c>
+      <c r="D73" t="s">
+        <v>647</v>
+      </c>
+      <c r="E73" t="s">
+        <v>648</v>
+      </c>
+      <c r="F73" t="s">
+        <v>649</v>
+      </c>
+      <c r="G73" t="s">
+        <v>650</v>
+      </c>
+      <c r="H73" t="s">
+        <v>647</v>
+      </c>
+      <c r="I73" s="1">
+        <v>45427</v>
+      </c>
+      <c r="J73" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K73" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L73" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M73" s="1">
+        <v>47999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>651</v>
+      </c>
+      <c r="D74" t="s">
+        <v>652</v>
+      </c>
+      <c r="E74" t="s">
+        <v>653</v>
+      </c>
+      <c r="F74" t="s">
+        <v>654</v>
+      </c>
+      <c r="G74" t="s">
+        <v>655</v>
+      </c>
+      <c r="H74" t="s">
+        <v>652</v>
+      </c>
+      <c r="I74" s="1">
+        <v>45427</v>
+      </c>
+      <c r="J74" s="1">
+        <v>45441</v>
+      </c>
+      <c r="K74" s="1">
+        <v>45441</v>
+      </c>
+      <c r="L74" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M74" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>656</v>
+      </c>
+      <c r="D75" t="s">
+        <v>657</v>
+      </c>
+      <c r="F75" t="s">
+        <v>658</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="1">
+        <v>45427</v>
+      </c>
+      <c r="J75" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K75" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L75" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M75" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>659</v>
+      </c>
+      <c r="D76" t="s">
+        <v>660</v>
+      </c>
+      <c r="E76" t="s">
+        <v>661</v>
+      </c>
+      <c r="F76" t="s">
+        <v>290</v>
+      </c>
+      <c r="G76" t="s">
+        <v>662</v>
+      </c>
+      <c r="H76" t="s">
+        <v>292</v>
+      </c>
+      <c r="I76" s="1">
+        <v>45427</v>
+      </c>
+      <c r="J76" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K76" s="1">
+        <v>45440</v>
+      </c>
+      <c r="L76" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M76" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>663</v>
+      </c>
+      <c r="D77" t="s">
+        <v>664</v>
+      </c>
+      <c r="E77" t="s">
+        <v>665</v>
+      </c>
+      <c r="F77" t="s">
+        <v>666</v>
+      </c>
+      <c r="G77" t="s">
+        <v>667</v>
+      </c>
+      <c r="H77" t="s">
+        <v>664</v>
+      </c>
+      <c r="I77" s="1">
+        <v>45427</v>
+      </c>
+      <c r="J77" s="1">
+        <v>45439</v>
+      </c>
+      <c r="K77" s="1">
+        <v>45439</v>
+      </c>
+      <c r="L77" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M77" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D78" t="s">
+        <v>668</v>
+      </c>
+      <c r="E78" t="s">
+        <v>669</v>
+      </c>
+      <c r="F78" t="s">
+        <v>670</v>
+      </c>
+      <c r="G78" t="s">
+        <v>671</v>
+      </c>
+      <c r="H78" t="s">
+        <v>672</v>
+      </c>
+      <c r="I78" s="1">
+        <v>45428</v>
+      </c>
+      <c r="J78" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K78" s="1">
+        <v>45428</v>
+      </c>
+      <c r="L78" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M78" s="1">
+        <v>47999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>673</v>
+      </c>
+      <c r="D79" t="s">
+        <v>674</v>
+      </c>
+      <c r="E79" t="s">
+        <v>675</v>
+      </c>
+      <c r="F79" t="s">
+        <v>676</v>
+      </c>
+      <c r="G79" t="s">
+        <v>677</v>
+      </c>
+      <c r="H79" t="s">
+        <v>678</v>
+      </c>
+      <c r="I79" s="1">
+        <v>45428</v>
+      </c>
+      <c r="J79" s="1">
+        <v>45436</v>
+      </c>
+      <c r="K79" s="1">
+        <v>45436</v>
+      </c>
+      <c r="L79" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M79" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>679</v>
+      </c>
+      <c r="D80" t="s">
+        <v>680</v>
+      </c>
+      <c r="E80" t="s">
+        <v>681</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G80" t="s">
+        <v>682</v>
+      </c>
+      <c r="H80" t="s">
+        <v>683</v>
+      </c>
+      <c r="I80" s="1">
+        <v>45428</v>
+      </c>
+      <c r="J80" s="1">
+        <v>45428</v>
+      </c>
+      <c r="K80" s="1">
+        <v>45428</v>
+      </c>
+      <c r="L80" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M80" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>684</v>
+      </c>
+      <c r="D81" t="s">
+        <v>685</v>
+      </c>
+      <c r="E81" t="s">
+        <v>686</v>
+      </c>
+      <c r="F81" t="s">
+        <v>336</v>
+      </c>
+      <c r="G81" t="s">
+        <v>337</v>
+      </c>
+      <c r="H81" t="s">
+        <v>687</v>
+      </c>
+      <c r="I81" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J81" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K81" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L81" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M81" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>688</v>
+      </c>
+      <c r="D82" t="s">
+        <v>366</v>
+      </c>
+      <c r="E82" t="s">
+        <v>689</v>
+      </c>
+      <c r="F82" t="s">
+        <v>690</v>
+      </c>
+      <c r="G82" t="s">
+        <v>691</v>
+      </c>
+      <c r="H82" t="s">
+        <v>692</v>
+      </c>
+      <c r="I82" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J82" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K82" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L82" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M82" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>693</v>
+      </c>
+      <c r="D83" t="s">
+        <v>694</v>
+      </c>
+      <c r="E83" t="s">
+        <v>695</v>
+      </c>
+      <c r="F83" t="s">
+        <v>696</v>
+      </c>
+      <c r="G83" t="s">
+        <v>697</v>
+      </c>
+      <c r="H83" t="s">
+        <v>698</v>
+      </c>
+      <c r="I83" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J83" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K83" s="1">
+        <v>45435</v>
+      </c>
+      <c r="L83" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M83" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>699</v>
+      </c>
+      <c r="D84" t="s">
+        <v>700</v>
+      </c>
+      <c r="E84" t="s">
+        <v>701</v>
+      </c>
+      <c r="F84" t="s">
+        <v>702</v>
+      </c>
+      <c r="G84" t="s">
+        <v>703</v>
+      </c>
+      <c r="H84" t="s">
+        <v>415</v>
+      </c>
+      <c r="I84" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J84" s="1">
+        <v>45434</v>
+      </c>
+      <c r="K84" s="1">
+        <v>45434</v>
+      </c>
+      <c r="L84" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M84" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>704</v>
+      </c>
+      <c r="D85" t="s">
+        <v>705</v>
+      </c>
+      <c r="E85" t="s">
+        <v>706</v>
+      </c>
+      <c r="F85" t="s">
+        <v>702</v>
+      </c>
+      <c r="G85" t="s">
+        <v>703</v>
+      </c>
+      <c r="H85" t="s">
+        <v>415</v>
+      </c>
+      <c r="I85" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J85" s="1">
+        <v>45439</v>
+      </c>
+      <c r="K85" s="1">
+        <v>45439</v>
+      </c>
+      <c r="L85" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M85" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>707</v>
+      </c>
+      <c r="D86" t="s">
+        <v>708</v>
+      </c>
+      <c r="E86" t="s">
+        <v>709</v>
+      </c>
+      <c r="F86" t="s">
+        <v>710</v>
+      </c>
+      <c r="G86" t="s">
+        <v>711</v>
+      </c>
+      <c r="H86" t="s">
+        <v>712</v>
+      </c>
+      <c r="I86" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J86" s="1">
+        <v>45434</v>
+      </c>
+      <c r="K86" s="1">
+        <v>45434</v>
+      </c>
+      <c r="L86" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M86" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>713</v>
+      </c>
+      <c r="D87" t="s">
+        <v>714</v>
+      </c>
+      <c r="F87" t="s">
+        <v>715</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J87" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K87" s="1">
+        <v>45435</v>
+      </c>
+      <c r="L87" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M87" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>716</v>
+      </c>
+      <c r="D88" t="s">
+        <v>717</v>
+      </c>
+      <c r="E88" t="s">
+        <v>718</v>
+      </c>
+      <c r="F88" t="s">
+        <v>719</v>
+      </c>
+      <c r="G88" t="s">
+        <v>720</v>
+      </c>
+      <c r="H88" t="s">
+        <v>721</v>
+      </c>
+      <c r="I88" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J88" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K88" s="1">
+        <v>45435</v>
+      </c>
+      <c r="L88" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M88" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>722</v>
+      </c>
+      <c r="D89" t="s">
+        <v>717</v>
+      </c>
+      <c r="E89" t="s">
+        <v>718</v>
+      </c>
+      <c r="F89" t="s">
+        <v>719</v>
+      </c>
+      <c r="G89" t="s">
+        <v>720</v>
+      </c>
+      <c r="H89" t="s">
+        <v>721</v>
+      </c>
+      <c r="I89" s="1">
+        <v>45429</v>
+      </c>
+      <c r="J89" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K89" s="1">
+        <v>45435</v>
+      </c>
+      <c r="L89" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M89" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>723</v>
+      </c>
+      <c r="D90" t="s">
+        <v>724</v>
+      </c>
+      <c r="F90" t="s">
+        <v>725</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J90" s="1">
+        <v>45433</v>
+      </c>
+      <c r="K90" s="1">
+        <v>45433</v>
+      </c>
+      <c r="L90" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M90" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>726</v>
+      </c>
+      <c r="D91" t="s">
+        <v>727</v>
+      </c>
+      <c r="F91" t="s">
+        <v>728</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J91" s="1">
+        <v>45434</v>
+      </c>
+      <c r="K91" s="1">
+        <v>45434</v>
+      </c>
+      <c r="L91" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M91" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>729</v>
+      </c>
+      <c r="D92" t="s">
+        <v>730</v>
+      </c>
+      <c r="E92" t="s">
+        <v>731</v>
+      </c>
+      <c r="F92" t="s">
+        <v>732</v>
+      </c>
+      <c r="G92" t="s">
+        <v>733</v>
+      </c>
+      <c r="H92" t="s">
+        <v>734</v>
+      </c>
+      <c r="I92" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J92" s="1">
+        <v>45436</v>
+      </c>
+      <c r="K92" s="1">
+        <v>45436</v>
+      </c>
+      <c r="L92" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M92" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>735</v>
+      </c>
+      <c r="D93" t="s">
+        <v>736</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>737</v>
+      </c>
+      <c r="G93" t="s">
+        <v>738</v>
+      </c>
+      <c r="H93" t="s">
+        <v>739</v>
+      </c>
+      <c r="I93" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J93" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K93" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L93" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M93" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>740</v>
+      </c>
+      <c r="D94" t="s">
+        <v>741</v>
+      </c>
+      <c r="E94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s">
+        <v>737</v>
+      </c>
+      <c r="G94" t="s">
+        <v>738</v>
+      </c>
+      <c r="H94" t="s">
+        <v>739</v>
+      </c>
+      <c r="I94" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J94" s="1">
+        <v>45439</v>
+      </c>
+      <c r="K94" s="1">
+        <v>45439</v>
+      </c>
+      <c r="L94" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M94" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>742</v>
+      </c>
+      <c r="D95" t="s">
+        <v>743</v>
+      </c>
+      <c r="E95" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s">
+        <v>744</v>
+      </c>
+      <c r="G95" t="s">
+        <v>745</v>
+      </c>
+      <c r="H95" t="s">
+        <v>746</v>
+      </c>
+      <c r="I95" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J95" s="1">
+        <v>45439</v>
+      </c>
+      <c r="K95" s="1">
+        <v>45439</v>
+      </c>
+      <c r="L95" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M95" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>747</v>
+      </c>
+      <c r="D96" t="s">
+        <v>748</v>
+      </c>
+      <c r="F96" t="s">
+        <v>749</v>
+      </c>
+      <c r="G96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J96" s="1">
+        <v>45439</v>
+      </c>
+      <c r="K96" s="1">
+        <v>45439</v>
+      </c>
+      <c r="L96" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M96" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>750</v>
+      </c>
+      <c r="D97" t="s">
+        <v>751</v>
+      </c>
+      <c r="E97" t="s">
+        <v>752</v>
+      </c>
+      <c r="F97" t="s">
+        <v>753</v>
+      </c>
+      <c r="G97" t="s">
+        <v>754</v>
+      </c>
+      <c r="H97" t="s">
+        <v>755</v>
+      </c>
+      <c r="I97" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J97" s="1">
+        <v>45432</v>
+      </c>
+      <c r="K97" s="1">
+        <v>45432</v>
+      </c>
+      <c r="L97" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M97" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>756</v>
+      </c>
+      <c r="D98" t="s">
+        <v>757</v>
+      </c>
+      <c r="E98" t="s">
+        <v>758</v>
+      </c>
+      <c r="F98" t="s">
+        <v>759</v>
+      </c>
+      <c r="G98" t="s">
+        <v>760</v>
+      </c>
+      <c r="H98" t="s">
+        <v>761</v>
+      </c>
+      <c r="I98" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J98" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K98" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L98" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M98" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>762</v>
+      </c>
+      <c r="D99" t="s">
+        <v>763</v>
+      </c>
+      <c r="F99" t="s">
+        <v>764</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="1">
+        <v>45433</v>
+      </c>
+      <c r="J99" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K99" s="1">
+        <v>45440</v>
+      </c>
+      <c r="L99" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M99" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>765</v>
+      </c>
+      <c r="D100" t="s">
+        <v>766</v>
+      </c>
+      <c r="F100" t="s">
+        <v>767</v>
+      </c>
+      <c r="G100" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="1">
+        <v>45433</v>
+      </c>
+      <c r="J100" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K100" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L100" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M100" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>768</v>
+      </c>
+      <c r="D101" t="s">
+        <v>769</v>
+      </c>
+      <c r="F101" t="s">
+        <v>770</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="1">
+        <v>45433</v>
+      </c>
+      <c r="J101" s="1">
+        <v>45439</v>
+      </c>
+      <c r="K101" s="1">
+        <v>45439</v>
+      </c>
+      <c r="L101" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M101" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>771</v>
+      </c>
+      <c r="D102" t="s">
+        <v>772</v>
+      </c>
+      <c r="F102" t="s">
+        <v>773</v>
+      </c>
+      <c r="G102" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="1">
+        <v>45433</v>
+      </c>
+      <c r="J102" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K102" s="1">
+        <v>45435</v>
+      </c>
+      <c r="L102" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M102" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>774</v>
+      </c>
+      <c r="D103" t="s">
+        <v>775</v>
+      </c>
+      <c r="E103" t="s">
+        <v>776</v>
+      </c>
+      <c r="F103" t="s">
+        <v>777</v>
+      </c>
+      <c r="G103" t="s">
+        <v>778</v>
+      </c>
+      <c r="H103" t="s">
+        <v>779</v>
+      </c>
+      <c r="I103" s="1">
+        <v>45433</v>
+      </c>
+      <c r="J103" s="1">
+        <v>45442</v>
+      </c>
+      <c r="K103" s="1">
+        <v>45442</v>
+      </c>
+      <c r="L103" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M103" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>780</v>
+      </c>
+      <c r="D104" t="s">
+        <v>781</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F104" t="s">
+        <v>782</v>
+      </c>
+      <c r="G104" t="s">
+        <v>783</v>
+      </c>
+      <c r="H104" t="s">
+        <v>784</v>
+      </c>
+      <c r="I104" s="1">
+        <v>45433</v>
+      </c>
+      <c r="J104" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K104" s="1">
+        <v>45440</v>
+      </c>
+      <c r="L104" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M104" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>785</v>
+      </c>
+      <c r="D105" t="s">
+        <v>786</v>
+      </c>
+      <c r="E105" t="s">
+        <v>787</v>
+      </c>
+      <c r="F105" t="s">
+        <v>788</v>
+      </c>
+      <c r="G105" t="s">
+        <v>789</v>
+      </c>
+      <c r="H105" t="s">
+        <v>790</v>
+      </c>
+      <c r="I105" s="1">
+        <v>45434</v>
+      </c>
+      <c r="J105" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K105" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L105" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M105" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>791</v>
+      </c>
+      <c r="D106" t="s">
+        <v>366</v>
+      </c>
+      <c r="E106" t="s">
+        <v>792</v>
+      </c>
+      <c r="F106" t="s">
+        <v>793</v>
+      </c>
+      <c r="G106" t="s">
+        <v>794</v>
+      </c>
+      <c r="H106" t="s">
+        <v>795</v>
+      </c>
+      <c r="I106" s="1">
+        <v>45434</v>
+      </c>
+      <c r="J106" s="1">
+        <v>45441</v>
+      </c>
+      <c r="K106" s="1">
+        <v>45441</v>
+      </c>
+      <c r="L106" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M106" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="s">
+        <v>796</v>
+      </c>
+      <c r="D107" t="s">
+        <v>797</v>
+      </c>
+      <c r="E107" t="s">
+        <v>798</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G107" t="s">
+        <v>799</v>
+      </c>
+      <c r="H107" t="s">
+        <v>800</v>
+      </c>
+      <c r="I107" s="1">
+        <v>45434</v>
+      </c>
+      <c r="J107" s="1">
+        <v>45435</v>
+      </c>
+      <c r="K107" s="1">
+        <v>45435</v>
+      </c>
+      <c r="L107" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M107" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>801</v>
+      </c>
+      <c r="D108" t="s">
+        <v>802</v>
+      </c>
+      <c r="F108" t="s">
+        <v>803</v>
+      </c>
+      <c r="G108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="1">
+        <v>45434</v>
+      </c>
+      <c r="J108" s="1">
+        <v>45442</v>
+      </c>
+      <c r="K108" s="1">
+        <v>45442</v>
+      </c>
+      <c r="L108" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M108" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>804</v>
+      </c>
+      <c r="D109" t="s">
+        <v>805</v>
+      </c>
+      <c r="E109" t="s">
+        <v>806</v>
+      </c>
+      <c r="F109" t="s">
+        <v>807</v>
+      </c>
+      <c r="G109" t="s">
+        <v>808</v>
+      </c>
+      <c r="H109" t="s">
+        <v>809</v>
+      </c>
+      <c r="I109" s="1">
+        <v>45434</v>
+      </c>
+      <c r="J109" s="1">
+        <v>45434</v>
+      </c>
+      <c r="K109" s="1">
+        <v>45434</v>
+      </c>
+      <c r="L109" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M109" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>810</v>
+      </c>
+      <c r="D110" t="s">
+        <v>811</v>
+      </c>
+      <c r="E110" t="s">
+        <v>812</v>
+      </c>
+      <c r="F110" t="s">
+        <v>813</v>
+      </c>
+      <c r="G110" t="s">
+        <v>814</v>
+      </c>
+      <c r="H110" t="s">
+        <v>815</v>
+      </c>
+      <c r="I110" s="1">
+        <v>45435</v>
+      </c>
+      <c r="J110" s="1">
+        <v>45442</v>
+      </c>
+      <c r="K110" s="1">
+        <v>45442</v>
+      </c>
+      <c r="L110" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M110" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>816</v>
+      </c>
+      <c r="D111" t="s">
+        <v>817</v>
+      </c>
+      <c r="F111" t="s">
+        <v>818</v>
+      </c>
+      <c r="G111" t="s">
+        <v>819</v>
+      </c>
+      <c r="H111" t="s">
+        <v>820</v>
+      </c>
+      <c r="I111" s="1">
+        <v>45436</v>
+      </c>
+      <c r="J111" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K111" s="1">
+        <v>45440</v>
+      </c>
+      <c r="L111" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M111" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>821</v>
+      </c>
+      <c r="D112" t="s">
+        <v>822</v>
+      </c>
+      <c r="F112" t="s">
+        <v>823</v>
+      </c>
+      <c r="G112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="1">
+        <v>45436</v>
+      </c>
+      <c r="J112" s="1">
+        <v>45439</v>
+      </c>
+      <c r="K112" s="1">
+        <v>45439</v>
+      </c>
+      <c r="L112" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M112" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
+        <v>824</v>
+      </c>
+      <c r="D113" t="s">
+        <v>825</v>
+      </c>
+      <c r="E113" t="s">
+        <v>826</v>
+      </c>
+      <c r="F113" t="s">
+        <v>827</v>
+      </c>
+      <c r="G113" t="s">
+        <v>828</v>
+      </c>
+      <c r="H113" t="s">
+        <v>829</v>
+      </c>
+      <c r="I113" s="1">
+        <v>45436</v>
+      </c>
+      <c r="J113" s="1">
+        <v>45441</v>
+      </c>
+      <c r="K113" s="1">
+        <v>45441</v>
+      </c>
+      <c r="L113" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M113" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>830</v>
+      </c>
+      <c r="D114" t="s">
+        <v>831</v>
+      </c>
+      <c r="F114" t="s">
+        <v>832</v>
+      </c>
+      <c r="G114" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="1">
+        <v>45436</v>
+      </c>
+      <c r="J114" s="1">
+        <v>45436</v>
+      </c>
+      <c r="K114" s="1">
+        <v>45436</v>
+      </c>
+      <c r="L114" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M114" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>833</v>
+      </c>
+      <c r="D115" t="s">
+        <v>834</v>
+      </c>
+      <c r="F115" t="s">
+        <v>835</v>
+      </c>
+      <c r="G115" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="1">
+        <v>45439</v>
+      </c>
+      <c r="J115" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K115" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L115" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M115" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>836</v>
+      </c>
+      <c r="D116" t="s">
+        <v>837</v>
+      </c>
+      <c r="F116" t="s">
+        <v>838</v>
+      </c>
+      <c r="G116" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="1">
+        <v>45439</v>
+      </c>
+      <c r="J116" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K116" s="1">
+        <v>45440</v>
+      </c>
+      <c r="L116" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M116" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="s">
+        <v>839</v>
+      </c>
+      <c r="D117" t="s">
+        <v>840</v>
+      </c>
+      <c r="E117" t="s">
+        <v>841</v>
+      </c>
+      <c r="F117" t="s">
+        <v>842</v>
+      </c>
+      <c r="G117" t="s">
+        <v>843</v>
+      </c>
+      <c r="H117" t="s">
+        <v>844</v>
+      </c>
+      <c r="I117" s="1">
+        <v>45439</v>
+      </c>
+      <c r="J117" s="1">
+        <v>45442</v>
+      </c>
+      <c r="K117" s="1">
+        <v>45442</v>
+      </c>
+      <c r="L117" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M117" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="s">
+        <v>845</v>
+      </c>
+      <c r="D118" t="s">
+        <v>846</v>
+      </c>
+      <c r="F118" t="s">
+        <v>847</v>
+      </c>
+      <c r="G118" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J118" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K118" s="1">
+        <v>45440</v>
+      </c>
+      <c r="L118" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M118" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" t="s">
+        <v>848</v>
+      </c>
+      <c r="D119" t="s">
+        <v>849</v>
+      </c>
+      <c r="F119" t="s">
+        <v>850</v>
+      </c>
+      <c r="G119" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J119" s="1">
+        <v>45442</v>
+      </c>
+      <c r="K119" s="1">
+        <v>45442</v>
+      </c>
+      <c r="L119" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M119" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="s">
+        <v>851</v>
+      </c>
+      <c r="D120" t="s">
+        <v>852</v>
+      </c>
+      <c r="F120" t="s">
+        <v>853</v>
+      </c>
+      <c r="G120" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J120" s="1">
+        <v>45442</v>
+      </c>
+      <c r="K120" s="1">
+        <v>45442</v>
+      </c>
+      <c r="L120" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M120" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>854</v>
+      </c>
+      <c r="D121" t="s">
+        <v>855</v>
+      </c>
+      <c r="F121" t="s">
+        <v>856</v>
+      </c>
+      <c r="G121" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J121" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K121" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L121" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M121" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>857</v>
+      </c>
+      <c r="D122" t="s">
+        <v>858</v>
+      </c>
+      <c r="E122" t="s">
+        <v>859</v>
+      </c>
+      <c r="F122" t="s">
+        <v>860</v>
+      </c>
+      <c r="G122" t="s">
+        <v>861</v>
+      </c>
+      <c r="H122" t="s">
+        <v>862</v>
+      </c>
+      <c r="I122" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J122" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K122" s="1">
+        <v>45440</v>
+      </c>
+      <c r="L122" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M122" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" t="s">
+        <v>863</v>
+      </c>
+      <c r="D123" t="s">
+        <v>864</v>
+      </c>
+      <c r="E123" t="s">
+        <v>865</v>
+      </c>
+      <c r="F123" t="s">
+        <v>866</v>
+      </c>
+      <c r="G123" t="s">
+        <v>867</v>
+      </c>
+      <c r="H123" t="s">
+        <v>868</v>
+      </c>
+      <c r="I123" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J123" s="1">
+        <v>45441</v>
+      </c>
+      <c r="K123" s="1">
+        <v>45441</v>
+      </c>
+      <c r="L123" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M123" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="s">
+        <v>869</v>
+      </c>
+      <c r="D124" t="s">
+        <v>870</v>
+      </c>
+      <c r="F124" t="s">
+        <v>871</v>
+      </c>
+      <c r="G124" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J124" s="1">
+        <v>45440</v>
+      </c>
+      <c r="K124" s="1">
+        <v>45440</v>
+      </c>
+      <c r="L124" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M124" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="s">
+        <v>872</v>
+      </c>
+      <c r="D125" t="s">
+        <v>873</v>
+      </c>
+      <c r="F125" t="s">
+        <v>874</v>
+      </c>
+      <c r="G125" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="1">
+        <v>45440</v>
+      </c>
+      <c r="J125" s="1">
+        <v>45442</v>
+      </c>
+      <c r="K125" s="1">
+        <v>45442</v>
+      </c>
+      <c r="L125" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M125" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>875</v>
+      </c>
+      <c r="D126" t="s">
+        <v>876</v>
+      </c>
+      <c r="F126" t="s">
+        <v>877</v>
+      </c>
+      <c r="G126" t="s">
+        <v>878</v>
+      </c>
+      <c r="H126" t="s">
+        <v>879</v>
+      </c>
+      <c r="I126" s="1">
+        <v>45441</v>
+      </c>
+      <c r="J126" s="1">
+        <v>45441</v>
+      </c>
+      <c r="K126" s="1">
+        <v>45441</v>
+      </c>
+      <c r="L126" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M126" s="1">
+        <v>47999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>880</v>
+      </c>
+      <c r="D127" t="s">
+        <v>881</v>
+      </c>
+      <c r="F127" t="s">
+        <v>877</v>
+      </c>
+      <c r="G127" t="s">
+        <v>878</v>
+      </c>
+      <c r="H127" t="s">
+        <v>879</v>
+      </c>
+      <c r="I127" s="1">
+        <v>45441</v>
+      </c>
+      <c r="J127" s="1">
+        <v>45441</v>
+      </c>
+      <c r="K127" s="1">
+        <v>45441</v>
+      </c>
+      <c r="L127" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M127" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="s">
+        <v>882</v>
+      </c>
+      <c r="D128" t="s">
+        <v>883</v>
+      </c>
+      <c r="F128" t="s">
+        <v>884</v>
+      </c>
+      <c r="G128" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="1">
+        <v>45441</v>
+      </c>
+      <c r="J128" s="1">
+        <v>45441</v>
+      </c>
+      <c r="K128" s="1">
+        <v>45441</v>
+      </c>
+      <c r="L128" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M128" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="s">
+        <v>885</v>
+      </c>
+      <c r="D129" t="s">
+        <v>886</v>
+      </c>
+      <c r="F129" t="s">
+        <v>887</v>
+      </c>
+      <c r="G129" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="1">
+        <v>45442</v>
+      </c>
+      <c r="J129" s="1">
+        <v>45442</v>
+      </c>
+      <c r="K129" s="1">
+        <v>45442</v>
+      </c>
+      <c r="L129" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M129" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>888</v>
+      </c>
+      <c r="D130" t="s">
+        <v>889</v>
+      </c>
+      <c r="F130" t="s">
+        <v>890</v>
+      </c>
+      <c r="G130" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="1">
+        <v>45442</v>
+      </c>
+      <c r="J130" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K130" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L130" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M130" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
+        <v>891</v>
+      </c>
+      <c r="D131" t="s">
+        <v>892</v>
+      </c>
+      <c r="F131" t="s">
+        <v>893</v>
+      </c>
+      <c r="G131" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="1">
+        <v>45442</v>
+      </c>
+      <c r="J131" s="1">
+        <v>45442</v>
+      </c>
+      <c r="K131" s="1">
+        <v>45442</v>
+      </c>
+      <c r="L131" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M131" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" t="s">
+        <v>894</v>
+      </c>
+      <c r="D132" t="s">
+        <v>895</v>
+      </c>
+      <c r="F132" t="s">
+        <v>896</v>
+      </c>
+      <c r="G132" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="1">
+        <v>45442</v>
+      </c>
+      <c r="J132" s="1">
+        <v>45442</v>
+      </c>
+      <c r="K132" s="1">
+        <v>45442</v>
+      </c>
+      <c r="L132" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M132" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>897</v>
+      </c>
+      <c r="D133" t="s">
+        <v>898</v>
+      </c>
+      <c r="F133" t="s">
+        <v>899</v>
+      </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="1">
+        <v>45442</v>
+      </c>
+      <c r="J133" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K133" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L133" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M133" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s">
+        <v>900</v>
+      </c>
+      <c r="D134" t="s">
+        <v>901</v>
+      </c>
+      <c r="F134" t="s">
+        <v>902</v>
+      </c>
+      <c r="G134" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="1">
+        <v>45443</v>
+      </c>
+      <c r="J134" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K134" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L134" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M134" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" t="s">
+        <v>903</v>
+      </c>
+      <c r="D135" t="s">
+        <v>904</v>
+      </c>
+      <c r="F135" t="s">
+        <v>905</v>
+      </c>
+      <c r="G135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="1">
+        <v>45443</v>
+      </c>
+      <c r="J135" s="1">
+        <v>45443</v>
+      </c>
+      <c r="K135" s="1">
+        <v>45443</v>
+      </c>
+      <c r="L135" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M135" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>906</v>
+      </c>
+      <c r="D136" t="s">
+        <v>907</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G136" t="s">
+        <v>908</v>
+      </c>
+      <c r="H136" t="s">
+        <v>909</v>
+      </c>
+      <c r="I136" s="1">
+        <v>45400</v>
+      </c>
+      <c r="J136" s="1">
+        <v>45406</v>
+      </c>
+      <c r="K136" s="1">
+        <v>45406</v>
+      </c>
+      <c r="L136" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M136" s="1">
+        <v>47999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>910</v>
+      </c>
+      <c r="D137" t="s">
+        <v>911</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F137" t="s">
+        <v>506</v>
+      </c>
+      <c r="G137" t="s">
+        <v>912</v>
+      </c>
+      <c r="H137" t="s">
+        <v>913</v>
+      </c>
+      <c r="I137" s="1">
+        <v>45406</v>
+      </c>
+      <c r="J137" s="1">
+        <v>45408</v>
+      </c>
+      <c r="K137" s="1">
+        <v>45408</v>
+      </c>
+      <c r="L137" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M137" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>914</v>
+      </c>
+      <c r="D138" t="s">
+        <v>366</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G138" t="s">
+        <v>915</v>
+      </c>
+      <c r="H138" t="s">
+        <v>916</v>
+      </c>
+      <c r="I138" s="1">
+        <v>45412</v>
+      </c>
+      <c r="J138" s="1">
+        <v>45421</v>
+      </c>
+      <c r="K138" s="1">
+        <v>45421</v>
+      </c>
+      <c r="L138" s="1">
+        <v>45444</v>
+      </c>
+      <c r="M138" s="1">
+        <v>47634</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>917</v>
+      </c>
+      <c r="D139" t="s">
+        <v>918</v>
+      </c>
+      <c r="E139" t="s">
+        <v>919</v>
+      </c>
+      <c r="F139" t="s">
+        <v>920</v>
+      </c>
+      <c r="G139" t="s">
+        <v>921</v>
+      </c>
+      <c r="H139" t="s">
+        <v>918</v>
+      </c>
+      <c r="I139" s="1">
+        <v>45422</v>
+      </c>
+      <c r="J139" s="1">
+        <v>45446</v>
+      </c>
+      <c r="K139" s="1">
+        <v>45446</v>
+      </c>
+      <c r="L139" s="1">
+        <v>45446</v>
+      </c>
+      <c r="M139" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>922</v>
+      </c>
+      <c r="D140" t="s">
+        <v>923</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G140" t="s">
+        <v>924</v>
+      </c>
+      <c r="H140" t="s">
+        <v>925</v>
+      </c>
+      <c r="I140" s="1">
+        <v>45428</v>
+      </c>
+      <c r="J140" s="1">
+        <v>45446</v>
+      </c>
+      <c r="K140" s="1">
+        <v>45446</v>
+      </c>
+      <c r="L140" s="1">
+        <v>45446</v>
+      </c>
+      <c r="M140" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>926</v>
+      </c>
+      <c r="D141" t="s">
+        <v>927</v>
+      </c>
+      <c r="F141" t="s">
+        <v>928</v>
+      </c>
+      <c r="G141" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J141" s="1">
+        <v>45446</v>
+      </c>
+      <c r="K141" s="1">
+        <v>45446</v>
+      </c>
+      <c r="L141" s="1">
+        <v>45446</v>
+      </c>
+      <c r="M141" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>929</v>
+      </c>
+      <c r="D142" t="s">
+        <v>930</v>
+      </c>
+      <c r="F142" t="s">
+        <v>931</v>
+      </c>
+      <c r="G142" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="1">
+        <v>45441</v>
+      </c>
+      <c r="J142" s="1">
+        <v>45447</v>
+      </c>
+      <c r="K142" s="1">
+        <v>45447</v>
+      </c>
+      <c r="L142" s="1">
+        <v>45447</v>
+      </c>
+      <c r="M142" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" t="s">
+        <v>932</v>
+      </c>
+      <c r="D143" t="s">
+        <v>933</v>
+      </c>
+      <c r="F143" t="s">
+        <v>934</v>
+      </c>
+      <c r="G143" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" s="1">
+        <v>45442</v>
+      </c>
+      <c r="J143" s="1">
+        <v>45447</v>
+      </c>
+      <c r="K143" s="1">
+        <v>45447</v>
+      </c>
+      <c r="L143" s="1">
+        <v>45447</v>
+      </c>
+      <c r="M143" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" t="s">
+        <v>935</v>
+      </c>
+      <c r="D144" t="s">
+        <v>936</v>
+      </c>
+      <c r="F144" t="s">
+        <v>937</v>
+      </c>
+      <c r="G144" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="1">
+        <v>45446</v>
+      </c>
+      <c r="J144" s="1">
+        <v>45447</v>
+      </c>
+      <c r="K144" s="1">
+        <v>45447</v>
+      </c>
+      <c r="L144" s="1">
+        <v>45447</v>
+      </c>
+      <c r="M144" s="1">
+        <v>48091</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" t="s">
+        <v>938</v>
+      </c>
+      <c r="D145" t="s">
+        <v>939</v>
+      </c>
+      <c r="F145" t="s">
+        <v>940</v>
+      </c>
+      <c r="G145" t="s">
+        <v>941</v>
+      </c>
+      <c r="H145" t="s">
+        <v>942</v>
+      </c>
+      <c r="I145" s="1">
+        <v>45446</v>
+      </c>
+      <c r="J145" s="1">
+        <v>45447</v>
+      </c>
+      <c r="K145" s="1">
+        <v>45447</v>
+      </c>
+      <c r="L145" s="1">
+        <v>45447</v>
+      </c>
+      <c r="M145" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" t="s">
+        <v>943</v>
+      </c>
+      <c r="D146" t="s">
+        <v>944</v>
+      </c>
+      <c r="F146" t="s">
+        <v>945</v>
+      </c>
+      <c r="G146" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="1">
+        <v>45446</v>
+      </c>
+      <c r="J146" s="1">
+        <v>45447</v>
+      </c>
+      <c r="K146" s="1">
+        <v>45447</v>
+      </c>
+      <c r="L146" s="1">
+        <v>45447</v>
+      </c>
+      <c r="M146" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" t="s">
+        <v>946</v>
+      </c>
+      <c r="D147" t="s">
+        <v>947</v>
+      </c>
+      <c r="F147" t="s">
+        <v>948</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H147" t="s">
+        <v>949</v>
+      </c>
+      <c r="I147" s="1">
+        <v>45443</v>
+      </c>
+      <c r="J147" s="1">
+        <v>45448</v>
+      </c>
+      <c r="K147" s="1">
+        <v>45448</v>
+      </c>
+      <c r="L147" s="1">
+        <v>45448</v>
+      </c>
+      <c r="M147" s="1">
+        <v>47726</v>
+      </c>
+      <c r="N147" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s">
+        <v>950</v>
+      </c>
+      <c r="D148" t="s">
+        <v>951</v>
+      </c>
+      <c r="F148" t="s">
+        <v>952</v>
+      </c>
+      <c r="G148" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="1">
+        <v>45446</v>
+      </c>
+      <c r="J148" s="1">
+        <v>45448</v>
+      </c>
+      <c r="K148" s="1">
+        <v>45448</v>
+      </c>
+      <c r="L148" s="1">
+        <v>45448</v>
+      </c>
+      <c r="M148" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
+        <v>953</v>
+      </c>
+      <c r="D149" t="s">
+        <v>954</v>
+      </c>
+      <c r="E149" t="s">
+        <v>955</v>
+      </c>
+      <c r="F149" t="s">
+        <v>956</v>
+      </c>
+      <c r="G149" t="s">
+        <v>957</v>
+      </c>
+      <c r="H149" t="s">
+        <v>958</v>
+      </c>
+      <c r="I149" s="1">
+        <v>45446</v>
+      </c>
+      <c r="J149" s="1">
+        <v>45448</v>
+      </c>
+      <c r="K149" s="1">
+        <v>45448</v>
+      </c>
+      <c r="L149" s="1">
+        <v>45448</v>
+      </c>
+      <c r="M149" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
+        <v>959</v>
+      </c>
+      <c r="D150" t="s">
+        <v>960</v>
+      </c>
+      <c r="E150" t="s">
+        <v>961</v>
+      </c>
+      <c r="F150" t="s">
+        <v>962</v>
+      </c>
+      <c r="G150" t="s">
+        <v>963</v>
+      </c>
+      <c r="H150" t="s">
+        <v>964</v>
+      </c>
+      <c r="I150" s="1">
+        <v>45436</v>
+      </c>
+      <c r="J150" s="1">
+        <v>45449</v>
+      </c>
+      <c r="K150" s="1">
+        <v>45449</v>
+      </c>
+      <c r="L150" s="1">
+        <v>45449</v>
+      </c>
+      <c r="M150" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" t="s">
+        <v>965</v>
+      </c>
+      <c r="D151" t="s">
+        <v>966</v>
+      </c>
+      <c r="E151" t="s">
+        <v>967</v>
+      </c>
+      <c r="F151" t="s">
+        <v>968</v>
+      </c>
+      <c r="G151" t="s">
+        <v>969</v>
+      </c>
+      <c r="H151" t="s">
+        <v>970</v>
+      </c>
+      <c r="I151" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J151" s="1">
+        <v>45450</v>
+      </c>
+      <c r="K151" s="1">
+        <v>45450</v>
+      </c>
+      <c r="L151" s="1">
+        <v>45450</v>
+      </c>
+      <c r="M151" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>971</v>
+      </c>
+      <c r="D152" t="s">
+        <v>972</v>
+      </c>
+      <c r="E152" t="s">
+        <v>973</v>
+      </c>
+      <c r="F152" t="s">
+        <v>974</v>
+      </c>
+      <c r="G152" t="s">
+        <v>975</v>
+      </c>
+      <c r="H152" t="s">
+        <v>976</v>
+      </c>
+      <c r="I152" s="1">
+        <v>45443</v>
+      </c>
+      <c r="J152" s="1">
+        <v>45450</v>
+      </c>
+      <c r="K152" s="1">
+        <v>45450</v>
+      </c>
+      <c r="L152" s="1">
+        <v>45450</v>
+      </c>
+      <c r="M152" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" t="s">
+        <v>977</v>
+      </c>
+      <c r="D153" t="s">
+        <v>978</v>
+      </c>
+      <c r="F153" t="s">
+        <v>979</v>
+      </c>
+      <c r="G153" t="s">
+        <v>980</v>
+      </c>
+      <c r="H153" t="s">
+        <v>981</v>
+      </c>
+      <c r="I153" s="1">
+        <v>45435</v>
+      </c>
+      <c r="J153" s="1">
+        <v>45453</v>
+      </c>
+      <c r="K153" s="1">
+        <v>45453</v>
+      </c>
+      <c r="L153" s="1">
+        <v>45453</v>
+      </c>
+      <c r="M153" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" t="s">
+        <v>982</v>
+      </c>
+      <c r="D154" t="s">
+        <v>983</v>
+      </c>
+      <c r="F154" t="s">
+        <v>979</v>
+      </c>
+      <c r="G154" t="s">
+        <v>980</v>
+      </c>
+      <c r="H154" t="s">
+        <v>981</v>
+      </c>
+      <c r="I154" s="1">
+        <v>45447</v>
+      </c>
+      <c r="J154" s="1">
+        <v>45453</v>
+      </c>
+      <c r="K154" s="1">
+        <v>45453</v>
+      </c>
+      <c r="L154" s="1">
+        <v>45453</v>
+      </c>
+      <c r="M154" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" t="s">
+        <v>984</v>
+      </c>
+      <c r="D155" t="s">
+        <v>985</v>
+      </c>
+      <c r="F155" t="s">
+        <v>979</v>
+      </c>
+      <c r="G155" t="s">
+        <v>980</v>
+      </c>
+      <c r="H155" t="s">
+        <v>981</v>
+      </c>
+      <c r="I155" s="1">
+        <v>45447</v>
+      </c>
+      <c r="J155" s="1">
+        <v>45453</v>
+      </c>
+      <c r="K155" s="1">
+        <v>45453</v>
+      </c>
+      <c r="L155" s="1">
+        <v>45453</v>
+      </c>
+      <c r="M155" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" t="s">
+        <v>986</v>
+      </c>
+      <c r="D156" t="s">
+        <v>987</v>
+      </c>
+      <c r="E156" t="s">
+        <v>988</v>
+      </c>
+      <c r="F156" t="s">
+        <v>989</v>
+      </c>
+      <c r="G156" t="s">
+        <v>990</v>
+      </c>
+      <c r="H156" t="s">
+        <v>991</v>
+      </c>
+      <c r="I156" s="1">
+        <v>45422</v>
+      </c>
+      <c r="J156" s="1">
+        <v>45454</v>
+      </c>
+      <c r="K156" s="1">
+        <v>45454</v>
+      </c>
+      <c r="L156" s="1">
+        <v>45454</v>
+      </c>
+      <c r="M156" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" t="s">
+        <v>992</v>
+      </c>
+      <c r="D157" t="s">
+        <v>987</v>
+      </c>
+      <c r="E157" t="s">
+        <v>988</v>
+      </c>
+      <c r="F157" t="s">
+        <v>993</v>
+      </c>
+      <c r="G157" t="s">
+        <v>990</v>
+      </c>
+      <c r="H157" t="s">
+        <v>991</v>
+      </c>
+      <c r="I157" s="1">
+        <v>45422</v>
+      </c>
+      <c r="J157" s="1">
+        <v>45454</v>
+      </c>
+      <c r="K157" s="1">
+        <v>45454</v>
+      </c>
+      <c r="L157" s="1">
+        <v>45454</v>
+      </c>
+      <c r="M157" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" t="s">
+        <v>994</v>
+      </c>
+      <c r="D158" t="s">
+        <v>995</v>
+      </c>
+      <c r="E158" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158" t="s">
+        <v>996</v>
+      </c>
+      <c r="G158" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="1">
+        <v>45419</v>
+      </c>
+      <c r="J158" s="1">
+        <v>45456</v>
+      </c>
+      <c r="K158" s="1">
+        <v>45456</v>
+      </c>
+      <c r="L158" s="1">
+        <v>45456</v>
+      </c>
+      <c r="M158" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" t="s">
+        <v>997</v>
+      </c>
+      <c r="D159" t="s">
+        <v>998</v>
+      </c>
+      <c r="F159" t="s">
+        <v>999</v>
+      </c>
+      <c r="G159" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="1">
+        <v>45449</v>
+      </c>
+      <c r="J159" s="1">
+        <v>45456</v>
+      </c>
+      <c r="K159" s="1">
+        <v>45456</v>
+      </c>
+      <c r="L159" s="1">
+        <v>45456</v>
+      </c>
+      <c r="M159" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G160" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="1">
+        <v>45449</v>
+      </c>
+      <c r="J160" s="1">
+        <v>45460</v>
+      </c>
+      <c r="K160" s="1">
+        <v>45460</v>
+      </c>
+      <c r="L160" s="1">
+        <v>45460</v>
+      </c>
+      <c r="M160" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I161" s="1">
+        <v>45453</v>
+      </c>
+      <c r="J161" s="1">
+        <v>45460</v>
+      </c>
+      <c r="K161" s="1">
+        <v>45460</v>
+      </c>
+      <c r="L161" s="1">
+        <v>45460</v>
+      </c>
+      <c r="M161" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I162" s="1">
+        <v>45450</v>
+      </c>
+      <c r="J162" s="1">
+        <v>45461</v>
+      </c>
+      <c r="K162" s="1">
+        <v>45461</v>
+      </c>
+      <c r="L162" s="1">
+        <v>45461</v>
+      </c>
+      <c r="M162" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I163" s="1">
+        <v>45432</v>
+      </c>
+      <c r="J163" s="1">
+        <v>45464</v>
+      </c>
+      <c r="K163" s="1">
+        <v>45464</v>
+      </c>
+      <c r="L163" s="1">
+        <v>45464</v>
+      </c>
+      <c r="M163" s="1">
+        <v>48091</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I164" s="1">
+        <v>45448</v>
+      </c>
+      <c r="J164" s="1">
+        <v>45467</v>
+      </c>
+      <c r="K164" s="1">
+        <v>45467</v>
+      </c>
+      <c r="L164" s="1">
+        <v>45467</v>
+      </c>
+      <c r="M164" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I165" s="1">
+        <v>45449</v>
+      </c>
+      <c r="J165" s="1">
+        <v>45467</v>
+      </c>
+      <c r="K165" s="1">
+        <v>45467</v>
+      </c>
+      <c r="L165" s="1">
+        <v>45467</v>
+      </c>
+      <c r="M165" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G166" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="1">
+        <v>45457</v>
+      </c>
+      <c r="J166" s="1">
+        <v>45467</v>
+      </c>
+      <c r="K166" s="1">
+        <v>45467</v>
+      </c>
+      <c r="L166" s="1">
+        <v>45467</v>
+      </c>
+      <c r="M166" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E167" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G167" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="1">
+        <v>45460</v>
+      </c>
+      <c r="J167" s="1">
+        <v>45467</v>
+      </c>
+      <c r="K167" s="1">
+        <v>45467</v>
+      </c>
+      <c r="L167" s="1">
+        <v>45467</v>
+      </c>
+      <c r="M167" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G168" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="1">
+        <v>45463</v>
+      </c>
+      <c r="J168" s="1">
+        <v>45467</v>
+      </c>
+      <c r="K168" s="1">
+        <v>45467</v>
+      </c>
+      <c r="L168" s="1">
+        <v>45467</v>
+      </c>
+      <c r="M168" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G169" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="1">
+        <v>45463</v>
+      </c>
+      <c r="J169" s="1">
+        <v>45467</v>
+      </c>
+      <c r="K169" s="1">
+        <v>45467</v>
+      </c>
+      <c r="L169" s="1">
+        <v>45467</v>
+      </c>
+      <c r="M169" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G170" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="1">
+        <v>45462</v>
+      </c>
+      <c r="J170" s="1">
+        <v>45468</v>
+      </c>
+      <c r="K170" s="1">
+        <v>45468</v>
+      </c>
+      <c r="L170" s="1">
+        <v>45468</v>
+      </c>
+      <c r="M170" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F171" t="s">
+        <v>877</v>
+      </c>
+      <c r="G171" t="s">
+        <v>878</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I171" s="1">
+        <v>45464</v>
+      </c>
+      <c r="J171" s="1">
+        <v>45469</v>
+      </c>
+      <c r="K171" s="1">
+        <v>45469</v>
+      </c>
+      <c r="L171" s="1">
+        <v>45469</v>
+      </c>
+      <c r="M171" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D172" t="s">
+        <v>668</v>
+      </c>
+      <c r="E172" t="s">
+        <v>669</v>
+      </c>
+      <c r="F172" t="s">
+        <v>670</v>
+      </c>
+      <c r="G172" t="s">
+        <v>671</v>
+      </c>
+      <c r="H172" t="s">
+        <v>672</v>
+      </c>
+      <c r="I172" s="1">
+        <v>45428</v>
+      </c>
+      <c r="J172" s="1">
+        <v>45470</v>
+      </c>
+      <c r="K172" s="1">
+        <v>45470</v>
+      </c>
+      <c r="L172" s="1">
+        <v>45470</v>
+      </c>
+      <c r="M172" s="1">
+        <v>48091</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E173" t="s">
+        <v>18</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I173" s="1">
+        <v>45464</v>
+      </c>
+      <c r="J173" s="1">
+        <v>45470</v>
+      </c>
+      <c r="K173" s="1">
+        <v>45470</v>
+      </c>
+      <c r="L173" s="1">
+        <v>45470</v>
+      </c>
+      <c r="M173" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I174" s="1">
+        <v>45460</v>
+      </c>
+      <c r="J174" s="1">
+        <v>45471</v>
+      </c>
+      <c r="K174" s="1">
+        <v>45471</v>
+      </c>
+      <c r="L174" s="1">
+        <v>45471</v>
+      </c>
+      <c r="M174" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I175" s="1">
+        <v>45462</v>
+      </c>
+      <c r="J175" s="1">
+        <v>45471</v>
+      </c>
+      <c r="K175" s="1">
+        <v>45471</v>
+      </c>
+      <c r="L175" s="1">
+        <v>45471</v>
+      </c>
+      <c r="M175" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D176" t="s">
+        <v>125</v>
+      </c>
+      <c r="E176" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I176" s="1">
+        <v>45470</v>
+      </c>
+      <c r="J176" s="1">
+        <v>45471</v>
+      </c>
+      <c r="K176" s="1">
+        <v>45471</v>
+      </c>
+      <c r="L176" s="1">
+        <v>45471</v>
+      </c>
+      <c r="M176" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
+++ b/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\６月末\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\7月末\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC08879B-4345-42F7-A193-B60346E03820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F84492-B63C-4AD7-8F57-41E91D9AA696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="４月" sheetId="1" r:id="rId1"/>
     <sheet name="５月" sheetId="5" r:id="rId2"/>
     <sheet name="6月" sheetId="7" r:id="rId3"/>
+    <sheet name="7月" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1286">
   <si>
     <t>№</t>
   </si>
@@ -3352,6 +3353,611 @@
   </si>
   <si>
     <t>株式会社マルキョウ帯山店(鮮魚寿司)</t>
+  </si>
+  <si>
+    <t>Ｔｅａ　Ｒｏｏｍ　ｔｅｔｅ</t>
+  </si>
+  <si>
+    <t>熊本市北区弓削5丁目25-22</t>
+  </si>
+  <si>
+    <t>栃原　真理子</t>
+    <rPh sb="0" eb="1">
+      <t>トチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>申請者氏名：栃は木＋がんだれ+萬</t>
+    <rPh sb="6" eb="7">
+      <t>トチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼鳥・串魚　咲顔</t>
+  </si>
+  <si>
+    <t>熊本市中央区上水前寺2丁目4-10上水前寺ｸﾛｰﾊﾞｰﾋﾞﾙ飛鳥105</t>
+  </si>
+  <si>
+    <t>関谷　省治</t>
+  </si>
+  <si>
+    <t>肴や　ハチｓｔａｎｄ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町12-8扇ﾋﾞﾙB1-BC</t>
+  </si>
+  <si>
+    <t>㈱Ｍ－Ｃｌｏｖｅｒ’ｓ</t>
+  </si>
+  <si>
+    <t>松村　慎</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13番2号竹葉ﾋﾞﾙB1F</t>
+  </si>
+  <si>
+    <t>ＤＩＮＩＮＧ＆ＤＡＲＴＳＢＡＲ　ＣＩＭＢＡ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-3ALTAﾋﾞﾙ5F-D</t>
+  </si>
+  <si>
+    <t>吉田　花菜</t>
+  </si>
+  <si>
+    <t>やきとん　うちわ</t>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町5-4Dollar Houseﾋﾞﾙ1F-A-2</t>
+  </si>
+  <si>
+    <t>206-3273</t>
+  </si>
+  <si>
+    <t>三宮　夢</t>
+  </si>
+  <si>
+    <t>ｃａｆｅ　ｄｕ　ｇｕｉ</t>
+  </si>
+  <si>
+    <t>熊本市西区池上町608-4</t>
+  </si>
+  <si>
+    <t>200-2965</t>
+  </si>
+  <si>
+    <t>福間　数彦</t>
+  </si>
+  <si>
+    <t>ａｓ　ｉｔ．</t>
+  </si>
+  <si>
+    <t>熊本市北区清水亀井町55-63</t>
+  </si>
+  <si>
+    <t>(同)いたふ</t>
+  </si>
+  <si>
+    <t>古庄　利康</t>
+  </si>
+  <si>
+    <t>熊本県菊池郡大津町平川293番地</t>
+  </si>
+  <si>
+    <t>おててのおやつ　ゆめタウンはません店</t>
+  </si>
+  <si>
+    <t>熊本市南区田井島1丁目2-1ゆめﾀｳﾝはません1F</t>
+  </si>
+  <si>
+    <t>オテテ㈱</t>
+  </si>
+  <si>
+    <t>德永　学</t>
+  </si>
+  <si>
+    <t>熊本市西区花園2丁目2-1</t>
+  </si>
+  <si>
+    <t>熊本ラーメン黒亭　下通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-14ﾉｸﾞﾁﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>321-6202</t>
+  </si>
+  <si>
+    <t>㈲黒亭</t>
+  </si>
+  <si>
+    <t>平林　京子</t>
+  </si>
+  <si>
+    <t>熊本市西区二本木二丁目1番23号</t>
+  </si>
+  <si>
+    <t>輪音食堂</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺5丁目23-1</t>
+  </si>
+  <si>
+    <t>シモ・エンタープライズ㈱</t>
+  </si>
+  <si>
+    <t>下　ヨシ子</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺五丁目27番3号</t>
+  </si>
+  <si>
+    <t>焼肉　箸や</t>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町2-1PURE'S KAMINOURA 2F</t>
+  </si>
+  <si>
+    <t>箸本　圭祐</t>
+  </si>
+  <si>
+    <t>おすすめ屋　熊本下通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街6-9柏田ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>323-8000</t>
+  </si>
+  <si>
+    <t>にくよか　水前寺本店</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺1丁目5-1水前寺駅前Rﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>㈱ｔｒｙ　ｍｅａｔ</t>
+  </si>
+  <si>
+    <t>本田　誠</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺一丁目5番1号</t>
+  </si>
+  <si>
+    <t>魚と巻き串のお店　弥酒</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-13五島ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>245-7939</t>
+  </si>
+  <si>
+    <t>㈱ふじなコーポレーション</t>
+  </si>
+  <si>
+    <t>大迫　源一</t>
+  </si>
+  <si>
+    <t>東京都豊島区長崎一丁目2番3号ｳﾂｷﾞﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>ＢＡＲ　イヤサカ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-13五島ﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>Ｓｈａｒｋ　Ａｔｔａｃｋ</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町6-3TM11ﾋﾞﾙ8F</t>
+  </si>
+  <si>
+    <t>354-3099</t>
+  </si>
+  <si>
+    <t>小山　瞬一</t>
+  </si>
+  <si>
+    <t>Ｔｈｒｅｅ　ＴＡＩＬｓ</t>
+  </si>
+  <si>
+    <t>熊本市中央区出水4丁目34-3-105</t>
+  </si>
+  <si>
+    <t>247-6735</t>
+  </si>
+  <si>
+    <t>三浦　珠里愛</t>
+  </si>
+  <si>
+    <t>ヒレ肉じゅんちゃん</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町5-21ﾗｲﾌﾞﾘｰⅠﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>321-9344</t>
+  </si>
+  <si>
+    <t>㈱ダイニンジャー</t>
+  </si>
+  <si>
+    <t>南　隆一</t>
+  </si>
+  <si>
+    <t>熊本市東区西原一丁目13番13号</t>
+  </si>
+  <si>
+    <t>ネパールレストラン　ＳＡＴＨＩＢＨＡＩ　熊本店</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目7-25宮原貸店舗1F</t>
+  </si>
+  <si>
+    <t>ＤＨＡＫＡＬ　ＬＩＬＡＲＡＭ</t>
+  </si>
+  <si>
+    <t>熊本もんじゃ酒場　カメノヤ</t>
+  </si>
+  <si>
+    <t>熊本市中央区草葉町2-2ﾌﾟﾚｻﾞﾝﾄ草葉2F</t>
+  </si>
+  <si>
+    <t>関　幸一郎</t>
+  </si>
+  <si>
+    <t>豆福</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-21MH-3ﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>352-6626</t>
+  </si>
+  <si>
+    <t>石原　義久</t>
+  </si>
+  <si>
+    <t>立呑酒場　どまぐれ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目8-9ｱｲ銀座下通ﾋﾞﾙ1F-B</t>
+  </si>
+  <si>
+    <t>廣瀬　彪</t>
+  </si>
+  <si>
+    <t>ＲＥＶＥＬ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-8TASOGARE西館ﾋﾞﾙB1全号</t>
+  </si>
+  <si>
+    <t>288-1799</t>
+  </si>
+  <si>
+    <t>後藤　輝</t>
+  </si>
+  <si>
+    <t>ＧＡＯＫＡ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街2-2西銀座ﾋﾞﾙ4F-F</t>
+  </si>
+  <si>
+    <t>レグナグループ㈱</t>
+  </si>
+  <si>
+    <t>城戸　廉</t>
+  </si>
+  <si>
+    <t>東京都目黒区自由が丘二丁目14番20号不二ﾋﾞﾙ1A</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　ｓｈａＬａ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目9-21ｻﾝｸｽﾋﾞﾙ7F-B</t>
+  </si>
+  <si>
+    <t>㈱ＧＲ　ＨＯＬＤＩＮＧＳ</t>
+  </si>
+  <si>
+    <t>松岡　健太郎</t>
+  </si>
+  <si>
+    <t>大分県大分市西新地2丁目6番11号</t>
+  </si>
+  <si>
+    <t>BoogieWoogieホルモン</t>
+  </si>
+  <si>
+    <t>熊本市西区春日3丁目26-47アミュプラザくまもと　駅から百八歩横丁</t>
+  </si>
+  <si>
+    <t>東坂慎也</t>
+  </si>
+  <si>
+    <t>熊本県熊本市東区花立5丁目9番15号</t>
+  </si>
+  <si>
+    <t>ＢＡＲ　ＬＵＸＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目8-18ﾂｲﾝﾋﾞﾙ2F-2C</t>
+  </si>
+  <si>
+    <t>松岡　裕稀</t>
+  </si>
+  <si>
+    <t>ＵＲＡＮＩＷＡ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目2-4あいたいﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>小橋　潤</t>
+  </si>
+  <si>
+    <t>おはこ</t>
+  </si>
+  <si>
+    <t>熊本市東区花立3丁目15-25</t>
+  </si>
+  <si>
+    <t>木村　太誌</t>
+  </si>
+  <si>
+    <t>ＢＡＲ　ＷＥＳＴ　ＳＩＤＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-4嶋田ﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>201-1951</t>
+  </si>
+  <si>
+    <t>堀川　優夢</t>
+  </si>
+  <si>
+    <t>’ｏｌｕ’ｏｌｕ</t>
+  </si>
+  <si>
+    <t>熊本市南区孫代町109-1</t>
+  </si>
+  <si>
+    <t>浮島　和基</t>
+  </si>
+  <si>
+    <t>王我</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-3ｼﾞｬｽﾏｯｸ熊本館606</t>
+  </si>
+  <si>
+    <t>秋山　真理恵</t>
+  </si>
+  <si>
+    <t>ｂｅ　ｆｌａｔ　ｓｔｏｒｅ　ＣＯＵＢＡ</t>
+  </si>
+  <si>
+    <t>熊本市南区会富町287-1</t>
+  </si>
+  <si>
+    <t>288-0098</t>
+  </si>
+  <si>
+    <t>坂口　陽一</t>
+  </si>
+  <si>
+    <t>セブン-イレブン熊本大甲橋店</t>
+  </si>
+  <si>
+    <t>熊本市中央区水道町7-2</t>
+  </si>
+  <si>
+    <t>352-8811</t>
+  </si>
+  <si>
+    <t>長谷川　由治</t>
+  </si>
+  <si>
+    <t>白い貴婦人　水道町店</t>
+  </si>
+  <si>
+    <t>熊本市中央区水道町5-20L-BOX-1F</t>
+  </si>
+  <si>
+    <t>327-8285</t>
+  </si>
+  <si>
+    <t>清正製菓㈱</t>
+  </si>
+  <si>
+    <t>小杉　堅太</t>
+  </si>
+  <si>
+    <t>熊本市北区貢町537-18</t>
+  </si>
+  <si>
+    <t>Ｍｉｚｕｉｒｏ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-3ｱﾙﾀﾋﾞﾙ5F-A</t>
+  </si>
+  <si>
+    <t>(同)みずさわ</t>
+  </si>
+  <si>
+    <t>川田　健一</t>
+  </si>
+  <si>
+    <t>熊本県宇城市松橋町浅川1199</t>
+  </si>
+  <si>
+    <t>天真爛漫　となり</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-24花畑ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>㈱ブリエ</t>
+  </si>
+  <si>
+    <t>中川　ひとみ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-24</t>
+  </si>
+  <si>
+    <t>キジトラ</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺1丁目17-33ﾚｶﾞｽ水前寺1</t>
+  </si>
+  <si>
+    <t>岩下　幸弘</t>
+  </si>
+  <si>
+    <t>ｃｏｌｏｕｒ　ｃｏｆｆｅｅ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町3-19ﾛﾌﾃｨ長安寺101</t>
+  </si>
+  <si>
+    <t>山下　璃久</t>
+  </si>
+  <si>
+    <t>にぼらや　花立店</t>
+  </si>
+  <si>
+    <t>熊本市東区花立5丁目9-19</t>
+  </si>
+  <si>
+    <t>282-8486</t>
+  </si>
+  <si>
+    <t>㈱笑庵</t>
+  </si>
+  <si>
+    <t>松村　茂</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街2-2</t>
+  </si>
+  <si>
+    <t>魚ときどき焼きもの　ふたみ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目9-29森天会館ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>326-8180</t>
+  </si>
+  <si>
+    <t>倉崎　祐輔</t>
+  </si>
+  <si>
+    <t>ＭＩＮＩ－ＯＮ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目2-11TM34ﾋﾞﾙ4F-D</t>
+  </si>
+  <si>
+    <t>橋本　里紗</t>
+  </si>
+  <si>
+    <t>ＫＡＫＵＭＥＩ</t>
+  </si>
+  <si>
+    <t>熊本市北区清水岩倉2丁目24-5</t>
+  </si>
+  <si>
+    <t>277-8844</t>
+  </si>
+  <si>
+    <t>㈱ＮｅｘＳｔｅｐ</t>
+  </si>
+  <si>
+    <t>中山　達</t>
+  </si>
+  <si>
+    <t>熊本市東区下江津七丁目8番13号</t>
+  </si>
+  <si>
+    <t>假鬼假怪</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町9-6</t>
+  </si>
+  <si>
+    <t>莫想㈱</t>
+  </si>
+  <si>
+    <t>張　程楠</t>
+  </si>
+  <si>
+    <t>米白餅本舗</t>
+  </si>
+  <si>
+    <t>熊本市中央区水道町8-1</t>
+  </si>
+  <si>
+    <t>352-2367</t>
+  </si>
+  <si>
+    <t>㈲よねはくビル</t>
+  </si>
+  <si>
+    <t>田尻　隆一郎</t>
+  </si>
+  <si>
+    <t>城見酒場　結</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-7熊本ﾋﾞﾙ2階　1号室</t>
+  </si>
+  <si>
+    <t>㈱Ｋ・Ｋ</t>
+  </si>
+  <si>
+    <t>森田　勝巳</t>
+  </si>
+  <si>
+    <t>熊本市東区上南部四丁目8番26号</t>
+  </si>
+  <si>
+    <t>ほっかほっか亭大江３丁目店</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江3丁目4-40</t>
+  </si>
+  <si>
+    <t>227-6580</t>
+  </si>
+  <si>
+    <t>井上　ひとみ</t>
+  </si>
+  <si>
+    <t>チョコレート＆カクテルバー　セプティグラス</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目3-4ﾜｼﾝﾄﾝﾄﾞﾗｺﾞﾝﾋﾞﾙ2F-A</t>
+  </si>
+  <si>
+    <t>352-8010</t>
+  </si>
+  <si>
+    <t>竹村　栄司</t>
+  </si>
+  <si>
+    <t>㈲熊本なべしま</t>
   </si>
 </sst>
 </file>
@@ -3701,9 +4307,9 @@
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="9" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5583,9 +6189,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="9" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -7133,13 +7739,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8267C43-6665-4B28-B1F4-B2AD2026FDB1}">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="9" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="9" max="13" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13920,6 +14527,1897 @@
         <v>45471</v>
       </c>
       <c r="M176" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5481E6-207E-4B2D-B31C-BF2D87617D71}">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="9" max="13" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45462</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45474</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45474</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45474</v>
+      </c>
+      <c r="M2" s="1">
+        <v>47726</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45464</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45474</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45474</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45474</v>
+      </c>
+      <c r="M3" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45467</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45474</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45474</v>
+      </c>
+      <c r="L4" s="1">
+        <v>45474</v>
+      </c>
+      <c r="M4" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45464</v>
+      </c>
+      <c r="J5" s="1">
+        <v>45475</v>
+      </c>
+      <c r="K5" s="1">
+        <v>45475</v>
+      </c>
+      <c r="L5" s="1">
+        <v>45475</v>
+      </c>
+      <c r="M5" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45469</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45476</v>
+      </c>
+      <c r="K6" s="1">
+        <v>45476</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45476</v>
+      </c>
+      <c r="M6" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45468</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45477</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45477</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45477</v>
+      </c>
+      <c r="M7" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45469</v>
+      </c>
+      <c r="J8" s="1">
+        <v>45477</v>
+      </c>
+      <c r="K8" s="1">
+        <v>45477</v>
+      </c>
+      <c r="L8" s="1">
+        <v>45477</v>
+      </c>
+      <c r="M8" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45471</v>
+      </c>
+      <c r="J9" s="1">
+        <v>45478</v>
+      </c>
+      <c r="K9" s="1">
+        <v>45478</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45478</v>
+      </c>
+      <c r="M9" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45475</v>
+      </c>
+      <c r="J10" s="1">
+        <v>45478</v>
+      </c>
+      <c r="K10" s="1">
+        <v>45478</v>
+      </c>
+      <c r="L10" s="1">
+        <v>45478</v>
+      </c>
+      <c r="M10" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I11" s="1">
+        <v>45476</v>
+      </c>
+      <c r="J11" s="1">
+        <v>45478</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45478</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45478</v>
+      </c>
+      <c r="M11" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45476</v>
+      </c>
+      <c r="J12" s="1">
+        <v>45482</v>
+      </c>
+      <c r="K12" s="1">
+        <v>45482</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45482</v>
+      </c>
+      <c r="M12" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45477</v>
+      </c>
+      <c r="J13" s="1">
+        <v>45482</v>
+      </c>
+      <c r="K13" s="1">
+        <v>45482</v>
+      </c>
+      <c r="L13" s="1">
+        <v>45482</v>
+      </c>
+      <c r="M13" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45481</v>
+      </c>
+      <c r="J14" s="1">
+        <v>45483</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45483</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45483</v>
+      </c>
+      <c r="M14" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45448</v>
+      </c>
+      <c r="J15" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K15" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M15" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45453</v>
+      </c>
+      <c r="J16" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K16" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M16" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45478</v>
+      </c>
+      <c r="J17" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K17" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M17" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45478</v>
+      </c>
+      <c r="J18" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K18" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M18" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45478</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K19" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M19" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45481</v>
+      </c>
+      <c r="J20" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K20" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L20" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M20" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J21" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M21" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J22" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K22" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M22" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1">
+        <v>45470</v>
+      </c>
+      <c r="J23" s="1">
+        <v>45489</v>
+      </c>
+      <c r="K23" s="1">
+        <v>45489</v>
+      </c>
+      <c r="L23" s="1">
+        <v>45489</v>
+      </c>
+      <c r="M23" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J24" s="1">
+        <v>45489</v>
+      </c>
+      <c r="K24" s="1">
+        <v>45489</v>
+      </c>
+      <c r="L24" s="1">
+        <v>45489</v>
+      </c>
+      <c r="M24" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I25" s="1">
+        <v>45484</v>
+      </c>
+      <c r="J25" s="1">
+        <v>45489</v>
+      </c>
+      <c r="K25" s="1">
+        <v>45489</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45489</v>
+      </c>
+      <c r="M25" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45485</v>
+      </c>
+      <c r="J26" s="1">
+        <v>45489</v>
+      </c>
+      <c r="K26" s="1">
+        <v>45489</v>
+      </c>
+      <c r="L26" s="1">
+        <v>45489</v>
+      </c>
+      <c r="M26" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I27" s="1">
+        <v>45477</v>
+      </c>
+      <c r="J27" s="1">
+        <v>45489</v>
+      </c>
+      <c r="K27" s="1">
+        <v>45489</v>
+      </c>
+      <c r="L27" s="1">
+        <v>45489</v>
+      </c>
+      <c r="M27" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J28" s="1">
+        <v>45490</v>
+      </c>
+      <c r="K28" s="1">
+        <v>45490</v>
+      </c>
+      <c r="L28" s="1">
+        <v>45490</v>
+      </c>
+      <c r="M28" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="1">
+        <v>45456</v>
+      </c>
+      <c r="J29" s="1">
+        <v>45491</v>
+      </c>
+      <c r="K29" s="1">
+        <v>45491</v>
+      </c>
+      <c r="L29" s="1">
+        <v>45491</v>
+      </c>
+      <c r="M29" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1">
+        <v>45490</v>
+      </c>
+      <c r="J30" s="1">
+        <v>45491</v>
+      </c>
+      <c r="K30" s="1">
+        <v>45491</v>
+      </c>
+      <c r="L30" s="1">
+        <v>45491</v>
+      </c>
+      <c r="M30" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="1">
+        <v>45266</v>
+      </c>
+      <c r="J31" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K31" s="1">
+        <v>45492</v>
+      </c>
+      <c r="L31" s="1">
+        <v>45492</v>
+      </c>
+      <c r="M31" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45464</v>
+      </c>
+      <c r="J32" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K32" s="1">
+        <v>45492</v>
+      </c>
+      <c r="L32" s="1">
+        <v>45492</v>
+      </c>
+      <c r="M32" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1">
+        <v>45490</v>
+      </c>
+      <c r="J33" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K33" s="1">
+        <v>45492</v>
+      </c>
+      <c r="L33" s="1">
+        <v>45492</v>
+      </c>
+      <c r="M33" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1">
+        <v>45491</v>
+      </c>
+      <c r="J34" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K34" s="1">
+        <v>45492</v>
+      </c>
+      <c r="L34" s="1">
+        <v>45492</v>
+      </c>
+      <c r="M34" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1">
+        <v>45448</v>
+      </c>
+      <c r="J35" s="1">
+        <v>45495</v>
+      </c>
+      <c r="K35" s="1">
+        <v>45495</v>
+      </c>
+      <c r="L35" s="1">
+        <v>45495</v>
+      </c>
+      <c r="M35" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I36" s="1">
+        <v>45485</v>
+      </c>
+      <c r="J36" s="1">
+        <v>45496</v>
+      </c>
+      <c r="K36" s="1">
+        <v>45496</v>
+      </c>
+      <c r="L36" s="1">
+        <v>45496</v>
+      </c>
+      <c r="M36" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I37" s="1">
+        <v>45482</v>
+      </c>
+      <c r="J37" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K37" s="1">
+        <v>45498</v>
+      </c>
+      <c r="L37" s="1">
+        <v>45498</v>
+      </c>
+      <c r="M37" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I38" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J38" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K38" s="1">
+        <v>45498</v>
+      </c>
+      <c r="L38" s="1">
+        <v>45498</v>
+      </c>
+      <c r="M38" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="1">
+        <v>45484</v>
+      </c>
+      <c r="J39" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K39" s="1">
+        <v>45498</v>
+      </c>
+      <c r="L39" s="1">
+        <v>45498</v>
+      </c>
+      <c r="M39" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J40" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K40" s="1">
+        <v>45498</v>
+      </c>
+      <c r="L40" s="1">
+        <v>45498</v>
+      </c>
+      <c r="M40" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I41" s="1">
+        <v>45492</v>
+      </c>
+      <c r="J41" s="1">
+        <v>45499</v>
+      </c>
+      <c r="K41" s="1">
+        <v>45499</v>
+      </c>
+      <c r="L41" s="1">
+        <v>45499</v>
+      </c>
+      <c r="M41" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="1">
+        <v>45496</v>
+      </c>
+      <c r="J42" s="1">
+        <v>45499</v>
+      </c>
+      <c r="K42" s="1">
+        <v>45499</v>
+      </c>
+      <c r="L42" s="1">
+        <v>45499</v>
+      </c>
+      <c r="M42" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="1">
+        <v>45497</v>
+      </c>
+      <c r="J43" s="1">
+        <v>45499</v>
+      </c>
+      <c r="K43" s="1">
+        <v>45499</v>
+      </c>
+      <c r="L43" s="1">
+        <v>45499</v>
+      </c>
+      <c r="M43" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I44" s="1">
+        <v>45491</v>
+      </c>
+      <c r="J44" s="1">
+        <v>45502</v>
+      </c>
+      <c r="K44" s="1">
+        <v>45502</v>
+      </c>
+      <c r="L44" s="1">
+        <v>45502</v>
+      </c>
+      <c r="M44" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I45" s="1">
+        <v>45497</v>
+      </c>
+      <c r="J45" s="1">
+        <v>45502</v>
+      </c>
+      <c r="K45" s="1">
+        <v>45502</v>
+      </c>
+      <c r="L45" s="1">
+        <v>45502</v>
+      </c>
+      <c r="M45" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I46" s="1">
+        <v>45498</v>
+      </c>
+      <c r="J46" s="1">
+        <v>45502</v>
+      </c>
+      <c r="K46" s="1">
+        <v>45502</v>
+      </c>
+      <c r="L46" s="1">
+        <v>45502</v>
+      </c>
+      <c r="M46" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I47" s="1">
+        <v>45499</v>
+      </c>
+      <c r="J47" s="1">
+        <v>45502</v>
+      </c>
+      <c r="K47" s="1">
+        <v>45502</v>
+      </c>
+      <c r="L47" s="1">
+        <v>45502</v>
+      </c>
+      <c r="M47" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J48" s="1">
+        <v>45503</v>
+      </c>
+      <c r="K48" s="1">
+        <v>45503</v>
+      </c>
+      <c r="L48" s="1">
+        <v>45503</v>
+      </c>
+      <c r="M48" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J49" s="1">
+        <v>45504</v>
+      </c>
+      <c r="K49" s="1">
+        <v>45504</v>
+      </c>
+      <c r="L49" s="1">
+        <v>45504</v>
+      </c>
+      <c r="M49" s="1">
         <v>47726</v>
       </c>
     </row>

--- a/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
+++ b/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\7月末\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\8月末\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F84492-B63C-4AD7-8F57-41E91D9AA696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753BE9C8-773C-4699-8489-300DE2FBD48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="４月" sheetId="1" r:id="rId1"/>
     <sheet name="５月" sheetId="5" r:id="rId2"/>
     <sheet name="6月" sheetId="7" r:id="rId3"/>
     <sheet name="7月" sheetId="9" r:id="rId4"/>
+    <sheet name="8月" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1440">
   <si>
     <t>№</t>
   </si>
@@ -3684,9 +3685,6 @@
     <t>東坂慎也</t>
   </si>
   <si>
-    <t>熊本県熊本市東区花立5丁目9番15号</t>
-  </si>
-  <si>
     <t>ＢＡＲ　ＬＵＸＥ</t>
   </si>
   <si>
@@ -3958,6 +3956,472 @@
   </si>
   <si>
     <t>㈲熊本なべしま</t>
+  </si>
+  <si>
+    <t>熊本市東区花立5丁目9番15号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちょあ</t>
+  </si>
+  <si>
+    <t>熊本市北区飛田4丁目5-18</t>
+  </si>
+  <si>
+    <t>岩津　伸助</t>
+  </si>
+  <si>
+    <t>Ｃｕｒｒｙ　ｂａｒ ナカム～ラ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-3熊本ﾋﾞﾙ305</t>
+  </si>
+  <si>
+    <t>中村　秀司</t>
+  </si>
+  <si>
+    <t>元祖長谷川家</t>
+  </si>
+  <si>
+    <t>熊本市中央区九品寺1丁目7-6ｴﾝｾﾞﾙﾊｲﾑ九品寺</t>
+  </si>
+  <si>
+    <t>長谷川　雄大</t>
+  </si>
+  <si>
+    <t>和食居酒屋　誠</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目1-22TM12ﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>永田　一訓</t>
+  </si>
+  <si>
+    <t>家庭料理　めぐん家</t>
+  </si>
+  <si>
+    <t>熊本市北区清水亀井町31-18沖野ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>山森　恵</t>
+  </si>
+  <si>
+    <t>ナカノ企画　託麻支店</t>
+  </si>
+  <si>
+    <t>熊本市東区八反田2丁目14-31</t>
+  </si>
+  <si>
+    <t>中野　広太郎</t>
+  </si>
+  <si>
+    <t>熊本市西区八島一丁目5-2</t>
+  </si>
+  <si>
+    <t>創作居酒屋　いとし</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-23花畑ﾋﾞﾙ1F-B</t>
+  </si>
+  <si>
+    <t>藤川　和貴</t>
+  </si>
+  <si>
+    <t>ヒライ　高橋店</t>
+  </si>
+  <si>
+    <t>熊本市西区上高橋1丁目10-5</t>
+  </si>
+  <si>
+    <t>329-8872</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山3丁目7-12</t>
+  </si>
+  <si>
+    <t>長田　陽子</t>
+  </si>
+  <si>
+    <t>熊本市西区蓮台寺1丁目14-25</t>
+  </si>
+  <si>
+    <t>378-0121</t>
+  </si>
+  <si>
+    <t>ビストロ・グラン・ソレーユ</t>
+  </si>
+  <si>
+    <t>熊本市東区新生2丁目2-10</t>
+  </si>
+  <si>
+    <t>木村　裕二</t>
+  </si>
+  <si>
+    <t>まぁじゃんＭＡＰ熊本下通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-13ﾏﾘｱﾀﾜｰﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>273-7798</t>
+  </si>
+  <si>
+    <t>㈱グロースＪ</t>
+  </si>
+  <si>
+    <t>村田　晃祐</t>
+  </si>
+  <si>
+    <t>東京都世田谷区代田6-18-17下北沢ｱﾊﾟｰﾄﾒﾝﾂF</t>
+  </si>
+  <si>
+    <t>ＴＨＥ　ＭＯＭＥＮＴ</t>
+  </si>
+  <si>
+    <t>熊本市中央区桜町3-20KOKO HOTEL Premier熊本14F</t>
+  </si>
+  <si>
+    <t>241-9827</t>
+  </si>
+  <si>
+    <t>㈱ＴＨＥ　ＭＯＭＥＮＴ</t>
+  </si>
+  <si>
+    <t>片山　大心</t>
+  </si>
+  <si>
+    <t>熊本市南区流通団地一丁目46番地</t>
+  </si>
+  <si>
+    <t>熊本ラーメン　陣駄</t>
+  </si>
+  <si>
+    <t>熊本市東区鹿帰瀬町19-1</t>
+  </si>
+  <si>
+    <t>下村　洋史</t>
+  </si>
+  <si>
+    <t>スナック　ＳＨＩＮＪＵ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-12栄ﾋﾞﾙ2F-201</t>
+  </si>
+  <si>
+    <t>三反田　ひとみ</t>
+  </si>
+  <si>
+    <t>ナマステ　イサン　アジアンキッチン＆バー</t>
+  </si>
+  <si>
+    <t>熊本市中央区白山1丁目6-15林ﾋﾞﾙ1-B.C</t>
+  </si>
+  <si>
+    <t>ＧＡＩＲＥ　ＢＩＮＯＤ</t>
+  </si>
+  <si>
+    <t>ＳＯＦＩ　ＴＡＢＬＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町5-4DOLLAR HOUSE1F-G</t>
+  </si>
+  <si>
+    <t>髙山　絵里</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町7番5号</t>
+  </si>
+  <si>
+    <t>団ラン酒場　ハシゴダカ</t>
+  </si>
+  <si>
+    <t>熊本市中央区草葉町4-10ｴﾄﾜｰﾙ草葉1F</t>
+  </si>
+  <si>
+    <t>㈱ビブリカル</t>
+  </si>
+  <si>
+    <t>森田　学</t>
+  </si>
+  <si>
+    <t>神奈川県大和市西鶴間一丁目17番1号</t>
+  </si>
+  <si>
+    <t>ｍｉｎｔ</t>
+  </si>
+  <si>
+    <t>熊本市中央区中央街1-10ﾊﾗﾀﾞﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>岡村　泰生</t>
+  </si>
+  <si>
+    <t>鰻の成瀬　熊本戸島店</t>
+  </si>
+  <si>
+    <t>熊本市東区戸島西4丁目2-84</t>
+  </si>
+  <si>
+    <t>㈱ＧＥＮＮＡＩ</t>
+  </si>
+  <si>
+    <t>松本　憲司郎</t>
+  </si>
+  <si>
+    <t>神奈川県横浜市西区北幸一丁目11番5号KSﾋﾞﾙ9階</t>
+  </si>
+  <si>
+    <t>球磨の蔵　銀</t>
+  </si>
+  <si>
+    <t>Ｔ．ＣＯＮＮＥＣＴＩＯＮ㈱</t>
+  </si>
+  <si>
+    <t>田端　悠一</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11番-5号</t>
+  </si>
+  <si>
+    <t>タンとハラミ　焼肉いたる</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目2-11TM34ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>薗田　元太</t>
+  </si>
+  <si>
+    <t>〆処　おたま</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目5-6ｱﾘﾀﾋﾞﾙ101</t>
+  </si>
+  <si>
+    <t>廣瀬　文彦</t>
+  </si>
+  <si>
+    <t>鮨屋時藏</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町11-15ﾌｧｸﾄﾘｰｻｲﾄ堀田ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>326-7771</t>
+  </si>
+  <si>
+    <t>㈲鮨屋時藏</t>
+  </si>
+  <si>
+    <t>堀　富紀三</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町11-15</t>
+  </si>
+  <si>
+    <t>ＬＯＵＮＧＥ　Ｒｏａｄ　～ロード～</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町10-9ma-ju銀杏ﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>田村　真理子</t>
+  </si>
+  <si>
+    <t>熊本県菊池郡菊陽町大字津久礼1746番地</t>
+  </si>
+  <si>
+    <t>ピザーラ　ＶｉＶＡ　熊本東店</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山3丁目39-13石川ﾋﾞﾙ101</t>
+  </si>
+  <si>
+    <t>383-9600</t>
+  </si>
+  <si>
+    <t>浅野　幸子</t>
+  </si>
+  <si>
+    <t>東京都港区南青山五丁目12番4号</t>
+  </si>
+  <si>
+    <t>お酒の美術館　熊本下通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目5-15ｿﾆｯｸ下通りﾋﾞﾙB1</t>
+  </si>
+  <si>
+    <t>宮山　耕一郎</t>
+  </si>
+  <si>
+    <t>Ｋｉｔｃｈｅｎ　ａｂｂｉｏｃｃｏ　キッチンアビオッコ</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江5丁目5-36</t>
+  </si>
+  <si>
+    <t>家入　巧侍</t>
+  </si>
+  <si>
+    <t>麺場　田所商店　東バイパス店</t>
+  </si>
+  <si>
+    <t>熊本市東区保田窪3丁目15-1</t>
+  </si>
+  <si>
+    <t>田所史之</t>
+  </si>
+  <si>
+    <t>千葉県千葉市美浜区中瀬2丁目6番地1</t>
+  </si>
+  <si>
+    <t>麺場　田所商店　熊本駅店</t>
+  </si>
+  <si>
+    <t>熊本市西区春日3丁目15ｰ30肥後よかモン市場内</t>
+  </si>
+  <si>
+    <t>Ｂａｒ＆Ｃｏｆｆｅｅ　Ｔｒａｎｓｉｔ</t>
+  </si>
+  <si>
+    <t>熊本市中央区琴平本町12-2</t>
+  </si>
+  <si>
+    <t>片岡　憲司</t>
+  </si>
+  <si>
+    <t>旬食　鈴蘭</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺1丁目31-11ｱｸﾃｨﾌﾞ86 1-A</t>
+  </si>
+  <si>
+    <t>武田　睦</t>
+  </si>
+  <si>
+    <t>ＳＰＡ‐ＺＯ</t>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町5-4ﾄﾞﾙﾊｳｽ2F</t>
+  </si>
+  <si>
+    <t>359-0303</t>
+  </si>
+  <si>
+    <t>㈲Ｌｉｆｅ　ｉｓ　Ｊｏｕｒｎｅｙ</t>
+  </si>
+  <si>
+    <t>上村　勇進</t>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町5番4号ﾄﾞﾙﾊｳｽ2F</t>
+  </si>
+  <si>
+    <t>焼鳥のえーす　熊本下通り店</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目3-1NADELﾋﾞﾙ2F-A</t>
+  </si>
+  <si>
+    <t>288-1280</t>
+  </si>
+  <si>
+    <t>㈱エースフードサービス</t>
+  </si>
+  <si>
+    <t>佐藤　教行</t>
+  </si>
+  <si>
+    <t>福岡県福岡市中央区薬院二丁目5番15-604</t>
+  </si>
+  <si>
+    <t>Ｃａｆｅ＆Ｂａｒきずく</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉2丁目10-24</t>
+  </si>
+  <si>
+    <t>201-5904</t>
+  </si>
+  <si>
+    <t>山本　智恵子</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉一丁目43番22号</t>
+  </si>
+  <si>
+    <t>和牛のたか　新市街店</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街5-16栄通りKﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>223-8815</t>
+  </si>
+  <si>
+    <t>㈱Ｋｊ</t>
+  </si>
+  <si>
+    <t>松村　髙男</t>
+  </si>
+  <si>
+    <t>岡山県倉敷市水島南緑町9番19号</t>
+  </si>
+  <si>
+    <t>希ｔｏｋｉ</t>
+  </si>
+  <si>
+    <t>熊本市南区出仲間7丁目15-15</t>
+  </si>
+  <si>
+    <t>岩野　利衣子</t>
+  </si>
+  <si>
+    <t>いろは</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目8-15村上ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>太田　藤義</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　Ｌｅｇａｌｉｓｓ</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目4-15ﾋﾟｱ88-1-A</t>
+  </si>
+  <si>
+    <t>德永　静華</t>
+  </si>
+  <si>
+    <t>㈱ナカノ企画</t>
+  </si>
+  <si>
+    <t>交流カフェ　Ｓｉｎｂｕｎ－ｄｏ</t>
+  </si>
+  <si>
+    <t>㈲長田進文堂</t>
+  </si>
+  <si>
+    <t>(同)ソフィ</t>
+  </si>
+  <si>
+    <t>(同)Ｍコーポレーション</t>
+  </si>
+  <si>
+    <t>385-1188</t>
+  </si>
+  <si>
+    <t>㈱トライ・インターナショナル</t>
+  </si>
+  <si>
+    <t>342-6393</t>
+  </si>
+  <si>
+    <t>(同)といろ</t>
   </si>
 </sst>
 </file>
@@ -3967,7 +4431,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3997,6 +4461,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4015,15 +4495,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準_生データ" xfId="1" xr:uid="{A1153281-7A20-4085-8B5A-1B259552DBE5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14539,10 +15030,1939 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5481E6-207E-4B2D-B31C-BF2D87617D71}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45462</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45474</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45474</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45474</v>
+      </c>
+      <c r="M2" s="1">
+        <v>47726</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45464</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45474</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45474</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45474</v>
+      </c>
+      <c r="M3" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45467</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45474</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45474</v>
+      </c>
+      <c r="L4" s="1">
+        <v>45474</v>
+      </c>
+      <c r="M4" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45464</v>
+      </c>
+      <c r="J5" s="1">
+        <v>45475</v>
+      </c>
+      <c r="K5" s="1">
+        <v>45475</v>
+      </c>
+      <c r="L5" s="1">
+        <v>45475</v>
+      </c>
+      <c r="M5" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45469</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45476</v>
+      </c>
+      <c r="K6" s="1">
+        <v>45476</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45476</v>
+      </c>
+      <c r="M6" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45468</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45477</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45477</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45477</v>
+      </c>
+      <c r="M7" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45469</v>
+      </c>
+      <c r="J8" s="1">
+        <v>45477</v>
+      </c>
+      <c r="K8" s="1">
+        <v>45477</v>
+      </c>
+      <c r="L8" s="1">
+        <v>45477</v>
+      </c>
+      <c r="M8" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45471</v>
+      </c>
+      <c r="J9" s="1">
+        <v>45478</v>
+      </c>
+      <c r="K9" s="1">
+        <v>45478</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45478</v>
+      </c>
+      <c r="M9" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45475</v>
+      </c>
+      <c r="J10" s="1">
+        <v>45478</v>
+      </c>
+      <c r="K10" s="1">
+        <v>45478</v>
+      </c>
+      <c r="L10" s="1">
+        <v>45478</v>
+      </c>
+      <c r="M10" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I11" s="1">
+        <v>45476</v>
+      </c>
+      <c r="J11" s="1">
+        <v>45478</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45478</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45478</v>
+      </c>
+      <c r="M11" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45476</v>
+      </c>
+      <c r="J12" s="1">
+        <v>45482</v>
+      </c>
+      <c r="K12" s="1">
+        <v>45482</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45482</v>
+      </c>
+      <c r="M12" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45477</v>
+      </c>
+      <c r="J13" s="1">
+        <v>45482</v>
+      </c>
+      <c r="K13" s="1">
+        <v>45482</v>
+      </c>
+      <c r="L13" s="1">
+        <v>45482</v>
+      </c>
+      <c r="M13" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45481</v>
+      </c>
+      <c r="J14" s="1">
+        <v>45483</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45483</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45483</v>
+      </c>
+      <c r="M14" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45448</v>
+      </c>
+      <c r="J15" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K15" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M15" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45453</v>
+      </c>
+      <c r="J16" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K16" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M16" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45478</v>
+      </c>
+      <c r="J17" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K17" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M17" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45478</v>
+      </c>
+      <c r="J18" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K18" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M18" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45478</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K19" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M19" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45481</v>
+      </c>
+      <c r="J20" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K20" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L20" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M20" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J21" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M21" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J22" s="1">
+        <v>45484</v>
+      </c>
+      <c r="K22" s="1">
+        <v>45484</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45484</v>
+      </c>
+      <c r="M22" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1">
+        <v>45470</v>
+      </c>
+      <c r="J23" s="1">
+        <v>45489</v>
+      </c>
+      <c r="K23" s="1">
+        <v>45489</v>
+      </c>
+      <c r="L23" s="1">
+        <v>45489</v>
+      </c>
+      <c r="M23" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J24" s="1">
+        <v>45489</v>
+      </c>
+      <c r="K24" s="1">
+        <v>45489</v>
+      </c>
+      <c r="L24" s="1">
+        <v>45489</v>
+      </c>
+      <c r="M24" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I25" s="1">
+        <v>45484</v>
+      </c>
+      <c r="J25" s="1">
+        <v>45489</v>
+      </c>
+      <c r="K25" s="1">
+        <v>45489</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45489</v>
+      </c>
+      <c r="M25" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45485</v>
+      </c>
+      <c r="J26" s="1">
+        <v>45489</v>
+      </c>
+      <c r="K26" s="1">
+        <v>45489</v>
+      </c>
+      <c r="L26" s="1">
+        <v>45489</v>
+      </c>
+      <c r="M26" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I27" s="1">
+        <v>45477</v>
+      </c>
+      <c r="J27" s="1">
+        <v>45489</v>
+      </c>
+      <c r="K27" s="1">
+        <v>45489</v>
+      </c>
+      <c r="L27" s="1">
+        <v>45489</v>
+      </c>
+      <c r="M27" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J28" s="1">
+        <v>45490</v>
+      </c>
+      <c r="K28" s="1">
+        <v>45490</v>
+      </c>
+      <c r="L28" s="1">
+        <v>45490</v>
+      </c>
+      <c r="M28" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="1">
+        <v>45456</v>
+      </c>
+      <c r="J29" s="1">
+        <v>45491</v>
+      </c>
+      <c r="K29" s="1">
+        <v>45491</v>
+      </c>
+      <c r="L29" s="1">
+        <v>45491</v>
+      </c>
+      <c r="M29" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1">
+        <v>45490</v>
+      </c>
+      <c r="J30" s="1">
+        <v>45491</v>
+      </c>
+      <c r="K30" s="1">
+        <v>45491</v>
+      </c>
+      <c r="L30" s="1">
+        <v>45491</v>
+      </c>
+      <c r="M30" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="1">
+        <v>45266</v>
+      </c>
+      <c r="J31" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K31" s="1">
+        <v>45492</v>
+      </c>
+      <c r="L31" s="1">
+        <v>45492</v>
+      </c>
+      <c r="M31" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45464</v>
+      </c>
+      <c r="J32" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K32" s="1">
+        <v>45492</v>
+      </c>
+      <c r="L32" s="1">
+        <v>45492</v>
+      </c>
+      <c r="M32" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1">
+        <v>45490</v>
+      </c>
+      <c r="J33" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K33" s="1">
+        <v>45492</v>
+      </c>
+      <c r="L33" s="1">
+        <v>45492</v>
+      </c>
+      <c r="M33" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1">
+        <v>45491</v>
+      </c>
+      <c r="J34" s="1">
+        <v>45492</v>
+      </c>
+      <c r="K34" s="1">
+        <v>45492</v>
+      </c>
+      <c r="L34" s="1">
+        <v>45492</v>
+      </c>
+      <c r="M34" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1">
+        <v>45448</v>
+      </c>
+      <c r="J35" s="1">
+        <v>45495</v>
+      </c>
+      <c r="K35" s="1">
+        <v>45495</v>
+      </c>
+      <c r="L35" s="1">
+        <v>45495</v>
+      </c>
+      <c r="M35" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I36" s="1">
+        <v>45485</v>
+      </c>
+      <c r="J36" s="1">
+        <v>45496</v>
+      </c>
+      <c r="K36" s="1">
+        <v>45496</v>
+      </c>
+      <c r="L36" s="1">
+        <v>45496</v>
+      </c>
+      <c r="M36" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I37" s="1">
+        <v>45482</v>
+      </c>
+      <c r="J37" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K37" s="1">
+        <v>45498</v>
+      </c>
+      <c r="L37" s="1">
+        <v>45498</v>
+      </c>
+      <c r="M37" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I38" s="1">
+        <v>45483</v>
+      </c>
+      <c r="J38" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K38" s="1">
+        <v>45498</v>
+      </c>
+      <c r="L38" s="1">
+        <v>45498</v>
+      </c>
+      <c r="M38" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="1">
+        <v>45484</v>
+      </c>
+      <c r="J39" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K39" s="1">
+        <v>45498</v>
+      </c>
+      <c r="L39" s="1">
+        <v>45498</v>
+      </c>
+      <c r="M39" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J40" s="1">
+        <v>45498</v>
+      </c>
+      <c r="K40" s="1">
+        <v>45498</v>
+      </c>
+      <c r="L40" s="1">
+        <v>45498</v>
+      </c>
+      <c r="M40" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I41" s="1">
+        <v>45492</v>
+      </c>
+      <c r="J41" s="1">
+        <v>45499</v>
+      </c>
+      <c r="K41" s="1">
+        <v>45499</v>
+      </c>
+      <c r="L41" s="1">
+        <v>45499</v>
+      </c>
+      <c r="M41" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="1">
+        <v>45496</v>
+      </c>
+      <c r="J42" s="1">
+        <v>45499</v>
+      </c>
+      <c r="K42" s="1">
+        <v>45499</v>
+      </c>
+      <c r="L42" s="1">
+        <v>45499</v>
+      </c>
+      <c r="M42" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="1">
+        <v>45497</v>
+      </c>
+      <c r="J43" s="1">
+        <v>45499</v>
+      </c>
+      <c r="K43" s="1">
+        <v>45499</v>
+      </c>
+      <c r="L43" s="1">
+        <v>45499</v>
+      </c>
+      <c r="M43" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I44" s="1">
+        <v>45491</v>
+      </c>
+      <c r="J44" s="1">
+        <v>45502</v>
+      </c>
+      <c r="K44" s="1">
+        <v>45502</v>
+      </c>
+      <c r="L44" s="1">
+        <v>45502</v>
+      </c>
+      <c r="M44" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I45" s="1">
+        <v>45497</v>
+      </c>
+      <c r="J45" s="1">
+        <v>45502</v>
+      </c>
+      <c r="K45" s="1">
+        <v>45502</v>
+      </c>
+      <c r="L45" s="1">
+        <v>45502</v>
+      </c>
+      <c r="M45" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I46" s="1">
+        <v>45498</v>
+      </c>
+      <c r="J46" s="1">
+        <v>45502</v>
+      </c>
+      <c r="K46" s="1">
+        <v>45502</v>
+      </c>
+      <c r="L46" s="1">
+        <v>45502</v>
+      </c>
+      <c r="M46" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I47" s="1">
+        <v>45499</v>
+      </c>
+      <c r="J47" s="1">
+        <v>45502</v>
+      </c>
+      <c r="K47" s="1">
+        <v>45502</v>
+      </c>
+      <c r="L47" s="1">
+        <v>45502</v>
+      </c>
+      <c r="M47" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J48" s="1">
+        <v>45503</v>
+      </c>
+      <c r="K48" s="1">
+        <v>45503</v>
+      </c>
+      <c r="L48" s="1">
+        <v>45503</v>
+      </c>
+      <c r="M48" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="1">
+        <v>45495</v>
+      </c>
+      <c r="J49" s="1">
+        <v>45504</v>
+      </c>
+      <c r="K49" s="1">
+        <v>45504</v>
+      </c>
+      <c r="L49" s="1">
+        <v>45504</v>
+      </c>
+      <c r="M49" s="1">
+        <v>47726</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="5">
+        <v>45504</v>
+      </c>
+      <c r="J50" s="5">
+        <v>45504</v>
+      </c>
+      <c r="K50" s="5">
+        <v>45504</v>
+      </c>
+      <c r="L50" s="5">
+        <v>45504</v>
+      </c>
+      <c r="M50" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N50" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91919D0-5902-4783-AF9A-79DFFE4AA369}">
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -14602,34 +17022,31 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>1087</v>
+        <v>1289</v>
       </c>
       <c r="D2" t="s">
-        <v>1088</v>
+        <v>1290</v>
       </c>
       <c r="F2" t="s">
-        <v>1089</v>
+        <v>1291</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="1">
-        <v>45462</v>
+        <v>45499</v>
       </c>
       <c r="J2" s="1">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="K2" s="1">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="L2" s="1">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="M2" s="1">
         <v>47726</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -14640,28 +17057,28 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>1091</v>
+        <v>1292</v>
       </c>
       <c r="D3" t="s">
-        <v>1092</v>
+        <v>1293</v>
       </c>
       <c r="F3" t="s">
-        <v>1093</v>
+        <v>1294</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="1">
-        <v>45464</v>
+        <v>45499</v>
       </c>
       <c r="J3" s="1">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="K3" s="1">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="L3" s="1">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="M3" s="1">
         <v>47726</v>
@@ -14675,34 +17092,28 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>1094</v>
+        <v>1295</v>
       </c>
       <c r="D4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
+        <v>1296</v>
       </c>
       <c r="F4" t="s">
-        <v>1096</v>
+        <v>1297</v>
       </c>
       <c r="G4" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1098</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1">
-        <v>45467</v>
+        <v>45502</v>
       </c>
       <c r="J4" s="1">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="K4" s="1">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="L4" s="1">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="M4" s="1">
         <v>47726</v>
@@ -14716,28 +17127,28 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>1099</v>
+        <v>1298</v>
       </c>
       <c r="D5" t="s">
-        <v>1100</v>
+        <v>1299</v>
       </c>
       <c r="F5" t="s">
-        <v>1101</v>
+        <v>1300</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="1">
-        <v>45464</v>
+        <v>45498</v>
       </c>
       <c r="J5" s="1">
-        <v>45475</v>
+        <v>45506</v>
       </c>
       <c r="K5" s="1">
-        <v>45475</v>
+        <v>45506</v>
       </c>
       <c r="L5" s="1">
-        <v>45475</v>
+        <v>45506</v>
       </c>
       <c r="M5" s="1">
         <v>47726</v>
@@ -14751,31 +17162,34 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>1102</v>
+        <v>1301</v>
       </c>
       <c r="D6" t="s">
-        <v>1103</v>
+        <v>1302</v>
       </c>
       <c r="E6" t="s">
-        <v>1104</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>1105</v>
+        <v>1431</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>1303</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1304</v>
       </c>
       <c r="I6" s="1">
-        <v>45469</v>
+        <v>45499</v>
       </c>
       <c r="J6" s="1">
-        <v>45476</v>
+        <v>45510</v>
       </c>
       <c r="K6" s="1">
-        <v>45476</v>
+        <v>45510</v>
       </c>
       <c r="L6" s="1">
-        <v>45476</v>
+        <v>45510</v>
       </c>
       <c r="M6" s="1">
         <v>47726</v>
@@ -14789,31 +17203,31 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>1106</v>
+        <v>1305</v>
       </c>
       <c r="D7" t="s">
-        <v>1107</v>
+        <v>1306</v>
       </c>
       <c r="E7" t="s">
-        <v>1108</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>1109</v>
+        <v>1307</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="1">
-        <v>45468</v>
+        <v>45504</v>
       </c>
       <c r="J7" s="1">
-        <v>45477</v>
+        <v>45512</v>
       </c>
       <c r="K7" s="1">
-        <v>45477</v>
+        <v>45512</v>
       </c>
       <c r="L7" s="1">
-        <v>45477</v>
+        <v>45512</v>
       </c>
       <c r="M7" s="1">
         <v>47726</v>
@@ -14827,34 +17241,34 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>1110</v>
+        <v>1308</v>
       </c>
       <c r="D8" t="s">
-        <v>1111</v>
+        <v>1309</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>1310</v>
       </c>
       <c r="F8" t="s">
-        <v>1112</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>1113</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
-        <v>1114</v>
+        <v>114</v>
       </c>
       <c r="I8" s="1">
-        <v>45469</v>
+        <v>45506</v>
       </c>
       <c r="J8" s="1">
-        <v>45477</v>
+        <v>45512</v>
       </c>
       <c r="K8" s="1">
-        <v>45477</v>
+        <v>45512</v>
       </c>
       <c r="L8" s="1">
-        <v>45477</v>
+        <v>45512</v>
       </c>
       <c r="M8" s="1">
         <v>47726</v>
@@ -14868,31 +17282,34 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>1115</v>
+        <v>1432</v>
       </c>
       <c r="D9" t="s">
-        <v>1116</v>
+        <v>1311</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>1117</v>
+        <v>1433</v>
       </c>
       <c r="G9" t="s">
-        <v>1118</v>
+        <v>1312</v>
       </c>
       <c r="H9" t="s">
-        <v>1119</v>
+        <v>1313</v>
       </c>
       <c r="I9" s="1">
-        <v>45471</v>
+        <v>45456</v>
       </c>
       <c r="J9" s="1">
-        <v>45478</v>
+        <v>45513</v>
       </c>
       <c r="K9" s="1">
-        <v>45478</v>
+        <v>45513</v>
       </c>
       <c r="L9" s="1">
-        <v>45478</v>
+        <v>45513</v>
       </c>
       <c r="M9" s="1">
         <v>47726</v>
@@ -14906,34 +17323,34 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>1120</v>
+        <v>880</v>
       </c>
       <c r="D10" t="s">
-        <v>1121</v>
+        <v>881</v>
       </c>
       <c r="E10" t="s">
-        <v>1122</v>
+        <v>1314</v>
       </c>
       <c r="F10" t="s">
-        <v>1123</v>
+        <v>877</v>
       </c>
       <c r="G10" t="s">
-        <v>1124</v>
+        <v>878</v>
       </c>
       <c r="H10" t="s">
-        <v>1125</v>
+        <v>1050</v>
       </c>
       <c r="I10" s="1">
-        <v>45475</v>
+        <v>45506</v>
       </c>
       <c r="J10" s="1">
-        <v>45478</v>
+        <v>45513</v>
       </c>
       <c r="K10" s="1">
-        <v>45478</v>
+        <v>45513</v>
       </c>
       <c r="L10" s="1">
-        <v>45478</v>
+        <v>45513</v>
       </c>
       <c r="M10" s="1">
         <v>47726</v>
@@ -14947,31 +17364,28 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>1126</v>
+        <v>1315</v>
       </c>
       <c r="D11" t="s">
-        <v>1127</v>
+        <v>1316</v>
       </c>
       <c r="F11" t="s">
-        <v>1128</v>
+        <v>1317</v>
       </c>
       <c r="G11" t="s">
-        <v>1129</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1130</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1">
-        <v>45476</v>
+        <v>45510</v>
       </c>
       <c r="J11" s="1">
-        <v>45478</v>
+        <v>45518</v>
       </c>
       <c r="K11" s="1">
-        <v>45478</v>
+        <v>45518</v>
       </c>
       <c r="L11" s="1">
-        <v>45478</v>
+        <v>45518</v>
       </c>
       <c r="M11" s="1">
         <v>47726</v>
@@ -14985,28 +17399,34 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>1131</v>
+        <v>1318</v>
       </c>
       <c r="D12" t="s">
-        <v>1132</v>
+        <v>1319</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1320</v>
       </c>
       <c r="F12" t="s">
-        <v>1133</v>
+        <v>1321</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>1322</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1323</v>
       </c>
       <c r="I12" s="1">
-        <v>45476</v>
+        <v>45503</v>
       </c>
       <c r="J12" s="1">
-        <v>45482</v>
+        <v>45519</v>
       </c>
       <c r="K12" s="1">
-        <v>45482</v>
+        <v>45519</v>
       </c>
       <c r="L12" s="1">
-        <v>45482</v>
+        <v>45519</v>
       </c>
       <c r="M12" s="1">
         <v>47726</v>
@@ -15020,34 +17440,34 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>1134</v>
+        <v>1324</v>
       </c>
       <c r="D13" t="s">
-        <v>1135</v>
+        <v>1325</v>
       </c>
       <c r="E13" t="s">
-        <v>1136</v>
+        <v>1326</v>
       </c>
       <c r="F13" t="s">
-        <v>241</v>
+        <v>1327</v>
       </c>
       <c r="G13" t="s">
-        <v>242</v>
+        <v>1328</v>
       </c>
       <c r="H13" t="s">
-        <v>243</v>
+        <v>1329</v>
       </c>
       <c r="I13" s="1">
-        <v>45477</v>
+        <v>45506</v>
       </c>
       <c r="J13" s="1">
-        <v>45482</v>
+        <v>45519</v>
       </c>
       <c r="K13" s="1">
-        <v>45482</v>
+        <v>45519</v>
       </c>
       <c r="L13" s="1">
-        <v>45482</v>
+        <v>45519</v>
       </c>
       <c r="M13" s="1">
         <v>47726</v>
@@ -15061,31 +17481,28 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>1137</v>
+        <v>1330</v>
       </c>
       <c r="D14" t="s">
-        <v>1138</v>
+        <v>1331</v>
       </c>
       <c r="F14" t="s">
-        <v>1139</v>
+        <v>1332</v>
       </c>
       <c r="G14" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1141</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1">
-        <v>45481</v>
+        <v>45512</v>
       </c>
       <c r="J14" s="1">
-        <v>45483</v>
+        <v>45519</v>
       </c>
       <c r="K14" s="1">
-        <v>45483</v>
+        <v>45519</v>
       </c>
       <c r="L14" s="1">
-        <v>45483</v>
+        <v>45519</v>
       </c>
       <c r="M14" s="1">
         <v>47726</v>
@@ -15099,34 +17516,28 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>1142</v>
+        <v>1333</v>
       </c>
       <c r="D15" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1144</v>
+        <v>1334</v>
       </c>
       <c r="F15" t="s">
-        <v>1145</v>
+        <v>1335</v>
       </c>
       <c r="G15" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1147</v>
+        <v>18</v>
       </c>
       <c r="I15" s="1">
-        <v>45448</v>
+        <v>45518</v>
       </c>
       <c r="J15" s="1">
-        <v>45484</v>
+        <v>45523</v>
       </c>
       <c r="K15" s="1">
-        <v>45484</v>
+        <v>45523</v>
       </c>
       <c r="L15" s="1">
-        <v>45484</v>
+        <v>45523</v>
       </c>
       <c r="M15" s="1">
         <v>47726</v>
@@ -15140,34 +17551,28 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>1148</v>
+        <v>1336</v>
       </c>
       <c r="D16" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
+        <v>1337</v>
       </c>
       <c r="F16" t="s">
-        <v>1145</v>
+        <v>1338</v>
       </c>
       <c r="G16" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1147</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1">
-        <v>45453</v>
+        <v>45519</v>
       </c>
       <c r="J16" s="1">
-        <v>45484</v>
+        <v>45523</v>
       </c>
       <c r="K16" s="1">
-        <v>45484</v>
+        <v>45523</v>
       </c>
       <c r="L16" s="1">
-        <v>45484</v>
+        <v>45523</v>
       </c>
       <c r="M16" s="1">
         <v>47726</v>
@@ -15181,31 +17586,34 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>1150</v>
+        <v>1339</v>
       </c>
       <c r="D17" t="s">
-        <v>1151</v>
+        <v>1340</v>
       </c>
       <c r="E17" t="s">
-        <v>1152</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>1153</v>
+        <v>1434</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>1341</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1342</v>
       </c>
       <c r="I17" s="1">
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="J17" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="K17" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="L17" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="M17" s="1">
         <v>47726</v>
@@ -15219,31 +17627,31 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>1154</v>
+        <v>1343</v>
       </c>
       <c r="D18" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1156</v>
+        <v>1344</v>
       </c>
       <c r="F18" t="s">
-        <v>1157</v>
+        <v>1345</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>1346</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1347</v>
       </c>
       <c r="I18" s="1">
-        <v>45478</v>
+        <v>45504</v>
       </c>
       <c r="J18" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="K18" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="L18" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="M18" s="1">
         <v>47726</v>
@@ -15257,34 +17665,28 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>1158</v>
+        <v>1348</v>
       </c>
       <c r="D19" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1160</v>
+        <v>1349</v>
       </c>
       <c r="F19" t="s">
-        <v>1161</v>
+        <v>1350</v>
       </c>
       <c r="G19" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1163</v>
+        <v>18</v>
       </c>
       <c r="I19" s="1">
-        <v>45478</v>
+        <v>45513</v>
       </c>
       <c r="J19" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="K19" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="L19" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="M19" s="1">
         <v>47726</v>
@@ -15298,28 +17700,31 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>1164</v>
+        <v>1351</v>
       </c>
       <c r="D20" t="s">
-        <v>1165</v>
+        <v>1352</v>
       </c>
       <c r="F20" t="s">
-        <v>1166</v>
+        <v>1353</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>1354</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1355</v>
       </c>
       <c r="I20" s="1">
-        <v>45481</v>
+        <v>45517</v>
       </c>
       <c r="J20" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="K20" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="L20" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="M20" s="1">
         <v>47726</v>
@@ -15333,28 +17738,34 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>1167</v>
+        <v>1356</v>
       </c>
       <c r="D21" t="s">
-        <v>1168</v>
+        <v>426</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>1169</v>
+        <v>1357</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>1358</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1359</v>
       </c>
       <c r="I21" s="1">
-        <v>45483</v>
+        <v>45523</v>
       </c>
       <c r="J21" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="K21" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="L21" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="M21" s="1">
         <v>47726</v>
@@ -15368,31 +17779,28 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>1170</v>
+        <v>1360</v>
       </c>
       <c r="D22" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1172</v>
+        <v>1361</v>
       </c>
       <c r="F22" t="s">
-        <v>1173</v>
+        <v>1362</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="1">
-        <v>45483</v>
+        <v>45524</v>
       </c>
       <c r="J22" s="1">
-        <v>45484</v>
+        <v>45526</v>
       </c>
       <c r="K22" s="1">
-        <v>45484</v>
+        <v>45526</v>
       </c>
       <c r="L22" s="1">
-        <v>45484</v>
+        <v>45526</v>
       </c>
       <c r="M22" s="1">
         <v>47726</v>
@@ -15406,31 +17814,31 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>1174</v>
+        <v>1363</v>
       </c>
       <c r="D23" t="s">
-        <v>1175</v>
+        <v>1364</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>1176</v>
+        <v>1365</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>45470</v>
+        <v>45525</v>
       </c>
       <c r="J23" s="1">
-        <v>45489</v>
+        <v>45526</v>
       </c>
       <c r="K23" s="1">
-        <v>45489</v>
+        <v>45526</v>
       </c>
       <c r="L23" s="1">
-        <v>45489</v>
+        <v>45526</v>
       </c>
       <c r="M23" s="1">
         <v>47726</v>
@@ -15444,31 +17852,34 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>1177</v>
+        <v>1366</v>
       </c>
       <c r="D24" t="s">
-        <v>1178</v>
+        <v>1367</v>
       </c>
       <c r="E24" t="s">
-        <v>1179</v>
+        <v>1368</v>
       </c>
       <c r="F24" t="s">
-        <v>1180</v>
+        <v>1369</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>1370</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1371</v>
       </c>
       <c r="I24" s="1">
-        <v>45483</v>
+        <v>45526</v>
       </c>
       <c r="J24" s="1">
-        <v>45489</v>
+        <v>45526</v>
       </c>
       <c r="K24" s="1">
-        <v>45489</v>
+        <v>45526</v>
       </c>
       <c r="L24" s="1">
-        <v>45489</v>
+        <v>45526</v>
       </c>
       <c r="M24" s="1">
         <v>47726</v>
@@ -15482,31 +17893,31 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>1181</v>
+        <v>1372</v>
       </c>
       <c r="D25" t="s">
-        <v>1182</v>
+        <v>1373</v>
       </c>
       <c r="F25" t="s">
-        <v>1183</v>
+        <v>1435</v>
       </c>
       <c r="G25" t="s">
-        <v>1184</v>
+        <v>1374</v>
       </c>
       <c r="H25" t="s">
-        <v>1185</v>
+        <v>1375</v>
       </c>
       <c r="I25" s="1">
-        <v>45484</v>
+        <v>45510</v>
       </c>
       <c r="J25" s="1">
-        <v>45489</v>
+        <v>45527</v>
       </c>
       <c r="K25" s="1">
-        <v>45489</v>
+        <v>45527</v>
       </c>
       <c r="L25" s="1">
-        <v>45489</v>
+        <v>45527</v>
       </c>
       <c r="M25" s="1">
         <v>47726</v>
@@ -15520,31 +17931,34 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>1186</v>
+        <v>1376</v>
       </c>
       <c r="D26" t="s">
-        <v>1187</v>
+        <v>1377</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1378</v>
       </c>
       <c r="F26" t="s">
-        <v>1188</v>
+        <v>448</v>
       </c>
       <c r="G26" t="s">
-        <v>1189</v>
+        <v>1379</v>
       </c>
       <c r="H26" t="s">
-        <v>1190</v>
+        <v>1380</v>
       </c>
       <c r="I26" s="1">
-        <v>45485</v>
+        <v>45510</v>
       </c>
       <c r="J26" s="1">
-        <v>45489</v>
+        <v>45527</v>
       </c>
       <c r="K26" s="1">
-        <v>45489</v>
+        <v>45527</v>
       </c>
       <c r="L26" s="1">
-        <v>45489</v>
+        <v>45527</v>
       </c>
       <c r="M26" s="1">
         <v>47726</v>
@@ -15558,34 +17972,28 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>1191</v>
+        <v>1381</v>
       </c>
       <c r="D27" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
+        <v>1382</v>
       </c>
       <c r="F27" t="s">
-        <v>1285</v>
+        <v>1383</v>
       </c>
       <c r="G27" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1194</v>
+        <v>18</v>
       </c>
       <c r="I27" s="1">
-        <v>45477</v>
+        <v>45512</v>
       </c>
       <c r="J27" s="1">
-        <v>45489</v>
+        <v>45527</v>
       </c>
       <c r="K27" s="1">
-        <v>45489</v>
+        <v>45527</v>
       </c>
       <c r="L27" s="1">
-        <v>45489</v>
+        <v>45527</v>
       </c>
       <c r="M27" s="1">
         <v>47726</v>
@@ -15599,28 +18007,28 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>1195</v>
+        <v>1384</v>
       </c>
       <c r="D28" t="s">
-        <v>1196</v>
+        <v>1385</v>
       </c>
       <c r="F28" t="s">
-        <v>1197</v>
+        <v>1386</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="1">
-        <v>45483</v>
+        <v>45526</v>
       </c>
       <c r="J28" s="1">
-        <v>45490</v>
+        <v>45527</v>
       </c>
       <c r="K28" s="1">
-        <v>45490</v>
+        <v>45527</v>
       </c>
       <c r="L28" s="1">
-        <v>45490</v>
+        <v>45527</v>
       </c>
       <c r="M28" s="1">
         <v>47726</v>
@@ -15634,31 +18042,34 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>1198</v>
+        <v>1387</v>
       </c>
       <c r="D29" t="s">
-        <v>1199</v>
+        <v>1388</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>1436</v>
       </c>
       <c r="F29" t="s">
-        <v>1200</v>
+        <v>1437</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>1389</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1390</v>
       </c>
       <c r="I29" s="1">
-        <v>45456</v>
+        <v>45524</v>
       </c>
       <c r="J29" s="1">
-        <v>45491</v>
+        <v>45527</v>
       </c>
       <c r="K29" s="1">
-        <v>45491</v>
+        <v>45527</v>
       </c>
       <c r="L29" s="1">
-        <v>45491</v>
+        <v>45527</v>
       </c>
       <c r="M29" s="1">
         <v>47726</v>
@@ -15672,31 +18083,34 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>1201</v>
+        <v>1391</v>
       </c>
       <c r="D30" t="s">
-        <v>1202</v>
+        <v>1392</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>1438</v>
       </c>
       <c r="F30" t="s">
-        <v>1203</v>
+        <v>1437</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>1389</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1390</v>
       </c>
       <c r="I30" s="1">
-        <v>45490</v>
+        <v>45524</v>
       </c>
       <c r="J30" s="1">
-        <v>45491</v>
+        <v>45527</v>
       </c>
       <c r="K30" s="1">
-        <v>45491</v>
+        <v>45527</v>
       </c>
       <c r="L30" s="1">
-        <v>45491</v>
+        <v>45527</v>
       </c>
       <c r="M30" s="1">
         <v>47726</v>
@@ -15710,31 +18124,28 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>1204</v>
+        <v>1393</v>
       </c>
       <c r="D31" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1206</v>
+        <v>1394</v>
       </c>
       <c r="F31" t="s">
-        <v>1207</v>
+        <v>1395</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="1">
-        <v>45266</v>
+        <v>45524</v>
       </c>
       <c r="J31" s="1">
-        <v>45492</v>
+        <v>45530</v>
       </c>
       <c r="K31" s="1">
-        <v>45492</v>
+        <v>45530</v>
       </c>
       <c r="L31" s="1">
-        <v>45492</v>
+        <v>45530</v>
       </c>
       <c r="M31" s="1">
         <v>47726</v>
@@ -15748,28 +18159,28 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>1208</v>
+        <v>1396</v>
       </c>
       <c r="D32" t="s">
-        <v>1209</v>
+        <v>1397</v>
       </c>
       <c r="F32" t="s">
-        <v>1210</v>
+        <v>1398</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="1">
-        <v>45464</v>
+        <v>45527</v>
       </c>
       <c r="J32" s="1">
-        <v>45492</v>
+        <v>45530</v>
       </c>
       <c r="K32" s="1">
-        <v>45492</v>
+        <v>45530</v>
       </c>
       <c r="L32" s="1">
-        <v>45492</v>
+        <v>45530</v>
       </c>
       <c r="M32" s="1">
         <v>47726</v>
@@ -15783,28 +18194,34 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>1211</v>
+        <v>1399</v>
       </c>
       <c r="D33" t="s">
-        <v>1212</v>
+        <v>1400</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1401</v>
       </c>
       <c r="F33" t="s">
-        <v>1213</v>
+        <v>1402</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>1403</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1404</v>
       </c>
       <c r="I33" s="1">
-        <v>45490</v>
+        <v>45525</v>
       </c>
       <c r="J33" s="1">
-        <v>45492</v>
+        <v>45531</v>
       </c>
       <c r="K33" s="1">
-        <v>45492</v>
+        <v>45531</v>
       </c>
       <c r="L33" s="1">
-        <v>45492</v>
+        <v>45531</v>
       </c>
       <c r="M33" s="1">
         <v>47726</v>
@@ -15818,31 +18235,34 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>1214</v>
+        <v>1405</v>
       </c>
       <c r="D34" t="s">
-        <v>1215</v>
+        <v>1406</v>
       </c>
       <c r="E34" t="s">
-        <v>1216</v>
+        <v>1407</v>
       </c>
       <c r="F34" t="s">
-        <v>1217</v>
+        <v>1408</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>1409</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1410</v>
       </c>
       <c r="I34" s="1">
-        <v>45491</v>
+        <v>45513</v>
       </c>
       <c r="J34" s="1">
-        <v>45492</v>
+        <v>45532</v>
       </c>
       <c r="K34" s="1">
-        <v>45492</v>
+        <v>45532</v>
       </c>
       <c r="L34" s="1">
-        <v>45492</v>
+        <v>45532</v>
       </c>
       <c r="M34" s="1">
         <v>47726</v>
@@ -15856,31 +18276,34 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>1218</v>
+        <v>1411</v>
       </c>
       <c r="D35" t="s">
-        <v>1219</v>
+        <v>1412</v>
       </c>
       <c r="E35" t="s">
-        <v>1220</v>
+        <v>1413</v>
       </c>
       <c r="F35" t="s">
-        <v>1221</v>
+        <v>1439</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>1414</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1415</v>
       </c>
       <c r="I35" s="1">
-        <v>45448</v>
+        <v>45523</v>
       </c>
       <c r="J35" s="1">
-        <v>45495</v>
+        <v>45532</v>
       </c>
       <c r="K35" s="1">
-        <v>45495</v>
+        <v>45532</v>
       </c>
       <c r="L35" s="1">
-        <v>45495</v>
+        <v>45532</v>
       </c>
       <c r="M35" s="1">
         <v>47726</v>
@@ -15894,34 +18317,34 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>1222</v>
+        <v>1416</v>
       </c>
       <c r="D36" t="s">
-        <v>1223</v>
+        <v>1417</v>
       </c>
       <c r="E36" t="s">
-        <v>1224</v>
+        <v>1418</v>
       </c>
       <c r="F36" t="s">
-        <v>1225</v>
+        <v>1419</v>
       </c>
       <c r="G36" t="s">
-        <v>1226</v>
+        <v>1420</v>
       </c>
       <c r="H36" t="s">
-        <v>1227</v>
+        <v>1421</v>
       </c>
       <c r="I36" s="1">
-        <v>45485</v>
+        <v>45527</v>
       </c>
       <c r="J36" s="1">
-        <v>45496</v>
+        <v>45532</v>
       </c>
       <c r="K36" s="1">
-        <v>45496</v>
+        <v>45532</v>
       </c>
       <c r="L36" s="1">
-        <v>45496</v>
+        <v>45532</v>
       </c>
       <c r="M36" s="1">
         <v>47726</v>
@@ -15935,31 +18358,28 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>1228</v>
+        <v>1422</v>
       </c>
       <c r="D37" t="s">
-        <v>1229</v>
+        <v>1423</v>
       </c>
       <c r="F37" t="s">
-        <v>1230</v>
+        <v>1424</v>
       </c>
       <c r="G37" t="s">
-        <v>1231</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1232</v>
+        <v>18</v>
       </c>
       <c r="I37" s="1">
-        <v>45482</v>
+        <v>45530</v>
       </c>
       <c r="J37" s="1">
-        <v>45498</v>
+        <v>45532</v>
       </c>
       <c r="K37" s="1">
-        <v>45498</v>
+        <v>45532</v>
       </c>
       <c r="L37" s="1">
-        <v>45498</v>
+        <v>45532</v>
       </c>
       <c r="M37" s="1">
         <v>47726</v>
@@ -15973,31 +18393,28 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>1233</v>
+        <v>1425</v>
       </c>
       <c r="D38" t="s">
-        <v>1234</v>
+        <v>1426</v>
       </c>
       <c r="F38" t="s">
-        <v>1235</v>
+        <v>1427</v>
       </c>
       <c r="G38" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1237</v>
+        <v>18</v>
       </c>
       <c r="I38" s="1">
-        <v>45483</v>
+        <v>45530</v>
       </c>
       <c r="J38" s="1">
-        <v>45498</v>
+        <v>45532</v>
       </c>
       <c r="K38" s="1">
-        <v>45498</v>
+        <v>45532</v>
       </c>
       <c r="L38" s="1">
-        <v>45498</v>
+        <v>45532</v>
       </c>
       <c r="M38" s="1">
         <v>47726</v>
@@ -16011,419 +18428,35 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>1238</v>
+        <v>1428</v>
       </c>
       <c r="D39" t="s">
-        <v>1239</v>
+        <v>1429</v>
       </c>
       <c r="F39" t="s">
-        <v>1240</v>
+        <v>1430</v>
       </c>
       <c r="G39" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="1">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="J39" s="1">
-        <v>45498</v>
+        <v>45535</v>
       </c>
       <c r="K39" s="1">
-        <v>45498</v>
+        <v>45535</v>
       </c>
       <c r="L39" s="1">
-        <v>45498</v>
+        <v>45535</v>
       </c>
       <c r="M39" s="1">
-        <v>47726</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="1">
-        <v>45495</v>
-      </c>
-      <c r="J40" s="1">
-        <v>45498</v>
-      </c>
-      <c r="K40" s="1">
-        <v>45498</v>
-      </c>
-      <c r="L40" s="1">
-        <v>45498</v>
-      </c>
-      <c r="M40" s="1">
-        <v>47726</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1247</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I41" s="1">
-        <v>45492</v>
-      </c>
-      <c r="J41" s="1">
-        <v>45499</v>
-      </c>
-      <c r="K41" s="1">
-        <v>45499</v>
-      </c>
-      <c r="L41" s="1">
-        <v>45499</v>
-      </c>
-      <c r="M41" s="1">
-        <v>47726</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="1">
-        <v>45496</v>
-      </c>
-      <c r="J42" s="1">
-        <v>45499</v>
-      </c>
-      <c r="K42" s="1">
-        <v>45499</v>
-      </c>
-      <c r="L42" s="1">
-        <v>45499</v>
-      </c>
-      <c r="M42" s="1">
-        <v>47726</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="1">
-        <v>45497</v>
-      </c>
-      <c r="J43" s="1">
-        <v>45499</v>
-      </c>
-      <c r="K43" s="1">
-        <v>45499</v>
-      </c>
-      <c r="L43" s="1">
-        <v>45499</v>
-      </c>
-      <c r="M43" s="1">
-        <v>47726</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I44" s="1">
-        <v>45491</v>
-      </c>
-      <c r="J44" s="1">
-        <v>45502</v>
-      </c>
-      <c r="K44" s="1">
-        <v>45502</v>
-      </c>
-      <c r="L44" s="1">
-        <v>45502</v>
-      </c>
-      <c r="M44" s="1">
-        <v>47726</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I45" s="1">
-        <v>45497</v>
-      </c>
-      <c r="J45" s="1">
-        <v>45502</v>
-      </c>
-      <c r="K45" s="1">
-        <v>45502</v>
-      </c>
-      <c r="L45" s="1">
-        <v>45502</v>
-      </c>
-      <c r="M45" s="1">
-        <v>47726</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1271</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I46" s="1">
-        <v>45498</v>
-      </c>
-      <c r="J46" s="1">
-        <v>45502</v>
-      </c>
-      <c r="K46" s="1">
-        <v>45502</v>
-      </c>
-      <c r="L46" s="1">
-        <v>45502</v>
-      </c>
-      <c r="M46" s="1">
-        <v>47726</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1275</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1276</v>
-      </c>
-      <c r="I47" s="1">
-        <v>45499</v>
-      </c>
-      <c r="J47" s="1">
-        <v>45502</v>
-      </c>
-      <c r="K47" s="1">
-        <v>45502</v>
-      </c>
-      <c r="L47" s="1">
-        <v>45502</v>
-      </c>
-      <c r="M47" s="1">
-        <v>47726</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="1">
-        <v>45495</v>
-      </c>
-      <c r="J48" s="1">
-        <v>45503</v>
-      </c>
-      <c r="K48" s="1">
-        <v>45503</v>
-      </c>
-      <c r="L48" s="1">
-        <v>45503</v>
-      </c>
-      <c r="M48" s="1">
-        <v>47726</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="1">
-        <v>45495</v>
-      </c>
-      <c r="J49" s="1">
-        <v>45504</v>
-      </c>
-      <c r="K49" s="1">
-        <v>45504</v>
-      </c>
-      <c r="L49" s="1">
-        <v>45504</v>
-      </c>
-      <c r="M49" s="1">
         <v>47726</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
+++ b/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\8月末\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\９月末\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753BE9C8-773C-4699-8489-300DE2FBD48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C6D824-EA77-4E78-BEFB-9C423B72E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="6月" sheetId="7" r:id="rId3"/>
     <sheet name="7月" sheetId="9" r:id="rId4"/>
     <sheet name="8月" sheetId="11" r:id="rId5"/>
+    <sheet name="9月" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="1941">
   <si>
     <t>№</t>
   </si>
@@ -4422,6 +4423,1534 @@
   </si>
   <si>
     <t>(同)といろ</t>
+  </si>
+  <si>
+    <t>№</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業種</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>営業所所在地</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>申請者住所</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミスタードーナツゆめタウンサンピアンショップ</t>
+  </si>
+  <si>
+    <t>熊本市東区上南部2丁目2-2</t>
+  </si>
+  <si>
+    <t>389-6570</t>
+  </si>
+  <si>
+    <t>ＪＲ九州ファーストフーズ㈱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区博多駅東1丁目10-7</t>
+  </si>
+  <si>
+    <t>セブン-イレブン熊本坪井３丁目店</t>
+  </si>
+  <si>
+    <t>熊本市中央区坪井3丁目1-24</t>
+  </si>
+  <si>
+    <t>坂梨　博之</t>
+  </si>
+  <si>
+    <t>ラ　ズッカ</t>
+  </si>
+  <si>
+    <t>熊本市東区花立6丁目2-25</t>
+  </si>
+  <si>
+    <t>369-9001</t>
+  </si>
+  <si>
+    <t>㈲ＺＵＣＣＡ</t>
+  </si>
+  <si>
+    <t>碓井　英夫</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山1丁目21番17-411号</t>
+  </si>
+  <si>
+    <t>セブン-イレブン熊本小楠公園前店</t>
+  </si>
+  <si>
+    <t>熊本市東区沼山津4丁目12-9</t>
+  </si>
+  <si>
+    <t>養父　徹</t>
+  </si>
+  <si>
+    <t>十徳や　水前寺店</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺公園7-45</t>
+  </si>
+  <si>
+    <t>386-2345</t>
+  </si>
+  <si>
+    <t>㈱十徳</t>
+  </si>
+  <si>
+    <t>三浦　孝幸</t>
+  </si>
+  <si>
+    <t>熊本市西区春日7丁目19-34</t>
+  </si>
+  <si>
+    <t>ｍ１２６４６</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町舞尾671</t>
+  </si>
+  <si>
+    <t>272-7960</t>
+  </si>
+  <si>
+    <t>シダックスコントラクトフードサービス㈱</t>
+  </si>
+  <si>
+    <t>杉山　充</t>
+  </si>
+  <si>
+    <t>東京都調布市調布ヶ丘三丁目6番地3</t>
+  </si>
+  <si>
+    <t>菜食健美グリル厨房　燦</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街12-2</t>
+  </si>
+  <si>
+    <t>西　貴教</t>
+  </si>
+  <si>
+    <t>ＫＯＲＥＡＮ　ＤＩＮＩＮＧ　ハヌルオンマ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目9-13IKEZONOﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>288-5665</t>
+  </si>
+  <si>
+    <t>㈱ノーブルニス</t>
+  </si>
+  <si>
+    <t>山代　巳恵</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目9-13</t>
+  </si>
+  <si>
+    <t>甘露養生館</t>
+  </si>
+  <si>
+    <t>熊本市東区桜木1丁目18-11</t>
+  </si>
+  <si>
+    <t>中山　慶生</t>
+  </si>
+  <si>
+    <t>スナック　くまもと</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-24正清ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>西嶋　あおい</t>
+  </si>
+  <si>
+    <t>十徳や　田崎市場通店</t>
+  </si>
+  <si>
+    <t>312-1455</t>
+  </si>
+  <si>
+    <t>熊本市西区春日7丁目19番34号</t>
+  </si>
+  <si>
+    <t>辛辛麺</t>
+  </si>
+  <si>
+    <t>熊本市東区尾ノ上2丁目15-8寿尚ﾊｲﾂ1F</t>
+  </si>
+  <si>
+    <t>鳴海　陽子</t>
+  </si>
+  <si>
+    <t>きびきび</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街1-4-5</t>
+  </si>
+  <si>
+    <t>清水　健太</t>
+  </si>
+  <si>
+    <t>ファミリーマート熊本長嶺南三丁目店</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺南3丁目1-1</t>
+  </si>
+  <si>
+    <t>340-8710</t>
+  </si>
+  <si>
+    <t>㈱フォーチュン</t>
+  </si>
+  <si>
+    <t>草村　安宏</t>
+  </si>
+  <si>
+    <t>熊本市中央区新町3-4-6-1001</t>
+  </si>
+  <si>
+    <t>ファミリーマート熊本長嶺南店</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺南8丁目1-3</t>
+  </si>
+  <si>
+    <t>349-7022</t>
+  </si>
+  <si>
+    <t>ｂａｒ　ａｎｄｒｅｗｓ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町10-6三協ﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>國友　陽祐</t>
+  </si>
+  <si>
+    <t>ブーシーズ・カフェ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町5-10桜井ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>寺本　清二</t>
+  </si>
+  <si>
+    <t>和食家　たい勝</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-27中通りﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>勝本　泰和</t>
+  </si>
+  <si>
+    <t>夢乃家</t>
+  </si>
+  <si>
+    <t>熊本市南区薄場1丁目13-33</t>
+  </si>
+  <si>
+    <t>井上　千鶴</t>
+  </si>
+  <si>
+    <t>音楽バー　昭和幸民館</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目5-10たそがれ東館1F</t>
+  </si>
+  <si>
+    <t>河内山　武</t>
+  </si>
+  <si>
+    <t>ローソン熊本龍田２丁目店</t>
+  </si>
+  <si>
+    <t>熊本市北区龍田2丁目2-20</t>
+  </si>
+  <si>
+    <t>末次　浩二</t>
+  </si>
+  <si>
+    <t>グリーン・キッチン</t>
+  </si>
+  <si>
+    <t>熊本市東区弓削町415</t>
+  </si>
+  <si>
+    <t>彩食宴満　潤和</t>
+  </si>
+  <si>
+    <t>熊本市東区戸島西1丁目5-37</t>
+  </si>
+  <si>
+    <t>331-3353</t>
+  </si>
+  <si>
+    <t>㈱潤和</t>
+  </si>
+  <si>
+    <t>宇佐美　淳子</t>
+  </si>
+  <si>
+    <t>熊本市東区戸島西一丁目5番35号</t>
+  </si>
+  <si>
+    <t>カレーハウスＣｏＣｏ壱番屋　熊本上通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町6-19-1F</t>
+  </si>
+  <si>
+    <t>351-0800</t>
+  </si>
+  <si>
+    <t>(同)アルメリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>坂井　和広</t>
+  </si>
+  <si>
+    <t>熊本市北区高平三丁目36番21号</t>
+  </si>
+  <si>
+    <t>カレーハウスＣｏＣｏ壱番屋　熊本新市街店</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街9-5-1F</t>
+  </si>
+  <si>
+    <t>319-5201</t>
+  </si>
+  <si>
+    <t>ヒライ　京町台店</t>
+  </si>
+  <si>
+    <t>熊本市西区池田1丁目15-53</t>
+  </si>
+  <si>
+    <t>288-0743</t>
+  </si>
+  <si>
+    <t>めん茶屋　明日花</t>
+  </si>
+  <si>
+    <t>熊本市南区近見7丁目12-28</t>
+  </si>
+  <si>
+    <t>尾上　哲矢</t>
+  </si>
+  <si>
+    <t>ママキッチンＫＡＲＯＩ</t>
+  </si>
+  <si>
+    <t>熊本市中央区黒髪5丁目18-16</t>
+  </si>
+  <si>
+    <t>小野寺　久美子</t>
+  </si>
+  <si>
+    <t>餃子の王将西原店</t>
+  </si>
+  <si>
+    <t>熊本市東区西原1丁目11-36</t>
+  </si>
+  <si>
+    <t>385-7290</t>
+  </si>
+  <si>
+    <t>㈱王将フードサービス</t>
+  </si>
+  <si>
+    <t>渡邊　直人</t>
+  </si>
+  <si>
+    <t>京都府京都市山科区西野山射庭ノ上町294-1</t>
+  </si>
+  <si>
+    <t>平安祭典　熊本清水会館</t>
+  </si>
+  <si>
+    <t>熊本市中央区黒髪3丁目5-7</t>
+  </si>
+  <si>
+    <t>346-4194</t>
+  </si>
+  <si>
+    <t>ユウベル㈱</t>
+  </si>
+  <si>
+    <t>上田　一徳</t>
+  </si>
+  <si>
+    <t>熊本市東区尾ノ上二丁目21番10号</t>
+  </si>
+  <si>
+    <t>Ｍａｒ’ｓ　Ｂａｒ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-22ﾋﾟｭｱ西銀座ﾋﾞﾙ2F-204</t>
+  </si>
+  <si>
+    <t>宮﨑　正光</t>
+  </si>
+  <si>
+    <t>自家製麺　きねや</t>
+  </si>
+  <si>
+    <t>370-5101</t>
+  </si>
+  <si>
+    <t>㈱グルメ杵屋</t>
+  </si>
+  <si>
+    <t>椋本　充士</t>
+  </si>
+  <si>
+    <t>大阪府大阪市住之江区北加賀屋三丁目4番7号</t>
+  </si>
+  <si>
+    <t>カフェ・レストランオリジン</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目7-32ｼｬﾜｰｳﾞｧﾚｰﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>212-6899</t>
+  </si>
+  <si>
+    <t>㈾東京荘</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岩崎　京一</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通二丁目7番32号</t>
+  </si>
+  <si>
+    <t>ひとしな</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-15ﾗｲｵﾝﾋﾞﾙ松藤館2F-203</t>
+  </si>
+  <si>
+    <t>尾下　亜希子</t>
+  </si>
+  <si>
+    <t>メディケア癒やし長嶺</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺東2丁目14-38</t>
+  </si>
+  <si>
+    <t>日清医療食品㈱</t>
+  </si>
+  <si>
+    <t>立林　勝美</t>
+  </si>
+  <si>
+    <t>東京都千代田区丸の内二丁目7番3号</t>
+  </si>
+  <si>
+    <t>イワサキエース　島崎店</t>
+  </si>
+  <si>
+    <t>熊本市中央区島崎1丁目29-6</t>
+  </si>
+  <si>
+    <t>359-3377</t>
+  </si>
+  <si>
+    <t>㈱イワサキ</t>
+  </si>
+  <si>
+    <t>岩崎　一敏</t>
+  </si>
+  <si>
+    <t>熊本市中央区本山4丁目4番1号</t>
+  </si>
+  <si>
+    <t>鮮ど市場　白藤店</t>
+  </si>
+  <si>
+    <t>熊本市南区白藤4丁目5-8</t>
+  </si>
+  <si>
+    <t>358-6802</t>
+  </si>
+  <si>
+    <t>居酒屋　まるせん</t>
+  </si>
+  <si>
+    <t>熊本市東区尾ノ上3丁目14-2</t>
+  </si>
+  <si>
+    <t>内田　千秋</t>
+  </si>
+  <si>
+    <t>清正ラーメン</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺南6丁目6-1</t>
+  </si>
+  <si>
+    <t>黒田　伯也</t>
+  </si>
+  <si>
+    <t>百恋</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺南6丁目6-1中田ｱﾊﾟｰﾄ102</t>
+  </si>
+  <si>
+    <t>河野　照子</t>
+  </si>
+  <si>
+    <t>池田屋</t>
+  </si>
+  <si>
+    <t>熊本市中央区黒髪3丁目16-8</t>
+  </si>
+  <si>
+    <t>346-8828</t>
+  </si>
+  <si>
+    <t>㈲ＦＢＯＸ</t>
+  </si>
+  <si>
+    <t>池田　達哉</t>
+  </si>
+  <si>
+    <t>焼肉すどう</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町4-10ﾄﾗﾔﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>288-5729</t>
+  </si>
+  <si>
+    <t>㈱ＹＧＢ</t>
+  </si>
+  <si>
+    <t>須藤　悦男</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町4-10-3F</t>
+  </si>
+  <si>
+    <t>グリル　ドゥ　ＧＹＡＮ</t>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町5-21</t>
+  </si>
+  <si>
+    <t>352-8821</t>
+  </si>
+  <si>
+    <t>㈲パシフィックプロジェクト</t>
+  </si>
+  <si>
+    <t>内田　弘郁</t>
+  </si>
+  <si>
+    <t>熊本市中央区菅原町2-28</t>
+  </si>
+  <si>
+    <t>カンパーニュ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町4-18第3井上ﾋﾞﾙ5F</t>
+  </si>
+  <si>
+    <t>野々川　保</t>
+  </si>
+  <si>
+    <t>ＯＮＥ　ＤＲＯＰ</t>
+  </si>
+  <si>
+    <t>熊本市東区沼山津1丁目1-21</t>
+  </si>
+  <si>
+    <t>331-1106</t>
+  </si>
+  <si>
+    <t>㈲ＳＰＡＣＥ　ＥＣＨＯ</t>
+  </si>
+  <si>
+    <t>花香　美穂</t>
+  </si>
+  <si>
+    <t>炭火酒家　祭音</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-26第一銀杏ﾋﾞﾙ2F-4</t>
+  </si>
+  <si>
+    <t>新田　憲男</t>
+  </si>
+  <si>
+    <t>天ぷら　天重</t>
+  </si>
+  <si>
+    <t>熊本市西区二本木2丁目1-15-1</t>
+  </si>
+  <si>
+    <t>323-5575</t>
+  </si>
+  <si>
+    <t>㈲海老の渡辺</t>
+  </si>
+  <si>
+    <t>渡邉　憲一</t>
+  </si>
+  <si>
+    <t>熊本市西区二本木二丁目1番15-1号</t>
+  </si>
+  <si>
+    <t>田福田</t>
+  </si>
+  <si>
+    <t>熊本市中央区新町2丁目14-4</t>
+  </si>
+  <si>
+    <t>林田　浩季</t>
+  </si>
+  <si>
+    <t>ローソン熊本東野三丁目店</t>
+  </si>
+  <si>
+    <t>熊本市東区東野3丁目1-5</t>
+  </si>
+  <si>
+    <t>368-1034</t>
+  </si>
+  <si>
+    <t>㈱モチーフ</t>
+  </si>
+  <si>
+    <t>川上　裕功</t>
+  </si>
+  <si>
+    <t>上益城郡嘉島町下六嘉3818-6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほっともっと南高江店</t>
+  </si>
+  <si>
+    <t>熊本市南区南高江3丁目2-108</t>
+  </si>
+  <si>
+    <t>佐藤　裕一</t>
+  </si>
+  <si>
+    <t>和食島崎</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目9-29森天会館BF-B</t>
+  </si>
+  <si>
+    <t>鳥井　真衣</t>
+  </si>
+  <si>
+    <t>ファミリーマート上代店</t>
+  </si>
+  <si>
+    <t>熊本市西区上代4丁目13-32</t>
+  </si>
+  <si>
+    <t>312-5900</t>
+  </si>
+  <si>
+    <t>九州産交バス㈱</t>
+  </si>
+  <si>
+    <t>岩﨑　司晃</t>
+  </si>
+  <si>
+    <t>熊本市西区上代四丁目13番34号</t>
+  </si>
+  <si>
+    <t>Ｐａｉｎ　ａｕ　Ｌｅｖａｉｎ(パン・オ・ルヴァン）</t>
+  </si>
+  <si>
+    <t>熊本市東区小峯2丁目2-110</t>
+  </si>
+  <si>
+    <t>285-1858</t>
+  </si>
+  <si>
+    <t>㈲ワールドベーカリー</t>
+  </si>
+  <si>
+    <t>恒松　親一郎</t>
+  </si>
+  <si>
+    <t>馬料理　二代目天國</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-20ｺﾝﾌｫｰﾄのぞみﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>323-1059</t>
+  </si>
+  <si>
+    <t>㈲馬料理専門天國</t>
+  </si>
+  <si>
+    <t>前田　繁俊</t>
+  </si>
+  <si>
+    <t>熊本市西区二本木2丁目13-12</t>
+  </si>
+  <si>
+    <t>ふく泉新市街店</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街1-15西村ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>356-8033</t>
+  </si>
+  <si>
+    <t>㈲ふく泉</t>
+  </si>
+  <si>
+    <t>竹野　孔</t>
+  </si>
+  <si>
+    <t>熊本市南区平田2丁目22-7</t>
+  </si>
+  <si>
+    <t>カラオケハーモット下通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-9ﾆｺﾆｺﾋﾞﾙ5F</t>
+  </si>
+  <si>
+    <t>323-5550</t>
+  </si>
+  <si>
+    <t>㈱ステイブル</t>
+  </si>
+  <si>
+    <t>星野　勝利</t>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町1-11-302</t>
+  </si>
+  <si>
+    <t>縁</t>
+  </si>
+  <si>
+    <t>熊本市東区佐土原1丁目4-25ﾙ･ﾚｻﾞﾝﾋﾞﾙ1F東側</t>
+  </si>
+  <si>
+    <t>㈱肥後美装</t>
+  </si>
+  <si>
+    <t>弓削　大輔</t>
+  </si>
+  <si>
+    <t>熊本県菊池郡菊陽町辛川1922番1</t>
+  </si>
+  <si>
+    <t>割烹　火の国</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-26ﾘﾝｸﾌﾟﾚｲｽﾋﾞﾙ5F</t>
+  </si>
+  <si>
+    <t>353-1592</t>
+  </si>
+  <si>
+    <t>㈱火の国</t>
+  </si>
+  <si>
+    <t>平山　厚枝</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-22</t>
+  </si>
+  <si>
+    <t>セブン-イレブン　熊本インター店</t>
+  </si>
+  <si>
+    <t>熊本市東区御領8丁目2-1</t>
+  </si>
+  <si>
+    <t>389-3010</t>
+  </si>
+  <si>
+    <t>㈲スリーアローズ</t>
+  </si>
+  <si>
+    <t>佐々木　浩也</t>
+  </si>
+  <si>
+    <t>熊本市東区御領8丁目2番1号</t>
+  </si>
+  <si>
+    <t>焼肉ショウ栄</t>
+  </si>
+  <si>
+    <t>熊本市東区小山6丁目20-16</t>
+  </si>
+  <si>
+    <t>上野　政隆</t>
+  </si>
+  <si>
+    <t>ＫＵＴＡＭＡ　サワー</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目6-17ﾓｱｲﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>松浦　藍</t>
+  </si>
+  <si>
+    <t>ごちそう３</t>
+  </si>
+  <si>
+    <t>熊本市東区錦ケ丘5-3</t>
+  </si>
+  <si>
+    <t>松田　啓吾</t>
+  </si>
+  <si>
+    <t>スナックハッピー</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉2丁目6-1ｽﾍﾟｰｽ90-1F</t>
+  </si>
+  <si>
+    <t>小田　尚美</t>
+  </si>
+  <si>
+    <t>瑞花</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町10-8第一丸ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>伊藤　政子</t>
+  </si>
+  <si>
+    <t>焼肉ホルモンくたみや　田崎店</t>
+  </si>
+  <si>
+    <t>熊本市西区春日7丁目25-45ｸﾚﾅｲﾎﾃﾙ1F</t>
+  </si>
+  <si>
+    <t>八代市通町6-53</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おにぎり研究所　ｏｎｉｌａｂｏ</t>
+  </si>
+  <si>
+    <t>熊本市中央区白山1丁目6-65</t>
+  </si>
+  <si>
+    <t>飯村　華代</t>
+  </si>
+  <si>
+    <t>Ｒｅｖｉｖｅ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目5-6ﾋﾟｭｱｺﾞｰﾙﾄﾞﾋﾞﾙ3F-B</t>
+  </si>
+  <si>
+    <t>356-5887</t>
+  </si>
+  <si>
+    <t>㈱オフィスコージー</t>
+  </si>
+  <si>
+    <t>入江　弘治</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通一丁目5番6号</t>
+  </si>
+  <si>
+    <t>ローソン熊本九品寺一丁目店</t>
+  </si>
+  <si>
+    <t>熊本市中央区九品寺1丁目12-16</t>
+  </si>
+  <si>
+    <t>285-9916</t>
+  </si>
+  <si>
+    <t>熊本バル　ポテサラ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目8-18ﾂｲﾝﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>田尻　侑弥</t>
+  </si>
+  <si>
+    <t>串乃助</t>
+  </si>
+  <si>
+    <t>熊本市中央区新町4丁目2-43</t>
+  </si>
+  <si>
+    <t>342-5332</t>
+  </si>
+  <si>
+    <t>㈱ｍａｍｉｒｅｅ</t>
+  </si>
+  <si>
+    <t>木下　雅晴</t>
+  </si>
+  <si>
+    <t>熊本市中央区米屋町1丁目9-1ﾌﾛｰﾚﾝｽ五福ｸﾞﾗﾝﾄﾞｱｰｸ301号</t>
+  </si>
+  <si>
+    <t>スナック蒼空</t>
+  </si>
+  <si>
+    <t>熊本市北区楡木2丁目11-89</t>
+  </si>
+  <si>
+    <t>平山　律子</t>
+  </si>
+  <si>
+    <t>ラーメン魚雷</t>
+  </si>
+  <si>
+    <t>熊本市東区御領8丁目1-3</t>
+  </si>
+  <si>
+    <t>(同)Ｔｈｒｉｖｅ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熊本市中央区坪井2丁目3-37</t>
+  </si>
+  <si>
+    <t>めん六や熊本戸島店</t>
+  </si>
+  <si>
+    <t>熊本市東区戸島西五丁目1番20号</t>
+  </si>
+  <si>
+    <t>㈱日本ヒュウマップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>川野創平</t>
+  </si>
+  <si>
+    <t>東京都荒川区西日暮里5丁目15番7</t>
+  </si>
+  <si>
+    <t>はま寿司　熊本佐土原店</t>
+  </si>
+  <si>
+    <t>熊本市東区佐土原二丁目7番73号</t>
+  </si>
+  <si>
+    <t>㈱はま寿司</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>町野岳</t>
+  </si>
+  <si>
+    <t>東京都港区港南二丁目18番1号</t>
+  </si>
+  <si>
+    <t>ジョリーパスタ　上熊本店</t>
+  </si>
+  <si>
+    <t>熊本市西区上熊本2丁目14-1</t>
+  </si>
+  <si>
+    <t>212-3302</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>㈱ジョリーパスタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>南哲史</t>
+  </si>
+  <si>
+    <t>東京都港区港南2丁目18番1号</t>
+  </si>
+  <si>
+    <t>株式会社ウエスト　世安店</t>
+  </si>
+  <si>
+    <t>熊本市中央区世安町200-3</t>
+  </si>
+  <si>
+    <t>324-7757</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>㈱ウエスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若山和夫</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区三筑1-5-8</t>
+  </si>
+  <si>
+    <t>ＣＨＥＬＡＳ　ＴＡＰＡＳ　＆　ＢＥＥＲ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町11-20</t>
+  </si>
+  <si>
+    <t>原田　明璃</t>
+  </si>
+  <si>
+    <t>インドネパールレストラン＆バー　ＲＥＭＵ</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺5丁目29-11ﾙﾈｻﾝｽﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>東郷　怜夢</t>
+  </si>
+  <si>
+    <t>鰻の成瀬　江津店</t>
+  </si>
+  <si>
+    <t>熊本市東区画図町所島174-1</t>
+  </si>
+  <si>
+    <t>㈲アドバタイズ</t>
+  </si>
+  <si>
+    <t>田端　公一朗</t>
+  </si>
+  <si>
+    <t>熊本市東区新南部3丁目10-54</t>
+  </si>
+  <si>
+    <t>地域コミュニティカフェ　ひな・こたカフェ</t>
+  </si>
+  <si>
+    <t>熊本市北区楡木2丁目4-30</t>
+  </si>
+  <si>
+    <t>㈱五喜</t>
+  </si>
+  <si>
+    <t>渡邉　龍喜</t>
+  </si>
+  <si>
+    <t>熊本市北区楡木二丁目4番30号</t>
+  </si>
+  <si>
+    <t>加藤神社　客殿天城</t>
+  </si>
+  <si>
+    <t>熊本市中央区本丸2-1</t>
+  </si>
+  <si>
+    <t>352-7316</t>
+  </si>
+  <si>
+    <t>㈱トゥエルヴ</t>
+  </si>
+  <si>
+    <t>田淵　しのぶ</t>
+  </si>
+  <si>
+    <t>熊本市南区田迎町田井島734番地1</t>
+  </si>
+  <si>
+    <t>支那そば北熊　植木店</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町植木445-2</t>
+  </si>
+  <si>
+    <t>宮本　真宏</t>
+  </si>
+  <si>
+    <t>くんせい屋　燻樹</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目4-14</t>
+  </si>
+  <si>
+    <t>仲矢　亜紀</t>
+  </si>
+  <si>
+    <t>Ｐｕｂ　ペガサス</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町12-8銀杏会館ﾋﾞﾙ4F-401</t>
+  </si>
+  <si>
+    <t>FUKADA ANNA  MARIE BOHOLST</t>
+  </si>
+  <si>
+    <t>にじいろ　Ｃｏｏｋｉｅ　Ｈｏｕｓｅ</t>
+  </si>
+  <si>
+    <t>熊本市中央区本荘5丁目4-24-1</t>
+  </si>
+  <si>
+    <t>廣瀬　砂織</t>
+  </si>
+  <si>
+    <t>ＭＩＸＴＵＲＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区中央街7-7田代ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>梶原　亨介</t>
+  </si>
+  <si>
+    <t>ＡＴＨＥＮＡ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-11ASOﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>㈱Ｒａｄ　ｄａｄｄｙ</t>
+  </si>
+  <si>
+    <t>中島　幸一</t>
+  </si>
+  <si>
+    <t>熊本市西区二本木三丁目4番22号1001</t>
+  </si>
+  <si>
+    <t>おむすび釜戸</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町6-1鶴屋百貨店本館B1惣菜</t>
+  </si>
+  <si>
+    <t>㈱グランデ</t>
+  </si>
+  <si>
+    <t>畑中　翔太</t>
+  </si>
+  <si>
+    <t>福岡県福岡市中央区大手門3-5-18ｱﾊﾟﾙﾄﾒﾝﾄｴｸｾﾚﾝｻ1F</t>
+  </si>
+  <si>
+    <t>Ｗｏｎｄｅｒｆｕｌ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-12ｳﾞｨｱｷﾑﾗﾋﾞﾙ3-C</t>
+  </si>
+  <si>
+    <t>吉田　辰尋</t>
+  </si>
+  <si>
+    <t>花つぼみ</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山9丁目3-10</t>
+  </si>
+  <si>
+    <t>381-8700</t>
+  </si>
+  <si>
+    <t>㈱花味亭</t>
+  </si>
+  <si>
+    <t>松谷　憲一</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山9丁目3-9</t>
+  </si>
+  <si>
+    <t>ＯＶＥＲ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-23TM25ﾋﾞﾙ6F全号</t>
+  </si>
+  <si>
+    <t>光永　聖也</t>
+  </si>
+  <si>
+    <t>熊本市現代美術館</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町2-3</t>
+  </si>
+  <si>
+    <t>278-7500</t>
+  </si>
+  <si>
+    <t>公益財団法人熊本市美術文化振興財団</t>
+  </si>
+  <si>
+    <t>松石　龍太郎</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町2番3号</t>
+  </si>
+  <si>
+    <t>和三</t>
+  </si>
+  <si>
+    <t>熊本市西区上代1丁目2-27ﾌﾗﾜｰﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>329-7978</t>
+  </si>
+  <si>
+    <t>㈱Ｓｈｉ－ｔａｎ</t>
+  </si>
+  <si>
+    <t>山本　静湖</t>
+  </si>
+  <si>
+    <t>熊本市西区松尾二丁目1番3号</t>
+  </si>
+  <si>
+    <t>路地灯り</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-22ﾋﾟｭｱ西銀座ﾋﾞﾙB1-2</t>
+  </si>
+  <si>
+    <t>川添　有真</t>
+  </si>
+  <si>
+    <t>農薬ゼロのだいしん農園</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町田底1670-2</t>
+  </si>
+  <si>
+    <t>楠田　大伸</t>
+  </si>
+  <si>
+    <t>らぁめん一白</t>
+  </si>
+  <si>
+    <t>熊本市中央区白山2丁目11-19冨永ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>豊田　英治</t>
+  </si>
+  <si>
+    <t>ＤＯＴ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目5-6ﾋﾟｭｱｺﾞｰﾙﾄﾞﾋﾞﾙ7F-B</t>
+  </si>
+  <si>
+    <t>柿原　幸</t>
+  </si>
+  <si>
+    <t>焼肉　幻影</t>
+  </si>
+  <si>
+    <t>熊本市北区清水亀井町28-1</t>
+  </si>
+  <si>
+    <t>上川畑　諒</t>
+  </si>
+  <si>
+    <t>ダイニング　ひととき</t>
+  </si>
+  <si>
+    <t>熊本市中央区水道町2-15SANTABLD.2F-201</t>
+  </si>
+  <si>
+    <t>加来　由美子</t>
+  </si>
+  <si>
+    <t>Ｌ′ｓ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町1-14a＆m花畑102</t>
+  </si>
+  <si>
+    <t>都甲　英樹</t>
+  </si>
+  <si>
+    <t>ジョイフル　黒髪店</t>
+  </si>
+  <si>
+    <t>熊本市中央区黒髪1丁目9-33</t>
+  </si>
+  <si>
+    <t>345-8350</t>
+  </si>
+  <si>
+    <t>ファンビットフード㈱</t>
+  </si>
+  <si>
+    <t>森嶋　光重</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山九丁目1番7号</t>
+  </si>
+  <si>
+    <t>デイリーヤマザキ熊本本山店</t>
+  </si>
+  <si>
+    <t>熊本市中央区本山4丁目7-1</t>
+  </si>
+  <si>
+    <t>田上　広典</t>
+  </si>
+  <si>
+    <t>ＴＯＲＩＤＯＲＩ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町6-8</t>
+  </si>
+  <si>
+    <t>288-1488</t>
+  </si>
+  <si>
+    <t>(同)ｔｕｇｕ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中村　圭佑</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1-6-4</t>
+  </si>
+  <si>
+    <t>サーティワンアイスクリーム　アミュプラザ熊本店</t>
+  </si>
+  <si>
+    <t>熊本市西区春日3丁目15-26アミュプラザ熊本</t>
+  </si>
+  <si>
+    <t>227-7731</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>㈱イートスタイル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柊崎庄二</t>
+  </si>
+  <si>
+    <t>宮崎県小林市細野288番地1</t>
+  </si>
+  <si>
+    <t>寿司じじや　東バイパス店</t>
+  </si>
+  <si>
+    <t>熊本市東区下南部3丁目13-43</t>
+  </si>
+  <si>
+    <t>283-1155</t>
+  </si>
+  <si>
+    <t>熊本市中央区本山町211番地3</t>
+  </si>
+  <si>
+    <t>おきのじょう</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-8甲斐ﾋﾞﾙ2F-4</t>
+  </si>
+  <si>
+    <t>川口　翔太郎</t>
+  </si>
+  <si>
+    <t>セブン-イレブン熊本下通</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-1</t>
+  </si>
+  <si>
+    <t>325-0012</t>
+  </si>
+  <si>
+    <t>(同)Ｎ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中村　大紀</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通一丁目10番1号</t>
+  </si>
+  <si>
+    <t>ＯＨ　ＫＯＬＫＡＴＡ</t>
+  </si>
+  <si>
+    <t>熊本市中央区米屋町2丁目15</t>
+  </si>
+  <si>
+    <t>㈱ＢＤ　ＩＮＴＥＲＮＡＴＩＯＮＡＬ</t>
+  </si>
+  <si>
+    <t>デブ　バスカル</t>
+  </si>
+  <si>
+    <t>神奈川県相模原市中央区宮下本町二丁目10番8号</t>
+  </si>
+  <si>
+    <t>Ｍｕｓｉｃ　Ｂａｒ　ＥＰＩＣ</t>
+  </si>
+  <si>
+    <t>熊本市中央区中央街1-29JackﾋﾞﾙBF</t>
+  </si>
+  <si>
+    <t>㈱エピック</t>
+  </si>
+  <si>
+    <t>岩﨑　将典</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺南四丁目1-38-506</t>
+  </si>
+  <si>
+    <t>遊</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江4丁目9-13</t>
+  </si>
+  <si>
+    <t>㈱オフィス田村</t>
+  </si>
+  <si>
+    <t>田村　正</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江四丁目9番13号</t>
+  </si>
+  <si>
+    <t>まごころ弁当　マルシェ店</t>
+  </si>
+  <si>
+    <t>熊本市西区城山大塘2丁目2-10</t>
+  </si>
+  <si>
+    <t>311-4568</t>
+  </si>
+  <si>
+    <t>㈱まごころマルシェ</t>
+  </si>
+  <si>
+    <t>吉平　文記</t>
+  </si>
+  <si>
+    <t>熊本市西区城山大塘二丁目2番10号</t>
+  </si>
+  <si>
+    <t>THE KITCHEN 168</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町2-15河野ビル1階</t>
+  </si>
+  <si>
+    <t>CYM Trading(同)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陳永明</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目3-8下通NSビル6F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＡＶＥＮＴＵＲＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-8FLAGSﾋﾞﾙB1</t>
+  </si>
+  <si>
+    <t>江口　諒</t>
+  </si>
+  <si>
+    <t>Ｌｉｔ</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町6-1ﾛｳｶｽ三年坂ﾋﾞﾙ5F-B</t>
+  </si>
+  <si>
+    <t>吉田　典子</t>
+  </si>
+  <si>
+    <t>力士料理　にしき</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-19辰巳苑ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>正代　邦明</t>
+  </si>
+  <si>
+    <t>アルバロッソ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-14MH-5ﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>豊田　聖人</t>
+  </si>
+  <si>
+    <t>８とり</t>
+  </si>
+  <si>
+    <t>熊本市西区上高橋1丁目3-18山彦ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>伊賀　俊介</t>
+  </si>
+  <si>
+    <t>花みづき</t>
+  </si>
+  <si>
+    <t>熊本市東区東本町1-71ﾀﾞｲﾜﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>柳瀬　雅代</t>
+  </si>
+  <si>
+    <t>ヒライ　戸島店</t>
+  </si>
+  <si>
+    <t>熊本市東区戸島町小山桃尾458</t>
+  </si>
+  <si>
+    <t>380-8947</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>㈱ヒライ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平井浩一郎</t>
+  </si>
+  <si>
+    <t>熊本市西区春日7丁目26-70</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -4495,11 +6024,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4511,10 +6041,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_生データ" xfId="1" xr:uid="{A1153281-7A20-4085-8B5A-1B259552DBE5}"/>
+    <cellStyle name="標準_生データ_1" xfId="2" xr:uid="{BA11EA2A-36E0-45A3-B903-9B84D94B4D6B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8231,7 +9779,7 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C3:C4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -15033,7 +16581,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -16962,7 +18510,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -18459,4 +20007,4786 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DAAA3D-37B2-4151-BBC7-10675645A12B}">
+  <dimension ref="A1:N120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="8" width="8.6640625" style="3"/>
+    <col min="9" max="9" width="14.1640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="13" customWidth="1"/>
+    <col min="11" max="13" width="13.58203125" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="10" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I2" s="11">
+        <v>45456</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45476</v>
+      </c>
+      <c r="K2" s="5">
+        <v>45476</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M2" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="11">
+        <v>45485</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45490</v>
+      </c>
+      <c r="K3" s="5">
+        <v>45490</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M3" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I4" s="11">
+        <v>45489</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45492</v>
+      </c>
+      <c r="K4" s="5">
+        <v>45492</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M4" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="11">
+        <v>45489</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45496</v>
+      </c>
+      <c r="K5" s="5">
+        <v>45496</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M5" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I6" s="11">
+        <v>45490</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45512</v>
+      </c>
+      <c r="K6" s="5">
+        <v>45512</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M6" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I7" s="11">
+        <v>45495</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45499</v>
+      </c>
+      <c r="K7" s="5">
+        <v>45499</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M7" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="11">
+        <v>45496</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45498</v>
+      </c>
+      <c r="K8" s="5">
+        <v>45498</v>
+      </c>
+      <c r="L8" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M8" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="I9" s="11">
+        <v>45496</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45502</v>
+      </c>
+      <c r="K9" s="5">
+        <v>45502</v>
+      </c>
+      <c r="L9" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M9" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="11">
+        <v>45496</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45499</v>
+      </c>
+      <c r="K10" s="5">
+        <v>45499</v>
+      </c>
+      <c r="L10" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M10" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11">
+        <v>45496</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45520</v>
+      </c>
+      <c r="K11" s="5">
+        <v>45520</v>
+      </c>
+      <c r="L11" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M11" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I12" s="11">
+        <v>45497</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45505</v>
+      </c>
+      <c r="K12" s="5">
+        <v>45505</v>
+      </c>
+      <c r="L12" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M12" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11">
+        <v>45498</v>
+      </c>
+      <c r="J13" s="5">
+        <v>45505</v>
+      </c>
+      <c r="K13" s="5">
+        <v>45505</v>
+      </c>
+      <c r="L13" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M13" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="11">
+        <v>45499</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45523</v>
+      </c>
+      <c r="K14" s="5">
+        <v>45523</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M14" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.5" customHeight="1">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I15" s="11">
+        <v>45502</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45510</v>
+      </c>
+      <c r="K15" s="5">
+        <v>45510</v>
+      </c>
+      <c r="L15" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M15" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I16" s="11">
+        <v>45502</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45510</v>
+      </c>
+      <c r="K16" s="5">
+        <v>45510</v>
+      </c>
+      <c r="L16" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M16" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11">
+        <v>45503</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45504</v>
+      </c>
+      <c r="K17" s="5">
+        <v>45504</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M17" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11">
+        <v>45503</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45509</v>
+      </c>
+      <c r="K18" s="5">
+        <v>45509</v>
+      </c>
+      <c r="L18" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M18" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11">
+        <v>45503</v>
+      </c>
+      <c r="J19" s="5">
+        <v>45511</v>
+      </c>
+      <c r="K19" s="5">
+        <v>45511</v>
+      </c>
+      <c r="L19" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M19" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="11">
+        <v>45503</v>
+      </c>
+      <c r="J20" s="5">
+        <v>45527</v>
+      </c>
+      <c r="K20" s="5">
+        <v>45527</v>
+      </c>
+      <c r="L20" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M20" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11">
+        <v>45503</v>
+      </c>
+      <c r="J21" s="5">
+        <v>45504</v>
+      </c>
+      <c r="K21" s="5">
+        <v>45504</v>
+      </c>
+      <c r="L21" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M21" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11">
+        <v>45504</v>
+      </c>
+      <c r="J22" s="5">
+        <v>45518</v>
+      </c>
+      <c r="K22" s="5">
+        <v>45518</v>
+      </c>
+      <c r="L22" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M22" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="I23" s="11">
+        <v>45504</v>
+      </c>
+      <c r="J23" s="5">
+        <v>45518</v>
+      </c>
+      <c r="K23" s="5">
+        <v>45518</v>
+      </c>
+      <c r="L23" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M23" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I24" s="11">
+        <v>45504</v>
+      </c>
+      <c r="J24" s="5">
+        <v>45512</v>
+      </c>
+      <c r="K24" s="5">
+        <v>45512</v>
+      </c>
+      <c r="L24" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M24" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I25" s="11">
+        <v>45505</v>
+      </c>
+      <c r="J25" s="5">
+        <v>45512</v>
+      </c>
+      <c r="K25" s="5">
+        <v>45512</v>
+      </c>
+      <c r="L25" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M25" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I26" s="11">
+        <v>45505</v>
+      </c>
+      <c r="J26" s="5">
+        <v>45509</v>
+      </c>
+      <c r="K26" s="5">
+        <v>45509</v>
+      </c>
+      <c r="L26" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M26" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="11">
+        <v>45506</v>
+      </c>
+      <c r="J27" s="5">
+        <v>45526</v>
+      </c>
+      <c r="K27" s="5">
+        <v>45526</v>
+      </c>
+      <c r="L27" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M27" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="11">
+        <v>45506</v>
+      </c>
+      <c r="J28" s="5">
+        <v>45512</v>
+      </c>
+      <c r="K28" s="5">
+        <v>45512</v>
+      </c>
+      <c r="L28" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M28" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="11">
+        <v>45509</v>
+      </c>
+      <c r="J29" s="5">
+        <v>45525</v>
+      </c>
+      <c r="K29" s="5">
+        <v>45525</v>
+      </c>
+      <c r="L29" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M29" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I30" s="11">
+        <v>45509</v>
+      </c>
+      <c r="J30" s="5">
+        <v>45518</v>
+      </c>
+      <c r="K30" s="5">
+        <v>45518</v>
+      </c>
+      <c r="L30" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M30" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I31" s="11">
+        <v>45510</v>
+      </c>
+      <c r="J31" s="5">
+        <v>45525</v>
+      </c>
+      <c r="K31" s="5">
+        <v>45525</v>
+      </c>
+      <c r="L31" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M31" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="11">
+        <v>45510</v>
+      </c>
+      <c r="J32" s="5">
+        <v>45511</v>
+      </c>
+      <c r="K32" s="5">
+        <v>45511</v>
+      </c>
+      <c r="L32" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M32" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I33" s="11">
+        <v>45511</v>
+      </c>
+      <c r="J33" s="5">
+        <v>45523</v>
+      </c>
+      <c r="K33" s="5">
+        <v>45523</v>
+      </c>
+      <c r="L33" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M33" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I34" s="11">
+        <v>45511</v>
+      </c>
+      <c r="J34" s="5">
+        <v>45527</v>
+      </c>
+      <c r="K34" s="5">
+        <v>45527</v>
+      </c>
+      <c r="L34" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M34" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="11">
+        <v>45511</v>
+      </c>
+      <c r="J35" s="5">
+        <v>45524</v>
+      </c>
+      <c r="K35" s="5">
+        <v>45524</v>
+      </c>
+      <c r="L35" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M35" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I36" s="11">
+        <v>45511</v>
+      </c>
+      <c r="J36" s="5">
+        <v>45536</v>
+      </c>
+      <c r="K36" s="5">
+        <v>45536</v>
+      </c>
+      <c r="L36" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M36" s="5">
+        <v>48182</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I37" s="11">
+        <v>45512</v>
+      </c>
+      <c r="J37" s="5">
+        <v>45519</v>
+      </c>
+      <c r="K37" s="5">
+        <v>45519</v>
+      </c>
+      <c r="L37" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M37" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="I38" s="11">
+        <v>45513</v>
+      </c>
+      <c r="J38" s="5">
+        <v>45525</v>
+      </c>
+      <c r="K38" s="5">
+        <v>45525</v>
+      </c>
+      <c r="L38" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M38" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="11">
+        <v>45517</v>
+      </c>
+      <c r="J39" s="5">
+        <v>45519</v>
+      </c>
+      <c r="K39" s="5">
+        <v>45519</v>
+      </c>
+      <c r="L39" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M39" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="11">
+        <v>45518</v>
+      </c>
+      <c r="J40" s="5">
+        <v>45518</v>
+      </c>
+      <c r="K40" s="5">
+        <v>45518</v>
+      </c>
+      <c r="L40" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M40" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="11">
+        <v>45518</v>
+      </c>
+      <c r="J41" s="5">
+        <v>45518</v>
+      </c>
+      <c r="K41" s="5">
+        <v>45518</v>
+      </c>
+      <c r="L41" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M41" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I42" s="11">
+        <v>45519</v>
+      </c>
+      <c r="J42" s="5">
+        <v>45519</v>
+      </c>
+      <c r="K42" s="5">
+        <v>45519</v>
+      </c>
+      <c r="L42" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M42" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I43" s="11">
+        <v>45519</v>
+      </c>
+      <c r="J43" s="5">
+        <v>45531</v>
+      </c>
+      <c r="K43" s="5">
+        <v>45531</v>
+      </c>
+      <c r="L43" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M43" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I44" s="11">
+        <v>45523</v>
+      </c>
+      <c r="J44" s="5">
+        <v>45526</v>
+      </c>
+      <c r="K44" s="5">
+        <v>45526</v>
+      </c>
+      <c r="L44" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M44" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="11">
+        <v>45523</v>
+      </c>
+      <c r="J45" s="5">
+        <v>45530</v>
+      </c>
+      <c r="K45" s="5">
+        <v>45530</v>
+      </c>
+      <c r="L45" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M45" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I46" s="11">
+        <v>45524</v>
+      </c>
+      <c r="J46" s="5">
+        <v>45527</v>
+      </c>
+      <c r="K46" s="5">
+        <v>45527</v>
+      </c>
+      <c r="L46" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M46" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="11">
+        <v>45524</v>
+      </c>
+      <c r="J47" s="5">
+        <v>45531</v>
+      </c>
+      <c r="K47" s="5">
+        <v>45531</v>
+      </c>
+      <c r="L47" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M47" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I48" s="11">
+        <v>45524</v>
+      </c>
+      <c r="J48" s="5">
+        <v>45524</v>
+      </c>
+      <c r="K48" s="5">
+        <v>45524</v>
+      </c>
+      <c r="L48" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M48" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="11">
+        <v>45526</v>
+      </c>
+      <c r="J49" s="5">
+        <v>45527</v>
+      </c>
+      <c r="K49" s="5">
+        <v>45527</v>
+      </c>
+      <c r="L49" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M49" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I50" s="11">
+        <v>45526</v>
+      </c>
+      <c r="J50" s="5">
+        <v>45530</v>
+      </c>
+      <c r="K50" s="5">
+        <v>45530</v>
+      </c>
+      <c r="L50" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M50" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="11">
+        <v>45526</v>
+      </c>
+      <c r="J51" s="5">
+        <v>45526</v>
+      </c>
+      <c r="K51" s="5">
+        <v>45526</v>
+      </c>
+      <c r="L51" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M51" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="11">
+        <v>45526</v>
+      </c>
+      <c r="J52" s="5">
+        <v>45526</v>
+      </c>
+      <c r="K52" s="5">
+        <v>45526</v>
+      </c>
+      <c r="L52" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M52" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I53" s="11">
+        <v>45526</v>
+      </c>
+      <c r="J53" s="5">
+        <v>45526</v>
+      </c>
+      <c r="K53" s="5">
+        <v>45526</v>
+      </c>
+      <c r="L53" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M53" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I54" s="11">
+        <v>45526</v>
+      </c>
+      <c r="J54" s="5">
+        <v>45526</v>
+      </c>
+      <c r="K54" s="5">
+        <v>45526</v>
+      </c>
+      <c r="L54" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M54" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I55" s="11">
+        <v>45527</v>
+      </c>
+      <c r="J55" s="5">
+        <v>45530</v>
+      </c>
+      <c r="K55" s="5">
+        <v>45530</v>
+      </c>
+      <c r="L55" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M55" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I56" s="11">
+        <v>45527</v>
+      </c>
+      <c r="J56" s="5">
+        <v>45531</v>
+      </c>
+      <c r="K56" s="5">
+        <v>45531</v>
+      </c>
+      <c r="L56" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M56" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I57" s="11">
+        <v>45527</v>
+      </c>
+      <c r="J57" s="5">
+        <v>45527</v>
+      </c>
+      <c r="K57" s="5">
+        <v>45527</v>
+      </c>
+      <c r="L57" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M57" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I58" s="11">
+        <v>45527</v>
+      </c>
+      <c r="J58" s="5">
+        <v>45527</v>
+      </c>
+      <c r="K58" s="5">
+        <v>45527</v>
+      </c>
+      <c r="L58" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M58" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I59" s="11">
+        <v>45530</v>
+      </c>
+      <c r="J59" s="5">
+        <v>45530</v>
+      </c>
+      <c r="K59" s="5">
+        <v>45530</v>
+      </c>
+      <c r="L59" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M59" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="I60" s="11">
+        <v>45530</v>
+      </c>
+      <c r="J60" s="5">
+        <v>45530</v>
+      </c>
+      <c r="K60" s="5">
+        <v>45530</v>
+      </c>
+      <c r="L60" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M60" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="11">
+        <v>45531</v>
+      </c>
+      <c r="J61" s="5">
+        <v>45531</v>
+      </c>
+      <c r="K61" s="5">
+        <v>45531</v>
+      </c>
+      <c r="L61" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M61" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="11">
+        <v>45531</v>
+      </c>
+      <c r="J62" s="5">
+        <v>45531</v>
+      </c>
+      <c r="K62" s="5">
+        <v>45531</v>
+      </c>
+      <c r="L62" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M62" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="11">
+        <v>45531</v>
+      </c>
+      <c r="J63" s="5">
+        <v>45531</v>
+      </c>
+      <c r="K63" s="5">
+        <v>45531</v>
+      </c>
+      <c r="L63" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M63" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="11">
+        <v>45532</v>
+      </c>
+      <c r="J64" s="5">
+        <v>45532</v>
+      </c>
+      <c r="K64" s="5">
+        <v>45532</v>
+      </c>
+      <c r="L64" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M64" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="11">
+        <v>45532</v>
+      </c>
+      <c r="J65" s="5">
+        <v>45532</v>
+      </c>
+      <c r="K65" s="5">
+        <v>45532</v>
+      </c>
+      <c r="L65" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M65" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I66" s="11">
+        <v>45532</v>
+      </c>
+      <c r="J66" s="5">
+        <v>45532</v>
+      </c>
+      <c r="K66" s="5">
+        <v>45532</v>
+      </c>
+      <c r="L66" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M66" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="11">
+        <v>45532</v>
+      </c>
+      <c r="J67" s="5">
+        <v>45532</v>
+      </c>
+      <c r="K67" s="5">
+        <v>45532</v>
+      </c>
+      <c r="L67" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M67" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I68" s="11">
+        <v>45537</v>
+      </c>
+      <c r="J68" s="5">
+        <v>45537</v>
+      </c>
+      <c r="K68" s="5">
+        <v>45537</v>
+      </c>
+      <c r="L68" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M68" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I69" s="11">
+        <v>45537</v>
+      </c>
+      <c r="J69" s="5">
+        <v>45537</v>
+      </c>
+      <c r="K69" s="5">
+        <v>45537</v>
+      </c>
+      <c r="L69" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M69" s="5">
+        <v>48091</v>
+      </c>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="11">
+        <v>45537</v>
+      </c>
+      <c r="J70" s="5">
+        <v>45537</v>
+      </c>
+      <c r="K70" s="5">
+        <v>45537</v>
+      </c>
+      <c r="L70" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M70" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I71" s="11">
+        <v>45537</v>
+      </c>
+      <c r="J71" s="5">
+        <v>45537</v>
+      </c>
+      <c r="K71" s="5">
+        <v>45537</v>
+      </c>
+      <c r="L71" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M71" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="11">
+        <v>45537</v>
+      </c>
+      <c r="J72" s="5">
+        <v>45537</v>
+      </c>
+      <c r="K72" s="5">
+        <v>45537</v>
+      </c>
+      <c r="L72" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M72" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="I73" s="11">
+        <v>45537</v>
+      </c>
+      <c r="J73" s="5">
+        <v>45537</v>
+      </c>
+      <c r="K73" s="5">
+        <v>45537</v>
+      </c>
+      <c r="L73" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M73" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I74" s="11">
+        <v>45484</v>
+      </c>
+      <c r="J74" s="5">
+        <v>45497</v>
+      </c>
+      <c r="K74" s="5">
+        <v>45497</v>
+      </c>
+      <c r="L74" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M74" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I75" s="11">
+        <v>45499</v>
+      </c>
+      <c r="J75" s="5">
+        <v>45505</v>
+      </c>
+      <c r="K75" s="5">
+        <v>45505</v>
+      </c>
+      <c r="L75" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M75" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I76" s="11">
+        <v>45509</v>
+      </c>
+      <c r="J76" s="5">
+        <v>45524</v>
+      </c>
+      <c r="K76" s="5">
+        <v>45524</v>
+      </c>
+      <c r="L76" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M76" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="I77" s="11">
+        <v>45524</v>
+      </c>
+      <c r="J77" s="5">
+        <v>45530</v>
+      </c>
+      <c r="K77" s="5">
+        <v>45530</v>
+      </c>
+      <c r="L77" s="5">
+        <v>45536</v>
+      </c>
+      <c r="M77" s="5">
+        <v>47726</v>
+      </c>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="11">
+        <v>45512</v>
+      </c>
+      <c r="J78" s="5">
+        <v>45537</v>
+      </c>
+      <c r="K78" s="5">
+        <v>45537</v>
+      </c>
+      <c r="L78" s="5">
+        <v>45537</v>
+      </c>
+      <c r="M78" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="11">
+        <v>45519</v>
+      </c>
+      <c r="J79" s="5">
+        <v>45537</v>
+      </c>
+      <c r="K79" s="5">
+        <v>45537</v>
+      </c>
+      <c r="L79" s="5">
+        <v>45537</v>
+      </c>
+      <c r="M79" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I80" s="11">
+        <v>45525</v>
+      </c>
+      <c r="J80" s="5">
+        <v>45537</v>
+      </c>
+      <c r="K80" s="5">
+        <v>45537</v>
+      </c>
+      <c r="L80" s="5">
+        <v>45537</v>
+      </c>
+      <c r="M80" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I81" s="11">
+        <v>45526</v>
+      </c>
+      <c r="J81" s="5">
+        <v>45537</v>
+      </c>
+      <c r="K81" s="5">
+        <v>45537</v>
+      </c>
+      <c r="L81" s="5">
+        <v>45537</v>
+      </c>
+      <c r="M81" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="I82" s="11">
+        <v>45530</v>
+      </c>
+      <c r="J82" s="5">
+        <v>45537</v>
+      </c>
+      <c r="K82" s="5">
+        <v>45537</v>
+      </c>
+      <c r="L82" s="5">
+        <v>45537</v>
+      </c>
+      <c r="M82" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="11">
+        <v>45512</v>
+      </c>
+      <c r="J83" s="5">
+        <v>45538</v>
+      </c>
+      <c r="K83" s="5">
+        <v>45538</v>
+      </c>
+      <c r="L83" s="5">
+        <v>45538</v>
+      </c>
+      <c r="M83" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>1792</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="11">
+        <v>45513</v>
+      </c>
+      <c r="J84" s="5">
+        <v>45538</v>
+      </c>
+      <c r="K84" s="5">
+        <v>45538</v>
+      </c>
+      <c r="L84" s="5">
+        <v>45538</v>
+      </c>
+      <c r="M84" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="11">
+        <v>45537</v>
+      </c>
+      <c r="J85" s="5">
+        <v>45538</v>
+      </c>
+      <c r="K85" s="5">
+        <v>45538</v>
+      </c>
+      <c r="L85" s="5">
+        <v>45538</v>
+      </c>
+      <c r="M85" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="11">
+        <v>45530</v>
+      </c>
+      <c r="J86" s="5">
+        <v>45539</v>
+      </c>
+      <c r="K86" s="5">
+        <v>45539</v>
+      </c>
+      <c r="L86" s="5">
+        <v>45539</v>
+      </c>
+      <c r="M86" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="11">
+        <v>45537</v>
+      </c>
+      <c r="J87" s="5">
+        <v>45539</v>
+      </c>
+      <c r="K87" s="5">
+        <v>45539</v>
+      </c>
+      <c r="L87" s="5">
+        <v>45539</v>
+      </c>
+      <c r="M87" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I88" s="11">
+        <v>45537</v>
+      </c>
+      <c r="J88" s="5">
+        <v>45539</v>
+      </c>
+      <c r="K88" s="5">
+        <v>45539</v>
+      </c>
+      <c r="L88" s="5">
+        <v>45539</v>
+      </c>
+      <c r="M88" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>1810</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="I89" s="11">
+        <v>45537</v>
+      </c>
+      <c r="J89" s="5">
+        <v>45539</v>
+      </c>
+      <c r="K89" s="5">
+        <v>45539</v>
+      </c>
+      <c r="L89" s="5">
+        <v>45539</v>
+      </c>
+      <c r="M89" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="11">
+        <v>45538</v>
+      </c>
+      <c r="J90" s="5">
+        <v>45539</v>
+      </c>
+      <c r="K90" s="5">
+        <v>45539</v>
+      </c>
+      <c r="L90" s="5">
+        <v>45539</v>
+      </c>
+      <c r="M90" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="I91" s="11">
+        <v>45538</v>
+      </c>
+      <c r="J91" s="5">
+        <v>45540</v>
+      </c>
+      <c r="K91" s="5">
+        <v>45540</v>
+      </c>
+      <c r="L91" s="5">
+        <v>45540</v>
+      </c>
+      <c r="M91" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="11">
+        <v>45539</v>
+      </c>
+      <c r="J92" s="5">
+        <v>45540</v>
+      </c>
+      <c r="K92" s="5">
+        <v>45540</v>
+      </c>
+      <c r="L92" s="5">
+        <v>45540</v>
+      </c>
+      <c r="M92" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I93" s="11">
+        <v>45540</v>
+      </c>
+      <c r="J93" s="5">
+        <v>45540</v>
+      </c>
+      <c r="K93" s="5">
+        <v>45540</v>
+      </c>
+      <c r="L93" s="5">
+        <v>45540</v>
+      </c>
+      <c r="M93" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="I94" s="11">
+        <v>45537</v>
+      </c>
+      <c r="J94" s="5">
+        <v>45541</v>
+      </c>
+      <c r="K94" s="5">
+        <v>45541</v>
+      </c>
+      <c r="L94" s="5">
+        <v>45541</v>
+      </c>
+      <c r="M94" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="11">
+        <v>45539</v>
+      </c>
+      <c r="J95" s="5">
+        <v>45541</v>
+      </c>
+      <c r="K95" s="5">
+        <v>45541</v>
+      </c>
+      <c r="L95" s="5">
+        <v>45541</v>
+      </c>
+      <c r="M95" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="11">
+        <v>45483</v>
+      </c>
+      <c r="J96" s="5">
+        <v>45544</v>
+      </c>
+      <c r="K96" s="5">
+        <v>45544</v>
+      </c>
+      <c r="L96" s="5">
+        <v>45544</v>
+      </c>
+      <c r="M96" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="11">
+        <v>45540</v>
+      </c>
+      <c r="J97" s="5">
+        <v>45545</v>
+      </c>
+      <c r="K97" s="5">
+        <v>45545</v>
+      </c>
+      <c r="L97" s="5">
+        <v>45545</v>
+      </c>
+      <c r="M97" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="11">
+        <v>45539</v>
+      </c>
+      <c r="J98" s="5">
+        <v>45547</v>
+      </c>
+      <c r="K98" s="5">
+        <v>45547</v>
+      </c>
+      <c r="L98" s="5">
+        <v>45547</v>
+      </c>
+      <c r="M98" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="11">
+        <v>45544</v>
+      </c>
+      <c r="J99" s="5">
+        <v>45547</v>
+      </c>
+      <c r="K99" s="5">
+        <v>45547</v>
+      </c>
+      <c r="L99" s="5">
+        <v>45547</v>
+      </c>
+      <c r="M99" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="11">
+        <v>45503</v>
+      </c>
+      <c r="J100" s="5">
+        <v>45548</v>
+      </c>
+      <c r="K100" s="5">
+        <v>45548</v>
+      </c>
+      <c r="L100" s="5">
+        <v>45548</v>
+      </c>
+      <c r="M100" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="11">
+        <v>45537</v>
+      </c>
+      <c r="J101" s="5">
+        <v>45548</v>
+      </c>
+      <c r="K101" s="5">
+        <v>45548</v>
+      </c>
+      <c r="L101" s="5">
+        <v>45548</v>
+      </c>
+      <c r="M101" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>1861</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I102" s="11">
+        <v>45544</v>
+      </c>
+      <c r="J102" s="5">
+        <v>45548</v>
+      </c>
+      <c r="K102" s="5">
+        <v>45548</v>
+      </c>
+      <c r="L102" s="5">
+        <v>45548</v>
+      </c>
+      <c r="M102" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="11">
+        <v>45547</v>
+      </c>
+      <c r="J103" s="5">
+        <v>45548</v>
+      </c>
+      <c r="K103" s="5">
+        <v>45548</v>
+      </c>
+      <c r="L103" s="5">
+        <v>45548</v>
+      </c>
+      <c r="M103" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I104" s="11">
+        <v>45547</v>
+      </c>
+      <c r="J104" s="5">
+        <v>45548</v>
+      </c>
+      <c r="K104" s="5">
+        <v>45548</v>
+      </c>
+      <c r="L104" s="5">
+        <v>45548</v>
+      </c>
+      <c r="M104" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I105" s="11">
+        <v>45523</v>
+      </c>
+      <c r="J105" s="5">
+        <v>45548</v>
+      </c>
+      <c r="K105" s="5">
+        <v>45548</v>
+      </c>
+      <c r="L105" s="5">
+        <v>45548</v>
+      </c>
+      <c r="M105" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="I106" s="11">
+        <v>45548</v>
+      </c>
+      <c r="J106" s="5">
+        <v>45552</v>
+      </c>
+      <c r="K106" s="5">
+        <v>45552</v>
+      </c>
+      <c r="L106" s="5">
+        <v>45552</v>
+      </c>
+      <c r="M106" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="11">
+        <v>45548</v>
+      </c>
+      <c r="J107" s="5">
+        <v>45553</v>
+      </c>
+      <c r="K107" s="5">
+        <v>45553</v>
+      </c>
+      <c r="L107" s="5">
+        <v>45553</v>
+      </c>
+      <c r="M107" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I108" s="11">
+        <v>45523</v>
+      </c>
+      <c r="J108" s="5">
+        <v>45555</v>
+      </c>
+      <c r="K108" s="5">
+        <v>45555</v>
+      </c>
+      <c r="L108" s="5">
+        <v>45555</v>
+      </c>
+      <c r="M108" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I109" s="11">
+        <v>45554</v>
+      </c>
+      <c r="J109" s="5">
+        <v>45555</v>
+      </c>
+      <c r="K109" s="5">
+        <v>45555</v>
+      </c>
+      <c r="L109" s="5">
+        <v>45555</v>
+      </c>
+      <c r="M109" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I110" s="11">
+        <v>45552</v>
+      </c>
+      <c r="J110" s="5">
+        <v>45559</v>
+      </c>
+      <c r="K110" s="5">
+        <v>45559</v>
+      </c>
+      <c r="L110" s="5">
+        <v>45559</v>
+      </c>
+      <c r="M110" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="I111" s="11">
+        <v>45554</v>
+      </c>
+      <c r="J111" s="5">
+        <v>45559</v>
+      </c>
+      <c r="K111" s="5">
+        <v>45559</v>
+      </c>
+      <c r="L111" s="5">
+        <v>45559</v>
+      </c>
+      <c r="M111" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="I112" s="11">
+        <v>45559</v>
+      </c>
+      <c r="J112" s="5">
+        <v>45559</v>
+      </c>
+      <c r="K112" s="5">
+        <v>45559</v>
+      </c>
+      <c r="L112" s="5">
+        <v>45559</v>
+      </c>
+      <c r="M112" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4" t="s">
+        <v>1914</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="I113" s="11">
+        <v>45555</v>
+      </c>
+      <c r="J113" s="5">
+        <v>45559</v>
+      </c>
+      <c r="K113" s="5">
+        <v>45559</v>
+      </c>
+      <c r="L113" s="5">
+        <v>45559</v>
+      </c>
+      <c r="M113" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="11">
+        <v>45554</v>
+      </c>
+      <c r="J114" s="5">
+        <v>45562</v>
+      </c>
+      <c r="K114" s="5">
+        <v>45562</v>
+      </c>
+      <c r="L114" s="5">
+        <v>45562</v>
+      </c>
+      <c r="M114" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="11">
+        <v>45559</v>
+      </c>
+      <c r="J115" s="5">
+        <v>45562</v>
+      </c>
+      <c r="K115" s="5">
+        <v>45562</v>
+      </c>
+      <c r="L115" s="5">
+        <v>45562</v>
+      </c>
+      <c r="M115" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="11">
+        <v>45560</v>
+      </c>
+      <c r="J116" s="5">
+        <v>45562</v>
+      </c>
+      <c r="K116" s="5">
+        <v>45562</v>
+      </c>
+      <c r="L116" s="5">
+        <v>45562</v>
+      </c>
+      <c r="M116" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="11">
+        <v>45561</v>
+      </c>
+      <c r="J117" s="5">
+        <v>45562</v>
+      </c>
+      <c r="K117" s="5">
+        <v>45562</v>
+      </c>
+      <c r="L117" s="5">
+        <v>45562</v>
+      </c>
+      <c r="M117" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="11">
+        <v>45538</v>
+      </c>
+      <c r="J118" s="5">
+        <v>45565</v>
+      </c>
+      <c r="K118" s="5">
+        <v>45565</v>
+      </c>
+      <c r="L118" s="5">
+        <v>45565</v>
+      </c>
+      <c r="M118" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4" t="s">
+        <v>1934</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="11">
+        <v>45559</v>
+      </c>
+      <c r="J119" s="5">
+        <v>45565</v>
+      </c>
+      <c r="K119" s="5">
+        <v>45565</v>
+      </c>
+      <c r="L119" s="5">
+        <v>45565</v>
+      </c>
+      <c r="M119" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="I120" s="11">
+        <v>45562</v>
+      </c>
+      <c r="J120" s="5">
+        <v>45565</v>
+      </c>
+      <c r="K120" s="5">
+        <v>45565</v>
+      </c>
+      <c r="L120" s="5">
+        <v>45565</v>
+      </c>
+      <c r="M120" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N120" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
+++ b/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\９月末\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\10月末\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C6D824-EA77-4E78-BEFB-9C423B72E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9736396B-0A99-433B-8CED-2891AE993A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="４月" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="7月" sheetId="9" r:id="rId4"/>
     <sheet name="8月" sheetId="11" r:id="rId5"/>
     <sheet name="9月" sheetId="12" r:id="rId6"/>
+    <sheet name="10月" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="1941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="2119">
   <si>
     <t>№</t>
   </si>
@@ -5951,6 +5952,564 @@
   <si>
     <t>熊本市西区春日7丁目26-70</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひかりテラス病院事業所</t>
+  </si>
+  <si>
+    <t>熊本市南区城南町今吉野102</t>
+  </si>
+  <si>
+    <t>0964-28-6000</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺東二丁目4-63</t>
+  </si>
+  <si>
+    <t>ＣＬＵＢ　ＶＥＬ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-3ALTAﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>㈱ＶＥ－ＬＬ</t>
+  </si>
+  <si>
+    <t>原　吉宏</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通一丁目5番26号第1RIKIﾋﾞﾙ4階B号室</t>
+  </si>
+  <si>
+    <t>ｈｉｂｉ</t>
+  </si>
+  <si>
+    <t>熊本市南区野口4丁目7-29</t>
+  </si>
+  <si>
+    <t>358-6222</t>
+  </si>
+  <si>
+    <t>㈱ｍｉｙａｍｏｔｏ</t>
+  </si>
+  <si>
+    <t>佐藤　祐介</t>
+  </si>
+  <si>
+    <t>熊本市南区野口四丁目7番28号</t>
+  </si>
+  <si>
+    <t>炭火　吉ヱ門</t>
+    <rPh sb="3" eb="4">
+      <t>ヨシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熊本市中央区大江本町8-10味噌天神MS102号</t>
+  </si>
+  <si>
+    <t>374-8277</t>
+  </si>
+  <si>
+    <t>㈱ヨシズミ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>吉住　和浩</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山4丁目44-20</t>
+  </si>
+  <si>
+    <t>屋号、代表者名：吉は「土」＋「口」</t>
+    <rPh sb="3" eb="6">
+      <t>ダイヒョウシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｂａｒ　ＲＥＳＴ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目6-7ｱｲｱｲﾋﾞﾙ2F-1</t>
+  </si>
+  <si>
+    <t>㈲チームロックオン</t>
+  </si>
+  <si>
+    <t>福成　和夫</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通一丁目7番3号</t>
+  </si>
+  <si>
+    <t>Ｎｅｗ</t>
+  </si>
+  <si>
+    <t>熊本市東区新生2丁目5-10</t>
+  </si>
+  <si>
+    <t>吉坂　圭太</t>
+    <rPh sb="0" eb="1">
+      <t>ヨシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>申請者名：吉は「土」＋「口」</t>
+    <rPh sb="5" eb="6">
+      <t>ヨシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｒ．</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-28大石ﾋﾞﾙ3F-C</t>
+  </si>
+  <si>
+    <t>荒木　直子</t>
+  </si>
+  <si>
+    <t>食の萬屋　真澄</t>
+  </si>
+  <si>
+    <t>熊本市南区白藤2丁目5-5</t>
+  </si>
+  <si>
+    <t>坂本　真澄</t>
+  </si>
+  <si>
+    <t>ＳＴＡＮＤ　Ｔｉｎｙ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町5-46上通ｲｰｽﾄﾝﾋﾞﾙ1F-D</t>
+  </si>
+  <si>
+    <t>田川　奈緒子</t>
+  </si>
+  <si>
+    <t>蜜</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-26第一銀杏ﾋﾞﾙ1F-2</t>
+  </si>
+  <si>
+    <t>㈱Ｒ</t>
+  </si>
+  <si>
+    <t>清崎　晴美</t>
+  </si>
+  <si>
+    <t>熊本県菊池郡菊陽町大字津久礼1982番地23</t>
+  </si>
+  <si>
+    <t>Ａｋｏ’ｓ　ｆａｒｍ</t>
+  </si>
+  <si>
+    <t>熊本市南区富合町上杉80</t>
+  </si>
+  <si>
+    <t>志水　慶子</t>
+  </si>
+  <si>
+    <t>二代目すずき家愛</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺4丁目38-10</t>
+  </si>
+  <si>
+    <t>福嶋　正太</t>
+  </si>
+  <si>
+    <t>Ｃａｓａ　ｄｅ　ａｒｔｅ　カサデアルテ芸術の家</t>
+  </si>
+  <si>
+    <t>熊本市中央区桜町1-3-1F</t>
+  </si>
+  <si>
+    <t>藤田　真紀</t>
+  </si>
+  <si>
+    <t>楚々</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町岩野266-23小町ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>伊東　さおり</t>
+  </si>
+  <si>
+    <t>ＯＬＤ　ＳＯＵＬ</t>
+  </si>
+  <si>
+    <t>熊本市東区尾ノ上1丁目9-3</t>
+  </si>
+  <si>
+    <t>㈱Ｍｏｎｏ－ｙａ</t>
+  </si>
+  <si>
+    <t>酒井　靖仁</t>
+  </si>
+  <si>
+    <t>東京都渋谷区西原三丁目1番10号</t>
+  </si>
+  <si>
+    <t>和牛焼肉　肉もん</t>
+  </si>
+  <si>
+    <t>熊本市中央区城東町2-22　6区画</t>
+  </si>
+  <si>
+    <t>ｋｕｍａｔｃｏ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町10-20ﾐﾄﾞﾘﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>小出　翔平</t>
+  </si>
+  <si>
+    <t>美香園</t>
+  </si>
+  <si>
+    <t>熊本市中央区平成3丁目23-30ｻﾝﾘﾌﾞｼﾃｨくまなん1F</t>
+  </si>
+  <si>
+    <t>243-9168</t>
+  </si>
+  <si>
+    <t>平成物産㈱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土屋　平成</t>
+  </si>
+  <si>
+    <t>熊本市南区平成二丁目7-19</t>
+  </si>
+  <si>
+    <t>マクドナルド　アミュプラザくまもと店</t>
+  </si>
+  <si>
+    <t>熊本市西区春日3丁目15-26</t>
+  </si>
+  <si>
+    <t>245-7608</t>
+  </si>
+  <si>
+    <t>㈲タキヤ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>瀧岡　貢</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺南4丁目1-25</t>
+  </si>
+  <si>
+    <t>Ｍｙ　Ｔｈｉｎｇ！</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町1-2ｶﾘｰﾉ下通1F</t>
+  </si>
+  <si>
+    <t>241-9250</t>
+  </si>
+  <si>
+    <t>ニューコ・ワン㈱</t>
+  </si>
+  <si>
+    <t>塩原　礼貴</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町1番2号</t>
+  </si>
+  <si>
+    <t>鳥貴族　熊本下通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-1KK下通銀座ｸﾛｽﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>276-9233</t>
+  </si>
+  <si>
+    <t>㈱ウィン</t>
+  </si>
+  <si>
+    <t>山本　崇</t>
+  </si>
+  <si>
+    <t>大阪府大阪市浪速区敷津西二丁目2番8号ﾒｿﾞﾝ加藤2階</t>
+  </si>
+  <si>
+    <t>カフェ　ロッジア</t>
+  </si>
+  <si>
+    <t>熊本市西区春日5丁目23-13</t>
+  </si>
+  <si>
+    <t>354-8855</t>
+  </si>
+  <si>
+    <t>㈱ロッジア</t>
+  </si>
+  <si>
+    <t>中村　陽志</t>
+  </si>
+  <si>
+    <t>熊本市西区春日五丁目23番13号</t>
+  </si>
+  <si>
+    <t>焼とり串源</t>
+  </si>
+  <si>
+    <t>熊本市南区近見1丁目4-16</t>
+  </si>
+  <si>
+    <t>佐野　哲哉</t>
+  </si>
+  <si>
+    <t>ＧＩＲＬＳＢＡＲ　ＦｏｒｔｙＳｉｘ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-10ﾆｭｰﾌﾛﾝﾃｨｱﾋﾞﾙ3F 全号室</t>
+  </si>
+  <si>
+    <t>㈱アルファグループ</t>
+  </si>
+  <si>
+    <t>平野　雅巳</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街2-6ｻﾝﾀｶﾗﾔﾋﾞﾙ3階</t>
+  </si>
+  <si>
+    <t>麺酒場　十五夜</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-5ｺﾏﾄﾞﾘﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>273-7050</t>
+  </si>
+  <si>
+    <t>㈱ハマ建</t>
+  </si>
+  <si>
+    <t>濱松　龍二</t>
+  </si>
+  <si>
+    <t>熊本市西区池田二丁目8番12号</t>
+  </si>
+  <si>
+    <t>揚げもの惣菜　徳助</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目3-10-3号室</t>
+  </si>
+  <si>
+    <t>(同)ＵＵＬ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江藤　一惠</t>
+  </si>
+  <si>
+    <t>熊本市東区健軍三丁目52番12号2階</t>
+  </si>
+  <si>
+    <t>Ｌｏｕｎｇｅ　Ｎｅｗ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-21ﾛﾌﾃｨ西銀座会館6F</t>
+  </si>
+  <si>
+    <t>梨田　竜也</t>
+  </si>
+  <si>
+    <t>スナック　簾</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-26第一銀杏ﾋﾞﾙ3F-6</t>
+  </si>
+  <si>
+    <t>藤本　勇真</t>
+  </si>
+  <si>
+    <t>ｍｉｎａｔｏｙａ</t>
+  </si>
+  <si>
+    <t>熊本市中央区坪井2丁目5-8岡崎ﾋﾞﾙ1F-101</t>
+  </si>
+  <si>
+    <t>渡邊　美奈</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-30</t>
+  </si>
+  <si>
+    <t>ＣＨＥＲＩＳＨ</t>
+  </si>
+  <si>
+    <t>熊本市東区尾ノ上3丁目13-10灰塚ﾊｲﾂ102</t>
+  </si>
+  <si>
+    <t>有田　信彦</t>
+  </si>
+  <si>
+    <t>東京下町　梁山泊</t>
+  </si>
+  <si>
+    <t>熊本市北区山室1丁目1-75</t>
+  </si>
+  <si>
+    <t>金谷　一実</t>
+  </si>
+  <si>
+    <t>ＫＮＤ　ＣＡＦＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-12</t>
+  </si>
+  <si>
+    <t>351-1755</t>
+  </si>
+  <si>
+    <t>㈱東京神田屋</t>
+  </si>
+  <si>
+    <t>神田　範昭</t>
+  </si>
+  <si>
+    <t>熊本市東区御領六丁目7番10号</t>
+  </si>
+  <si>
+    <t>Ｌｉｏ　ＣＯＦＦＥＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区迎町1丁目7-24ｸﾞﾗﾝﾋﾟｱﾏﾝｼｮﾝ迎町1F</t>
+  </si>
+  <si>
+    <t>㈱ＳＴＡＲ　ＳＨＩＰ</t>
+  </si>
+  <si>
+    <t>園田　雄我</t>
+  </si>
+  <si>
+    <t>熊本県宇城市三角町三角浦1159番地153</t>
+  </si>
+  <si>
+    <t>おむすび屋　極</t>
+  </si>
+  <si>
+    <t>熊本市中央区桜町3-10 B1</t>
+  </si>
+  <si>
+    <t>㈱Ｅａｒｔｈ　Ｎｅｘｔ　Ｆａｒｍ</t>
+  </si>
+  <si>
+    <t>古山　仁</t>
+  </si>
+  <si>
+    <t>熊本県八代市横手町1189-28</t>
+  </si>
+  <si>
+    <t>カフェ　オリム</t>
+  </si>
+  <si>
+    <t>熊本市中央区桜町3-10　B1</t>
+  </si>
+  <si>
+    <t>井上　大輔</t>
+  </si>
+  <si>
+    <t>ＮＥＷＰＯＲＴ</t>
+  </si>
+  <si>
+    <t>熊本市中央区西子飼町10-20</t>
+  </si>
+  <si>
+    <t>寺尾　秀彰</t>
+  </si>
+  <si>
+    <t>やきとり　右響</t>
+  </si>
+  <si>
+    <t>熊本市北区弓削4丁目8-47ｺｰﾎﾟﾑｻｼC</t>
+  </si>
+  <si>
+    <t>0120-726-752</t>
+  </si>
+  <si>
+    <t>ラストリゾート㈱</t>
+  </si>
+  <si>
+    <t>前川　直毅</t>
+  </si>
+  <si>
+    <t>Ｐｅｉ’ｓ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-18S･Iﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>下城　一平</t>
+  </si>
+  <si>
+    <t>割烹　胡丁</t>
+  </si>
+  <si>
+    <t>熊本市中央区新町2丁目9-11</t>
+  </si>
+  <si>
+    <t>322-3980</t>
+  </si>
+  <si>
+    <t>(同)座</t>
+  </si>
+  <si>
+    <t>福山　知宏</t>
+  </si>
+  <si>
+    <t>熊本市中央区新町二丁目11番33-201号</t>
+  </si>
+  <si>
+    <t>銀杏釜めし</t>
+  </si>
+  <si>
+    <t>熊本市中央区内坪井町3-18</t>
+  </si>
+  <si>
+    <t>西館　幸司</t>
+  </si>
+  <si>
+    <t>すしやコトブキ　熊本駅百八歩横丁店</t>
+  </si>
+  <si>
+    <t>熊本市西区春日3丁目26-47</t>
+  </si>
+  <si>
+    <t>278-8882</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熊本市南区江越2丁目15-30</t>
+  </si>
+  <si>
+    <t>ＭＡＢＯＮＯ</t>
+  </si>
+  <si>
+    <t>熊本市北区八景水谷2丁目3-46ｸﾞﾚｲｽ八景水谷1F</t>
+  </si>
+  <si>
+    <t>横田　洋量</t>
   </si>
 </sst>
 </file>
@@ -6007,12 +6566,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -6029,7 +6594,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6058,6 +6623,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -18509,8 +19083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91919D0-5902-4783-AF9A-79DFFE4AA369}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -20014,12 +20588,14 @@
   <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="8" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3" max="8" width="8.6640625" style="3"/>
     <col min="9" max="9" width="14.1640625" style="13" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="13" customWidth="1"/>
     <col min="11" max="13" width="13.58203125" style="13" customWidth="1"/>
@@ -24789,4 +25365,1774 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FF3AFA-5521-4AD9-A28F-C3E0A836E89B}">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="8" width="8.6640625" style="3"/>
+    <col min="9" max="14" width="14.1640625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="14" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1944</v>
+      </c>
+      <c r="I2" s="11">
+        <v>45539</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45562</v>
+      </c>
+      <c r="K2" s="5">
+        <v>45562</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45566</v>
+      </c>
+      <c r="M2" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1949</v>
+      </c>
+      <c r="I3" s="11">
+        <v>45559</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45566</v>
+      </c>
+      <c r="K3" s="5">
+        <v>45566</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45566</v>
+      </c>
+      <c r="M3" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1953</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="I4" s="11">
+        <v>45560</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45566</v>
+      </c>
+      <c r="K4" s="5">
+        <v>45566</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45566</v>
+      </c>
+      <c r="M4" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I5" s="11">
+        <v>45524</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45567</v>
+      </c>
+      <c r="K5" s="5">
+        <v>45567</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45567</v>
+      </c>
+      <c r="M5" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>1965</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1967</v>
+      </c>
+      <c r="I6" s="11">
+        <v>45566</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45567</v>
+      </c>
+      <c r="K6" s="5">
+        <v>45567</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45567</v>
+      </c>
+      <c r="M6" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="11">
+        <v>45566</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45568</v>
+      </c>
+      <c r="K7" s="5">
+        <v>45568</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45568</v>
+      </c>
+      <c r="M7" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="11">
+        <v>45566</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45568</v>
+      </c>
+      <c r="K8" s="5">
+        <v>45568</v>
+      </c>
+      <c r="L8" s="5">
+        <v>45568</v>
+      </c>
+      <c r="M8" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="11">
+        <v>45567</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45568</v>
+      </c>
+      <c r="K9" s="5">
+        <v>45568</v>
+      </c>
+      <c r="L9" s="5">
+        <v>45568</v>
+      </c>
+      <c r="M9" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="11">
+        <v>45566</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45569</v>
+      </c>
+      <c r="K10" s="5">
+        <v>45569</v>
+      </c>
+      <c r="L10" s="5">
+        <v>45569</v>
+      </c>
+      <c r="M10" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1984</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I11" s="11">
+        <v>45554</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45572</v>
+      </c>
+      <c r="K11" s="5">
+        <v>45572</v>
+      </c>
+      <c r="L11" s="5">
+        <v>45572</v>
+      </c>
+      <c r="M11" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>1988</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11">
+        <v>45567</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45572</v>
+      </c>
+      <c r="K12" s="5">
+        <v>45572</v>
+      </c>
+      <c r="L12" s="5">
+        <v>45572</v>
+      </c>
+      <c r="M12" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11">
+        <v>45569</v>
+      </c>
+      <c r="J13" s="5">
+        <v>45574</v>
+      </c>
+      <c r="K13" s="5">
+        <v>45574</v>
+      </c>
+      <c r="L13" s="5">
+        <v>45574</v>
+      </c>
+      <c r="M13" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>1994</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="11">
+        <v>45561</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45575</v>
+      </c>
+      <c r="K14" s="5">
+        <v>45575</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45575</v>
+      </c>
+      <c r="M14" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11">
+        <v>45568</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45575</v>
+      </c>
+      <c r="K15" s="5">
+        <v>45575</v>
+      </c>
+      <c r="L15" s="5">
+        <v>45575</v>
+      </c>
+      <c r="M15" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="I16" s="11">
+        <v>45575</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45576</v>
+      </c>
+      <c r="K16" s="5">
+        <v>45576</v>
+      </c>
+      <c r="L16" s="5">
+        <v>45576</v>
+      </c>
+      <c r="M16" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" s="11">
+        <v>45575</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45576</v>
+      </c>
+      <c r="K17" s="5">
+        <v>45576</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45576</v>
+      </c>
+      <c r="M17" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11">
+        <v>45547</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45580</v>
+      </c>
+      <c r="K18" s="5">
+        <v>45580</v>
+      </c>
+      <c r="L18" s="5">
+        <v>45580</v>
+      </c>
+      <c r="M18" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="I19" s="11">
+        <v>45567</v>
+      </c>
+      <c r="J19" s="5">
+        <v>45580</v>
+      </c>
+      <c r="K19" s="5">
+        <v>45580</v>
+      </c>
+      <c r="L19" s="5">
+        <v>45580</v>
+      </c>
+      <c r="M19" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I20" s="11">
+        <v>45559</v>
+      </c>
+      <c r="J20" s="5">
+        <v>45581</v>
+      </c>
+      <c r="K20" s="5">
+        <v>45581</v>
+      </c>
+      <c r="L20" s="5">
+        <v>45581</v>
+      </c>
+      <c r="M20" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I21" s="11">
+        <v>45573</v>
+      </c>
+      <c r="J21" s="5">
+        <v>45583</v>
+      </c>
+      <c r="K21" s="5">
+        <v>45583</v>
+      </c>
+      <c r="L21" s="5">
+        <v>45583</v>
+      </c>
+      <c r="M21" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I22" s="11">
+        <v>45580</v>
+      </c>
+      <c r="J22" s="5">
+        <v>45583</v>
+      </c>
+      <c r="K22" s="5">
+        <v>45583</v>
+      </c>
+      <c r="L22" s="5">
+        <v>45583</v>
+      </c>
+      <c r="M22" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="I23" s="11">
+        <v>45580</v>
+      </c>
+      <c r="J23" s="5">
+        <v>45583</v>
+      </c>
+      <c r="K23" s="5">
+        <v>45583</v>
+      </c>
+      <c r="L23" s="5">
+        <v>45583</v>
+      </c>
+      <c r="M23" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="11">
+        <v>45580</v>
+      </c>
+      <c r="J24" s="5">
+        <v>45583</v>
+      </c>
+      <c r="K24" s="5">
+        <v>45583</v>
+      </c>
+      <c r="L24" s="5">
+        <v>45583</v>
+      </c>
+      <c r="M24" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="I25" s="11">
+        <v>45582</v>
+      </c>
+      <c r="J25" s="5">
+        <v>45583</v>
+      </c>
+      <c r="K25" s="5">
+        <v>45583</v>
+      </c>
+      <c r="L25" s="5">
+        <v>45583</v>
+      </c>
+      <c r="M25" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>2050</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="I26" s="11">
+        <v>45582</v>
+      </c>
+      <c r="J26" s="5">
+        <v>45583</v>
+      </c>
+      <c r="K26" s="5">
+        <v>45583</v>
+      </c>
+      <c r="L26" s="5">
+        <v>45583</v>
+      </c>
+      <c r="M26" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I27" s="11">
+        <v>45567</v>
+      </c>
+      <c r="J27" s="5">
+        <v>45586</v>
+      </c>
+      <c r="K27" s="5">
+        <v>45586</v>
+      </c>
+      <c r="L27" s="5">
+        <v>45586</v>
+      </c>
+      <c r="M27" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="11">
+        <v>45582</v>
+      </c>
+      <c r="J28" s="5">
+        <v>45586</v>
+      </c>
+      <c r="K28" s="5">
+        <v>45586</v>
+      </c>
+      <c r="L28" s="5">
+        <v>45586</v>
+      </c>
+      <c r="M28" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="11">
+        <v>45583</v>
+      </c>
+      <c r="J29" s="5">
+        <v>45586</v>
+      </c>
+      <c r="K29" s="5">
+        <v>45586</v>
+      </c>
+      <c r="L29" s="5">
+        <v>45586</v>
+      </c>
+      <c r="M29" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="11">
+        <v>45576</v>
+      </c>
+      <c r="J30" s="5">
+        <v>45587</v>
+      </c>
+      <c r="K30" s="5">
+        <v>45587</v>
+      </c>
+      <c r="L30" s="5">
+        <v>45587</v>
+      </c>
+      <c r="M30" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I31" s="11">
+        <v>45583</v>
+      </c>
+      <c r="J31" s="5">
+        <v>45588</v>
+      </c>
+      <c r="K31" s="5">
+        <v>45588</v>
+      </c>
+      <c r="L31" s="5">
+        <v>45588</v>
+      </c>
+      <c r="M31" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>2069</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="11">
+        <v>45586</v>
+      </c>
+      <c r="J32" s="5">
+        <v>45590</v>
+      </c>
+      <c r="K32" s="5">
+        <v>45590</v>
+      </c>
+      <c r="L32" s="5">
+        <v>45590</v>
+      </c>
+      <c r="M32" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="11">
+        <v>45588</v>
+      </c>
+      <c r="J33" s="5">
+        <v>45590</v>
+      </c>
+      <c r="K33" s="5">
+        <v>45590</v>
+      </c>
+      <c r="L33" s="5">
+        <v>45590</v>
+      </c>
+      <c r="M33" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I34" s="11">
+        <v>45583</v>
+      </c>
+      <c r="J34" s="5">
+        <v>45593</v>
+      </c>
+      <c r="K34" s="5">
+        <v>45593</v>
+      </c>
+      <c r="L34" s="5">
+        <v>45593</v>
+      </c>
+      <c r="M34" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>2081</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>2082</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I35" s="11">
+        <v>45586</v>
+      </c>
+      <c r="J35" s="5">
+        <v>45593</v>
+      </c>
+      <c r="K35" s="5">
+        <v>45593</v>
+      </c>
+      <c r="L35" s="5">
+        <v>45593</v>
+      </c>
+      <c r="M35" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>2087</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>2088</v>
+      </c>
+      <c r="I36" s="11">
+        <v>45587</v>
+      </c>
+      <c r="J36" s="5">
+        <v>45593</v>
+      </c>
+      <c r="K36" s="5">
+        <v>45593</v>
+      </c>
+      <c r="L36" s="5">
+        <v>45593</v>
+      </c>
+      <c r="M36" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>2091</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="11">
+        <v>45587</v>
+      </c>
+      <c r="J37" s="5">
+        <v>45593</v>
+      </c>
+      <c r="K37" s="5">
+        <v>45593</v>
+      </c>
+      <c r="L37" s="5">
+        <v>45593</v>
+      </c>
+      <c r="M37" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="11">
+        <v>45590</v>
+      </c>
+      <c r="J38" s="5">
+        <v>45594</v>
+      </c>
+      <c r="K38" s="5">
+        <v>45594</v>
+      </c>
+      <c r="L38" s="5">
+        <v>45594</v>
+      </c>
+      <c r="M38" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="I39" s="11">
+        <v>45590</v>
+      </c>
+      <c r="J39" s="5">
+        <v>45594</v>
+      </c>
+      <c r="K39" s="5">
+        <v>45594</v>
+      </c>
+      <c r="L39" s="5">
+        <v>45594</v>
+      </c>
+      <c r="M39" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="11">
+        <v>45589</v>
+      </c>
+      <c r="J40" s="5">
+        <v>45595</v>
+      </c>
+      <c r="K40" s="5">
+        <v>45595</v>
+      </c>
+      <c r="L40" s="5">
+        <v>45595</v>
+      </c>
+      <c r="M40" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>2106</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>2107</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="I41" s="11">
+        <v>45587</v>
+      </c>
+      <c r="J41" s="5">
+        <v>45596</v>
+      </c>
+      <c r="K41" s="5">
+        <v>45596</v>
+      </c>
+      <c r="L41" s="5">
+        <v>45596</v>
+      </c>
+      <c r="M41" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="11">
+        <v>45594</v>
+      </c>
+      <c r="J42" s="5">
+        <v>45596</v>
+      </c>
+      <c r="K42" s="5">
+        <v>45596</v>
+      </c>
+      <c r="L42" s="5">
+        <v>45596</v>
+      </c>
+      <c r="M42" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="I43" s="11">
+        <v>45594</v>
+      </c>
+      <c r="J43" s="5">
+        <v>45596</v>
+      </c>
+      <c r="K43" s="5">
+        <v>45596</v>
+      </c>
+      <c r="L43" s="5">
+        <v>45596</v>
+      </c>
+      <c r="M43" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="11">
+        <v>45595</v>
+      </c>
+      <c r="J44" s="5">
+        <v>45596</v>
+      </c>
+      <c r="K44" s="5">
+        <v>45596</v>
+      </c>
+      <c r="L44" s="5">
+        <v>45596</v>
+      </c>
+      <c r="M44" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N44" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
+++ b/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\10月末\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\11月末\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9736396B-0A99-433B-8CED-2891AE993A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CDE77-4E90-4F57-AAA1-5B8D8600BD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="４月" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="8月" sheetId="11" r:id="rId5"/>
     <sheet name="9月" sheetId="12" r:id="rId6"/>
     <sheet name="10月" sheetId="13" r:id="rId7"/>
+    <sheet name="11月" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="2119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="2310">
   <si>
     <t>№</t>
   </si>
@@ -6510,6 +6511,588 @@
   </si>
   <si>
     <t>横田　洋量</t>
+  </si>
+  <si>
+    <t>カラオケスナック　葵</t>
+  </si>
+  <si>
+    <t>熊本市西区春日2丁目12-10</t>
+  </si>
+  <si>
+    <t>増永　叔子</t>
+  </si>
+  <si>
+    <t>ＲＩＳＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町10-10ﾌﾟﾚｼﾞｬｰｽﾞﾋﾞﾙB1</t>
+  </si>
+  <si>
+    <t>江浦　彩</t>
+  </si>
+  <si>
+    <t>コルハコ</t>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町5-4ﾄﾞﾙﾊｳｽﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>松本　琴春子</t>
+  </si>
+  <si>
+    <t>Ｅｍｉｌｉａ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目6-5ﾓﾃﾞﾅﾋﾞﾙ4F-B</t>
+  </si>
+  <si>
+    <t>中村　佳未</t>
+  </si>
+  <si>
+    <t>カラオケ・ピポタマス</t>
+  </si>
+  <si>
+    <t>熊本市中央区出水1丁目1-25ｻﾝﾄﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>開田　隆子</t>
+  </si>
+  <si>
+    <t>焼肉　七夕　～たなばた～</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町7-35</t>
+  </si>
+  <si>
+    <t>宮原　葵</t>
+  </si>
+  <si>
+    <t>升昌</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町4-11司ﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>321-8477</t>
+  </si>
+  <si>
+    <t>㈱ＲｉＦＯＷ</t>
+  </si>
+  <si>
+    <t>西本　弘晶</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町2番24号2階</t>
+  </si>
+  <si>
+    <t>ＲＥＳＴＡＲＴ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-8銀座ﾌﾟﾗｻﾞﾋﾞﾙ7F-704</t>
+  </si>
+  <si>
+    <t>㈱ＩＮＳＩＤＥ　ＰＵＬＬ</t>
+  </si>
+  <si>
+    <t>生田　真延</t>
+  </si>
+  <si>
+    <t>熊本市北区楡木3-8-24</t>
+  </si>
+  <si>
+    <t>Ｖｉｏｒｂ　ｃｏｆｆｅｅ</t>
+  </si>
+  <si>
+    <t>熊本市北区清水本町18-17K-smart清水本町1F-B</t>
+  </si>
+  <si>
+    <t>㈱佐藤塗装</t>
+  </si>
+  <si>
+    <t>佐藤　総高</t>
+  </si>
+  <si>
+    <t>熊本市北区清水東町2番30-2号</t>
+  </si>
+  <si>
+    <t>いろり割烹　あざみ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-14KOHENﾋﾞﾙ2F-B</t>
+  </si>
+  <si>
+    <t>㈱ＳｕｎＣｕｔｅ</t>
+  </si>
+  <si>
+    <t>祁　誠</t>
+  </si>
+  <si>
+    <t>沖縄県那覇市久茂地一丁目1番1号ﾊﾟﾚｯﾄくもじ9階</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　凪</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目6-17ﾓｱｲﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>㈱凪</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小渕　凪人</t>
+  </si>
+  <si>
+    <t>熊本市中央区黒髪四丁目436番地1ﾊﾟｰｸﾋﾙｽﾞ11号室</t>
+  </si>
+  <si>
+    <t>カレーハウスＣｏＣｏ壱番屋　熊本東バイパス店</t>
+  </si>
+  <si>
+    <t>熊本市東区湖東3丁目202</t>
+  </si>
+  <si>
+    <t>331-2131</t>
+  </si>
+  <si>
+    <t>(同)アルメリア</t>
+  </si>
+  <si>
+    <t>ａｏ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-3ALTAﾋﾞﾙ3F-B</t>
+  </si>
+  <si>
+    <t>㈱ＧＲＡＮＤＩＲ</t>
+  </si>
+  <si>
+    <t>山本　綾子</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町5番6号</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　Ｐｒｉｍａ</t>
+  </si>
+  <si>
+    <t>熊本市中央区坪井4丁目1-1ｺﾏｷﾋﾞﾙ2A</t>
+  </si>
+  <si>
+    <t>㈲Ｓｉｂｌｉｎｇ</t>
+  </si>
+  <si>
+    <t>谷脇　香織</t>
+  </si>
+  <si>
+    <t>熊本市南区上ノ郷二丁目15番11号</t>
+  </si>
+  <si>
+    <t>徒然</t>
+  </si>
+  <si>
+    <t>中西　淳子</t>
+  </si>
+  <si>
+    <t>レストランＳＡＫＵＲＡ</t>
+  </si>
+  <si>
+    <t>熊本市中央区本荘1丁目1-1熊本大学病院くすのきﾃﾗｽ2F</t>
+  </si>
+  <si>
+    <t>373-5883</t>
+  </si>
+  <si>
+    <t>㈱アイゴ</t>
+  </si>
+  <si>
+    <t>岩下　正人</t>
+  </si>
+  <si>
+    <t>熊本市東区月出二丁目3番70号</t>
+  </si>
+  <si>
+    <t>ＤＯＲＡＤＯ</t>
+  </si>
+  <si>
+    <t>熊本市中央区黒髪2丁目31-20ｻﾆｰﾎﾟｲﾝﾄ佐藤ﾋﾞﾙ2F-201</t>
+  </si>
+  <si>
+    <t>原田　翔伍</t>
+  </si>
+  <si>
+    <t>大衆焼肉　奇跡のホルモン</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目9-20-2F</t>
+  </si>
+  <si>
+    <t>352-6699</t>
+  </si>
+  <si>
+    <t>㈱ＲＯＣＣＡ</t>
+  </si>
+  <si>
+    <t>安武　久雄</t>
+  </si>
+  <si>
+    <t>熊本市中央区神水二丁目10番1号宏和ﾋﾞﾙ407</t>
+  </si>
+  <si>
+    <t>酒肴　司</t>
+  </si>
+  <si>
+    <t>熊本市東区尾ノ上1丁目13-14</t>
+  </si>
+  <si>
+    <t>米満　光司</t>
+  </si>
+  <si>
+    <t>ラーメン居酒屋　勇み家</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-27TM5ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>㈱プラウドヴィジョン</t>
+  </si>
+  <si>
+    <t>原田　厚一郎</t>
+  </si>
+  <si>
+    <t>熊本市中央区八王寺町9番60号</t>
+  </si>
+  <si>
+    <t>フードバー　ランデブー</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目203-2F</t>
+  </si>
+  <si>
+    <t>山村　陵</t>
+  </si>
+  <si>
+    <t>鳥基地　平　駕町通り店</t>
+  </si>
+  <si>
+    <t>熊本市中央区中央街1-30RS-10ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>300-0240</t>
+  </si>
+  <si>
+    <t>㈱ＴＡＩＲＡ企画</t>
+  </si>
+  <si>
+    <t>岩﨑　勇二</t>
+  </si>
+  <si>
+    <t>熊本市中央区萩原町11番5号-2F</t>
+  </si>
+  <si>
+    <t>んま</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目9-29森天会館ﾋﾞﾙ1F-E</t>
+  </si>
+  <si>
+    <t>㈱優</t>
+  </si>
+  <si>
+    <t>栗秋　賢和</t>
+  </si>
+  <si>
+    <t>熊本県合志市幾久富1909番地1502</t>
+  </si>
+  <si>
+    <t>清香園　平成店</t>
+  </si>
+  <si>
+    <t>熊本市南区平成2丁目3-8</t>
+  </si>
+  <si>
+    <t>334-2911</t>
+  </si>
+  <si>
+    <t>㈱サムズ・アップ</t>
+  </si>
+  <si>
+    <t>永川　茂</t>
+  </si>
+  <si>
+    <t>長崎県諫早市久山町1369番地1</t>
+  </si>
+  <si>
+    <t>ＣｒｏｓｓＦｉｔ　Ｋｕｍａｍｏｔｏ</t>
+  </si>
+  <si>
+    <t>熊本市中央区本山町331-1</t>
+  </si>
+  <si>
+    <t>㈱ＣｒｏｓｓＦｉｔ　Ｋｕｍａｍｏｔｏ</t>
+  </si>
+  <si>
+    <t>吉良　扶佐子</t>
+    <rPh sb="0" eb="1">
+      <t>ヨシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熊本市中央区本山町331番1</t>
+  </si>
+  <si>
+    <t>法人代表者名：吉は「土」＋「口」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＬＩＮＫ</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目4-10ｺｽﾓﾗﾏﾋﾞﾙ201</t>
+  </si>
+  <si>
+    <t>西山　航司</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目4-10ｺｽﾓﾗﾏﾋﾞﾙ202</t>
+  </si>
+  <si>
+    <t>ｐｅｅｋ　ａ　ｂｏｏ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-22ﾋﾟｭｱ西銀座ﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>髙濵　美保</t>
+  </si>
+  <si>
+    <t>ヒライ　東町店</t>
+  </si>
+  <si>
+    <t>熊本市東区健軍本町53-3</t>
+  </si>
+  <si>
+    <t>369-3502</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セブンｰイレブン植木宮原店</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町宮原217-1</t>
+  </si>
+  <si>
+    <t>浦嶋　幸久</t>
+  </si>
+  <si>
+    <t>ＳＰＩＣＥ　ＡＲＯＭＡ　江津店</t>
+  </si>
+  <si>
+    <t>熊本市東区江津2丁目37-55</t>
+  </si>
+  <si>
+    <t>チャパガイン　ジーバン</t>
+  </si>
+  <si>
+    <t>Ｃａｆｅ　ＷＡＮＴ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-8TM47ﾋﾞﾙ4F-3</t>
+  </si>
+  <si>
+    <t>㈲ＺＥＳＴコーポレーション</t>
+  </si>
+  <si>
+    <t>石川　孝三</t>
+  </si>
+  <si>
+    <t>熊本市西区蓮台寺四丁目2番7号</t>
+  </si>
+  <si>
+    <t>Ａ５和牛　天</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街1-9ｶｰﾅA3-1F</t>
+  </si>
+  <si>
+    <t>321-6564</t>
+  </si>
+  <si>
+    <t>ＤＲＵＮＫ㈱</t>
+  </si>
+  <si>
+    <t>古賀　大輔</t>
+  </si>
+  <si>
+    <t>熊本市南区平成二丁目5番11号DKﾋﾞﾙ</t>
+  </si>
+  <si>
+    <t>メディカル・リハビリホームグランダ水前寺</t>
+  </si>
+  <si>
+    <t>熊本市中央区白山1丁目1-11</t>
+  </si>
+  <si>
+    <t>277-6900</t>
+  </si>
+  <si>
+    <t>㈱ＬＥＯＣ</t>
+  </si>
+  <si>
+    <t>田島　利行</t>
+  </si>
+  <si>
+    <t>東京都千代田区大手町一丁目1番3号</t>
+  </si>
+  <si>
+    <t>ふりぃだむ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-3ｱﾙﾀﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>遠藤　大輔</t>
+  </si>
+  <si>
+    <t>レトロ居酒屋２１９</t>
+  </si>
+  <si>
+    <t>熊本市南区近見2丁目20-11近見ﾌﾟﾗｻﾞ</t>
+  </si>
+  <si>
+    <t>築城　誠</t>
+  </si>
+  <si>
+    <t>ペコリ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-8銀座ﾌﾟﾗｻﾞⅡﾋﾞﾙ5F</t>
+  </si>
+  <si>
+    <t>林　朋樹</t>
+  </si>
+  <si>
+    <t>Ｆａｃｔｏｒ</t>
+  </si>
+  <si>
+    <t>熊本市中央区南千反畑町6-1福永ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>西　雅弘</t>
+  </si>
+  <si>
+    <t>五つ星</t>
+  </si>
+  <si>
+    <t>菊川　洋一</t>
+  </si>
+  <si>
+    <t>焼鳥すずや</t>
+  </si>
+  <si>
+    <t>熊本市中央区中央街2-1</t>
+  </si>
+  <si>
+    <t>森川　毅</t>
+  </si>
+  <si>
+    <t>星</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町4-12みどりやﾄｰｷﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>(同)えん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>葉　增</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街6番9号</t>
+  </si>
+  <si>
+    <t>Ｎｐｌｕｓ　おにぎりや　熊本店</t>
+  </si>
+  <si>
+    <t>熊本市中央区本荘町657-5</t>
+  </si>
+  <si>
+    <t>227-7758</t>
+  </si>
+  <si>
+    <t>ＭＺＯパンドゥミ㈱</t>
+  </si>
+  <si>
+    <t>本德　秀憲</t>
+  </si>
+  <si>
+    <t>兵庫県姫路市亀山222番地6</t>
+  </si>
+  <si>
+    <t>ガレット食堂　コントマトル</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町1-6桑本ﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>274-3008</t>
+  </si>
+  <si>
+    <t>㈱育つ場ＫＵＭＡＭＯＴＯ</t>
+  </si>
+  <si>
+    <t>桑本　知明</t>
+  </si>
+  <si>
+    <t>熊本市中央区白山一丁目6番5号</t>
+  </si>
+  <si>
+    <t>炭火や　くおん</t>
+  </si>
+  <si>
+    <t>熊本市東区尾ノ上3丁目12-34</t>
+  </si>
+  <si>
+    <t>西岡　庸介</t>
+  </si>
+  <si>
+    <t>エポック</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-26第一銀杏ﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>小西　佳枝</t>
+  </si>
+  <si>
+    <t>スタンド・あーる</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町10-10末広ﾋﾞﾙ1F-2</t>
+  </si>
+  <si>
+    <t>薮田　理栄</t>
+  </si>
+  <si>
+    <t>Ｌｏｋｉ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-27TM-5ﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>谷﨑　優二</t>
+  </si>
+  <si>
+    <t>焼鳥　ころころ</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町5-6MH-331ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>熊本市西区春日7丁目26-70</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -25371,8 +25954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FF3AFA-5521-4AD9-A28F-C3E0A836E89B}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -27135,4 +27718,1955 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034F17B0-8D33-445A-B39D-8C41F2C31E62}">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="8" width="8.6640625" style="3"/>
+    <col min="9" max="13" width="15.4140625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="14" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="11">
+        <v>45539</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45597</v>
+      </c>
+      <c r="K2" s="5">
+        <v>45597</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45597</v>
+      </c>
+      <c r="M2" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="11">
+        <v>45586</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45597</v>
+      </c>
+      <c r="K3" s="5">
+        <v>45597</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45597</v>
+      </c>
+      <c r="M3" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="11">
+        <v>45595</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45597</v>
+      </c>
+      <c r="K4" s="5">
+        <v>45597</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45597</v>
+      </c>
+      <c r="M4" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="11">
+        <v>45595</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45597</v>
+      </c>
+      <c r="K5" s="5">
+        <v>45597</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45597</v>
+      </c>
+      <c r="M5" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>2133</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="11">
+        <v>45586</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45601</v>
+      </c>
+      <c r="K6" s="5">
+        <v>45601</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45601</v>
+      </c>
+      <c r="M6" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="11">
+        <v>45589</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45601</v>
+      </c>
+      <c r="K7" s="5">
+        <v>45601</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45601</v>
+      </c>
+      <c r="M7" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I8" s="11">
+        <v>45589</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45602</v>
+      </c>
+      <c r="K8" s="5">
+        <v>45602</v>
+      </c>
+      <c r="L8" s="5">
+        <v>45602</v>
+      </c>
+      <c r="M8" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="I9" s="11">
+        <v>45589</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45602</v>
+      </c>
+      <c r="K9" s="5">
+        <v>45602</v>
+      </c>
+      <c r="L9" s="5">
+        <v>45602</v>
+      </c>
+      <c r="M9" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I10" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45602</v>
+      </c>
+      <c r="K10" s="5">
+        <v>45602</v>
+      </c>
+      <c r="L10" s="5">
+        <v>45602</v>
+      </c>
+      <c r="M10" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>2155</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="I11" s="11">
+        <v>45601</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45602</v>
+      </c>
+      <c r="K11" s="5">
+        <v>45602</v>
+      </c>
+      <c r="L11" s="5">
+        <v>45602</v>
+      </c>
+      <c r="M11" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>2160</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2161</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="I12" s="11">
+        <v>45589</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45603</v>
+      </c>
+      <c r="K12" s="5">
+        <v>45603</v>
+      </c>
+      <c r="L12" s="5">
+        <v>45603</v>
+      </c>
+      <c r="M12" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I13" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J13" s="5">
+        <v>45603</v>
+      </c>
+      <c r="K13" s="5">
+        <v>45603</v>
+      </c>
+      <c r="L13" s="5">
+        <v>45603</v>
+      </c>
+      <c r="M13" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>2171</v>
+      </c>
+      <c r="I14" s="11">
+        <v>45601</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45603</v>
+      </c>
+      <c r="K14" s="5">
+        <v>45603</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45603</v>
+      </c>
+      <c r="M14" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>2175</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="I15" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45604</v>
+      </c>
+      <c r="K15" s="5">
+        <v>45604</v>
+      </c>
+      <c r="L15" s="5">
+        <v>45604</v>
+      </c>
+      <c r="M15" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45604</v>
+      </c>
+      <c r="K16" s="5">
+        <v>45604</v>
+      </c>
+      <c r="L16" s="5">
+        <v>45604</v>
+      </c>
+      <c r="M16" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>2183</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="I17" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45604</v>
+      </c>
+      <c r="K17" s="5">
+        <v>45604</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45604</v>
+      </c>
+      <c r="M17" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11">
+        <v>45601</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45607</v>
+      </c>
+      <c r="K18" s="5">
+        <v>45607</v>
+      </c>
+      <c r="L18" s="5">
+        <v>45607</v>
+      </c>
+      <c r="M18" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>2193</v>
+      </c>
+      <c r="I19" s="11">
+        <v>45604</v>
+      </c>
+      <c r="J19" s="5">
+        <v>45607</v>
+      </c>
+      <c r="K19" s="5">
+        <v>45607</v>
+      </c>
+      <c r="L19" s="5">
+        <v>45607</v>
+      </c>
+      <c r="M19" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2195</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="11">
+        <v>45604</v>
+      </c>
+      <c r="J20" s="5">
+        <v>45607</v>
+      </c>
+      <c r="K20" s="5">
+        <v>45607</v>
+      </c>
+      <c r="L20" s="5">
+        <v>45607</v>
+      </c>
+      <c r="M20" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>2200</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I21" s="11">
+        <v>45607</v>
+      </c>
+      <c r="J21" s="5">
+        <v>45608</v>
+      </c>
+      <c r="K21" s="5">
+        <v>45608</v>
+      </c>
+      <c r="L21" s="5">
+        <v>45608</v>
+      </c>
+      <c r="M21" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11">
+        <v>45590</v>
+      </c>
+      <c r="J22" s="5">
+        <v>45609</v>
+      </c>
+      <c r="K22" s="5">
+        <v>45609</v>
+      </c>
+      <c r="L22" s="5">
+        <v>45609</v>
+      </c>
+      <c r="M22" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="I23" s="11">
+        <v>45608</v>
+      </c>
+      <c r="J23" s="5">
+        <v>45609</v>
+      </c>
+      <c r="K23" s="5">
+        <v>45609</v>
+      </c>
+      <c r="L23" s="5">
+        <v>45609</v>
+      </c>
+      <c r="M23" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>2213</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>2214</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="I24" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J24" s="5">
+        <v>45611</v>
+      </c>
+      <c r="K24" s="5">
+        <v>45611</v>
+      </c>
+      <c r="L24" s="5">
+        <v>45611</v>
+      </c>
+      <c r="M24" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>2220</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="I25" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J25" s="5">
+        <v>45614</v>
+      </c>
+      <c r="K25" s="5">
+        <v>45614</v>
+      </c>
+      <c r="L25" s="5">
+        <v>45614</v>
+      </c>
+      <c r="M25" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="I26" s="11">
+        <v>45604</v>
+      </c>
+      <c r="J26" s="5">
+        <v>45614</v>
+      </c>
+      <c r="K26" s="5">
+        <v>45614</v>
+      </c>
+      <c r="L26" s="5">
+        <v>45614</v>
+      </c>
+      <c r="M26" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="11">
+        <v>45611</v>
+      </c>
+      <c r="J27" s="5">
+        <v>45615</v>
+      </c>
+      <c r="K27" s="5">
+        <v>45615</v>
+      </c>
+      <c r="L27" s="5">
+        <v>45615</v>
+      </c>
+      <c r="M27" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="11">
+        <v>45611</v>
+      </c>
+      <c r="J28" s="5">
+        <v>45615</v>
+      </c>
+      <c r="K28" s="5">
+        <v>45615</v>
+      </c>
+      <c r="L28" s="5">
+        <v>45615</v>
+      </c>
+      <c r="M28" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>2234</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="11">
+        <v>45593</v>
+      </c>
+      <c r="J29" s="5">
+        <v>45616</v>
+      </c>
+      <c r="K29" s="5">
+        <v>45616</v>
+      </c>
+      <c r="L29" s="5">
+        <v>45616</v>
+      </c>
+      <c r="M29" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>2237</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>2309</v>
+      </c>
+      <c r="I30" s="11">
+        <v>45611</v>
+      </c>
+      <c r="J30" s="5">
+        <v>45618</v>
+      </c>
+      <c r="K30" s="5">
+        <v>45618</v>
+      </c>
+      <c r="L30" s="5">
+        <v>45618</v>
+      </c>
+      <c r="M30" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>2240</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="11">
+        <v>45601</v>
+      </c>
+      <c r="J31" s="5">
+        <v>45621</v>
+      </c>
+      <c r="K31" s="5">
+        <v>45621</v>
+      </c>
+      <c r="L31" s="5">
+        <v>45621</v>
+      </c>
+      <c r="M31" s="5">
+        <v>48182</v>
+      </c>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="11">
+        <v>45609</v>
+      </c>
+      <c r="J32" s="5">
+        <v>45621</v>
+      </c>
+      <c r="K32" s="5">
+        <v>45621</v>
+      </c>
+      <c r="L32" s="5">
+        <v>45621</v>
+      </c>
+      <c r="M32" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>2246</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>2247</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>2248</v>
+      </c>
+      <c r="I33" s="11">
+        <v>45615</v>
+      </c>
+      <c r="J33" s="5">
+        <v>45621</v>
+      </c>
+      <c r="K33" s="5">
+        <v>45621</v>
+      </c>
+      <c r="L33" s="5">
+        <v>45621</v>
+      </c>
+      <c r="M33" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>2252</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>2253</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2254</v>
+      </c>
+      <c r="I34" s="11">
+        <v>45618</v>
+      </c>
+      <c r="J34" s="5">
+        <v>45621</v>
+      </c>
+      <c r="K34" s="5">
+        <v>45621</v>
+      </c>
+      <c r="L34" s="5">
+        <v>45621</v>
+      </c>
+      <c r="M34" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>2257</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>2258</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>2259</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>2260</v>
+      </c>
+      <c r="I35" s="11">
+        <v>45602</v>
+      </c>
+      <c r="J35" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K35" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L35" s="5">
+        <v>45622</v>
+      </c>
+      <c r="M35" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>2263</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="11">
+        <v>45611</v>
+      </c>
+      <c r="J36" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K36" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L36" s="5">
+        <v>45622</v>
+      </c>
+      <c r="M36" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="11">
+        <v>45614</v>
+      </c>
+      <c r="J37" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K37" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L37" s="5">
+        <v>45622</v>
+      </c>
+      <c r="M37" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>2269</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="11">
+        <v>45616</v>
+      </c>
+      <c r="J38" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K38" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L38" s="5">
+        <v>45622</v>
+      </c>
+      <c r="M38" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>2272</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="11">
+        <v>45618</v>
+      </c>
+      <c r="J39" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K39" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L39" s="5">
+        <v>45622</v>
+      </c>
+      <c r="M39" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>2274</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="11">
+        <v>45621</v>
+      </c>
+      <c r="J40" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K40" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L40" s="5">
+        <v>45623</v>
+      </c>
+      <c r="M40" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="11">
+        <v>45621</v>
+      </c>
+      <c r="J41" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K41" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L41" s="5">
+        <v>45623</v>
+      </c>
+      <c r="M41" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>2280</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>2281</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2282</v>
+      </c>
+      <c r="I42" s="11">
+        <v>45566</v>
+      </c>
+      <c r="J42" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K42" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L42" s="5">
+        <v>45624</v>
+      </c>
+      <c r="M42" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>2285</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>2286</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>2288</v>
+      </c>
+      <c r="I43" s="11">
+        <v>45604</v>
+      </c>
+      <c r="J43" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K43" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L43" s="5">
+        <v>45624</v>
+      </c>
+      <c r="M43" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>2292</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>2293</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I44" s="11">
+        <v>45615</v>
+      </c>
+      <c r="J44" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K44" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L44" s="5">
+        <v>45624</v>
+      </c>
+      <c r="M44" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>2296</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>2297</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="11">
+        <v>45618</v>
+      </c>
+      <c r="J45" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K45" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L45" s="5">
+        <v>45624</v>
+      </c>
+      <c r="M45" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>2299</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>2300</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="11">
+        <v>45621</v>
+      </c>
+      <c r="J46" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K46" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L46" s="5">
+        <v>45624</v>
+      </c>
+      <c r="M46" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>2302</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="11">
+        <v>45622</v>
+      </c>
+      <c r="J47" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K47" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L47" s="5">
+        <v>45624</v>
+      </c>
+      <c r="M47" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>2305</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>2306</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="11">
+        <v>45622</v>
+      </c>
+      <c r="J48" s="5">
+        <v>45625</v>
+      </c>
+      <c r="K48" s="5">
+        <v>45625</v>
+      </c>
+      <c r="L48" s="5">
+        <v>45625</v>
+      </c>
+      <c r="M48" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2308</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="11">
+        <v>45623</v>
+      </c>
+      <c r="J49" s="5">
+        <v>45625</v>
+      </c>
+      <c r="K49" s="5">
+        <v>45625</v>
+      </c>
+      <c r="L49" s="5">
+        <v>45625</v>
+      </c>
+      <c r="M49" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N49" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
+++ b/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\11月末\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CDE77-4E90-4F57-AAA1-5B8D8600BD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FAFFA5-122A-46C3-9497-62B638D05FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="４月" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="9月" sheetId="12" r:id="rId6"/>
     <sheet name="10月" sheetId="13" r:id="rId7"/>
     <sheet name="11月" sheetId="14" r:id="rId8"/>
+    <sheet name="12月" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="2310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4571" uniqueCount="3016">
   <si>
     <t>№</t>
   </si>
@@ -7093,6 +7094,2176 @@
   <si>
     <t>熊本市西区春日7丁目26-70</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉄板ダイニングＤＫ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街1-9ｶｰﾅA3ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>㈱Ｄ　ｐｌｕｓ.　ｃｏｍ</t>
+  </si>
+  <si>
+    <t>田中　敏明</t>
+  </si>
+  <si>
+    <t>熊本市南区平成二丁目5番11号DKﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>せっちゃん。</t>
+  </si>
+  <si>
+    <t>熊本市中央区草葉町4-5ﾒｿﾞﾝ草葉1F</t>
+  </si>
+  <si>
+    <t>古賀　節子</t>
+  </si>
+  <si>
+    <t>とろく黒亭</t>
+  </si>
+  <si>
+    <t>熊本市中央区渡鹿7丁目15-31</t>
+  </si>
+  <si>
+    <t>森田　雄一</t>
+  </si>
+  <si>
+    <t>五平太</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江4丁目12-4</t>
+  </si>
+  <si>
+    <t>松本　金一郎</t>
+  </si>
+  <si>
+    <t>カフェ・モロゾフ</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町6-1鶴屋百貨店2F</t>
+  </si>
+  <si>
+    <t>327-3638</t>
+  </si>
+  <si>
+    <t>モロゾフ㈱</t>
+  </si>
+  <si>
+    <t>山口　信二</t>
+  </si>
+  <si>
+    <t>兵庫県神戸市東灘区御影本町6丁目11-19</t>
+  </si>
+  <si>
+    <t>ま～ちゃん食堂</t>
+  </si>
+  <si>
+    <t>熊本市西区蓮台寺1丁目11-26</t>
+  </si>
+  <si>
+    <t>井手　守</t>
+  </si>
+  <si>
+    <t>熊本ホルモン</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-11ﾛｾﾞ花畑館1F</t>
+  </si>
+  <si>
+    <t>351-0330</t>
+  </si>
+  <si>
+    <t>㈱山延</t>
+  </si>
+  <si>
+    <t>山本　晋司</t>
+  </si>
+  <si>
+    <t>福岡県福岡市中央区小笹一丁目10番12号</t>
+  </si>
+  <si>
+    <t>スナック秋桜</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目42-10</t>
+  </si>
+  <si>
+    <t>小原　節子</t>
+  </si>
+  <si>
+    <t>ＭＫレストラン　下通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-3銀座ﾌﾟﾚｲｽKUMAMOTO 2F</t>
+  </si>
+  <si>
+    <t>354-3568</t>
+  </si>
+  <si>
+    <t>ダイニング虎珀／カラオケＲｕｓＨ</t>
+  </si>
+  <si>
+    <t>熊本市東区沼山津3丁目2-11</t>
+  </si>
+  <si>
+    <t>369-4750</t>
+  </si>
+  <si>
+    <t>㈱ＳＵＮ　ＳＴＡＲ</t>
+  </si>
+  <si>
+    <t>熊本市東区沼山津三丁目2番11号</t>
+  </si>
+  <si>
+    <t>医療法人小林会　小林病院</t>
+  </si>
+  <si>
+    <t>熊本市南区城南町隈庄574</t>
+  </si>
+  <si>
+    <t>0964-28-2025</t>
+  </si>
+  <si>
+    <t>医療法人　小林会</t>
+  </si>
+  <si>
+    <t>小林　佳之</t>
+  </si>
+  <si>
+    <t>たぬき茶屋</t>
+  </si>
+  <si>
+    <t>熊本市西区田崎3丁目1-10ﾋｰﾛｰﾏﾝｼｮﾝ田崎1F</t>
+  </si>
+  <si>
+    <t>352-6808</t>
+  </si>
+  <si>
+    <t>㈱たぬき茶屋</t>
+  </si>
+  <si>
+    <t>吉田　竜介</t>
+  </si>
+  <si>
+    <t>熊本市西区田崎3丁目1-10ﾋｰﾛｰﾏﾝｼｮﾝ田崎301</t>
+  </si>
+  <si>
+    <t>あづまラーメン</t>
+  </si>
+  <si>
+    <t>熊本市東区御領8丁目10-97</t>
+  </si>
+  <si>
+    <t>380-2828</t>
+  </si>
+  <si>
+    <t>㈲あづま商事</t>
+  </si>
+  <si>
+    <t>東　幸弘</t>
+  </si>
+  <si>
+    <t>浪漫</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺5丁目26-27</t>
+  </si>
+  <si>
+    <t>小田　朱美</t>
+  </si>
+  <si>
+    <t>郷土料理　五郎八</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町12-8銀杏会館1F・B1F</t>
+  </si>
+  <si>
+    <t>321-8568</t>
+  </si>
+  <si>
+    <t>㈲五郎八</t>
+  </si>
+  <si>
+    <t>上野　文大</t>
+  </si>
+  <si>
+    <t>熊本市中央区山崎町72-1-1</t>
+  </si>
+  <si>
+    <t>㈲山本屋食堂</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熊本市中央区南坪井町7-10</t>
+  </si>
+  <si>
+    <t>352-2900</t>
+  </si>
+  <si>
+    <t>㈲山本屋食堂</t>
+  </si>
+  <si>
+    <t>山本　徳系</t>
+  </si>
+  <si>
+    <t>想夫恋　益城インター店</t>
+  </si>
+  <si>
+    <t>熊本市東区佐土原1丁目3654-1</t>
+  </si>
+  <si>
+    <t>285-8270</t>
+  </si>
+  <si>
+    <t>㈱ハレ・コーポレーション</t>
+  </si>
+  <si>
+    <t>平田　昇</t>
+  </si>
+  <si>
+    <t>熊本市南区平田2丁目6-29</t>
+  </si>
+  <si>
+    <t>庄屋　ゆめタウンサンピアン店</t>
+  </si>
+  <si>
+    <t>熊本市東区上南部2丁目2-2ゆめﾀｳﾝｻﾝﾋﾟｱﾝ内1F</t>
+  </si>
+  <si>
+    <t>237-7848</t>
+  </si>
+  <si>
+    <t>㈱庄屋フードシステム</t>
+  </si>
+  <si>
+    <t>小澤　俊治</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区博多駅前一丁目9番3号博多駅前ｼﾃｨﾋﾞﾙ13階</t>
+  </si>
+  <si>
+    <t>燻製ガーデン　タケシタ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街1-11ｽﾀｰﾗｲﾄﾋﾞﾙⅡ5F</t>
+  </si>
+  <si>
+    <t>竹下　誠</t>
+  </si>
+  <si>
+    <t>スターバックスコーヒー熊本インターチェンジ店</t>
+  </si>
+  <si>
+    <t>熊本市東区神園1丁目1-6</t>
+  </si>
+  <si>
+    <t>388-5311</t>
+  </si>
+  <si>
+    <t>スターバックスコーヒージャパン㈱</t>
+  </si>
+  <si>
+    <t>水口　貴文</t>
+  </si>
+  <si>
+    <t>東京都品川区上大崎2丁目25-2</t>
+  </si>
+  <si>
+    <t>餃子天国　富富飯店</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街5-3</t>
+  </si>
+  <si>
+    <t>352-3450</t>
+  </si>
+  <si>
+    <t>㈾栄荘茶房</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>吉森　富人</t>
+  </si>
+  <si>
+    <t>熊本市中央区渡鹿6丁目7-11</t>
+  </si>
+  <si>
+    <t>居酒屋一代屋本店</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺1丁目10-10</t>
+  </si>
+  <si>
+    <t>382-6436</t>
+  </si>
+  <si>
+    <t>㈲味道園</t>
+  </si>
+  <si>
+    <t>谷口　明</t>
+  </si>
+  <si>
+    <t>炭火焼肉くたみや薄場店</t>
+  </si>
+  <si>
+    <t>熊本市南区薄場3丁目4-20</t>
+  </si>
+  <si>
+    <t>311-6028</t>
+  </si>
+  <si>
+    <t>エイト</t>
+  </si>
+  <si>
+    <t>343-0378</t>
+  </si>
+  <si>
+    <t>㈲エイト</t>
+  </si>
+  <si>
+    <t>清田　廣之</t>
+  </si>
+  <si>
+    <t>熊本市北区鶴羽田3丁目11-8</t>
+  </si>
+  <si>
+    <t>熊本市東区尾ノ上2丁目22-15</t>
+  </si>
+  <si>
+    <t>ほっともっと城南店</t>
+  </si>
+  <si>
+    <t>熊本市南区城南町下宮地499</t>
+  </si>
+  <si>
+    <t>0964-28-8600</t>
+  </si>
+  <si>
+    <t>(同)隆栄フーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>藤田　佳寿子</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉2丁目13番13-303号</t>
+  </si>
+  <si>
+    <t>株式会社ヒライ給食宅配サービス</t>
+  </si>
+  <si>
+    <t>熊本市南区近見8丁目6-101</t>
+  </si>
+  <si>
+    <t>288-5681</t>
+  </si>
+  <si>
+    <t>㈱ヒライ給食宅配サービス</t>
+  </si>
+  <si>
+    <t>平井　健介</t>
+  </si>
+  <si>
+    <t>麦うさぎ</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町6-4-2ﾙﾅﾌｧｰｽﾄﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>326-8766</t>
+  </si>
+  <si>
+    <t>㈱ジョー・スマイル</t>
+  </si>
+  <si>
+    <t>角　明憲</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街1番22号ｷﾖﾓﾄﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>ＤＩＮＩＮＧ　ＫＩＴＣＨＥＮ　九曜杏</t>
+  </si>
+  <si>
+    <t>熊本市中央区城東町4-2ﾎﾃﾙｷｬｯｽﾙ1F</t>
+  </si>
+  <si>
+    <t>326-3376</t>
+  </si>
+  <si>
+    <t>㈱熊本ホテルキャッスル</t>
+  </si>
+  <si>
+    <t>奥地　大祐</t>
+  </si>
+  <si>
+    <t>熊本市中央区城東町4-2</t>
+  </si>
+  <si>
+    <t>やきとり 鳥八</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街5-2</t>
+  </si>
+  <si>
+    <t>277-1537</t>
+  </si>
+  <si>
+    <t>マックスバリュ新戸島店</t>
+  </si>
+  <si>
+    <t>熊本市東区戸島西5丁目1-16</t>
+  </si>
+  <si>
+    <t>368-1108</t>
+  </si>
+  <si>
+    <t>イオン九州㈱</t>
+  </si>
+  <si>
+    <t>中川　伊正</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区博多駅南2丁目9番11号</t>
+  </si>
+  <si>
+    <t>マックスバリュ新戸島店(寿司)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>㈲若松屋</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熊本市南区川尻4丁目9-12</t>
+  </si>
+  <si>
+    <t>357-9020</t>
+  </si>
+  <si>
+    <t>㈲若松屋</t>
+  </si>
+  <si>
+    <t>林　憲一</t>
+  </si>
+  <si>
+    <t>くまもと水の迎賓館　お手水の森</t>
+  </si>
+  <si>
+    <t>熊本市西区花園7丁目1626</t>
+  </si>
+  <si>
+    <t>352-9609</t>
+  </si>
+  <si>
+    <t>熊本タクシー㈱</t>
+  </si>
+  <si>
+    <t>倉岡　征宏</t>
+  </si>
+  <si>
+    <t>熊本市中央区中央街4番23号</t>
+  </si>
+  <si>
+    <t>就労継続支援Ａ型事務所　ｅワーク</t>
+  </si>
+  <si>
+    <t>熊本市南区近見9丁目10-50</t>
+  </si>
+  <si>
+    <t>325-0007</t>
+  </si>
+  <si>
+    <t>九州トータルプランニング㈲</t>
+  </si>
+  <si>
+    <t>岡田　春美</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺2丁目6-20</t>
+  </si>
+  <si>
+    <t>ｐｌａｃｅ</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町植木104-1-2F-203</t>
+  </si>
+  <si>
+    <t>鳥取　新之助</t>
+  </si>
+  <si>
+    <t>サイゼリア　ゆめタウンサンピアン店</t>
+  </si>
+  <si>
+    <t>熊本市東区上南部2丁目2-2ゆめﾀｳﾝｻﾝﾋﾟｱﾝ1F</t>
+  </si>
+  <si>
+    <t>292-8055</t>
+  </si>
+  <si>
+    <t>㈱サイゼリア</t>
+  </si>
+  <si>
+    <t>正垣　泰彦</t>
+  </si>
+  <si>
+    <t>埼玉県吉川市旭2-5</t>
+  </si>
+  <si>
+    <t>海鮮居酒屋　かづま</t>
+  </si>
+  <si>
+    <t>熊本市東区東本町1-77</t>
+  </si>
+  <si>
+    <t>野﨑　和孝</t>
+  </si>
+  <si>
+    <t>一客一灯</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町12-18TNﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>356-0311</t>
+  </si>
+  <si>
+    <t>㈱一客一灯</t>
+  </si>
+  <si>
+    <t>本田　博人</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町12番18号ｼﾃｨ5ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>ローソン熊本清水新地７丁目店</t>
+  </si>
+  <si>
+    <t>熊本市北区清水新地7丁目9-25</t>
+  </si>
+  <si>
+    <t>内田　勝久</t>
+  </si>
+  <si>
+    <t>カラオケすなっく　リメンバー</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-22ﾒｲﾜﾝﾋﾞﾙ5F</t>
+  </si>
+  <si>
+    <t>井上　富美子</t>
+  </si>
+  <si>
+    <t>カラオケＣＬＵＢ　ＤＡＭ　熊本浜線店</t>
+  </si>
+  <si>
+    <t>熊本市南区出仲間9丁目6-1</t>
+  </si>
+  <si>
+    <t>378-4004</t>
+  </si>
+  <si>
+    <t>㈱キムラヒルズ</t>
+  </si>
+  <si>
+    <t>木村　太一</t>
+  </si>
+  <si>
+    <t>熊本市南区出仲間9丁目6番1号</t>
+  </si>
+  <si>
+    <t>スナック　ＪｉｎＢｅｅ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-22MAY-1ﾋﾞﾙ4F-2</t>
+  </si>
+  <si>
+    <t>田中　人美</t>
+  </si>
+  <si>
+    <t>社会福祉法人やまびこ福祉会</t>
+  </si>
+  <si>
+    <t>一休本舗水前寺店</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺6丁目10-27</t>
+  </si>
+  <si>
+    <t>383-0606</t>
+  </si>
+  <si>
+    <t>㈱一休本舗</t>
+  </si>
+  <si>
+    <t>髙木　功一</t>
+  </si>
+  <si>
+    <t>熊本市東区秋津3丁目14-1</t>
+  </si>
+  <si>
+    <t>ほっともっと　新外店</t>
+  </si>
+  <si>
+    <t>熊本市東区三郎2丁目1-21</t>
+  </si>
+  <si>
+    <t>381-2020</t>
+  </si>
+  <si>
+    <t>㈱ヒロアイギス</t>
+  </si>
+  <si>
+    <t>廣岡　真治</t>
+  </si>
+  <si>
+    <t>ほっともっと　戸島店</t>
+  </si>
+  <si>
+    <t>熊本市東区戸島西2丁目2-63</t>
+  </si>
+  <si>
+    <t>214-2313</t>
+  </si>
+  <si>
+    <t>清香園　浜線店</t>
+  </si>
+  <si>
+    <t>熊本市東区画図町下無田1149-1</t>
+  </si>
+  <si>
+    <t>カフェ　ルクス</t>
+  </si>
+  <si>
+    <t>炉ばた久美</t>
+  </si>
+  <si>
+    <t>熊本市中央区出水2丁目5-5</t>
+  </si>
+  <si>
+    <t>塚﨑　久美子</t>
+  </si>
+  <si>
+    <t>ほっともっと自衛隊通り店</t>
+  </si>
+  <si>
+    <t>熊本市東区健軍本町30-6</t>
+  </si>
+  <si>
+    <t>369-3386</t>
+  </si>
+  <si>
+    <t>㈱尊</t>
+  </si>
+  <si>
+    <t>太田黒　尊之</t>
+  </si>
+  <si>
+    <t>熊本市東区佐土原三丁目4番83号</t>
+  </si>
+  <si>
+    <t>焼鳥　炭屋</t>
+  </si>
+  <si>
+    <t>熊本市中央区十禅寺1丁目5-15</t>
+  </si>
+  <si>
+    <t>那須　靖字</t>
+  </si>
+  <si>
+    <t>えのきぞの</t>
+  </si>
+  <si>
+    <t>熊本市中央区新屋敷1丁目9-19濫觴77A-102</t>
+  </si>
+  <si>
+    <t>榎園　豊成</t>
+  </si>
+  <si>
+    <t>㈱鶴屋百貨店</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町6-1鶴屋百貨店B1</t>
+  </si>
+  <si>
+    <t>356-2111</t>
+  </si>
+  <si>
+    <t>㈱鶴屋百貨店</t>
+  </si>
+  <si>
+    <t>福岡　哲生</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町6-1</t>
+  </si>
+  <si>
+    <t>セブン-イレブン熊本花園１丁目店</t>
+  </si>
+  <si>
+    <t>熊本市西区花園1丁目20-32</t>
+  </si>
+  <si>
+    <t>354-1917</t>
+  </si>
+  <si>
+    <t>(同)秋樹水</t>
+  </si>
+  <si>
+    <t>宮本　四水</t>
+  </si>
+  <si>
+    <t>熊本市西区花園一丁目20番32号</t>
+  </si>
+  <si>
+    <t>タイ料理　Ｐｉｎ　Ｔｏｎｇ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-3熊本ﾋﾞﾙ203</t>
+  </si>
+  <si>
+    <t>326-6123</t>
+  </si>
+  <si>
+    <t>㈱Ａ＆Ｐ</t>
+  </si>
+  <si>
+    <t>ピントン　アヌチット</t>
+  </si>
+  <si>
+    <t>熊本市中央区坪井2丁目2-41-1008</t>
+  </si>
+  <si>
+    <t>炭火焼まるしょう下通本店はなれ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-24RS-8-2F</t>
+  </si>
+  <si>
+    <t>寺田　卓</t>
+  </si>
+  <si>
+    <t>白のハコ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-5ｺﾏﾄﾞﾘﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>今森　将</t>
+  </si>
+  <si>
+    <t>鮨処　味良</t>
+  </si>
+  <si>
+    <t>熊本市東区健軍3丁目50-7</t>
+  </si>
+  <si>
+    <t>367-0335</t>
+  </si>
+  <si>
+    <t>㈲鮨処味良</t>
+  </si>
+  <si>
+    <t>永友　隆博</t>
+  </si>
+  <si>
+    <t>熊本市東区健軍三丁目50番7号</t>
+  </si>
+  <si>
+    <t>やきとり炉ばた　一喜</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江2丁目15-5ｴｲﾄﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>須藤　健二</t>
+  </si>
+  <si>
+    <t>ローソン熊本学園大学店</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江2丁目5-1学生会館内</t>
+  </si>
+  <si>
+    <t>363-7408</t>
+  </si>
+  <si>
+    <t>㈲グリーンキャンパス</t>
+  </si>
+  <si>
+    <t>目黒　純一</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江2丁目5-1</t>
+  </si>
+  <si>
+    <t>肉食堂よかよか</t>
+  </si>
+  <si>
+    <t>熊本市西区田崎町484</t>
+  </si>
+  <si>
+    <t>359-3350</t>
+  </si>
+  <si>
+    <t>㈱三協ダイニング</t>
+  </si>
+  <si>
+    <t>岩本　尚弘</t>
+  </si>
+  <si>
+    <t>熊本市西区田崎町430番11</t>
+  </si>
+  <si>
+    <t>ローソン熊本植木インター店</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町亀甲2092-1</t>
+  </si>
+  <si>
+    <t>井藤　由美</t>
+  </si>
+  <si>
+    <t>善じ</t>
+  </si>
+  <si>
+    <t>熊本市東区尾ノ上4丁目1-23</t>
+  </si>
+  <si>
+    <t>野尻　善次</t>
+  </si>
+  <si>
+    <t>焼肉バル　Ａｓｏｂｉ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目6-7ｱｲｱｲﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>富士木　真子</t>
+  </si>
+  <si>
+    <t>クラブ志保</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-3ｼﾞｬｽﾏｯｸﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>354-8806</t>
+  </si>
+  <si>
+    <t>㈲志保企画</t>
+  </si>
+  <si>
+    <t>福本　峰子</t>
+  </si>
+  <si>
+    <t>熊本市中央区本荘5丁目4-55ｴﾌﾋﾞﾙ203</t>
+  </si>
+  <si>
+    <t>ニューヤマザキデイリーストア崇城大学２号店</t>
+  </si>
+  <si>
+    <t>熊本市西区池田4丁目22-1崇城大学内</t>
+  </si>
+  <si>
+    <t>359-2161</t>
+  </si>
+  <si>
+    <t>㈱メデクス</t>
+  </si>
+  <si>
+    <t>堀内　久子</t>
+  </si>
+  <si>
+    <t>熊本市西区池田4丁目22番1号</t>
+  </si>
+  <si>
+    <t>佳山</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-24ｻﾝｽﾎﾟｯﾄﾏﾂﾌｼﾞﾋﾞﾙBF</t>
+  </si>
+  <si>
+    <t>322-5566</t>
+  </si>
+  <si>
+    <t>㈲佳山</t>
+  </si>
+  <si>
+    <t>山野　康也</t>
+  </si>
+  <si>
+    <t>熊本市西区花園5丁目11-2</t>
+  </si>
+  <si>
+    <t>洋麺屋ピエトロ　ゆめタウンはません店</t>
+  </si>
+  <si>
+    <t>熊本市南区田井島1丁目2-1</t>
+  </si>
+  <si>
+    <t>㈱ヤマサキ</t>
+  </si>
+  <si>
+    <t>山﨑　一正</t>
+  </si>
+  <si>
+    <t>福岡県大牟田市大字橘11番地</t>
+  </si>
+  <si>
+    <t>火の山食堂</t>
+  </si>
+  <si>
+    <t>浅木　美奈子</t>
+  </si>
+  <si>
+    <t>ホットドッグハウス</t>
+  </si>
+  <si>
+    <t>熊本市北区貢町554</t>
+  </si>
+  <si>
+    <t>245-5656</t>
+  </si>
+  <si>
+    <t>㈱ビューライフ</t>
+  </si>
+  <si>
+    <t>加藤　修</t>
+  </si>
+  <si>
+    <t>ヒライ　リブホール白藤店</t>
+  </si>
+  <si>
+    <t>熊本市南区白藤3丁目290-2ﾏﾙｼｮｸ白藤店</t>
+  </si>
+  <si>
+    <t>320-2066</t>
+  </si>
+  <si>
+    <t>うなぎ一徳</t>
+  </si>
+  <si>
+    <t>熊本市北区清水新地6丁目2-1</t>
+  </si>
+  <si>
+    <t>井上　堯腆</t>
+  </si>
+  <si>
+    <t>優峰園フルーツランド</t>
+  </si>
+  <si>
+    <t>熊本市西区河内町岳1144</t>
+  </si>
+  <si>
+    <t>288-1545</t>
+  </si>
+  <si>
+    <t>㈲優峰園フルーツランド</t>
+  </si>
+  <si>
+    <t>田尻　賢治</t>
+  </si>
+  <si>
+    <t>ＲＥＳＴＡＵＲＡＮＴ　ＭＩＭＡＫＩ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上林町2-34GR夢飾人1F</t>
+  </si>
+  <si>
+    <t>三牧　信治</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　ｍｏｏｎ　ｂｏｗ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街2-5ｻﾝｽｸｴｱﾋﾞﾙ4F-1</t>
+  </si>
+  <si>
+    <t>藤本　智恵美</t>
+  </si>
+  <si>
+    <t>Ｓａｌｏｎ　ｄｅ　ｍｏｏｎ　ｂｏｗ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街2-5ｻﾝｽｸｴｱﾋﾞﾙ4F-2</t>
+  </si>
+  <si>
+    <t>レストラン　アンジェロ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目5-19MﾋﾞﾙBF</t>
+  </si>
+  <si>
+    <t>久保田　至</t>
+  </si>
+  <si>
+    <t>ゆとりの空間</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町6-1鶴屋百貨店本館3F</t>
+  </si>
+  <si>
+    <t>327-3666</t>
+  </si>
+  <si>
+    <t>㈱鶴屋フーズ</t>
+  </si>
+  <si>
+    <t>北山　誠</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町6番1号</t>
+  </si>
+  <si>
+    <t>ＢＡＲ　ＳＨＩＲＯＳＴ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-10銀座ﾌﾟﾗｻﾞﾋﾞﾙ503</t>
+  </si>
+  <si>
+    <t>よつばレコーズ㈱</t>
+  </si>
+  <si>
+    <t>上農　理</t>
+  </si>
+  <si>
+    <t>熊本市北区楠8丁目4番16号</t>
+  </si>
+  <si>
+    <t>わらじや</t>
+  </si>
+  <si>
+    <t>熊本市北区飛田4丁目9-130</t>
+  </si>
+  <si>
+    <t>345-4283</t>
+  </si>
+  <si>
+    <t>㈲わらじや</t>
+  </si>
+  <si>
+    <t>森田　三千秋</t>
+  </si>
+  <si>
+    <t>万ごろう本店</t>
+  </si>
+  <si>
+    <t>熊本市中央区西子飼町8-29</t>
+  </si>
+  <si>
+    <t>345-4902</t>
+  </si>
+  <si>
+    <t>㈲万ごろう</t>
+  </si>
+  <si>
+    <t>野田　信之</t>
+  </si>
+  <si>
+    <t>焼酎ＢＡＲ　ＯＷＬ</t>
+  </si>
+  <si>
+    <t>熊本市東区新南部2丁目1-123</t>
+  </si>
+  <si>
+    <t>288-6989</t>
+  </si>
+  <si>
+    <t>金子建装㈱</t>
+  </si>
+  <si>
+    <t>金子　万之</t>
+  </si>
+  <si>
+    <t>熊本市東区新南部2丁目1-125</t>
+  </si>
+  <si>
+    <t>おこのみ焼　はやしだ</t>
+  </si>
+  <si>
+    <t>熊本市西区上代1丁目20-6</t>
+  </si>
+  <si>
+    <t>林田　邦代</t>
+  </si>
+  <si>
+    <t>簾</t>
+  </si>
+  <si>
+    <t>熊本市中央区本荘2丁目15-11</t>
+  </si>
+  <si>
+    <t>八代　毅</t>
+  </si>
+  <si>
+    <t>串王ダイナー</t>
+  </si>
+  <si>
+    <t>熊本市南区島町3丁目1-1</t>
+  </si>
+  <si>
+    <t>㈲串王カンパニー</t>
+  </si>
+  <si>
+    <t>岩下　周二</t>
+  </si>
+  <si>
+    <t>熊本市中央区国府3丁目28-29</t>
+  </si>
+  <si>
+    <t>ｇｒａｃｉａ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-15ﾗｲｵﾝﾋﾞﾙ松藤館704</t>
+  </si>
+  <si>
+    <t>前田　奈美</t>
+  </si>
+  <si>
+    <t>居酒屋五條</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山1丁目40-23</t>
+  </si>
+  <si>
+    <t>381-6002</t>
+  </si>
+  <si>
+    <t>㈱くまカンパニー</t>
+  </si>
+  <si>
+    <t>朝隈　啓雄</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江1丁目25-51</t>
+  </si>
+  <si>
+    <t>ショッピング丸勢　健軍店</t>
+  </si>
+  <si>
+    <t>熊本市東区健軍本町53-9</t>
+  </si>
+  <si>
+    <t>367-6505</t>
+  </si>
+  <si>
+    <t>㈱丸勢</t>
+  </si>
+  <si>
+    <t>森　茂遠</t>
+  </si>
+  <si>
+    <t>南大門</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目5-4佐野ﾋﾞﾙ1F-4</t>
+  </si>
+  <si>
+    <t>李　慶雨</t>
+  </si>
+  <si>
+    <t>黒田藩　力合店</t>
+  </si>
+  <si>
+    <t>熊本市南区薄場町345</t>
+  </si>
+  <si>
+    <t>358-6651</t>
+  </si>
+  <si>
+    <t>昭和食品工業㈱</t>
+  </si>
+  <si>
+    <t>澄川　誠</t>
+  </si>
+  <si>
+    <t>福岡県福岡市東区箱崎4丁目9番38号</t>
+  </si>
+  <si>
+    <t>博多ラーメン　膳　けやき通り店</t>
+  </si>
+  <si>
+    <t>熊本市南区田迎4丁目9-38</t>
+  </si>
+  <si>
+    <t>370-1833</t>
+  </si>
+  <si>
+    <t>ＢＡＲ　きばらし</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町7-35和数奇司館1F</t>
+  </si>
+  <si>
+    <t>川本　直樹</t>
+  </si>
+  <si>
+    <t>スナック　７ＮＡＮＡ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-9ﾋﾟｭｱﾗｲﾄﾋﾞﾙ4F-A</t>
+  </si>
+  <si>
+    <t>王　亜男</t>
+  </si>
+  <si>
+    <t>ＣＡＦＥ　ｄｅ　水道町</t>
+  </si>
+  <si>
+    <t>熊本市中央区水道町1-17岩永ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>277-1788</t>
+  </si>
+  <si>
+    <t>㈾岩永酒店</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岩永　健一</t>
+  </si>
+  <si>
+    <t>熊本市中央区水道町1-17</t>
+  </si>
+  <si>
+    <t>綺月</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目9-15柏田第2ﾋﾞﾙ3F</t>
+  </si>
+  <si>
+    <t>後藤　聖哉</t>
+  </si>
+  <si>
+    <t>松屋別館</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺5丁目5-1</t>
+  </si>
+  <si>
+    <t>213-1331</t>
+  </si>
+  <si>
+    <t>㈲松屋本館</t>
+  </si>
+  <si>
+    <t>西上　佳孝</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺公園23-1</t>
+  </si>
+  <si>
+    <t>尚廉</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-24ｽﾃｰｼﾞ5ﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>355-7014</t>
+  </si>
+  <si>
+    <t>㈱ミュージックブレス</t>
+  </si>
+  <si>
+    <t>本田　洋一</t>
+  </si>
+  <si>
+    <t>熊本市東区尾ノ上1丁目13番7号ﾋﾞﾊﾞﾘｰﾋﾙｽﾞ尾ﾉ上303</t>
+  </si>
+  <si>
+    <t>梅の花熊本店</t>
+  </si>
+  <si>
+    <t>熊本市中央区出水7丁目662-1</t>
+  </si>
+  <si>
+    <t>214-3287</t>
+  </si>
+  <si>
+    <t>㈱梅の花サービス</t>
+  </si>
+  <si>
+    <t>野田　安秀</t>
+  </si>
+  <si>
+    <t>福岡県久留米市天神町146番地</t>
+  </si>
+  <si>
+    <t>ＣＬＵＢ　智</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町10-12角谷ﾋﾞﾙ2F-1号室</t>
+  </si>
+  <si>
+    <t>㈱ＷＨＩＴＥ　ＳＴＯＮＥ</t>
+  </si>
+  <si>
+    <t>白石　智子</t>
+  </si>
+  <si>
+    <t>熊本市南区土河原町328-3</t>
+  </si>
+  <si>
+    <t>盛り場　小早川家</t>
+  </si>
+  <si>
+    <t>熊本市中央区八王寺町35-18</t>
+  </si>
+  <si>
+    <t>小早川　麻美</t>
+  </si>
+  <si>
+    <t>学生食堂　ＳｏＬＡ</t>
+  </si>
+  <si>
+    <t>熊本市西区池田4丁目22-1</t>
+  </si>
+  <si>
+    <t>353-3340</t>
+  </si>
+  <si>
+    <t>㈱慶賓館</t>
+  </si>
+  <si>
+    <t>佐藤　惠子</t>
+  </si>
+  <si>
+    <t>熊本市西区池田4丁目22-3</t>
+  </si>
+  <si>
+    <t>ＳＩＬＣ　Ｃａｆｅ</t>
+  </si>
+  <si>
+    <t>353-3340</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レストラン　あがんなっせ</t>
+  </si>
+  <si>
+    <t>熊本市北区鶴羽田3丁目10-1</t>
+  </si>
+  <si>
+    <t>344-1126</t>
+  </si>
+  <si>
+    <t>上田　堅司</t>
+  </si>
+  <si>
+    <t>広島県広島市西区南観音三丁目16番19号</t>
+  </si>
+  <si>
+    <t>Ｃｈｏｕ　Ｃｈｏｕ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-24銀杏ﾀﾜｰﾋﾞﾙ5F</t>
+  </si>
+  <si>
+    <t>岳元　代志英</t>
+  </si>
+  <si>
+    <t>ＳＮＡＣＫ　Ｖｅｎｕｓ</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町植木102-1幸せ酒蔵の街弐の館203</t>
+  </si>
+  <si>
+    <t>上田　さゆり</t>
+  </si>
+  <si>
+    <t>初の家</t>
+  </si>
+  <si>
+    <t>343-3141</t>
+  </si>
+  <si>
+    <t>㈲初の家</t>
+  </si>
+  <si>
+    <t>竹本　晃</t>
+  </si>
+  <si>
+    <t>熊本市北区八景水谷2丁目17番1号</t>
+  </si>
+  <si>
+    <t>旬彩　おが田</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町3-9fanﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>緒方　仁</t>
+  </si>
+  <si>
+    <t>和笑</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街1-15西村ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>288-1884</t>
+  </si>
+  <si>
+    <t>㈱松本商店</t>
+  </si>
+  <si>
+    <t>松本　尚和</t>
+  </si>
+  <si>
+    <t>熊本市北区龍田二丁目18番33号</t>
+  </si>
+  <si>
+    <t>イタリア料理　トレ・ステッレ</t>
+  </si>
+  <si>
+    <t>熊本市中央区八王寺町41-22</t>
+  </si>
+  <si>
+    <t>田尻　卓也</t>
+  </si>
+  <si>
+    <t>味の興安　植木店</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町舞尾724</t>
+  </si>
+  <si>
+    <t>渡邊　孝明</t>
+  </si>
+  <si>
+    <t>旅館いろは</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町田底30</t>
+  </si>
+  <si>
+    <t>274-6231</t>
+  </si>
+  <si>
+    <t>㈲旅館いろは</t>
+  </si>
+  <si>
+    <t>古田　泰昭</t>
+  </si>
+  <si>
+    <t>花小町</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町岩野266-22</t>
+  </si>
+  <si>
+    <t>本田　広之</t>
+  </si>
+  <si>
+    <t>スナック　林檎</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町植木104-1幸せ酒蔵の街伍の館101</t>
+  </si>
+  <si>
+    <t>山﨑　恵美</t>
+  </si>
+  <si>
+    <t>センターリバー清水店</t>
+  </si>
+  <si>
+    <t>熊本市北区高平2丁目26-24</t>
+  </si>
+  <si>
+    <t>345-4692</t>
+  </si>
+  <si>
+    <t>もつ鍋田しゅう熊本下通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-17甚兵衛ﾋﾞﾙ1F,2F</t>
+  </si>
+  <si>
+    <t>328-1777</t>
+  </si>
+  <si>
+    <t>㈱ＺＩＯＮＥ</t>
+  </si>
+  <si>
+    <t>稲尾　崇</t>
+  </si>
+  <si>
+    <t>福岡県福岡市中央区天神2丁目3-10天神ﾊﾟｲﾝｸﾚｽﾄ7F</t>
+  </si>
+  <si>
+    <t>Ｂｏｎ　ｍｏｍｅｎｔ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目2-12ﾛﾝﾄﾞﾝﾋﾞﾙ2F-4</t>
+  </si>
+  <si>
+    <t>鶴田　知佐</t>
+  </si>
+  <si>
+    <t>ＣＯＦＦＥＥ＆ＢＡＲ　ＡＡ</t>
+  </si>
+  <si>
+    <t>熊本市北区麻生田4丁目2-40</t>
+  </si>
+  <si>
+    <t>高倉　佑誠</t>
+  </si>
+  <si>
+    <t>凜</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目4-15ｽﾍﾟｰｽ95ﾋﾞﾙ2F-2-1</t>
+  </si>
+  <si>
+    <t>大野　薫</t>
+  </si>
+  <si>
+    <t>まつり酒場　一球</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街4-6古城ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>227-6664</t>
+  </si>
+  <si>
+    <t>(同)どっこい商店</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>池田　健次郎</t>
+  </si>
+  <si>
+    <t>ブカ・ラピ</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町3-8有明ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>山本　英貴</t>
+  </si>
+  <si>
+    <t>くまもと海鮮居酒屋真(ＳＨＩＮ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熊本市西区春日2丁目3-24徳永酒店ﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>355-6537</t>
+  </si>
+  <si>
+    <t>(同)ＲＥＰＬＡＹ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今村　真太郎</t>
+  </si>
+  <si>
+    <t>ＲＩＣＨ　ＢＡＲＯＮ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-3銀座ﾌﾟﾚｲｽKUMAMOTO7F-A区画</t>
+  </si>
+  <si>
+    <t>三輪　龍治</t>
+  </si>
+  <si>
+    <t>さつき</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目8-2</t>
+  </si>
+  <si>
+    <t>北浦　美郷</t>
+  </si>
+  <si>
+    <t>串和洋食酒ダイニング　ぎどら</t>
+  </si>
+  <si>
+    <t>熊本市東区新南部2丁目1-131</t>
+  </si>
+  <si>
+    <t>山下　竜一</t>
+  </si>
+  <si>
+    <t>ローソン熊本錦ヶ丘店</t>
+  </si>
+  <si>
+    <t>熊本市東区錦ケ丘2-16</t>
+  </si>
+  <si>
+    <t>古庄　直也</t>
+  </si>
+  <si>
+    <t>Ｓｅｃｒｅｔ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-7ｱｰﾊﾞﾝ銀座ﾋﾞﾙ7F</t>
+  </si>
+  <si>
+    <t>村田　慶人</t>
+  </si>
+  <si>
+    <t>スシロー熊本鹿子木店</t>
+  </si>
+  <si>
+    <t>熊本市北区鹿子木町字花ノ木186番</t>
+  </si>
+  <si>
+    <t>215-9561</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>㈱あきんどスシロー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新居耕平</t>
+  </si>
+  <si>
+    <t>大阪府吹田市江坂町1-22-2</t>
+  </si>
+  <si>
+    <t>㈱ウエスト熊本下通店</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目2-32</t>
+  </si>
+  <si>
+    <t>319-5188</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きなこーや</t>
+  </si>
+  <si>
+    <t>熊本市中央区新屋敷2丁目27-14</t>
+  </si>
+  <si>
+    <t>223-5305</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>㈱みはら</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>三原明子</t>
+  </si>
+  <si>
+    <t>熊本市中央区新屋敷2丁目27番14号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>馬刺・馬焼肉　らむ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-23花畑ビル1階</t>
+  </si>
+  <si>
+    <t>322-9500</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>㈱Y・T・C企画</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小山宏徳</t>
+  </si>
+  <si>
+    <t>熊本市中央区新屋敷3丁目14番5号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>肉のドッキン市　流通団地店</t>
+  </si>
+  <si>
+    <t>熊本市南区流通団地2丁目6</t>
+  </si>
+  <si>
+    <t>378-2929</t>
+  </si>
+  <si>
+    <t>オオツカ㈱</t>
+  </si>
+  <si>
+    <t>猿渡　弘太</t>
+  </si>
+  <si>
+    <t>熊本市南区流通団地二丁目6</t>
+  </si>
+  <si>
+    <t>Ｃａｆｅ　Ｓｈｉｒａｎｋｅｄｏ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新屋敷2丁目13-31-2F</t>
+  </si>
+  <si>
+    <t>龍野　しずく</t>
+  </si>
+  <si>
+    <t>Ｆａｃｅ　ｔｏ　ｆａｃｅ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町12-8銀杏会館ﾋﾞﾙ3F-303</t>
+  </si>
+  <si>
+    <t>岩本　祐子</t>
+  </si>
+  <si>
+    <t>吉村　麻美</t>
+  </si>
+  <si>
+    <t>ギャザー</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目8-5村上ﾋﾞﾙ2F-2</t>
+  </si>
+  <si>
+    <t>三浦　翔</t>
+  </si>
+  <si>
+    <t>スナック　Ｓｍｉｌｅ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-9第2蘇州ﾋﾞﾙ5階C号室</t>
+  </si>
+  <si>
+    <t>ＦＵＪＩＭＯＴＯ　ＳＨＩＲＬＥＹ　ＪＡＮＥ　ＨＥＲＮＡＮＤＥZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>富喜製麺研究所　駕町店</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町5-16ｶﾘｰﾉ駕町ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>㈱ＦＵＫ</t>
+  </si>
+  <si>
+    <t>村上　誠一郎</t>
+  </si>
+  <si>
+    <t>東京都港区六本木四丁目1-4黒崎ﾋﾞﾙ3階</t>
+  </si>
+  <si>
+    <t>完全個室居酒家　光</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町4-15-4F</t>
+  </si>
+  <si>
+    <t>374-7914</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町4番15号</t>
+  </si>
+  <si>
+    <t>北熊本サービスエリア　スナックコーナー</t>
+  </si>
+  <si>
+    <t>熊本市北区改寄町1199九州自動車道北熊本ｻｰﾋﾞｽｴﾘｱ上り線</t>
+  </si>
+  <si>
+    <t>245-2066</t>
+  </si>
+  <si>
+    <t>ロイヤルコントラクトサービス㈱</t>
+  </si>
+  <si>
+    <t>佐々木　貴央</t>
+  </si>
+  <si>
+    <t>東京都世田谷区桜新町一丁目34番6号</t>
+  </si>
+  <si>
+    <t>北熊本サービスエリア　ベーカリー・スィーツコーナー</t>
+  </si>
+  <si>
+    <t>北熊本サービスエリア　外売店</t>
+  </si>
+  <si>
+    <t>串ハル</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町5-41熊八長屋1F-A</t>
+  </si>
+  <si>
+    <t>328-8907</t>
+  </si>
+  <si>
+    <t>㈱晴エンタープライズ</t>
+  </si>
+  <si>
+    <t>小西　俊治</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江五丁目2番15-201号</t>
+  </si>
+  <si>
+    <t>スターバックスコーヒー北熊本サービスエリア(上り線)店</t>
+  </si>
+  <si>
+    <t>熊本市北区改寄町1199九州自動車道 北熊本サービスエリア （上り線）</t>
+  </si>
+  <si>
+    <t>スターバックスコーヒージャパン㈱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水口貴文</t>
+  </si>
+  <si>
+    <t>東京都品川区上大崎2-25-2</t>
+  </si>
+  <si>
+    <t>ポムの樹 SAKURAMACHI Kumamoto店</t>
+  </si>
+  <si>
+    <t>熊本市中央区桜町3-10SAKURAMACHI Kumamoto3F</t>
+  </si>
+  <si>
+    <t>300-0256</t>
+  </si>
+  <si>
+    <t>㈱ポムフード</t>
+  </si>
+  <si>
+    <t>出原　孝雄</t>
+  </si>
+  <si>
+    <t>鹿児島県姶良市加治木町小山田5928-1</t>
+  </si>
+  <si>
+    <t>フルーツ盛り専門店ｂｏｎｂｏｎ</t>
+  </si>
+  <si>
+    <t>熊本市中央区米屋町2丁目17金鼎ﾋﾞﾙkomeya102</t>
+  </si>
+  <si>
+    <t>福嶋　莉奈</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　Ｋａｗａｋａｍｉ</t>
+  </si>
+  <si>
+    <t>熊本市中央区万町2-1</t>
+  </si>
+  <si>
+    <t>川上　周作</t>
+  </si>
+  <si>
+    <t>すき焼　加茂川</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町2-6</t>
+  </si>
+  <si>
+    <t>354-2929</t>
+  </si>
+  <si>
+    <t>㈱加茂川元舖</t>
+  </si>
+  <si>
+    <t>山下　礼央</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町8-19</t>
+  </si>
+  <si>
+    <t>ｌｅ　ｂａｃｃｈｕｓ</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町2-38ﾌｼﾞﾀﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>井芹　圭一</t>
+  </si>
+  <si>
+    <t>Ｃｏｏｋｉｅ　＆　Ｄｅｃｏ</t>
+  </si>
+  <si>
+    <t>熊本市東区西原3丁目1-59ｸﾞﾗｰﾂﾋﾞﾙ101</t>
+  </si>
+  <si>
+    <t>山口　祐佳</t>
+  </si>
+  <si>
+    <t>ちーずとけーき。</t>
+  </si>
+  <si>
+    <t>熊本市西区春日3丁目15-26ｱﾐｭﾌﾟﾗｻﾞくまもと1F</t>
+  </si>
+  <si>
+    <t>㈱ＣＣ　ＰＲＯＪＥＣＴ</t>
+  </si>
+  <si>
+    <t>松山　美和</t>
+  </si>
+  <si>
+    <t>福岡県福岡市南区大楠二丁目17番29号ﾊﾟｰｸｻｲﾄﾞﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>５１０</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-4-1西銀座Nﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>大野　華織</t>
+  </si>
+  <si>
+    <t>ｃｉｅｌ</t>
+  </si>
+  <si>
+    <t>熊本市西区花園3丁目2-37</t>
+  </si>
+  <si>
+    <t>吉村　聡</t>
+  </si>
+  <si>
+    <t>ＮｏＺ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-3宇野ﾋﾞﾙ5F</t>
+  </si>
+  <si>
+    <t>277-1738</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4番3号</t>
+  </si>
+  <si>
+    <t>Ｄｏｇ　ｒｕｎ　＆　Ｃａｆｅ　Ｈｕｇ　ｍｅ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上林町1-30ﾏｰｹｯﾄﾌﾟﾚｲｽ3F</t>
+  </si>
+  <si>
+    <t>芦田　夏風</t>
+  </si>
+  <si>
+    <t>王子カレー　ゆめタウンはません店</t>
+  </si>
+  <si>
+    <t>237-8848</t>
+  </si>
+  <si>
+    <t>㈱ＹＡＢＩＳ</t>
+  </si>
+  <si>
+    <t>カンデル　ビピン</t>
+  </si>
+  <si>
+    <t>山口県山口市小郡御幸町2番3号和田ﾋﾞﾙ</t>
+  </si>
+  <si>
+    <t>吉野家　上熊本店</t>
+    <rPh sb="0" eb="1">
+      <t>ヨシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熊本市西区上熊本3丁目16-14</t>
+  </si>
+  <si>
+    <t>㈱西日本吉野家</t>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中木　良男</t>
+  </si>
+  <si>
+    <t>東京都中央区日本橋箱崎町36番2号</t>
+  </si>
+  <si>
+    <t>屋号、申請者氏名の「吉」は土の下に口</t>
+    <rPh sb="0" eb="2">
+      <t>ヤゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シンセイシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エンタメｂａｒ　まこっちゃん</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-12下通田尻ﾋﾞﾙB1-2</t>
+  </si>
+  <si>
+    <t>小林　真</t>
+  </si>
+  <si>
+    <t>さしより</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目5-6ﾋﾟｭｱｺﾞｰﾙﾄﾞﾋﾞﾙ4F-B</t>
+  </si>
+  <si>
+    <t>355-6228</t>
+  </si>
+  <si>
+    <t>㈱さだめ</t>
+  </si>
+  <si>
+    <t>曽我　大樹</t>
+  </si>
+  <si>
+    <t>熊本市南区薄場1-15-22</t>
+  </si>
+  <si>
+    <t>全品３９０円　焼肉牛貴族</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町12-6ｱﾒｰｼﾞﾝｸﾞﾋﾞﾙ7ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>吉村　瞭宏</t>
+    <rPh sb="0" eb="1">
+      <t>ヨシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>申請者氏名の「吉」は土の下に口</t>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＫＡＷＡＣＨＩ　ＢＡＳＥ‐龍栄荘‐</t>
+  </si>
+  <si>
+    <t>熊本市西区河内町船津2709-2</t>
+  </si>
+  <si>
+    <t>227-9888</t>
+  </si>
+  <si>
+    <t>㈱ｙａｍａ</t>
+  </si>
+  <si>
+    <t>山本　紗衣</t>
+  </si>
+  <si>
+    <t>熊本市中央区新屋敷三丁目15番11-150</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　Ｐｏｌａｒｉｓ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上林町3-33こむらさき本店ﾋﾞﾙ2F-B</t>
+  </si>
+  <si>
+    <t>松山　晴季</t>
+  </si>
+  <si>
+    <t>麺屋　ココ</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山6丁目3-37ﾍﾟｱﾚﾝﾂ坂本1-A</t>
+  </si>
+  <si>
+    <t>永井　武</t>
+  </si>
+  <si>
+    <t>マルエフ熊本</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街6-14守山ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>㈱ブランニューウェイブ</t>
+  </si>
+  <si>
+    <t>髙田　誉啓</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区博多駅前二丁目17番26号</t>
+  </si>
+  <si>
+    <t>ｃ’ｍｏｎ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町10-19-2F</t>
+  </si>
+  <si>
+    <t>野口　眞葵</t>
+  </si>
+  <si>
+    <t>Ｃｏｆｆｅｅ　ｋａｄｏ</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目4-20</t>
+  </si>
+  <si>
+    <t>久保田　洋平</t>
+  </si>
+  <si>
+    <t>フェニックス</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目9-27ﾅﾎﾟﾚｵﾝﾋﾞﾙ3F-A</t>
+  </si>
+  <si>
+    <t>毛　清華</t>
+  </si>
+  <si>
+    <t>Ｐｉｇｇｙ’ｓ　ＢＢＱ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町9-5堤ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>内田　雄太朗</t>
+  </si>
+  <si>
+    <t>たかもとや　上通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町9-4</t>
+  </si>
+  <si>
+    <t>321-7311</t>
+  </si>
+  <si>
+    <t>㈱オアシス九州</t>
+  </si>
+  <si>
+    <t>鈴木　貴善</t>
+  </si>
+  <si>
+    <t>熊本市東区下江津五丁目13番18号</t>
+  </si>
+  <si>
+    <t>ＪＵＩＣＹ’ｓ　ＣＡＦＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街5-11京屋ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>冨永　雅人</t>
   </si>
 </sst>
 </file>
@@ -7177,7 +9348,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7215,6 +9386,7 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -25954,7 +28126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FF3AFA-5521-4AD9-A28F-C3E0A836E89B}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -27724,8 +29896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034F17B0-8D33-445A-B39D-8C41F2C31E62}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -29669,4 +31841,6851 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D4B35B-268F-424B-BBC6-88BC306B8FF8}">
+  <dimension ref="A1:N171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="K159" sqref="K158:K159"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="8" width="8.6640625" style="3"/>
+    <col min="9" max="13" width="15.1640625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="14" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2311</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2313</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2314</v>
+      </c>
+      <c r="I2" s="11">
+        <v>45580</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45589</v>
+      </c>
+      <c r="K2" s="5">
+        <v>45589</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M2" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2316</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>2317</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="11">
+        <v>45582</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45602</v>
+      </c>
+      <c r="K3" s="5">
+        <v>45602</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M3" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>2320</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="11">
+        <v>45583</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45609</v>
+      </c>
+      <c r="K4" s="5">
+        <v>45609</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M4" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2322</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="11">
+        <v>45587</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45603</v>
+      </c>
+      <c r="K5" s="5">
+        <v>45603</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M5" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2326</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>2328</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2329</v>
+      </c>
+      <c r="I6" s="11">
+        <v>45587</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45611</v>
+      </c>
+      <c r="K6" s="5">
+        <v>45611</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M6" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2331</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>2332</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="11">
+        <v>45587</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45595</v>
+      </c>
+      <c r="K7" s="5">
+        <v>45595</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M7" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2334</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>2336</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2338</v>
+      </c>
+      <c r="I8" s="11">
+        <v>45587</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45589</v>
+      </c>
+      <c r="K8" s="5">
+        <v>45589</v>
+      </c>
+      <c r="L8" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M8" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2340</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="11">
+        <v>45588</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45603</v>
+      </c>
+      <c r="K9" s="5">
+        <v>45603</v>
+      </c>
+      <c r="L9" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M9" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2343</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2344</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="I10" s="11">
+        <v>45588</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45602</v>
+      </c>
+      <c r="K10" s="5">
+        <v>45602</v>
+      </c>
+      <c r="L10" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M10" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2346</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2349</v>
+      </c>
+      <c r="I11" s="11">
+        <v>45590</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45609</v>
+      </c>
+      <c r="K11" s="5">
+        <v>45609</v>
+      </c>
+      <c r="L11" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M11" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>2353</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2354</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2351</v>
+      </c>
+      <c r="I12" s="11">
+        <v>45590</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45596</v>
+      </c>
+      <c r="K12" s="5">
+        <v>45596</v>
+      </c>
+      <c r="L12" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M12" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2356</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>2359</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2360</v>
+      </c>
+      <c r="I13" s="11">
+        <v>45590</v>
+      </c>
+      <c r="J13" s="5">
+        <v>45617</v>
+      </c>
+      <c r="K13" s="5">
+        <v>45617</v>
+      </c>
+      <c r="L13" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M13" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2362</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>2365</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>2362</v>
+      </c>
+      <c r="I14" s="11">
+        <v>45590</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45615</v>
+      </c>
+      <c r="K14" s="5">
+        <v>45615</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M14" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11">
+        <v>45590</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45617</v>
+      </c>
+      <c r="K15" s="5">
+        <v>45617</v>
+      </c>
+      <c r="L15" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M15" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>2373</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="I16" s="11">
+        <v>45590</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45595</v>
+      </c>
+      <c r="K16" s="5">
+        <v>45595</v>
+      </c>
+      <c r="L16" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M16" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>2378</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>2379</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>2376</v>
+      </c>
+      <c r="I17" s="11">
+        <v>45590</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45610</v>
+      </c>
+      <c r="K17" s="5">
+        <v>45610</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M17" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>2383</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>2385</v>
+      </c>
+      <c r="I18" s="11">
+        <v>45593</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45607</v>
+      </c>
+      <c r="K18" s="5">
+        <v>45607</v>
+      </c>
+      <c r="L18" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M18" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>2390</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>2391</v>
+      </c>
+      <c r="I19" s="11">
+        <v>45593</v>
+      </c>
+      <c r="J19" s="5">
+        <v>45602</v>
+      </c>
+      <c r="K19" s="5">
+        <v>45602</v>
+      </c>
+      <c r="L19" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M19" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="11">
+        <v>45593</v>
+      </c>
+      <c r="J20" s="5">
+        <v>45602</v>
+      </c>
+      <c r="K20" s="5">
+        <v>45602</v>
+      </c>
+      <c r="L20" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M20" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>2399</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>2400</v>
+      </c>
+      <c r="I21" s="11">
+        <v>45593</v>
+      </c>
+      <c r="J21" s="5">
+        <v>45596</v>
+      </c>
+      <c r="K21" s="5">
+        <v>45596</v>
+      </c>
+      <c r="L21" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M21" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>2404</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>2405</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="I22" s="11">
+        <v>45593</v>
+      </c>
+      <c r="J22" s="5">
+        <v>45596</v>
+      </c>
+      <c r="K22" s="5">
+        <v>45596</v>
+      </c>
+      <c r="L22" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M22" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2408</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>2410</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>2411</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>2408</v>
+      </c>
+      <c r="I23" s="11">
+        <v>45594</v>
+      </c>
+      <c r="J23" s="5">
+        <v>45615</v>
+      </c>
+      <c r="K23" s="5">
+        <v>45615</v>
+      </c>
+      <c r="L23" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M23" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2413</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>2414</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="I24" s="11">
+        <v>45594</v>
+      </c>
+      <c r="J24" s="5">
+        <v>45603</v>
+      </c>
+      <c r="K24" s="5">
+        <v>45603</v>
+      </c>
+      <c r="L24" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M24" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>2418</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="I25" s="11">
+        <v>45594</v>
+      </c>
+      <c r="J25" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K25" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L25" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M25" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2420</v>
+      </c>
+      <c r="I26" s="11">
+        <v>45595</v>
+      </c>
+      <c r="J26" s="5">
+        <v>45608</v>
+      </c>
+      <c r="K26" s="5">
+        <v>45608</v>
+      </c>
+      <c r="L26" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M26" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>2424</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>2425</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>2426</v>
+      </c>
+      <c r="I27" s="11">
+        <v>45595</v>
+      </c>
+      <c r="J27" s="5">
+        <v>45610</v>
+      </c>
+      <c r="K27" s="5">
+        <v>45610</v>
+      </c>
+      <c r="L27" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M27" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>2430</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>2431</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>2428</v>
+      </c>
+      <c r="I28" s="11">
+        <v>45595</v>
+      </c>
+      <c r="J28" s="5">
+        <v>45595</v>
+      </c>
+      <c r="K28" s="5">
+        <v>45595</v>
+      </c>
+      <c r="L28" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M28" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>2434</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>2435</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>2436</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="I29" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J29" s="5">
+        <v>45608</v>
+      </c>
+      <c r="K29" s="5">
+        <v>45608</v>
+      </c>
+      <c r="L29" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M29" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>2440</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>2442</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>2443</v>
+      </c>
+      <c r="I30" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J30" s="5">
+        <v>45601</v>
+      </c>
+      <c r="K30" s="5">
+        <v>45601</v>
+      </c>
+      <c r="L30" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M30" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>2446</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I31" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J31" s="5">
+        <v>45602</v>
+      </c>
+      <c r="K31" s="5">
+        <v>45602</v>
+      </c>
+      <c r="L31" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M31" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>2451</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2452</v>
+      </c>
+      <c r="I32" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J32" s="5">
+        <v>45604</v>
+      </c>
+      <c r="K32" s="5">
+        <v>45604</v>
+      </c>
+      <c r="L32" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M32" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>2451</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>2452</v>
+      </c>
+      <c r="I33" s="11">
+        <v>45596</v>
+      </c>
+      <c r="J33" s="5">
+        <v>45604</v>
+      </c>
+      <c r="K33" s="5">
+        <v>45604</v>
+      </c>
+      <c r="L33" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M33" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>2457</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>2458</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2455</v>
+      </c>
+      <c r="I34" s="11">
+        <v>45597</v>
+      </c>
+      <c r="J34" s="5">
+        <v>45611</v>
+      </c>
+      <c r="K34" s="5">
+        <v>45611</v>
+      </c>
+      <c r="L34" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M34" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>2463</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="I35" s="11">
+        <v>45597</v>
+      </c>
+      <c r="J35" s="5">
+        <v>45618</v>
+      </c>
+      <c r="K35" s="5">
+        <v>45618</v>
+      </c>
+      <c r="L35" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M35" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>2467</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>2469</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>2470</v>
+      </c>
+      <c r="I36" s="11">
+        <v>45597</v>
+      </c>
+      <c r="J36" s="5">
+        <v>45611</v>
+      </c>
+      <c r="K36" s="5">
+        <v>45611</v>
+      </c>
+      <c r="L36" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M36" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2472</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="11">
+        <v>45601</v>
+      </c>
+      <c r="J37" s="5">
+        <v>45601</v>
+      </c>
+      <c r="K37" s="5">
+        <v>45601</v>
+      </c>
+      <c r="L37" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M37" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>2478</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>2479</v>
+      </c>
+      <c r="I38" s="11">
+        <v>45601</v>
+      </c>
+      <c r="J38" s="5">
+        <v>45616</v>
+      </c>
+      <c r="K38" s="5">
+        <v>45616</v>
+      </c>
+      <c r="L38" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M38" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2481</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="11">
+        <v>45602</v>
+      </c>
+      <c r="J39" s="5">
+        <v>45604</v>
+      </c>
+      <c r="K39" s="5">
+        <v>45604</v>
+      </c>
+      <c r="L39" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M39" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>2485</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>2486</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>2487</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>2488</v>
+      </c>
+      <c r="I40" s="11">
+        <v>45602</v>
+      </c>
+      <c r="J40" s="5">
+        <v>45614</v>
+      </c>
+      <c r="K40" s="5">
+        <v>45614</v>
+      </c>
+      <c r="L40" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M40" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>2491</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="11">
+        <v>45602</v>
+      </c>
+      <c r="J41" s="5">
+        <v>45609</v>
+      </c>
+      <c r="K41" s="5">
+        <v>45609</v>
+      </c>
+      <c r="L41" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M41" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2493</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>2494</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J42" s="5">
+        <v>45608</v>
+      </c>
+      <c r="K42" s="5">
+        <v>45608</v>
+      </c>
+      <c r="L42" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M42" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>2498</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>2499</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>2500</v>
+      </c>
+      <c r="I43" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J43" s="5">
+        <v>45608</v>
+      </c>
+      <c r="K43" s="5">
+        <v>45608</v>
+      </c>
+      <c r="L43" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M43" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>2503</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J44" s="5">
+        <v>45610</v>
+      </c>
+      <c r="K44" s="5">
+        <v>45610</v>
+      </c>
+      <c r="L44" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M44" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>2504</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="I45" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J45" s="5">
+        <v>45617</v>
+      </c>
+      <c r="K45" s="5">
+        <v>45617</v>
+      </c>
+      <c r="L45" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M45" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>2508</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>2509</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>2510</v>
+      </c>
+      <c r="I46" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J46" s="5">
+        <v>45614</v>
+      </c>
+      <c r="K46" s="5">
+        <v>45614</v>
+      </c>
+      <c r="L46" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M46" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>2514</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>2515</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>2512</v>
+      </c>
+      <c r="I47" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J47" s="5">
+        <v>45611</v>
+      </c>
+      <c r="K47" s="5">
+        <v>45611</v>
+      </c>
+      <c r="L47" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M47" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>2514</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>2515</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>2512</v>
+      </c>
+      <c r="I48" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J48" s="5">
+        <v>45611</v>
+      </c>
+      <c r="K48" s="5">
+        <v>45611</v>
+      </c>
+      <c r="L48" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M48" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>2220</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J49" s="5">
+        <v>45614</v>
+      </c>
+      <c r="K49" s="5">
+        <v>45614</v>
+      </c>
+      <c r="L49" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M49" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>2220</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J50" s="5">
+        <v>45614</v>
+      </c>
+      <c r="K50" s="5">
+        <v>45614</v>
+      </c>
+      <c r="L50" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M50" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>2524</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="11">
+        <v>45604</v>
+      </c>
+      <c r="J51" s="5">
+        <v>45618</v>
+      </c>
+      <c r="K51" s="5">
+        <v>45618</v>
+      </c>
+      <c r="L51" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M51" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>2526</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>2528</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>2530</v>
+      </c>
+      <c r="I52" s="11">
+        <v>45604</v>
+      </c>
+      <c r="J52" s="5">
+        <v>45607</v>
+      </c>
+      <c r="K52" s="5">
+        <v>45607</v>
+      </c>
+      <c r="L52" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M52" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="11">
+        <v>45607</v>
+      </c>
+      <c r="J53" s="5">
+        <v>45607</v>
+      </c>
+      <c r="K53" s="5">
+        <v>45607</v>
+      </c>
+      <c r="L53" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M53" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="11">
+        <v>45607</v>
+      </c>
+      <c r="J54" s="5">
+        <v>45621</v>
+      </c>
+      <c r="K54" s="5">
+        <v>45621</v>
+      </c>
+      <c r="L54" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M54" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>2540</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>2541</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>2542</v>
+      </c>
+      <c r="I55" s="11">
+        <v>45607</v>
+      </c>
+      <c r="J55" s="5">
+        <v>45610</v>
+      </c>
+      <c r="K55" s="5">
+        <v>45610</v>
+      </c>
+      <c r="L55" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M55" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>2546</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>2547</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="I56" s="11">
+        <v>45607</v>
+      </c>
+      <c r="J56" s="5">
+        <v>45611</v>
+      </c>
+      <c r="K56" s="5">
+        <v>45611</v>
+      </c>
+      <c r="L56" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M56" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>2552</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>2553</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="I57" s="11">
+        <v>45607</v>
+      </c>
+      <c r="J57" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K57" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L57" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M57" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="11">
+        <v>45608</v>
+      </c>
+      <c r="J58" s="5">
+        <v>45610</v>
+      </c>
+      <c r="K58" s="5">
+        <v>45610</v>
+      </c>
+      <c r="L58" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M58" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4" t="s">
+        <v>2560</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="11">
+        <v>45608</v>
+      </c>
+      <c r="J59" s="5">
+        <v>45611</v>
+      </c>
+      <c r="K59" s="5">
+        <v>45611</v>
+      </c>
+      <c r="L59" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M59" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>2564</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>2565</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2566</v>
+      </c>
+      <c r="I60" s="11">
+        <v>45609</v>
+      </c>
+      <c r="J60" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K60" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L60" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M60" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>2568</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>2569</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="11">
+        <v>45609</v>
+      </c>
+      <c r="J61" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K61" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L61" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M61" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I62" s="11">
+        <v>45609</v>
+      </c>
+      <c r="J62" s="5">
+        <v>45615</v>
+      </c>
+      <c r="K62" s="5">
+        <v>45615</v>
+      </c>
+      <c r="L62" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M62" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>2580</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>2581</v>
+      </c>
+      <c r="I63" s="11">
+        <v>45609</v>
+      </c>
+      <c r="J63" s="5">
+        <v>45611</v>
+      </c>
+      <c r="K63" s="5">
+        <v>45611</v>
+      </c>
+      <c r="L63" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M63" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="11">
+        <v>45609</v>
+      </c>
+      <c r="J64" s="5">
+        <v>45611</v>
+      </c>
+      <c r="K64" s="5">
+        <v>45611</v>
+      </c>
+      <c r="L64" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M64" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>2587</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="11">
+        <v>45610</v>
+      </c>
+      <c r="J65" s="5">
+        <v>45611</v>
+      </c>
+      <c r="K65" s="5">
+        <v>45611</v>
+      </c>
+      <c r="L65" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M65" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4" t="s">
+        <v>2590</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="11">
+        <v>45610</v>
+      </c>
+      <c r="J66" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K66" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L66" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M66" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>2594</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>2595</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="I67" s="11">
+        <v>45610</v>
+      </c>
+      <c r="J67" s="5">
+        <v>45615</v>
+      </c>
+      <c r="K67" s="5">
+        <v>45615</v>
+      </c>
+      <c r="L67" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M67" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>2600</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>2601</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="I68" s="11">
+        <v>45610</v>
+      </c>
+      <c r="J68" s="5">
+        <v>45616</v>
+      </c>
+      <c r="K68" s="5">
+        <v>45616</v>
+      </c>
+      <c r="L68" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M68" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>2608</v>
+      </c>
+      <c r="I69" s="11">
+        <v>45611</v>
+      </c>
+      <c r="J69" s="5">
+        <v>45616</v>
+      </c>
+      <c r="K69" s="5">
+        <v>45616</v>
+      </c>
+      <c r="L69" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M69" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>2612</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>2613</v>
+      </c>
+      <c r="I70" s="11">
+        <v>45611</v>
+      </c>
+      <c r="J70" s="5">
+        <v>45616</v>
+      </c>
+      <c r="K70" s="5">
+        <v>45616</v>
+      </c>
+      <c r="L70" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M70" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>2615</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="11">
+        <v>45611</v>
+      </c>
+      <c r="J71" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K71" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L71" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M71" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>2619</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>2617</v>
+      </c>
+      <c r="I72" s="11">
+        <v>45611</v>
+      </c>
+      <c r="J72" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K72" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L72" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M72" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>2623</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I73" s="11">
+        <v>45611</v>
+      </c>
+      <c r="J73" s="5">
+        <v>45621</v>
+      </c>
+      <c r="K73" s="5">
+        <v>45621</v>
+      </c>
+      <c r="L73" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M73" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>2626</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="11">
+        <v>45614</v>
+      </c>
+      <c r="J74" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K74" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L74" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M74" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>2631</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="I75" s="11">
+        <v>45614</v>
+      </c>
+      <c r="J75" s="5">
+        <v>45614</v>
+      </c>
+      <c r="K75" s="5">
+        <v>45614</v>
+      </c>
+      <c r="L75" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M75" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4" t="s">
+        <v>2634</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="11">
+        <v>45614</v>
+      </c>
+      <c r="J76" s="5">
+        <v>45616</v>
+      </c>
+      <c r="K76" s="5">
+        <v>45616</v>
+      </c>
+      <c r="L76" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M76" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="11">
+        <v>45615</v>
+      </c>
+      <c r="J77" s="5">
+        <v>45617</v>
+      </c>
+      <c r="K77" s="5">
+        <v>45617</v>
+      </c>
+      <c r="L77" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M77" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="11">
+        <v>45615</v>
+      </c>
+      <c r="J78" s="5">
+        <v>45617</v>
+      </c>
+      <c r="K78" s="5">
+        <v>45617</v>
+      </c>
+      <c r="L78" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M78" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>2640</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="11">
+        <v>45615</v>
+      </c>
+      <c r="J79" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K79" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L79" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M79" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>2646</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>2647</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>2648</v>
+      </c>
+      <c r="I80" s="11">
+        <v>45615</v>
+      </c>
+      <c r="J80" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K80" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L80" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M80" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4" t="s">
+        <v>2651</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>2652</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="I81" s="11">
+        <v>45616</v>
+      </c>
+      <c r="J81" s="5">
+        <v>45618</v>
+      </c>
+      <c r="K81" s="5">
+        <v>45618</v>
+      </c>
+      <c r="L81" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M81" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>2656</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>2658</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="I82" s="11">
+        <v>45616</v>
+      </c>
+      <c r="J82" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K82" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L82" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M82" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>2661</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>2662</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>2663</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="I83" s="11">
+        <v>45616</v>
+      </c>
+      <c r="J83" s="5">
+        <v>45616</v>
+      </c>
+      <c r="K83" s="5">
+        <v>45616</v>
+      </c>
+      <c r="L83" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M83" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>2667</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>2668</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>2669</v>
+      </c>
+      <c r="I84" s="11">
+        <v>45616</v>
+      </c>
+      <c r="J84" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K84" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L84" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M84" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>2672</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="11">
+        <v>45616</v>
+      </c>
+      <c r="J85" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K85" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L85" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M85" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>2675</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="11">
+        <v>45617</v>
+      </c>
+      <c r="J86" s="5">
+        <v>45621</v>
+      </c>
+      <c r="K86" s="5">
+        <v>45621</v>
+      </c>
+      <c r="L86" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M86" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>2677</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>2678</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>2679</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>2680</v>
+      </c>
+      <c r="I87" s="11">
+        <v>45617</v>
+      </c>
+      <c r="J87" s="5">
+        <v>45617</v>
+      </c>
+      <c r="K87" s="5">
+        <v>45617</v>
+      </c>
+      <c r="L87" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M87" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>2683</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="11">
+        <v>45617</v>
+      </c>
+      <c r="J88" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K88" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L88" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M88" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>2685</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>2686</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>2687</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>2688</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>2689</v>
+      </c>
+      <c r="I89" s="11">
+        <v>45617</v>
+      </c>
+      <c r="J89" s="5">
+        <v>45617</v>
+      </c>
+      <c r="K89" s="5">
+        <v>45617</v>
+      </c>
+      <c r="L89" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M89" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>2694</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>2691</v>
+      </c>
+      <c r="I90" s="11">
+        <v>45617</v>
+      </c>
+      <c r="J90" s="5">
+        <v>45617</v>
+      </c>
+      <c r="K90" s="5">
+        <v>45617</v>
+      </c>
+      <c r="L90" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M90" s="5">
+        <v>48182</v>
+      </c>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>2697</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="11">
+        <v>45618</v>
+      </c>
+      <c r="J91" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K91" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L91" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M91" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>2701</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>2702</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>2703</v>
+      </c>
+      <c r="I92" s="11">
+        <v>45618</v>
+      </c>
+      <c r="J92" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K92" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L92" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M92" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>2701</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>2702</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>2703</v>
+      </c>
+      <c r="I93" s="11">
+        <v>45618</v>
+      </c>
+      <c r="J93" s="5">
+        <v>45625</v>
+      </c>
+      <c r="K93" s="5">
+        <v>45625</v>
+      </c>
+      <c r="L93" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M93" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>2707</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4" t="s">
+        <v>2709</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="11">
+        <v>45618</v>
+      </c>
+      <c r="J94" s="5">
+        <v>45625</v>
+      </c>
+      <c r="K94" s="5">
+        <v>45625</v>
+      </c>
+      <c r="L94" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M94" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4" t="s">
+        <v>2712</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="11">
+        <v>45618</v>
+      </c>
+      <c r="J95" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K95" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L95" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M95" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>2716</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>2717</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="I96" s="11">
+        <v>45618</v>
+      </c>
+      <c r="J96" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K96" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L96" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M96" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>2721</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="11">
+        <v>45621</v>
+      </c>
+      <c r="J97" s="5">
+        <v>45621</v>
+      </c>
+      <c r="K97" s="5">
+        <v>45621</v>
+      </c>
+      <c r="L97" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M97" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>2724</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>2725</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>2726</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="I98" s="11">
+        <v>45621</v>
+      </c>
+      <c r="J98" s="5">
+        <v>45621</v>
+      </c>
+      <c r="K98" s="5">
+        <v>45621</v>
+      </c>
+      <c r="L98" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M98" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>2731</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>2732</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="I99" s="11">
+        <v>45621</v>
+      </c>
+      <c r="J99" s="5">
+        <v>45621</v>
+      </c>
+      <c r="K99" s="5">
+        <v>45621</v>
+      </c>
+      <c r="L99" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M99" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>2737</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>2739</v>
+      </c>
+      <c r="I100" s="11">
+        <v>45621</v>
+      </c>
+      <c r="J100" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K100" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L100" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M100" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>2742</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>2743</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="I101" s="11">
+        <v>45622</v>
+      </c>
+      <c r="J101" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K101" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L101" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M101" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>2746</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4" t="s">
+        <v>2747</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="11">
+        <v>45622</v>
+      </c>
+      <c r="J102" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K102" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L102" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M102" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>2749</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>2750</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>2751</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>2752</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>2753</v>
+      </c>
+      <c r="I103" s="11">
+        <v>45622</v>
+      </c>
+      <c r="J103" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K103" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L103" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M103" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>2749</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>2755</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>2751</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>2752</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>2753</v>
+      </c>
+      <c r="I104" s="11">
+        <v>45622</v>
+      </c>
+      <c r="J104" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K104" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L104" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M104" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>2757</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>2758</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>2759</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>2760</v>
+      </c>
+      <c r="I105" s="11">
+        <v>45622</v>
+      </c>
+      <c r="J105" s="5">
+        <v>45622</v>
+      </c>
+      <c r="K105" s="5">
+        <v>45622</v>
+      </c>
+      <c r="L105" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M105" s="5">
+        <v>48182</v>
+      </c>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4" t="s">
+        <v>2763</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="11">
+        <v>45623</v>
+      </c>
+      <c r="J106" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K106" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L106" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M106" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>2765</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4" t="s">
+        <v>2766</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="11">
+        <v>45623</v>
+      </c>
+      <c r="J107" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K107" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L107" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M107" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>2768</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>2769</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>2770</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>2771</v>
+      </c>
+      <c r="I108" s="11">
+        <v>45623</v>
+      </c>
+      <c r="J108" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K108" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L108" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M108" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>2773</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="11">
+        <v>45623</v>
+      </c>
+      <c r="J109" s="5">
+        <v>45625</v>
+      </c>
+      <c r="K109" s="5">
+        <v>45625</v>
+      </c>
+      <c r="L109" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M109" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>2777</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>2778</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>2779</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>2780</v>
+      </c>
+      <c r="I110" s="11">
+        <v>45623</v>
+      </c>
+      <c r="J110" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K110" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L110" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M110" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>2782</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4" t="s">
+        <v>2783</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="11">
+        <v>45623</v>
+      </c>
+      <c r="J111" s="5">
+        <v>45623</v>
+      </c>
+      <c r="K111" s="5">
+        <v>45623</v>
+      </c>
+      <c r="L111" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M111" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>2785</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J112" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K112" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L112" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M112" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>2790</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>2791</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>2788</v>
+      </c>
+      <c r="I113" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J113" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K113" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L113" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M113" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4" t="s">
+        <v>2794</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J114" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K114" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L114" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M114" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>2797</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J115" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K115" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L115" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M115" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>2800</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="I116" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J116" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K116" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L116" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M116" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>2802</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>2804</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>2805</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>2806</v>
+      </c>
+      <c r="I117" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J117" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K117" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L117" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M117" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4" t="s">
+        <v>2809</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J118" s="5">
+        <v>45625</v>
+      </c>
+      <c r="K118" s="5">
+        <v>45625</v>
+      </c>
+      <c r="L118" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M118" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4" t="s">
+        <v>2812</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J119" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K119" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L119" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M119" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4" t="s">
+        <v>2815</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J120" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K120" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L120" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M120" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N120" s="4"/>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>2820</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I121" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J121" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K121" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L121" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M121" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4" t="s">
+        <v>2823</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J122" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K122" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L122" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M122" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N122" s="4"/>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>2827</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>2828</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>2825</v>
+      </c>
+      <c r="I123" s="11">
+        <v>45625</v>
+      </c>
+      <c r="J123" s="5">
+        <v>45625</v>
+      </c>
+      <c r="K123" s="5">
+        <v>45625</v>
+      </c>
+      <c r="L123" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M123" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="11">
+        <v>45625</v>
+      </c>
+      <c r="J124" s="5">
+        <v>45628</v>
+      </c>
+      <c r="K124" s="5">
+        <v>45628</v>
+      </c>
+      <c r="L124" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M124" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N124" s="4"/>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4" t="s">
+        <v>2834</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="11">
+        <v>45625</v>
+      </c>
+      <c r="J125" s="5">
+        <v>45625</v>
+      </c>
+      <c r="K125" s="5">
+        <v>45625</v>
+      </c>
+      <c r="L125" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M125" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N125" s="4"/>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4" t="s">
+        <v>2837</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="11">
+        <v>45625</v>
+      </c>
+      <c r="J126" s="5">
+        <v>45625</v>
+      </c>
+      <c r="K126" s="5">
+        <v>45625</v>
+      </c>
+      <c r="L126" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M126" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N126" s="4"/>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4" t="s">
+        <v>2840</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="11">
+        <v>45625</v>
+      </c>
+      <c r="J127" s="5">
+        <v>45625</v>
+      </c>
+      <c r="K127" s="5">
+        <v>45625</v>
+      </c>
+      <c r="L127" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M127" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N127" s="4"/>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>2842</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>2843</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="11">
+        <v>45628</v>
+      </c>
+      <c r="J128" s="5">
+        <v>45628</v>
+      </c>
+      <c r="K128" s="5">
+        <v>45628</v>
+      </c>
+      <c r="L128" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M128" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N128" s="4"/>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>2847</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>2848</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>2849</v>
+      </c>
+      <c r="I129" s="11">
+        <v>45576</v>
+      </c>
+      <c r="J129" s="5">
+        <v>45580</v>
+      </c>
+      <c r="K129" s="5">
+        <v>45580</v>
+      </c>
+      <c r="L129" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M129" s="5">
+        <v>48182</v>
+      </c>
+      <c r="N129" s="4"/>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="I130" s="11">
+        <v>45609</v>
+      </c>
+      <c r="J130" s="5">
+        <v>45611</v>
+      </c>
+      <c r="K130" s="5">
+        <v>45611</v>
+      </c>
+      <c r="L130" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M130" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N130" s="4"/>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>2856</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>2857</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>2858</v>
+      </c>
+      <c r="I131" s="11">
+        <v>45611</v>
+      </c>
+      <c r="J131" s="5">
+        <v>45615</v>
+      </c>
+      <c r="K131" s="5">
+        <v>45615</v>
+      </c>
+      <c r="L131" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M131" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N131" s="4"/>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>2860</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>2861</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>2862</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I132" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J132" s="5">
+        <v>45624</v>
+      </c>
+      <c r="K132" s="5">
+        <v>45624</v>
+      </c>
+      <c r="L132" s="5">
+        <v>45627</v>
+      </c>
+      <c r="M132" s="5">
+        <v>47817</v>
+      </c>
+      <c r="N132" s="4"/>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>2867</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>2868</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>2869</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>2870</v>
+      </c>
+      <c r="I133" s="11">
+        <v>45607</v>
+      </c>
+      <c r="J133" s="5">
+        <v>45628</v>
+      </c>
+      <c r="K133" s="5">
+        <v>45628</v>
+      </c>
+      <c r="L133" s="5">
+        <v>45628</v>
+      </c>
+      <c r="M133" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N133" s="4"/>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="11">
+        <v>45625</v>
+      </c>
+      <c r="J134" s="5">
+        <v>45628</v>
+      </c>
+      <c r="K134" s="5">
+        <v>45628</v>
+      </c>
+      <c r="L134" s="5">
+        <v>45628</v>
+      </c>
+      <c r="M134" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N134" s="4"/>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>2875</v>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4" t="s">
+        <v>2876</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="11">
+        <v>45616</v>
+      </c>
+      <c r="J135" s="5">
+        <v>45629</v>
+      </c>
+      <c r="K135" s="5">
+        <v>45629</v>
+      </c>
+      <c r="L135" s="5">
+        <v>45629</v>
+      </c>
+      <c r="M135" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N135" s="4"/>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4" t="s">
+        <v>2877</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="11">
+        <v>45624</v>
+      </c>
+      <c r="J136" s="5">
+        <v>45629</v>
+      </c>
+      <c r="K136" s="5">
+        <v>45629</v>
+      </c>
+      <c r="L136" s="5">
+        <v>45629</v>
+      </c>
+      <c r="M136" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N136" s="4"/>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>2878</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="11">
+        <v>45625</v>
+      </c>
+      <c r="J137" s="5">
+        <v>45629</v>
+      </c>
+      <c r="K137" s="5">
+        <v>45629</v>
+      </c>
+      <c r="L137" s="5">
+        <v>45629</v>
+      </c>
+      <c r="M137" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N137" s="4"/>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>2882</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4" t="s">
+        <v>2883</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="11">
+        <v>45625</v>
+      </c>
+      <c r="J138" s="5">
+        <v>45629</v>
+      </c>
+      <c r="K138" s="5">
+        <v>45629</v>
+      </c>
+      <c r="L138" s="5">
+        <v>45629</v>
+      </c>
+      <c r="M138" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N138" s="12"/>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>2885</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>2886</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>2887</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>2888</v>
+      </c>
+      <c r="I139" s="11">
+        <v>45614</v>
+      </c>
+      <c r="J139" s="5">
+        <v>45630</v>
+      </c>
+      <c r="K139" s="5">
+        <v>45630</v>
+      </c>
+      <c r="L139" s="5">
+        <v>45630</v>
+      </c>
+      <c r="M139" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N139" s="4"/>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>2890</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>2891</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>2280</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>2281</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>2892</v>
+      </c>
+      <c r="I140" s="11">
+        <v>45629</v>
+      </c>
+      <c r="J140" s="5">
+        <v>45630</v>
+      </c>
+      <c r="K140" s="5">
+        <v>45630</v>
+      </c>
+      <c r="L140" s="5">
+        <v>45630</v>
+      </c>
+      <c r="M140" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N140" s="4"/>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>2894</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>2895</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>2896</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>2897</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>2898</v>
+      </c>
+      <c r="I141" s="11">
+        <v>45607</v>
+      </c>
+      <c r="J141" s="5">
+        <v>45631</v>
+      </c>
+      <c r="K141" s="5">
+        <v>45631</v>
+      </c>
+      <c r="L141" s="5">
+        <v>45631</v>
+      </c>
+      <c r="M141" s="5">
+        <v>48273</v>
+      </c>
+      <c r="N141" s="4"/>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>2894</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>2895</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>2896</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>2897</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>2898</v>
+      </c>
+      <c r="I142" s="11">
+        <v>45607</v>
+      </c>
+      <c r="J142" s="5">
+        <v>45631</v>
+      </c>
+      <c r="K142" s="5">
+        <v>45631</v>
+      </c>
+      <c r="L142" s="5">
+        <v>45631</v>
+      </c>
+      <c r="M142" s="5">
+        <v>48273</v>
+      </c>
+      <c r="N142" s="4"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>2894</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>2895</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>2896</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>2897</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>2898</v>
+      </c>
+      <c r="I143" s="11">
+        <v>45607</v>
+      </c>
+      <c r="J143" s="5">
+        <v>45631</v>
+      </c>
+      <c r="K143" s="5">
+        <v>45631</v>
+      </c>
+      <c r="L143" s="5">
+        <v>45631</v>
+      </c>
+      <c r="M143" s="5">
+        <v>48273</v>
+      </c>
+      <c r="N143" s="4"/>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>2902</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>2905</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>2906</v>
+      </c>
+      <c r="I144" s="11">
+        <v>45623</v>
+      </c>
+      <c r="J144" s="5">
+        <v>45631</v>
+      </c>
+      <c r="K144" s="5">
+        <v>45631</v>
+      </c>
+      <c r="L144" s="5">
+        <v>45631</v>
+      </c>
+      <c r="M144" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N144" s="4"/>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>2910</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>2911</v>
+      </c>
+      <c r="I145" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J145" s="5">
+        <v>45631</v>
+      </c>
+      <c r="K145" s="5">
+        <v>45631</v>
+      </c>
+      <c r="L145" s="5">
+        <v>45631</v>
+      </c>
+      <c r="M145" s="5">
+        <v>48273</v>
+      </c>
+      <c r="N145" s="4"/>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>2915</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>2916</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>2917</v>
+      </c>
+      <c r="I146" s="11">
+        <v>45623</v>
+      </c>
+      <c r="J146" s="5">
+        <v>45635</v>
+      </c>
+      <c r="K146" s="5">
+        <v>45635</v>
+      </c>
+      <c r="L146" s="5">
+        <v>45635</v>
+      </c>
+      <c r="M146" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N146" s="4"/>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>2920</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="11">
+        <v>45628</v>
+      </c>
+      <c r="J147" s="5">
+        <v>45635</v>
+      </c>
+      <c r="K147" s="5">
+        <v>45635</v>
+      </c>
+      <c r="L147" s="5">
+        <v>45635</v>
+      </c>
+      <c r="M147" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N147" s="4"/>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>2921</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4" t="s">
+        <v>2923</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="11">
+        <v>45629</v>
+      </c>
+      <c r="J148" s="5">
+        <v>45635</v>
+      </c>
+      <c r="K148" s="5">
+        <v>45635</v>
+      </c>
+      <c r="L148" s="5">
+        <v>45635</v>
+      </c>
+      <c r="M148" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N148" s="4"/>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>2927</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I149" s="11">
+        <v>45629</v>
+      </c>
+      <c r="J149" s="5">
+        <v>45635</v>
+      </c>
+      <c r="K149" s="5">
+        <v>45635</v>
+      </c>
+      <c r="L149" s="5">
+        <v>45635</v>
+      </c>
+      <c r="M149" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N149" s="4"/>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>2931</v>
+      </c>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4" t="s">
+        <v>2932</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="11">
+        <v>45629</v>
+      </c>
+      <c r="J150" s="5">
+        <v>45636</v>
+      </c>
+      <c r="K150" s="5">
+        <v>45636</v>
+      </c>
+      <c r="L150" s="5">
+        <v>45636</v>
+      </c>
+      <c r="M150" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N150" s="4"/>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4" t="s">
+        <v>2935</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" s="11">
+        <v>45630</v>
+      </c>
+      <c r="J151" s="5">
+        <v>45637</v>
+      </c>
+      <c r="K151" s="5">
+        <v>45637</v>
+      </c>
+      <c r="L151" s="5">
+        <v>45637</v>
+      </c>
+      <c r="M151" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N151" s="4"/>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>2938</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>2939</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>2940</v>
+      </c>
+      <c r="I152" s="11">
+        <v>45637</v>
+      </c>
+      <c r="J152" s="5">
+        <v>45637</v>
+      </c>
+      <c r="K152" s="5">
+        <v>45637</v>
+      </c>
+      <c r="L152" s="5">
+        <v>45637</v>
+      </c>
+      <c r="M152" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N152" s="4"/>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>2942</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>2943</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="11">
+        <v>45635</v>
+      </c>
+      <c r="J153" s="5">
+        <v>45638</v>
+      </c>
+      <c r="K153" s="5">
+        <v>45638</v>
+      </c>
+      <c r="L153" s="5">
+        <v>45638</v>
+      </c>
+      <c r="M153" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N153" s="4"/>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>2944</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>2945</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>2946</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" s="11">
+        <v>45636</v>
+      </c>
+      <c r="J154" s="5">
+        <v>45638</v>
+      </c>
+      <c r="K154" s="5">
+        <v>45638</v>
+      </c>
+      <c r="L154" s="5">
+        <v>45638</v>
+      </c>
+      <c r="M154" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N154" s="4"/>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>2949</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>2950</v>
+      </c>
+      <c r="I155" s="11">
+        <v>45637</v>
+      </c>
+      <c r="J155" s="5">
+        <v>45638</v>
+      </c>
+      <c r="K155" s="5">
+        <v>45638</v>
+      </c>
+      <c r="L155" s="5">
+        <v>45638</v>
+      </c>
+      <c r="M155" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N155" s="4"/>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>2952</v>
+      </c>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4" t="s">
+        <v>2953</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="11">
+        <v>45636</v>
+      </c>
+      <c r="J156" s="5">
+        <v>45639</v>
+      </c>
+      <c r="K156" s="5">
+        <v>45639</v>
+      </c>
+      <c r="L156" s="5">
+        <v>45639</v>
+      </c>
+      <c r="M156" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N156" s="4"/>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>2954</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>2956</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>2957</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>2958</v>
+      </c>
+      <c r="I157" s="11">
+        <v>45638</v>
+      </c>
+      <c r="J157" s="5">
+        <v>45639</v>
+      </c>
+      <c r="K157" s="5">
+        <v>45639</v>
+      </c>
+      <c r="L157" s="5">
+        <v>45639</v>
+      </c>
+      <c r="M157" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N157" s="4"/>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>2961</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>2962</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>2963</v>
+      </c>
+      <c r="I158" s="11">
+        <v>45630</v>
+      </c>
+      <c r="J158" s="5">
+        <v>45642</v>
+      </c>
+      <c r="K158" s="5">
+        <v>45642</v>
+      </c>
+      <c r="L158" s="5">
+        <v>45642</v>
+      </c>
+      <c r="M158" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N158" s="17" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4" t="s">
+        <v>2967</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="11">
+        <v>45638</v>
+      </c>
+      <c r="J159" s="5">
+        <v>45643</v>
+      </c>
+      <c r="K159" s="5">
+        <v>45643</v>
+      </c>
+      <c r="L159" s="5">
+        <v>45643</v>
+      </c>
+      <c r="M159" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N159" s="4"/>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>2970</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>2971</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>2972</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>2973</v>
+      </c>
+      <c r="I160" s="11">
+        <v>45638</v>
+      </c>
+      <c r="J160" s="5">
+        <v>45643</v>
+      </c>
+      <c r="K160" s="5">
+        <v>45643</v>
+      </c>
+      <c r="L160" s="5">
+        <v>45643</v>
+      </c>
+      <c r="M160" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N160" s="4"/>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="11">
+        <v>45637</v>
+      </c>
+      <c r="J161" s="5">
+        <v>45644</v>
+      </c>
+      <c r="K161" s="5">
+        <v>45644</v>
+      </c>
+      <c r="L161" s="5">
+        <v>45644</v>
+      </c>
+      <c r="M161" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N161" s="4" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>2979</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>2980</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>2981</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>2982</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>2983</v>
+      </c>
+      <c r="I162" s="11">
+        <v>45638</v>
+      </c>
+      <c r="J162" s="5">
+        <v>45644</v>
+      </c>
+      <c r="K162" s="5">
+        <v>45644</v>
+      </c>
+      <c r="L162" s="5">
+        <v>45644</v>
+      </c>
+      <c r="M162" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N162" s="4"/>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4" t="s">
+        <v>2986</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="11">
+        <v>45638</v>
+      </c>
+      <c r="J163" s="5">
+        <v>45649</v>
+      </c>
+      <c r="K163" s="5">
+        <v>45649</v>
+      </c>
+      <c r="L163" s="5">
+        <v>45649</v>
+      </c>
+      <c r="M163" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N163" s="4"/>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>2988</v>
+      </c>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4" t="s">
+        <v>2989</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="11">
+        <v>45639</v>
+      </c>
+      <c r="J164" s="5">
+        <v>45649</v>
+      </c>
+      <c r="K164" s="5">
+        <v>45649</v>
+      </c>
+      <c r="L164" s="5">
+        <v>45649</v>
+      </c>
+      <c r="M164" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N164" s="4"/>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4" t="s">
+        <v>2992</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>2993</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>2994</v>
+      </c>
+      <c r="I165" s="11">
+        <v>45642</v>
+      </c>
+      <c r="J165" s="5">
+        <v>45649</v>
+      </c>
+      <c r="K165" s="5">
+        <v>45649</v>
+      </c>
+      <c r="L165" s="5">
+        <v>45649</v>
+      </c>
+      <c r="M165" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N165" s="4"/>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>2996</v>
+      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4" t="s">
+        <v>2997</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="11">
+        <v>45643</v>
+      </c>
+      <c r="J166" s="5">
+        <v>45649</v>
+      </c>
+      <c r="K166" s="5">
+        <v>45649</v>
+      </c>
+      <c r="L166" s="5">
+        <v>45649</v>
+      </c>
+      <c r="M166" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N166" s="4"/>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4" t="s">
+        <v>3000</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J167" s="5">
+        <v>45651</v>
+      </c>
+      <c r="K167" s="5">
+        <v>45651</v>
+      </c>
+      <c r="L167" s="5">
+        <v>45651</v>
+      </c>
+      <c r="M167" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N167" s="4"/>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4" t="s">
+        <v>3003</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="11">
+        <v>45650</v>
+      </c>
+      <c r="J168" s="5">
+        <v>45651</v>
+      </c>
+      <c r="K168" s="5">
+        <v>45651</v>
+      </c>
+      <c r="L168" s="5">
+        <v>45651</v>
+      </c>
+      <c r="M168" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N168" s="4"/>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>3004</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4" t="s">
+        <v>3006</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="11">
+        <v>45643</v>
+      </c>
+      <c r="J169" s="5">
+        <v>45652</v>
+      </c>
+      <c r="K169" s="5">
+        <v>45652</v>
+      </c>
+      <c r="L169" s="5">
+        <v>45652</v>
+      </c>
+      <c r="M169" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N169" s="4"/>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>3008</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>3009</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>3010</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>3012</v>
+      </c>
+      <c r="I170" s="11">
+        <v>45651</v>
+      </c>
+      <c r="J170" s="5">
+        <v>45652</v>
+      </c>
+      <c r="K170" s="5">
+        <v>45652</v>
+      </c>
+      <c r="L170" s="5">
+        <v>45652</v>
+      </c>
+      <c r="M170" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N170" s="4"/>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>3014</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>3015</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="11">
+        <v>45652</v>
+      </c>
+      <c r="J171" s="5">
+        <v>45653</v>
+      </c>
+      <c r="K171" s="5">
+        <v>45653</v>
+      </c>
+      <c r="L171" s="5">
+        <v>45653</v>
+      </c>
+      <c r="M171" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N171" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C153" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
+++ b/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\11月末\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\1月末\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FAFFA5-122A-46C3-9497-62B638D05FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C2152F-B552-46F2-B0CB-1E3F6D220F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="４月" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="10月" sheetId="13" r:id="rId7"/>
     <sheet name="11月" sheetId="14" r:id="rId8"/>
     <sheet name="12月" sheetId="15" r:id="rId9"/>
+    <sheet name="1月" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4571" uniqueCount="3016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="3119">
   <si>
     <t>№</t>
   </si>
@@ -9264,6 +9265,320 @@
   </si>
   <si>
     <t>冨永　雅人</t>
+  </si>
+  <si>
+    <t>天ぷら割烹　京咲</t>
+  </si>
+  <si>
+    <t>熊本市中央区京町本丁10-6</t>
+  </si>
+  <si>
+    <t>中島　剛</t>
+  </si>
+  <si>
+    <t>ＤＪ　Ｂａｒ　ＩＣＨＯ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-26ﾘﾝｸﾌﾟﾚｲｽﾋﾞﾙ2F-A</t>
+  </si>
+  <si>
+    <t>寄り道処～縁ｅｎ．</t>
+  </si>
+  <si>
+    <t>熊本市中央区内坪井町9-54田島ﾋﾞﾙ1F</t>
+  </si>
+  <si>
+    <t>高木　久美</t>
+  </si>
+  <si>
+    <t>ｆｒｅｅ　ｐｌａｃｅ　Ｆ</t>
+  </si>
+  <si>
+    <t>熊本市南区田迎5丁目16-5</t>
+  </si>
+  <si>
+    <t>374-6011</t>
+  </si>
+  <si>
+    <t>㈲ＭＩＣ　ｏｆｆｉｃｅ</t>
+  </si>
+  <si>
+    <t>宮本　浩美</t>
+  </si>
+  <si>
+    <t>熊本市南区田迎五丁目16番5号</t>
+  </si>
+  <si>
+    <t>ファミリーマート熊本龍田九丁目店</t>
+  </si>
+  <si>
+    <t>熊本市北区龍田9丁目4-45</t>
+  </si>
+  <si>
+    <t>勝元　祐介</t>
+  </si>
+  <si>
+    <t>炭火焼きとり　とりしょう植木店</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町植木353</t>
+  </si>
+  <si>
+    <t>273-2117</t>
+  </si>
+  <si>
+    <t>㈱ＬＲＣ</t>
+  </si>
+  <si>
+    <t>松下　尚志</t>
+  </si>
+  <si>
+    <t>熊本県宇土市野鶴町203-4</t>
+  </si>
+  <si>
+    <t>ｓｎａｃｋ　Ｒｅｇｉｎａ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目11-15ﾗｲｵﾝﾋﾞﾙ松藤館6F-603</t>
+  </si>
+  <si>
+    <t>森　吏々香</t>
+  </si>
+  <si>
+    <t>ＢＩＮＩ</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-23花畑ﾋﾞﾙ2F-E</t>
+  </si>
+  <si>
+    <t>ＤＥＬＡ　ＦＵＥＮＴＥ　ＲＩＺＺＡ　ＮＵＱＵＩ</t>
+  </si>
+  <si>
+    <t>Ｍｅｒｃｉ　Ｂｉｅｎ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-22LINK PLACE 2F-B</t>
+  </si>
+  <si>
+    <t>宮崎　美紀</t>
+  </si>
+  <si>
+    <t>米米蔵部</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目6-4武蔵下通ｾﾝﾀｰﾋﾞﾙ1F-2</t>
+  </si>
+  <si>
+    <t>㈱ＰＯＰＯＬＡ</t>
+  </si>
+  <si>
+    <t>大橋　健一</t>
+  </si>
+  <si>
+    <t>熊本市中央区出水6丁目40-15</t>
+  </si>
+  <si>
+    <t>ＳＡＩ　ＧＯＮ　ＰＨＯ</t>
+  </si>
+  <si>
+    <t>熊本市東区錦ケ丘34-24　1F</t>
+  </si>
+  <si>
+    <t>ＬＥ　ＴＨＩ　ＴＨＡＭ</t>
+  </si>
+  <si>
+    <t>ＮＩＪＩ　Ｓｔａｎｄ</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺1丁目12-3</t>
+  </si>
+  <si>
+    <t>シエロ・インベストメント(同)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江口　泰史</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江六丁目1番60号813</t>
+  </si>
+  <si>
+    <t>虎鼠</t>
+  </si>
+  <si>
+    <t>熊本市南区砂原町471-3</t>
+  </si>
+  <si>
+    <t>中山　知巳</t>
+  </si>
+  <si>
+    <t>ＥＬ　ｐｏｃａ</t>
+  </si>
+  <si>
+    <t>熊本市西区島崎3丁目17-45</t>
+  </si>
+  <si>
+    <t>柴田　美紀</t>
+  </si>
+  <si>
+    <t>屋号：oの上に「＾」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>馬すじ屋本舗</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉4丁目1-15</t>
+  </si>
+  <si>
+    <t>牧野　哲也</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　ＢＡＫＫＡＳ</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町滴水73-1植木ﾋﾞﾙA棟A23</t>
+  </si>
+  <si>
+    <t>安武　寛史</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　ＬａＬａ－ｇｉｒｌ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目5-8ｽﾏｲﾙ2ﾋﾞﾙB1-B</t>
+  </si>
+  <si>
+    <t>古賀　欣士朗</t>
+  </si>
+  <si>
+    <t>ジャンカラ下通どまんなか店</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-1KK下通銀座ｸﾛｽﾋﾞﾙ4F･5F</t>
+  </si>
+  <si>
+    <t>㈲ジャンカラ九州</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>齊藤　武彦</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区中洲五丁目2番3号</t>
+  </si>
+  <si>
+    <t>焼鳥あま乃</t>
+  </si>
+  <si>
+    <t>熊本市中央区中唐人町15B1</t>
+  </si>
+  <si>
+    <t>吉村　雅俊</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　ＨａｗＫ</t>
+  </si>
+  <si>
+    <t>熊本市東区新外3丁目1-1崎山ﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>脇島　大樹</t>
+  </si>
+  <si>
+    <t>ほっともっと楠店</t>
+  </si>
+  <si>
+    <t>熊本市北区龍田5丁目10-62</t>
+  </si>
+  <si>
+    <t>337-2752</t>
+  </si>
+  <si>
+    <t>㈱長雅</t>
+  </si>
+  <si>
+    <t>長谷川　雅起</t>
+  </si>
+  <si>
+    <t>熊本市中央区大江一丁目5番23号</t>
+  </si>
+  <si>
+    <t>ローソン熊本九品寺２丁目店</t>
+  </si>
+  <si>
+    <t>熊本市中央区九品寺2丁目1-24</t>
+  </si>
+  <si>
+    <t>327-8970</t>
+  </si>
+  <si>
+    <t>熊本県上益城郡嘉島町下六嘉3818-6</t>
+  </si>
+  <si>
+    <t>麺場 田所商店 楡木店</t>
+  </si>
+  <si>
+    <t>熊本市北区楡木4丁目5-6</t>
+  </si>
+  <si>
+    <t>338-8844</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>㈱トライ・インターナショナル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夢眠くまもとにし２号館おしま</t>
+  </si>
+  <si>
+    <t>熊本市西区小島9丁目1-40</t>
+  </si>
+  <si>
+    <t>熊本市東区長嶺東2丁目4-63</t>
+  </si>
+  <si>
+    <t>夢眠くまもとにし２号館</t>
+  </si>
+  <si>
+    <t>熊本市西区小島9丁目1-50</t>
+  </si>
+  <si>
+    <t>329-0313</t>
+  </si>
+  <si>
+    <t>花えん</t>
+  </si>
+  <si>
+    <t>熊本市東区若葉1丁目4-15ｽﾍﾟｰｽ95-1-B</t>
+  </si>
+  <si>
+    <t>中家　眞由美</t>
+  </si>
+  <si>
+    <t>うめちゃんち</t>
+  </si>
+  <si>
+    <t>熊本市東区尾ノ上1丁目39-21ﾌｨﾙﾄﾞﾊｲﾂ103</t>
+  </si>
+  <si>
+    <t>梅田　リエ</t>
+  </si>
+  <si>
+    <t>ＷＨＩＳＫＹ　ＢＡＲ　ＳＥＴＴＥ　ＳＥＣＯＮＤＯ</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町3-9RS-11ﾋﾞﾙいちのいち5F･6F</t>
+  </si>
+  <si>
+    <t>㈱旭プランニング</t>
+  </si>
+  <si>
+    <t>坂田　かおり</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通二丁目5番10号4階</t>
   </si>
 </sst>
 </file>
@@ -11549,6 +11864,1167 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E66F1C-D81F-4CFF-AF3B-9B39309F9247}">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="8" width="8.6640625" style="3"/>
+    <col min="9" max="9" width="16.1640625" style="3" customWidth="1"/>
+    <col min="10" max="13" width="13.75" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.58203125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="14" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3017</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>3018</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="11">
+        <v>45650</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45663</v>
+      </c>
+      <c r="K2" s="5">
+        <v>45663</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45663</v>
+      </c>
+      <c r="M2" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3020</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I3" s="11">
+        <v>45651</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45663</v>
+      </c>
+      <c r="K3" s="5">
+        <v>45663</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45663</v>
+      </c>
+      <c r="M3" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3022</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="11">
+        <v>45652</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45663</v>
+      </c>
+      <c r="K4" s="5">
+        <v>45663</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45663</v>
+      </c>
+      <c r="M4" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3026</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3027</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3028</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="I5" s="11">
+        <v>45663</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45664</v>
+      </c>
+      <c r="K5" s="5">
+        <v>45664</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45664</v>
+      </c>
+      <c r="M5" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3031</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>3032</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="11">
+        <v>45639</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45665</v>
+      </c>
+      <c r="K6" s="5">
+        <v>45665</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45665</v>
+      </c>
+      <c r="M6" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3035</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3036</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>3037</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>3038</v>
+      </c>
+      <c r="I7" s="11">
+        <v>45642</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45666</v>
+      </c>
+      <c r="K7" s="5">
+        <v>45666</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45666</v>
+      </c>
+      <c r="M7" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3041</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="11">
+        <v>45663</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45666</v>
+      </c>
+      <c r="K8" s="5">
+        <v>45666</v>
+      </c>
+      <c r="L8" s="5">
+        <v>45666</v>
+      </c>
+      <c r="M8" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3043</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>3044</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="11">
+        <v>45663</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45666</v>
+      </c>
+      <c r="K9" s="5">
+        <v>45666</v>
+      </c>
+      <c r="L9" s="5">
+        <v>45666</v>
+      </c>
+      <c r="M9" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3045</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3046</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>3047</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="11">
+        <v>45665</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45666</v>
+      </c>
+      <c r="K10" s="5">
+        <v>45666</v>
+      </c>
+      <c r="L10" s="5">
+        <v>45666</v>
+      </c>
+      <c r="M10" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3050</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3051</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I11" s="11">
+        <v>45663</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45667</v>
+      </c>
+      <c r="K11" s="5">
+        <v>45667</v>
+      </c>
+      <c r="L11" s="5">
+        <v>45667</v>
+      </c>
+      <c r="M11" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3053</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3054</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11">
+        <v>45664</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45667</v>
+      </c>
+      <c r="K12" s="5">
+        <v>45667</v>
+      </c>
+      <c r="L12" s="5">
+        <v>45667</v>
+      </c>
+      <c r="M12" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3057</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3058</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>3059</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>3060</v>
+      </c>
+      <c r="I13" s="11">
+        <v>45666</v>
+      </c>
+      <c r="J13" s="5">
+        <v>45671</v>
+      </c>
+      <c r="K13" s="5">
+        <v>45671</v>
+      </c>
+      <c r="L13" s="5">
+        <v>45671</v>
+      </c>
+      <c r="M13" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="11">
+        <v>45621</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45673</v>
+      </c>
+      <c r="K14" s="5">
+        <v>45673</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45673</v>
+      </c>
+      <c r="M14" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11">
+        <v>45603</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45678</v>
+      </c>
+      <c r="K15" s="5">
+        <v>45678</v>
+      </c>
+      <c r="L15" s="5">
+        <v>45678</v>
+      </c>
+      <c r="M15" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3068</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3069</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>3070</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="11">
+        <v>45671</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45678</v>
+      </c>
+      <c r="K16" s="5">
+        <v>45678</v>
+      </c>
+      <c r="L16" s="5">
+        <v>45678</v>
+      </c>
+      <c r="M16" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3072</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>3073</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11">
+        <v>45651</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45679</v>
+      </c>
+      <c r="K17" s="5">
+        <v>45679</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45679</v>
+      </c>
+      <c r="M17" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11">
+        <v>45678</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45679</v>
+      </c>
+      <c r="K18" s="5">
+        <v>45679</v>
+      </c>
+      <c r="L18" s="5">
+        <v>45679</v>
+      </c>
+      <c r="M18" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3078</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>3079</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>3080</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>3081</v>
+      </c>
+      <c r="I19" s="11">
+        <v>45636</v>
+      </c>
+      <c r="J19" s="5">
+        <v>45680</v>
+      </c>
+      <c r="K19" s="5">
+        <v>45680</v>
+      </c>
+      <c r="L19" s="5">
+        <v>45680</v>
+      </c>
+      <c r="M19" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3083</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>3084</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="11">
+        <v>45672</v>
+      </c>
+      <c r="J20" s="5">
+        <v>45680</v>
+      </c>
+      <c r="K20" s="5">
+        <v>45680</v>
+      </c>
+      <c r="L20" s="5">
+        <v>45680</v>
+      </c>
+      <c r="M20" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3085</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>3087</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11">
+        <v>45677</v>
+      </c>
+      <c r="J21" s="5">
+        <v>45680</v>
+      </c>
+      <c r="K21" s="5">
+        <v>45680</v>
+      </c>
+      <c r="L21" s="5">
+        <v>45680</v>
+      </c>
+      <c r="M21" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>3090</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>3091</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>3092</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="I22" s="11">
+        <v>45671</v>
+      </c>
+      <c r="J22" s="5">
+        <v>45681</v>
+      </c>
+      <c r="K22" s="5">
+        <v>45681</v>
+      </c>
+      <c r="L22" s="5">
+        <v>45681</v>
+      </c>
+      <c r="M22" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3095</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I23" s="11">
+        <v>45679</v>
+      </c>
+      <c r="J23" s="5">
+        <v>45681</v>
+      </c>
+      <c r="K23" s="5">
+        <v>45681</v>
+      </c>
+      <c r="L23" s="5">
+        <v>45681</v>
+      </c>
+      <c r="M23" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3099</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>3100</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>3101</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I24" s="11">
+        <v>45636</v>
+      </c>
+      <c r="J24" s="5">
+        <v>45681</v>
+      </c>
+      <c r="K24" s="5">
+        <v>45681</v>
+      </c>
+      <c r="L24" s="5">
+        <v>45681</v>
+      </c>
+      <c r="M24" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>3104</v>
+      </c>
+      <c r="I25" s="11">
+        <v>45677</v>
+      </c>
+      <c r="J25" s="5">
+        <v>45684</v>
+      </c>
+      <c r="K25" s="5">
+        <v>45684</v>
+      </c>
+      <c r="L25" s="5">
+        <v>45684</v>
+      </c>
+      <c r="M25" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3106</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>3107</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>3104</v>
+      </c>
+      <c r="I26" s="11">
+        <v>45677</v>
+      </c>
+      <c r="J26" s="5">
+        <v>45684</v>
+      </c>
+      <c r="K26" s="5">
+        <v>45684</v>
+      </c>
+      <c r="L26" s="5">
+        <v>45684</v>
+      </c>
+      <c r="M26" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3109</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>3110</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="11">
+        <v>45677</v>
+      </c>
+      <c r="J27" s="5">
+        <v>45685</v>
+      </c>
+      <c r="K27" s="5">
+        <v>45685</v>
+      </c>
+      <c r="L27" s="5">
+        <v>45685</v>
+      </c>
+      <c r="M27" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3112</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="11">
+        <v>45684</v>
+      </c>
+      <c r="J28" s="5">
+        <v>45686</v>
+      </c>
+      <c r="K28" s="5">
+        <v>45686</v>
+      </c>
+      <c r="L28" s="5">
+        <v>45686</v>
+      </c>
+      <c r="M28" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>3117</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3118</v>
+      </c>
+      <c r="I29" s="11">
+        <v>45687</v>
+      </c>
+      <c r="J29" s="5">
+        <v>45688</v>
+      </c>
+      <c r="K29" s="5">
+        <v>45688</v>
+      </c>
+      <c r="L29" s="5">
+        <v>45688</v>
+      </c>
+      <c r="M29" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N29" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D59B40A-5363-44C7-8B2D-0DC3F64081CF}">
   <dimension ref="A1:N41"/>
@@ -29896,7 +31372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034F17B0-8D33-445A-B39D-8C41F2C31E62}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -31847,8 +33323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D4B35B-268F-424B-BBC6-88BC306B8FF8}">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="K159" sqref="K158:K159"/>
+    <sheetView topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
+++ b/data/Insyokutenneigyoukyoka/org/ShinnkiInsyokutenneigyoukyoka.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\1月末\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2024年度\01　庁内業務\09　情報開示【機密性2】\02　オープンデータ\2月末\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C2152F-B552-46F2-B0CB-1E3F6D220F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1BC9AE-CDC1-4AE5-9495-9B412F68EDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="４月" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="11月" sheetId="14" r:id="rId8"/>
     <sheet name="12月" sheetId="15" r:id="rId9"/>
     <sheet name="1月" sheetId="16" r:id="rId10"/>
+    <sheet name="2月" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="3119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4989" uniqueCount="3264">
   <si>
     <t>№</t>
   </si>
@@ -9580,13 +9581,454 @@
   <si>
     <t>熊本市中央区下通二丁目5番10号4階</t>
   </si>
+  <si>
+    <t>夢眠くまもとみなみ</t>
+  </si>
+  <si>
+    <t>熊本市南区御幸西3丁目9-36</t>
+  </si>
+  <si>
+    <t>寅もん</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町13-29喜三遊ﾋﾞﾙ4F-A</t>
+  </si>
+  <si>
+    <t>焼肉ひょっとこ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町11-20旧城下旅館1F-B</t>
+  </si>
+  <si>
+    <t>中村　壮士</t>
+  </si>
+  <si>
+    <t>ＭａＭａキッチン</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町岩野64-2</t>
+  </si>
+  <si>
+    <t>㈱ＳＥＩＫＡ</t>
+  </si>
+  <si>
+    <t>角田　健祐</t>
+  </si>
+  <si>
+    <t>熊本市北区植木町岩野795番地1</t>
+  </si>
+  <si>
+    <t>おいもや　芋吉</t>
+  </si>
+  <si>
+    <t>熊本市南区富合町新365-9</t>
+  </si>
+  <si>
+    <t>中川　勇</t>
+  </si>
+  <si>
+    <t>裕月</t>
+  </si>
+  <si>
+    <t>熊本市中央区坪井3丁目1-54</t>
+  </si>
+  <si>
+    <t>市原　裕子</t>
+  </si>
+  <si>
+    <t>ＨＩＭＵＫＩ　ＣＡＦＥ</t>
+  </si>
+  <si>
+    <t>熊本市東区戸島6丁目16-33</t>
+  </si>
+  <si>
+    <t>285-6811</t>
+  </si>
+  <si>
+    <t>川口　輝久</t>
+  </si>
+  <si>
+    <t>熊本市東区戸島六丁目16番48号</t>
+  </si>
+  <si>
+    <t>Ｃｒｅａｔｉｖｅ　Ｓｐａｃｅ　ａｏ</t>
+  </si>
+  <si>
+    <t>熊本市南区川尻4丁目13-2</t>
+  </si>
+  <si>
+    <t>明石　大樹</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　Ｓｎｔ’e</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-8TM47ﾋﾞﾙ3F-3</t>
+  </si>
+  <si>
+    <t>㈱ＳＫＵ</t>
+  </si>
+  <si>
+    <t>日髙　恭輔</t>
+  </si>
+  <si>
+    <t>熊本市中央区坪井四丁目2番56号ｱﾙｶﾝｼｴﾙ坪井802号</t>
+  </si>
+  <si>
+    <t>ＡＲＵＣＡ</t>
+  </si>
+  <si>
+    <t>熊本市中央区八王寺町36-1</t>
+  </si>
+  <si>
+    <t>大石　佑理</t>
+  </si>
+  <si>
+    <t>ＢＡＲ　にしむら</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町11-34都ﾋﾞﾙB1-1</t>
+  </si>
+  <si>
+    <t>㈱西村浩二</t>
+  </si>
+  <si>
+    <t>西村　浩二</t>
+  </si>
+  <si>
+    <t>熊本市南区刈草三丁目12番20号</t>
+  </si>
+  <si>
+    <t>まるいストアー八景水谷店</t>
+  </si>
+  <si>
+    <t>熊本市北区八景水谷2丁目2-10Mﾏｰﾄ内鮮魚</t>
+  </si>
+  <si>
+    <t>344-4611</t>
+  </si>
+  <si>
+    <t>㈱まるいストアー</t>
+  </si>
+  <si>
+    <t>川井　啓二</t>
+  </si>
+  <si>
+    <t>熊本県天草市南新町4番地8</t>
+  </si>
+  <si>
+    <t>４．５．６．．</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-8TM-47BUILDING2F-1</t>
+  </si>
+  <si>
+    <t>後藤　大地</t>
+  </si>
+  <si>
+    <t>すがを</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町2-17尾崎ビル1F</t>
+  </si>
+  <si>
+    <t>352-7972</t>
+  </si>
+  <si>
+    <t>㈲すがを</t>
+  </si>
+  <si>
+    <t>清永　純司</t>
+  </si>
+  <si>
+    <t>熊本市中央区手取本町2-17</t>
+  </si>
+  <si>
+    <t>ファミリーマート熊本御幸笛田店</t>
+  </si>
+  <si>
+    <t>熊本市南区御幸笛田1丁目108</t>
+  </si>
+  <si>
+    <t>村上　孝幸</t>
+  </si>
+  <si>
+    <t>Ｌｏｕｎｇｅ　ｗｉｆｅ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目4-23ｸﾘｽﾀﾙﾀﾜｰﾋﾞﾙ4F-1</t>
+  </si>
+  <si>
+    <t>武藤　香織</t>
+  </si>
+  <si>
+    <t>ケンタッキーフライドチキン熊本水前寺店</t>
+  </si>
+  <si>
+    <t>熊本市中央区水前寺6丁目51-18</t>
+  </si>
+  <si>
+    <t>香川美津子</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区博多駅東1丁目10番7号</t>
+  </si>
+  <si>
+    <t>鰻の成瀬　西熊本店</t>
+  </si>
+  <si>
+    <t>熊本市南区鳶町2丁目1-2</t>
+  </si>
+  <si>
+    <t>227-8313</t>
+  </si>
+  <si>
+    <t>㈱環境総合</t>
+  </si>
+  <si>
+    <t>寺村　重年</t>
+  </si>
+  <si>
+    <t>熊本市中央区本山四丁目3番13号</t>
+  </si>
+  <si>
+    <t>ラッドビルズ株式会社</t>
+  </si>
+  <si>
+    <t>熊本市中央区琴平2丁目8-35</t>
+  </si>
+  <si>
+    <t>ラッドビルズ㈱</t>
+  </si>
+  <si>
+    <t>楠本　英雄</t>
+  </si>
+  <si>
+    <t>熊本市中央区琴平2丁目8番35号</t>
+  </si>
+  <si>
+    <t>Ａｍｕｓａｎｔ　Ｂａｒ　Ｕｎ－Ｂｌｏｃｋｓ</t>
+  </si>
+  <si>
+    <t>熊本市東区上南部3丁目4-3</t>
+  </si>
+  <si>
+    <t>加藤　幸成</t>
+  </si>
+  <si>
+    <t>香気芬芬</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町10-10 末広ﾋﾞﾙ3F-4号室</t>
+  </si>
+  <si>
+    <t>髙岡　由香里</t>
+  </si>
+  <si>
+    <t>創作ダイニング真</t>
+  </si>
+  <si>
+    <t>熊本市中央区花畑町12-8銀杏会館ﾋﾞﾙ2F-201</t>
+  </si>
+  <si>
+    <t>㈱スマイルクリエイト</t>
+  </si>
+  <si>
+    <t>内村　真一朗</t>
+  </si>
+  <si>
+    <t>熊本市東区石原一丁目11番11号</t>
+  </si>
+  <si>
+    <t>ＢＡＲミラルダ</t>
+  </si>
+  <si>
+    <t>熊本市中央区上通町10-20みどりﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>田端　明日美</t>
+  </si>
+  <si>
+    <t>ピザポケット　月出店</t>
+  </si>
+  <si>
+    <t>熊本市東区月出2丁目6-22ﾌﾟﾗｯﾂ･S･月出103</t>
+  </si>
+  <si>
+    <t>387-3900</t>
+  </si>
+  <si>
+    <t>㈱ピザポケット熊本</t>
+  </si>
+  <si>
+    <t>竹下　博志</t>
+  </si>
+  <si>
+    <t>熊本市中央区白山一丁目9番10号</t>
+  </si>
+  <si>
+    <t>ＳＴＹＬＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目1-22TM12ﾋﾞﾙ5F-E</t>
+  </si>
+  <si>
+    <t>佐藤　寿憲</t>
+  </si>
+  <si>
+    <t>ＬＵＳＨ　ＬＩＥＮ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-6いしはらﾋﾞﾙ4F-1号室</t>
+  </si>
+  <si>
+    <t>小島　脩平</t>
+  </si>
+  <si>
+    <t>楽川</t>
+  </si>
+  <si>
+    <t>206-2800</t>
+  </si>
+  <si>
+    <t>楽川㈱</t>
+  </si>
+  <si>
+    <t>梁　美智</t>
+  </si>
+  <si>
+    <t>東京都墨田区両国二丁目1番5号第二鈴木ﾋﾞﾙ2階</t>
+  </si>
+  <si>
+    <t>Ｍｙ＋ｕ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目10-8TM47ﾋﾞﾙ6F-1</t>
+  </si>
+  <si>
+    <t>内田　麻央</t>
+  </si>
+  <si>
+    <t>東病院</t>
+  </si>
+  <si>
+    <t>熊本市南区出仲間5丁目2-2</t>
+  </si>
+  <si>
+    <t>378-2260</t>
+  </si>
+  <si>
+    <t>㈱ＫＭＭＴ</t>
+  </si>
+  <si>
+    <t>伊藤　直希</t>
+  </si>
+  <si>
+    <t>熊本市中央区中央街4番22号ｱﾙﾊﾞ銀座通りﾋﾞﾙ2F</t>
+  </si>
+  <si>
+    <t>Ｕｌｕ　熊本下通店</t>
+  </si>
+  <si>
+    <t>熊本市中央区安政町1-2-2F</t>
+  </si>
+  <si>
+    <t>㈱ＳＡＩＣＯ</t>
+  </si>
+  <si>
+    <t>渡邉　拓海</t>
+  </si>
+  <si>
+    <t>福岡県福岡市博多区住吉五丁目10番20号</t>
+  </si>
+  <si>
+    <t>ＭＩＯＣＵＯＲＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区新市街3-12ｳﾞｨｱｷﾑﾗﾋﾞﾙ2F-C</t>
+  </si>
+  <si>
+    <t>嶋﨑　廉</t>
+  </si>
+  <si>
+    <t>お菓子のすぎもと</t>
+  </si>
+  <si>
+    <t>熊本市中央区帯山2丁目5-42</t>
+  </si>
+  <si>
+    <t>杉本　ジョージ　ヒルベルト</t>
+  </si>
+  <si>
+    <t>駄菓子バー　ねこの巣　２ｎｄ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目2-9ｾﾌﾞﾝﾋﾞﾙ5F</t>
+  </si>
+  <si>
+    <t>永田　浩之</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1-2-9ｾﾌﾞﾝﾋﾞﾙ4F</t>
+  </si>
+  <si>
+    <t>Ｂａｒ　ＥＮＧＡＧＥ</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通2丁目1-22TM12ﾋﾞﾙ5F-F</t>
+  </si>
+  <si>
+    <t>松永　祥史</t>
+  </si>
+  <si>
+    <t>ＳＳＳＳＳ</t>
+  </si>
+  <si>
+    <t>熊本市中央区米屋町3丁目50</t>
+  </si>
+  <si>
+    <t>續　修造</t>
+  </si>
+  <si>
+    <t>熊本市中央区下通1丁目7-4嶋田ﾋﾞﾙ3F-1</t>
+  </si>
+  <si>
+    <t>熊本市東区画図町所島123-1</t>
+  </si>
+  <si>
+    <t>ヒライ　浄行寺店</t>
+  </si>
+  <si>
+    <t>熊本市中央区坪井4-19-22</t>
+  </si>
+  <si>
+    <t>(同)沙羅</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(同)Ｎｏｎｅ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セブン-イレブン熊本画図所島店</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>345-0008</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＪＲ九州ファーストフーズ㈱</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -9663,7 +10105,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9702,6 +10144,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -11868,8 +12314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E66F1C-D81F-4CFF-AF3B-9B39309F9247}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -13022,6 +13468,1569 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8C9547-AD6C-4CD8-AA18-84AA73E6D920}">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="8" width="8.6640625" style="3"/>
+    <col min="9" max="13" width="15.33203125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="14" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3120</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3104</v>
+      </c>
+      <c r="I2" s="19">
+        <v>45667</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45678</v>
+      </c>
+      <c r="K2" s="5">
+        <v>45678</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45689</v>
+      </c>
+      <c r="M2" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="19">
+        <v>45677</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45691</v>
+      </c>
+      <c r="K3" s="5">
+        <v>45691</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45691</v>
+      </c>
+      <c r="M3" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3124</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>3125</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="19">
+        <v>45679</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45691</v>
+      </c>
+      <c r="K4" s="5">
+        <v>45691</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45691</v>
+      </c>
+      <c r="M4" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3126</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>3128</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3129</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3130</v>
+      </c>
+      <c r="I5" s="19">
+        <v>45684</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45691</v>
+      </c>
+      <c r="K5" s="5">
+        <v>45691</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45691</v>
+      </c>
+      <c r="M5" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>3133</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="19">
+        <v>45687</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45691</v>
+      </c>
+      <c r="K6" s="5">
+        <v>45691</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45691</v>
+      </c>
+      <c r="M6" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3135</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>3136</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="19">
+        <v>45681</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45692</v>
+      </c>
+      <c r="K7" s="5">
+        <v>45692</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45692</v>
+      </c>
+      <c r="M7" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3138</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3139</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3259</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>3140</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3141</v>
+      </c>
+      <c r="I8" s="19">
+        <v>45688</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45692</v>
+      </c>
+      <c r="K8" s="5">
+        <v>45692</v>
+      </c>
+      <c r="L8" s="5">
+        <v>45692</v>
+      </c>
+      <c r="M8" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3143</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>3144</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="19">
+        <v>45684</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45693</v>
+      </c>
+      <c r="K9" s="5">
+        <v>45693</v>
+      </c>
+      <c r="L9" s="5">
+        <v>45693</v>
+      </c>
+      <c r="M9" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3147</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3148</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I10" s="19">
+        <v>45685</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45693</v>
+      </c>
+      <c r="K10" s="5">
+        <v>45693</v>
+      </c>
+      <c r="L10" s="5">
+        <v>45693</v>
+      </c>
+      <c r="M10" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3151</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>3152</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="19">
+        <v>45684</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45694</v>
+      </c>
+      <c r="K11" s="5">
+        <v>45694</v>
+      </c>
+      <c r="L11" s="5">
+        <v>45694</v>
+      </c>
+      <c r="M11" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>3156</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>3157</v>
+      </c>
+      <c r="I12" s="19">
+        <v>45693</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45695</v>
+      </c>
+      <c r="K12" s="5">
+        <v>45695</v>
+      </c>
+      <c r="L12" s="5">
+        <v>45695</v>
+      </c>
+      <c r="M12" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3160</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3161</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>3162</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>3163</v>
+      </c>
+      <c r="I13" s="19">
+        <v>45685</v>
+      </c>
+      <c r="J13" s="5">
+        <v>45698</v>
+      </c>
+      <c r="K13" s="5">
+        <v>45698</v>
+      </c>
+      <c r="L13" s="5">
+        <v>45698</v>
+      </c>
+      <c r="M13" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3165</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3166</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="19">
+        <v>45695</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45698</v>
+      </c>
+      <c r="K14" s="5">
+        <v>45698</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45698</v>
+      </c>
+      <c r="M14" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>3169</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3170</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>3171</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3172</v>
+      </c>
+      <c r="I15" s="19">
+        <v>45695</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45698</v>
+      </c>
+      <c r="K15" s="5">
+        <v>45698</v>
+      </c>
+      <c r="L15" s="5">
+        <v>45698</v>
+      </c>
+      <c r="M15" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>3175</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="19">
+        <v>45671</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45700</v>
+      </c>
+      <c r="K16" s="5">
+        <v>45700</v>
+      </c>
+      <c r="L16" s="5">
+        <v>45700</v>
+      </c>
+      <c r="M16" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3176</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>3178</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="19">
+        <v>45698</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45700</v>
+      </c>
+      <c r="K17" s="5">
+        <v>45700</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45700</v>
+      </c>
+      <c r="M17" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>3263</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>3181</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3182</v>
+      </c>
+      <c r="I18" s="19">
+        <v>45685</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45700</v>
+      </c>
+      <c r="K18" s="5">
+        <v>45700</v>
+      </c>
+      <c r="L18" s="5">
+        <v>45700</v>
+      </c>
+      <c r="M18" s="5">
+        <v>48273</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>3185</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>3186</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>3187</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>3188</v>
+      </c>
+      <c r="I19" s="19">
+        <v>45674</v>
+      </c>
+      <c r="J19" s="5">
+        <v>45701</v>
+      </c>
+      <c r="K19" s="5">
+        <v>45701</v>
+      </c>
+      <c r="L19" s="5">
+        <v>45701</v>
+      </c>
+      <c r="M19" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3189</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>3191</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3193</v>
+      </c>
+      <c r="I20" s="19">
+        <v>45680</v>
+      </c>
+      <c r="J20" s="5">
+        <v>45702</v>
+      </c>
+      <c r="K20" s="5">
+        <v>45702</v>
+      </c>
+      <c r="L20" s="5">
+        <v>45702</v>
+      </c>
+      <c r="M20" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3195</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>3196</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="19">
+        <v>45698</v>
+      </c>
+      <c r="J21" s="5">
+        <v>45705</v>
+      </c>
+      <c r="K21" s="5">
+        <v>45705</v>
+      </c>
+      <c r="L21" s="5">
+        <v>45705</v>
+      </c>
+      <c r="M21" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>3199</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="19">
+        <v>45691</v>
+      </c>
+      <c r="J22" s="5">
+        <v>45706</v>
+      </c>
+      <c r="K22" s="5">
+        <v>45706</v>
+      </c>
+      <c r="L22" s="5">
+        <v>45706</v>
+      </c>
+      <c r="M22" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>3202</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>3203</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>3204</v>
+      </c>
+      <c r="I23" s="19">
+        <v>45679</v>
+      </c>
+      <c r="J23" s="5">
+        <v>45707</v>
+      </c>
+      <c r="K23" s="5">
+        <v>45707</v>
+      </c>
+      <c r="L23" s="5">
+        <v>45707</v>
+      </c>
+      <c r="M23" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>3207</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="19">
+        <v>45693</v>
+      </c>
+      <c r="J24" s="5">
+        <v>45707</v>
+      </c>
+      <c r="K24" s="5">
+        <v>45707</v>
+      </c>
+      <c r="L24" s="5">
+        <v>45707</v>
+      </c>
+      <c r="M24" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>3208</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>3211</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>3212</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>3213</v>
+      </c>
+      <c r="I25" s="19">
+        <v>45695</v>
+      </c>
+      <c r="J25" s="5">
+        <v>45707</v>
+      </c>
+      <c r="K25" s="5">
+        <v>45707</v>
+      </c>
+      <c r="L25" s="5">
+        <v>45707</v>
+      </c>
+      <c r="M25" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="19">
+        <v>45701</v>
+      </c>
+      <c r="J26" s="5">
+        <v>45707</v>
+      </c>
+      <c r="K26" s="5">
+        <v>45707</v>
+      </c>
+      <c r="L26" s="5">
+        <v>45707</v>
+      </c>
+      <c r="M26" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>3219</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="19">
+        <v>45706</v>
+      </c>
+      <c r="J27" s="5">
+        <v>45707</v>
+      </c>
+      <c r="K27" s="5">
+        <v>45707</v>
+      </c>
+      <c r="L27" s="5">
+        <v>45707</v>
+      </c>
+      <c r="M27" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>3221</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>3223</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>3224</v>
+      </c>
+      <c r="I28" s="19">
+        <v>45698</v>
+      </c>
+      <c r="J28" s="5">
+        <v>45709</v>
+      </c>
+      <c r="K28" s="5">
+        <v>45709</v>
+      </c>
+      <c r="L28" s="5">
+        <v>45709</v>
+      </c>
+      <c r="M28" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>3227</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="19">
+        <v>45708</v>
+      </c>
+      <c r="J29" s="5">
+        <v>45709</v>
+      </c>
+      <c r="K29" s="5">
+        <v>45709</v>
+      </c>
+      <c r="L29" s="5">
+        <v>45709</v>
+      </c>
+      <c r="M29" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>3230</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>3231</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>3232</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>3233</v>
+      </c>
+      <c r="I30" s="19">
+        <v>45700</v>
+      </c>
+      <c r="J30" s="5">
+        <v>45713</v>
+      </c>
+      <c r="K30" s="5">
+        <v>45713</v>
+      </c>
+      <c r="L30" s="5">
+        <v>45713</v>
+      </c>
+      <c r="M30" s="5">
+        <v>48273</v>
+      </c>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>3236</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>3237</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>3238</v>
+      </c>
+      <c r="I31" s="19">
+        <v>45705</v>
+      </c>
+      <c r="J31" s="5">
+        <v>45713</v>
+      </c>
+      <c r="K31" s="5">
+        <v>45713</v>
+      </c>
+      <c r="L31" s="5">
+        <v>45713</v>
+      </c>
+      <c r="M31" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>3241</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="19">
+        <v>45707</v>
+      </c>
+      <c r="J32" s="5">
+        <v>45713</v>
+      </c>
+      <c r="K32" s="5">
+        <v>45713</v>
+      </c>
+      <c r="L32" s="5">
+        <v>45713</v>
+      </c>
+      <c r="M32" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3243</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>3244</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="19">
+        <v>45708</v>
+      </c>
+      <c r="J33" s="5">
+        <v>45713</v>
+      </c>
+      <c r="K33" s="5">
+        <v>45713</v>
+      </c>
+      <c r="L33" s="5">
+        <v>45713</v>
+      </c>
+      <c r="M33" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>3247</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>3248</v>
+      </c>
+      <c r="I34" s="19">
+        <v>45695</v>
+      </c>
+      <c r="J34" s="5">
+        <v>45714</v>
+      </c>
+      <c r="K34" s="5">
+        <v>45714</v>
+      </c>
+      <c r="L34" s="5">
+        <v>45714</v>
+      </c>
+      <c r="M34" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>3249</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="19">
+        <v>45713</v>
+      </c>
+      <c r="J35" s="5">
+        <v>45714</v>
+      </c>
+      <c r="K35" s="5">
+        <v>45714</v>
+      </c>
+      <c r="L35" s="5">
+        <v>45714</v>
+      </c>
+      <c r="M35" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>3254</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="19">
+        <v>45706</v>
+      </c>
+      <c r="J36" s="5">
+        <v>45715</v>
+      </c>
+      <c r="K36" s="5">
+        <v>45715</v>
+      </c>
+      <c r="L36" s="5">
+        <v>45715</v>
+      </c>
+      <c r="M36" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="19">
+        <v>45713</v>
+      </c>
+      <c r="J37" s="5">
+        <v>45715</v>
+      </c>
+      <c r="K37" s="5">
+        <v>45715</v>
+      </c>
+      <c r="L37" s="5">
+        <v>45715</v>
+      </c>
+      <c r="M37" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3256</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="19">
+        <v>45674</v>
+      </c>
+      <c r="J38" s="5">
+        <v>45706</v>
+      </c>
+      <c r="K38" s="5">
+        <v>45706</v>
+      </c>
+      <c r="L38" s="5">
+        <v>45716</v>
+      </c>
+      <c r="M38" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>3258</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>3262</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="I39" s="19">
+        <v>45702</v>
+      </c>
+      <c r="J39" s="5">
+        <v>45716</v>
+      </c>
+      <c r="K39" s="5">
+        <v>45716</v>
+      </c>
+      <c r="L39" s="5">
+        <v>45716</v>
+      </c>
+      <c r="M39" s="5">
+        <v>47907</v>
+      </c>
+      <c r="N39" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
